--- a/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
@@ -17,14 +17,14 @@
     <sheet name="模型二 (2)平均线成交量" sheetId="23" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'模型二 (1)平均线'!$O$1:$O$188</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'模型二 (1)平均线成交量'!$Q$1:$Q$189</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'模型二 (1)平均线计算KDJ'!$Q$1:$Q$189</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'模型二 (1)平均线计算RSI'!$Q$1:$Q$189</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'模型二 (2)平均线'!$O$1:$O$189</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'模型二 (2)平均线成交量'!$Q$1:$Q$189</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'模型二 (2)平均线计算KDJ'!$Q$1:$Q$188</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'模型二 (2)平均线计算RSI'!$Q$1:$Q$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'模型二 (1)平均线'!$O$1:$O$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'模型二 (1)平均线成交量'!$Q$1:$Q$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'模型二 (1)平均线计算KDJ'!$Q$1:$Q$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'模型二 (1)平均线计算RSI'!$Q$1:$Q$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'模型二 (2)平均线'!$O$1:$O$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'模型二 (2)平均线成交量'!$Q$1:$Q$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'模型二 (2)平均线计算KDJ'!$Q$1:$Q$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'模型二 (2)平均线计算RSI'!$Q$1:$Q$84</definedName>
     <definedName name="金额" localSheetId="0">OFFSET('模型二 (1)平均线'!J1,0,0,COUNTA('模型二 (1)平均线'!J:J)-1)</definedName>
     <definedName name="金额" localSheetId="3">OFFSET('模型二 (1)平均线成交量'!L1,0,0,COUNTA('模型二 (1)平均线成交量'!L:L)-1)</definedName>
     <definedName name="金额" localSheetId="2">OFFSET('模型二 (1)平均线计算KDJ'!J1,0,0,COUNTA('模型二 (1)平均线计算KDJ'!J:J)-1)</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="38">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -149,10 +149,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -169,7 +165,19 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能产业LOF</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>均线</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -186,6 +194,18 @@
   </si>
   <si>
     <t>J</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能产业LOF</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>均线</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2330,11 +2350,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="486128256"/>
-        <c:axId val="489849216"/>
+        <c:axId val="469063168"/>
+        <c:axId val="469064704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="486128256"/>
+        <c:axId val="469063168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2377,14 +2397,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489849216"/>
+        <c:crossAx val="469064704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489849216"/>
+        <c:axId val="469064704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2433,7 +2453,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486128256"/>
+        <c:crossAx val="469063168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4093,11 +4113,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="501634944"/>
-        <c:axId val="501669888"/>
+        <c:axId val="469084800"/>
+        <c:axId val="469086592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="501634944"/>
+        <c:axId val="469084800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4140,14 +4160,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501669888"/>
+        <c:crossAx val="469086592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="501669888"/>
+        <c:axId val="469086592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4196,7 +4216,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501634944"/>
+        <c:crossAx val="469084800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5856,11 +5876,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="502163328"/>
-        <c:axId val="502182272"/>
+        <c:axId val="469159936"/>
+        <c:axId val="469161472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="502163328"/>
+        <c:axId val="469159936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5903,14 +5923,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502182272"/>
+        <c:crossAx val="469161472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="502182272"/>
+        <c:axId val="469161472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5959,7 +5979,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502163328"/>
+        <c:crossAx val="469159936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7619,11 +7639,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="502293632"/>
-        <c:axId val="502295168"/>
+        <c:axId val="470819968"/>
+        <c:axId val="470821504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="502293632"/>
+        <c:axId val="470819968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7666,14 +7686,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502295168"/>
+        <c:crossAx val="470821504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="502295168"/>
+        <c:axId val="470821504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7722,7 +7742,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502293632"/>
+        <c:crossAx val="470819968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9382,11 +9402,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="544104448"/>
-        <c:axId val="544106752"/>
+        <c:axId val="472324352"/>
+        <c:axId val="473272320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="544104448"/>
+        <c:axId val="472324352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9429,14 +9449,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544106752"/>
+        <c:crossAx val="473272320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="544106752"/>
+        <c:axId val="473272320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9485,7 +9505,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544104448"/>
+        <c:crossAx val="472324352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11145,11 +11165,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="544207232"/>
-        <c:axId val="544209152"/>
+        <c:axId val="473443712"/>
+        <c:axId val="473453696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="544207232"/>
+        <c:axId val="473443712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11192,14 +11212,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544209152"/>
+        <c:crossAx val="473453696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="544209152"/>
+        <c:axId val="473453696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11248,7 +11268,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544207232"/>
+        <c:crossAx val="473443712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12397,7 +12417,7 @@
                   <c:v>997.01821690428267</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>996.05056362079904</c:v>
+                  <c:v>996.05056362079893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12886,7 +12906,7 @@
                   <c:v>390.33094813854075</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>389.36329485505712</c:v>
+                  <c:v>389.36329485505701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12908,11 +12928,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="585183232"/>
-        <c:axId val="585185152"/>
+        <c:axId val="480191232"/>
+        <c:axId val="480192768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="585183232"/>
+        <c:axId val="480191232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12955,14 +12975,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585185152"/>
+        <c:crossAx val="480192768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="585185152"/>
+        <c:axId val="480192768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13011,7 +13031,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585183232"/>
+        <c:crossAx val="480191232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14671,11 +14691,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="293022720"/>
-        <c:axId val="293065472"/>
+        <c:axId val="480245632"/>
+        <c:axId val="480247168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="293022720"/>
+        <c:axId val="480245632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14718,14 +14738,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293065472"/>
+        <c:crossAx val="480247168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="293065472"/>
+        <c:axId val="480247168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14774,7 +14794,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293022720"/>
+        <c:crossAx val="480245632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15494,7 +15514,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF181"/>
+  <dimension ref="A1:AF76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16275,7 +16295,7 @@
         <v>43830</v>
       </c>
       <c r="Y12" s="8">
-        <f t="shared" ref="Y12:Y14" si="7">VLOOKUP(X12,O:P,2,)</f>
+        <f>VLOOKUP(X12,O:P,2,)</f>
         <v>520.16324835056685</v>
       </c>
       <c r="Z12" s="1">
@@ -16333,7 +16353,7 @@
         <v>44196</v>
       </c>
       <c r="Y13" s="8">
-        <f t="shared" si="7"/>
+        <f>VLOOKUP(X13,O:P,2,)</f>
         <v>0</v>
       </c>
       <c r="Z13" s="1">
@@ -16391,7 +16411,7 @@
         <v>44561</v>
       </c>
       <c r="Y14" s="8">
-        <f t="shared" si="7"/>
+        <f>VLOOKUP(X14,O:P,2,)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="1">
@@ -18646,295 +18666,6 @@
       <c r="K76" s="22">
         <v>5571.5782036552628</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="78" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="79" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="80" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="81" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="82" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="83" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="84" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="85" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="86" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="87" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="88" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="89" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="90" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="91" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="92" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="93" spans="12:15" ht="14.1" customHeight="1">
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L94" s="8"/>
-    </row>
-    <row r="95" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L95" s="8"/>
-    </row>
-    <row r="96" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L96" s="8"/>
-    </row>
-    <row r="97" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L97" s="8"/>
-    </row>
-    <row r="98" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L98" s="8"/>
-    </row>
-    <row r="99" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L99" s="8"/>
-    </row>
-    <row r="100" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L100" s="8"/>
-    </row>
-    <row r="101" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L101" s="8"/>
-    </row>
-    <row r="102" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L102" s="8"/>
-    </row>
-    <row r="103" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L103" s="8"/>
-    </row>
-    <row r="104" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L104" s="8"/>
-    </row>
-    <row r="105" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L105" s="8"/>
-      <c r="O105" s="3"/>
-    </row>
-    <row r="106" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L106" s="8"/>
-    </row>
-    <row r="107" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L107" s="8"/>
-    </row>
-    <row r="108" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L108" s="8"/>
-    </row>
-    <row r="109" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L109" s="8"/>
-    </row>
-    <row r="110" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L110" s="8"/>
-    </row>
-    <row r="111" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L111" s="8"/>
-    </row>
-    <row r="112" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L112" s="8"/>
-    </row>
-    <row r="113" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L113" s="8"/>
-    </row>
-    <row r="114" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L114" s="8"/>
-    </row>
-    <row r="115" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L115" s="8"/>
-    </row>
-    <row r="116" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L116" s="8"/>
-    </row>
-    <row r="117" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L117" s="8"/>
-      <c r="O117" s="3"/>
-    </row>
-    <row r="118" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L118" s="8"/>
-    </row>
-    <row r="119" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L119" s="8"/>
-    </row>
-    <row r="120" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L120" s="8"/>
-    </row>
-    <row r="121" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L121" s="8"/>
-    </row>
-    <row r="122" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L122" s="8"/>
-    </row>
-    <row r="123" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L123" s="8"/>
-    </row>
-    <row r="124" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L124" s="8"/>
-    </row>
-    <row r="125" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L125" s="8"/>
-    </row>
-    <row r="126" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L126" s="8"/>
-    </row>
-    <row r="127" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L127" s="8"/>
-    </row>
-    <row r="128" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L128" s="8"/>
-    </row>
-    <row r="129" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L129" s="8"/>
-      <c r="O129" s="3"/>
-    </row>
-    <row r="130" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L130" s="8"/>
-    </row>
-    <row r="131" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L131" s="8"/>
-    </row>
-    <row r="132" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L132" s="8"/>
-    </row>
-    <row r="133" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L133" s="8"/>
-    </row>
-    <row r="134" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L134" s="8"/>
-    </row>
-    <row r="135" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L135" s="8"/>
-    </row>
-    <row r="136" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L136" s="8"/>
-    </row>
-    <row r="137" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L137" s="8"/>
-    </row>
-    <row r="138" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L138" s="8"/>
-    </row>
-    <row r="139" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L139" s="8"/>
-    </row>
-    <row r="140" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L140" s="8"/>
-    </row>
-    <row r="141" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L141" s="8"/>
-      <c r="O141" s="3"/>
-    </row>
-    <row r="142" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L142" s="8"/>
-    </row>
-    <row r="143" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L143" s="8"/>
-    </row>
-    <row r="144" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L144" s="8"/>
-    </row>
-    <row r="145" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L145" s="8"/>
-    </row>
-    <row r="146" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L146" s="8"/>
-    </row>
-    <row r="147" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L147" s="8"/>
-    </row>
-    <row r="148" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L148" s="8"/>
-    </row>
-    <row r="149" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L149" s="8"/>
-    </row>
-    <row r="150" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L150" s="8"/>
-    </row>
-    <row r="151" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L151" s="8"/>
-    </row>
-    <row r="152" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L152" s="8"/>
-    </row>
-    <row r="153" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L153" s="8"/>
-      <c r="O153" s="3"/>
-    </row>
-    <row r="154" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L154" s="8"/>
-    </row>
-    <row r="155" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L155" s="8"/>
-    </row>
-    <row r="156" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L156" s="8"/>
-    </row>
-    <row r="157" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L157" s="8"/>
-    </row>
-    <row r="158" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L158" s="8"/>
-    </row>
-    <row r="159" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L159" s="8"/>
-    </row>
-    <row r="160" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L160" s="8"/>
-    </row>
-    <row r="161" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L161" s="8"/>
-    </row>
-    <row r="162" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L162" s="8"/>
-    </row>
-    <row r="163" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L163" s="8"/>
-    </row>
-    <row r="164" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L164" s="8"/>
-    </row>
-    <row r="165" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L165" s="8"/>
-      <c r="O165" s="3"/>
-    </row>
-    <row r="166" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L166" s="8"/>
-    </row>
-    <row r="167" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L167" s="8"/>
-    </row>
-    <row r="168" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L168" s="8"/>
-    </row>
-    <row r="169" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L169" s="4"/>
-    </row>
-    <row r="170" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L170" s="4"/>
-    </row>
-    <row r="171" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L171" s="4"/>
-    </row>
-    <row r="172" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L172" s="4"/>
-    </row>
-    <row r="173" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L173" s="4"/>
-    </row>
-    <row r="174" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L174" s="4"/>
-    </row>
-    <row r="175" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L175" s="4"/>
-    </row>
-    <row r="176" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L176" s="4"/>
-    </row>
-    <row r="177" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L177" s="4"/>
-    </row>
-    <row r="178" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L178" s="4"/>
-    </row>
-    <row r="179" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L179" s="4"/>
-    </row>
-    <row r="180" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L180" s="4"/>
-    </row>
-    <row r="181" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L181" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -18952,7 +18683,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH181"/>
+  <dimension ref="A1:AH76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19027,16 +18758,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="19" customFormat="1" ht="15" customHeight="1">
@@ -19061,7 +18792,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6">
@@ -19721,11 +19452,11 @@
         <v>43098</v>
       </c>
       <c r="AD10" s="1">
-        <f>VLOOKUP(AC10,Q:R,2,)</f>
+        <f t="shared" ref="AD10:AD15" si="3">VLOOKUP(AC10,Q:R,2,)</f>
         <v>91.417228571428666</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" ref="AE10:AE15" si="3">-AD10</f>
+        <f t="shared" ref="AE10:AE15" si="4">-AD10</f>
         <v>-91.417228571428666</v>
       </c>
     </row>
@@ -19791,11 +19522,11 @@
         <v>43462</v>
       </c>
       <c r="AD11" s="1">
-        <f t="shared" ref="AD11:AD15" si="4">VLOOKUP(AC11,Q:R,2,)</f>
+        <f t="shared" si="3"/>
         <v>3224.1951268482335</v>
       </c>
       <c r="AE11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3224.1951268482335</v>
       </c>
     </row>
@@ -19850,7 +19581,7 @@
         <v>43830</v>
       </c>
       <c r="AA12" s="8">
-        <f t="shared" ref="AA12:AA14" si="5">VLOOKUP(Z12,Q:R,2,)</f>
+        <f>VLOOKUP(Z12,Q:R,2,)</f>
         <v>773.01292064913287</v>
       </c>
       <c r="AB12" s="1">
@@ -19861,11 +19592,11 @@
         <v>43830</v>
       </c>
       <c r="AD12" s="1">
+        <f t="shared" si="3"/>
+        <v>773.01292064913287</v>
+      </c>
+      <c r="AE12" s="1">
         <f t="shared" si="4"/>
-        <v>773.01292064913287</v>
-      </c>
-      <c r="AE12" s="1">
-        <f t="shared" si="3"/>
         <v>-773.01292064913287</v>
       </c>
     </row>
@@ -19920,7 +19651,7 @@
         <v>44196</v>
       </c>
       <c r="AA13" s="8">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(Z13,Q:R,2,)</f>
         <v>0</v>
       </c>
       <c r="AB13" s="1">
@@ -19931,11 +19662,11 @@
         <v>44196</v>
       </c>
       <c r="AD13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="1">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -19990,7 +19721,7 @@
         <v>44561</v>
       </c>
       <c r="AA14" s="8">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(Z14,Q:R,2,)</f>
         <v>0</v>
       </c>
       <c r="AB14" s="1">
@@ -20001,11 +19732,11 @@
         <v>44561</v>
       </c>
       <c r="AD14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="1">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -20066,11 +19797,11 @@
         <v>44925</v>
       </c>
       <c r="AD15" s="1">
+        <f t="shared" si="3"/>
+        <v>1046.1147789499273</v>
+      </c>
+      <c r="AE15" s="1">
         <f t="shared" si="4"/>
-        <v>1046.1147789499273</v>
-      </c>
-      <c r="AE15" s="1">
-        <f t="shared" si="3"/>
         <v>-1046.1147789499273</v>
       </c>
     </row>
@@ -22989,189 +22720,6 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="14.1" customHeight="1">
-      <c r="L77" s="8"/>
-    </row>
-    <row r="78" spans="1:15" ht="14.1" customHeight="1">
-      <c r="L78" s="8"/>
-    </row>
-    <row r="79" spans="1:15" ht="14.1" customHeight="1">
-      <c r="L79" s="8"/>
-    </row>
-    <row r="80" spans="1:15" ht="14.1" customHeight="1">
-      <c r="L80" s="8"/>
-    </row>
-    <row r="81" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L81" s="8"/>
-    </row>
-    <row r="82" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L82" s="8"/>
-    </row>
-    <row r="83" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L83" s="8"/>
-    </row>
-    <row r="84" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L84" s="8"/>
-    </row>
-    <row r="85" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L85" s="8"/>
-    </row>
-    <row r="86" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L86" s="8"/>
-    </row>
-    <row r="87" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L87" s="8"/>
-    </row>
-    <row r="88" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L88" s="8"/>
-    </row>
-    <row r="89" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L89" s="8"/>
-    </row>
-    <row r="90" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L90" s="8"/>
-    </row>
-    <row r="91" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L91" s="8"/>
-    </row>
-    <row r="92" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L92" s="8"/>
-    </row>
-    <row r="93" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L93" s="8"/>
-    </row>
-    <row r="94" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L94" s="8"/>
-      <c r="Q94" s="3"/>
-    </row>
-    <row r="95" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L95" s="8"/>
-    </row>
-    <row r="96" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L96" s="8"/>
-    </row>
-    <row r="97" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L97" s="4"/>
-    </row>
-    <row r="98" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L98" s="4"/>
-    </row>
-    <row r="99" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L99" s="4"/>
-    </row>
-    <row r="100" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L100" s="4"/>
-    </row>
-    <row r="101" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L101" s="4"/>
-    </row>
-    <row r="102" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L102" s="4"/>
-    </row>
-    <row r="103" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L103" s="4"/>
-    </row>
-    <row r="104" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L104" s="4"/>
-    </row>
-    <row r="105" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L105" s="4"/>
-    </row>
-    <row r="106" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L106" s="4"/>
-      <c r="Q106" s="3"/>
-    </row>
-    <row r="107" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L107" s="4"/>
-    </row>
-    <row r="108" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L108" s="4"/>
-    </row>
-    <row r="109" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L109" s="4"/>
-    </row>
-    <row r="110" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="111" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="112" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="113" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="114" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="115" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="116" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="117" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="118" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q118" s="3"/>
-    </row>
-    <row r="119" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="120" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="121" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="122" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="123" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="124" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="125" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="126" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="127" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="128" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="129" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="130" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q130" s="3"/>
-    </row>
-    <row r="131" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="132" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="133" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="134" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="135" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="136" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="137" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="138" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="139" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="140" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="141" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="142" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q142" s="3"/>
-    </row>
-    <row r="143" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="144" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="145" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="146" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="147" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="148" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="149" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="150" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="151" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="152" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="153" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="154" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q154" s="3"/>
-    </row>
-    <row r="155" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="156" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="157" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="158" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="159" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="160" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="161" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="162" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="163" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="164" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="165" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="166" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q166" s="3"/>
-    </row>
-    <row r="167" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="168" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="169" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="170" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="171" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="172" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="173" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="174" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="175" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="176" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="177" ht="14.1" customHeight="1"/>
-    <row r="178" ht="14.1" customHeight="1"/>
-    <row r="179" ht="14.1" customHeight="1"/>
-    <row r="180" ht="14.1" customHeight="1"/>
-    <row r="181" ht="14.1" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -23188,7 +22736,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH181"/>
+  <dimension ref="A1:AH76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23230,13 +22778,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="31" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D1" s="31" t="s">
         <v>3</v>
@@ -23263,19 +22811,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="19" customFormat="1" ht="15" customHeight="1">
@@ -23300,7 +22848,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6">
@@ -23976,11 +23524,11 @@
         <v>43098</v>
       </c>
       <c r="AD10" s="1">
-        <f>VLOOKUP(AC10,Q:R,2,)</f>
+        <f t="shared" ref="AD10:AD15" si="3">VLOOKUP(AC10,Q:R,2,)</f>
         <v>58.460353571428868</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" ref="AE10:AE15" si="3">-AD10</f>
+        <f t="shared" ref="AE10:AE15" si="4">-AD10</f>
         <v>-58.460353571428868</v>
       </c>
     </row>
@@ -24048,11 +23596,11 @@
         <v>43462</v>
       </c>
       <c r="AD11" s="1">
-        <f t="shared" ref="AD11:AD15" si="4">VLOOKUP(AC11,Q:R,2,)</f>
+        <f t="shared" si="3"/>
         <v>2152.7599890739757</v>
       </c>
       <c r="AE11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2152.7599890739757</v>
       </c>
     </row>
@@ -24109,7 +23657,7 @@
         <v>43830</v>
       </c>
       <c r="AA12" s="8">
-        <f t="shared" ref="AA12:AA14" si="5">VLOOKUP(Z12,Q:R,2,)</f>
+        <f>VLOOKUP(Z12,Q:R,2,)</f>
         <v>494.15508593303866</v>
       </c>
       <c r="AB12" s="1">
@@ -24120,11 +23668,11 @@
         <v>43830</v>
       </c>
       <c r="AD12" s="1">
+        <f t="shared" si="3"/>
+        <v>494.15508593303866</v>
+      </c>
+      <c r="AE12" s="1">
         <f t="shared" si="4"/>
-        <v>494.15508593303866</v>
-      </c>
-      <c r="AE12" s="1">
-        <f t="shared" si="3"/>
         <v>-494.15508593303866</v>
       </c>
     </row>
@@ -24181,7 +23729,7 @@
         <v>44196</v>
       </c>
       <c r="AA13" s="8">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(Z13,Q:R,2,)</f>
         <v>0</v>
       </c>
       <c r="AB13" s="1">
@@ -24192,11 +23740,11 @@
         <v>44196</v>
       </c>
       <c r="AD13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="1">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -24253,7 +23801,7 @@
         <v>44561</v>
       </c>
       <c r="AA14" s="8">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(Z14,Q:R,2,)</f>
         <v>0</v>
       </c>
       <c r="AB14" s="1">
@@ -24264,11 +23812,11 @@
         <v>44561</v>
       </c>
       <c r="AD14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="1">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -24331,11 +23879,11 @@
         <v>44925</v>
       </c>
       <c r="AD15" s="1">
+        <f t="shared" si="3"/>
+        <v>988.03913880127584</v>
+      </c>
+      <c r="AE15" s="1">
         <f t="shared" si="4"/>
-        <v>988.03913880127584</v>
-      </c>
-      <c r="AE15" s="1">
-        <f t="shared" si="3"/>
         <v>-988.03913880127584</v>
       </c>
     </row>
@@ -27405,189 +26953,6 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="14.1" customHeight="1">
-      <c r="L77" s="8"/>
-    </row>
-    <row r="78" spans="1:16" ht="14.1" customHeight="1">
-      <c r="L78" s="8"/>
-    </row>
-    <row r="79" spans="1:16" ht="14.1" customHeight="1">
-      <c r="L79" s="8"/>
-    </row>
-    <row r="80" spans="1:16" ht="14.1" customHeight="1">
-      <c r="L80" s="8"/>
-    </row>
-    <row r="81" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L81" s="8"/>
-    </row>
-    <row r="82" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L82" s="8"/>
-    </row>
-    <row r="83" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L83" s="8"/>
-    </row>
-    <row r="84" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L84" s="8"/>
-    </row>
-    <row r="85" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L85" s="8"/>
-    </row>
-    <row r="86" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L86" s="8"/>
-    </row>
-    <row r="87" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L87" s="8"/>
-    </row>
-    <row r="88" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L88" s="8"/>
-    </row>
-    <row r="89" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L89" s="8"/>
-    </row>
-    <row r="90" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L90" s="8"/>
-    </row>
-    <row r="91" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L91" s="8"/>
-    </row>
-    <row r="92" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L92" s="8"/>
-    </row>
-    <row r="93" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L93" s="8"/>
-    </row>
-    <row r="94" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L94" s="8"/>
-      <c r="Q94" s="3"/>
-    </row>
-    <row r="95" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L95" s="8"/>
-    </row>
-    <row r="96" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L96" s="8"/>
-    </row>
-    <row r="97" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L97" s="4"/>
-    </row>
-    <row r="98" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L98" s="4"/>
-    </row>
-    <row r="99" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L99" s="4"/>
-    </row>
-    <row r="100" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L100" s="4"/>
-    </row>
-    <row r="101" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L101" s="4"/>
-    </row>
-    <row r="102" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L102" s="4"/>
-    </row>
-    <row r="103" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L103" s="4"/>
-    </row>
-    <row r="104" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L104" s="4"/>
-    </row>
-    <row r="105" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L105" s="4"/>
-    </row>
-    <row r="106" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L106" s="4"/>
-      <c r="Q106" s="3"/>
-    </row>
-    <row r="107" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L107" s="4"/>
-    </row>
-    <row r="108" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L108" s="4"/>
-    </row>
-    <row r="109" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L109" s="4"/>
-    </row>
-    <row r="110" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="111" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="112" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="113" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="114" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="115" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="116" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="117" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="118" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q118" s="3"/>
-    </row>
-    <row r="119" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="120" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="121" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="122" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="123" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="124" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="125" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="126" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="127" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="128" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="129" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="130" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q130" s="3"/>
-    </row>
-    <row r="131" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="132" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="133" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="134" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="135" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="136" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="137" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="138" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="139" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="140" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="141" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="142" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q142" s="3"/>
-    </row>
-    <row r="143" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="144" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="145" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="146" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="147" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="148" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="149" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="150" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="151" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="152" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="153" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="154" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q154" s="3"/>
-    </row>
-    <row r="155" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="156" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="157" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="158" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="159" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="160" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="161" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="162" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="163" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="164" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="165" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="166" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q166" s="3"/>
-    </row>
-    <row r="167" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="168" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="169" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="170" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="171" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="172" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="173" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="174" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="175" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="176" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="177" ht="14.1" customHeight="1"/>
-    <row r="178" ht="14.1" customHeight="1"/>
-    <row r="179" ht="14.1" customHeight="1"/>
-    <row r="180" ht="14.1" customHeight="1"/>
-    <row r="181" ht="14.1" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -27606,7 +26971,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH181"/>
+  <dimension ref="A1:AH76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27656,16 +27021,16 @@
         <v>20</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>3</v>
@@ -27719,7 +27084,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6">
@@ -28339,11 +27704,11 @@
         <v>43098</v>
       </c>
       <c r="AD10" s="1">
-        <f>VLOOKUP(AC10,Q:R,2,)</f>
+        <f t="shared" ref="AD10:AD15" si="3">VLOOKUP(AC10,Q:R,2,)</f>
         <v>29.534447075205776</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" ref="AE10:AE15" si="3">-AD10</f>
+        <f t="shared" ref="AE10:AE15" si="4">-AD10</f>
         <v>-29.534447075205776</v>
       </c>
     </row>
@@ -28403,11 +27768,11 @@
         <v>43462</v>
       </c>
       <c r="AD11" s="1">
-        <f t="shared" ref="AD11:AD15" si="4">VLOOKUP(AC11,Q:R,2,)</f>
+        <f t="shared" si="3"/>
         <v>1528.0104860270981</v>
       </c>
       <c r="AE11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1528.0104860270981</v>
       </c>
     </row>
@@ -28456,7 +27821,7 @@
         <v>43830</v>
       </c>
       <c r="AA12" s="8">
-        <f t="shared" ref="AA12:AA14" si="5">VLOOKUP(Z12,Q:R,2,)</f>
+        <f>VLOOKUP(Z12,Q:R,2,)</f>
         <v>331.22983442957388</v>
       </c>
       <c r="AB12" s="1">
@@ -28467,11 +27832,11 @@
         <v>43830</v>
       </c>
       <c r="AD12" s="1">
+        <f t="shared" si="3"/>
+        <v>331.22983442957388</v>
+      </c>
+      <c r="AE12" s="1">
         <f t="shared" si="4"/>
-        <v>331.22983442957388</v>
-      </c>
-      <c r="AE12" s="1">
-        <f t="shared" si="3"/>
         <v>-331.22983442957388</v>
       </c>
     </row>
@@ -28520,7 +27885,7 @@
         <v>44196</v>
       </c>
       <c r="AA13" s="8">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(Z13,Q:R,2,)</f>
         <v>0</v>
       </c>
       <c r="AB13" s="1">
@@ -28531,11 +27896,11 @@
         <v>44196</v>
       </c>
       <c r="AD13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="1">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -28584,7 +27949,7 @@
         <v>44561</v>
       </c>
       <c r="AA14" s="8">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(Z14,Q:R,2,)</f>
         <v>0</v>
       </c>
       <c r="AB14" s="1">
@@ -28595,11 +27960,11 @@
         <v>44561</v>
       </c>
       <c r="AD14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="1">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -28654,11 +28019,11 @@
         <v>44925</v>
       </c>
       <c r="AD15" s="1">
+        <f t="shared" si="3"/>
+        <v>91.832048679506215</v>
+      </c>
+      <c r="AE15" s="1">
         <f t="shared" si="4"/>
-        <v>91.832048679506215</v>
-      </c>
-      <c r="AE15" s="1">
-        <f t="shared" si="3"/>
         <v>-91.832048679506215</v>
       </c>
     </row>
@@ -31211,294 +30576,6 @@
       <c r="M76" s="22">
         <v>2799.4811971394251</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" ht="14.1" customHeight="1"/>
-    <row r="78" spans="1:13" ht="14.1" customHeight="1"/>
-    <row r="79" spans="1:13" ht="14.1" customHeight="1"/>
-    <row r="80" spans="1:13" ht="14.1" customHeight="1"/>
-    <row r="81" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="82" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="83" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="84" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="85" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="86" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="87" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="88" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="89" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="90" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="91" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="92" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="93" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="94" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N94" s="8"/>
-      <c r="Q94" s="3"/>
-    </row>
-    <row r="95" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N95" s="8"/>
-    </row>
-    <row r="96" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N96" s="8"/>
-    </row>
-    <row r="97" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N97" s="8"/>
-    </row>
-    <row r="98" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N98" s="8"/>
-    </row>
-    <row r="99" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N99" s="8"/>
-    </row>
-    <row r="100" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N100" s="8"/>
-    </row>
-    <row r="101" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N101" s="8"/>
-    </row>
-    <row r="102" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N102" s="8"/>
-    </row>
-    <row r="103" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N103" s="8"/>
-    </row>
-    <row r="104" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N104" s="8"/>
-    </row>
-    <row r="105" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N105" s="8"/>
-    </row>
-    <row r="106" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N106" s="8"/>
-      <c r="Q106" s="3"/>
-    </row>
-    <row r="107" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N107" s="8"/>
-    </row>
-    <row r="108" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N108" s="8"/>
-    </row>
-    <row r="109" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N109" s="8"/>
-    </row>
-    <row r="110" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N110" s="8"/>
-    </row>
-    <row r="111" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N111" s="8"/>
-    </row>
-    <row r="112" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N112" s="8"/>
-    </row>
-    <row r="113" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N113" s="8"/>
-    </row>
-    <row r="114" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N114" s="8"/>
-    </row>
-    <row r="115" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N115" s="8"/>
-    </row>
-    <row r="116" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N116" s="8"/>
-    </row>
-    <row r="117" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N117" s="8"/>
-    </row>
-    <row r="118" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N118" s="8"/>
-      <c r="Q118" s="3"/>
-    </row>
-    <row r="119" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N119" s="8"/>
-    </row>
-    <row r="120" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N120" s="8"/>
-    </row>
-    <row r="121" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N121" s="8"/>
-    </row>
-    <row r="122" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N122" s="8"/>
-    </row>
-    <row r="123" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N123" s="8"/>
-    </row>
-    <row r="124" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N124" s="8"/>
-    </row>
-    <row r="125" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N125" s="8"/>
-    </row>
-    <row r="126" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N126" s="8"/>
-    </row>
-    <row r="127" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N127" s="8"/>
-    </row>
-    <row r="128" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N128" s="8"/>
-    </row>
-    <row r="129" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N129" s="8"/>
-    </row>
-    <row r="130" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N130" s="8"/>
-      <c r="Q130" s="3"/>
-    </row>
-    <row r="131" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N131" s="8"/>
-    </row>
-    <row r="132" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N132" s="8"/>
-    </row>
-    <row r="133" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N133" s="8"/>
-    </row>
-    <row r="134" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N134" s="8"/>
-    </row>
-    <row r="135" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N135" s="8"/>
-    </row>
-    <row r="136" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N136" s="8"/>
-    </row>
-    <row r="137" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N137" s="8"/>
-    </row>
-    <row r="138" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N138" s="8"/>
-    </row>
-    <row r="139" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N139" s="8"/>
-    </row>
-    <row r="140" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N140" s="8"/>
-    </row>
-    <row r="141" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N141" s="8"/>
-    </row>
-    <row r="142" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N142" s="8"/>
-      <c r="Q142" s="3"/>
-    </row>
-    <row r="143" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N143" s="8"/>
-    </row>
-    <row r="144" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N144" s="8"/>
-    </row>
-    <row r="145" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N145" s="8"/>
-    </row>
-    <row r="146" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N146" s="8"/>
-    </row>
-    <row r="147" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N147" s="8"/>
-    </row>
-    <row r="148" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N148" s="8"/>
-    </row>
-    <row r="149" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N149" s="8"/>
-    </row>
-    <row r="150" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N150" s="8"/>
-    </row>
-    <row r="151" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N151" s="8"/>
-    </row>
-    <row r="152" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N152" s="8"/>
-    </row>
-    <row r="153" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N153" s="8"/>
-    </row>
-    <row r="154" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N154" s="8"/>
-      <c r="Q154" s="3"/>
-    </row>
-    <row r="155" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N155" s="8"/>
-    </row>
-    <row r="156" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N156" s="8"/>
-    </row>
-    <row r="157" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N157" s="8"/>
-    </row>
-    <row r="158" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N158" s="8"/>
-    </row>
-    <row r="159" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N159" s="8"/>
-    </row>
-    <row r="160" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N160" s="8"/>
-    </row>
-    <row r="161" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N161" s="8"/>
-    </row>
-    <row r="162" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N162" s="8"/>
-    </row>
-    <row r="163" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N163" s="8"/>
-    </row>
-    <row r="164" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N164" s="8"/>
-    </row>
-    <row r="165" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N165" s="8"/>
-    </row>
-    <row r="166" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N166" s="8"/>
-      <c r="Q166" s="3"/>
-    </row>
-    <row r="167" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N167" s="8"/>
-    </row>
-    <row r="168" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N168" s="8"/>
-    </row>
-    <row r="169" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N169" s="4"/>
-    </row>
-    <row r="170" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N170" s="4"/>
-    </row>
-    <row r="171" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N171" s="4"/>
-    </row>
-    <row r="172" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N172" s="4"/>
-    </row>
-    <row r="173" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N173" s="4"/>
-    </row>
-    <row r="174" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N174" s="4"/>
-    </row>
-    <row r="175" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N175" s="4"/>
-    </row>
-    <row r="176" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N176" s="4"/>
-    </row>
-    <row r="177" spans="14:14" ht="14.1" customHeight="1">
-      <c r="N177" s="4"/>
-    </row>
-    <row r="178" spans="14:14" ht="14.1" customHeight="1">
-      <c r="N178" s="4"/>
-    </row>
-    <row r="179" spans="14:14" ht="14.1" customHeight="1">
-      <c r="N179" s="4"/>
-    </row>
-    <row r="180" spans="14:14" ht="14.1" customHeight="1">
-      <c r="N180" s="4"/>
-    </row>
-    <row r="181" spans="14:14" ht="14.1" customHeight="1">
-      <c r="N181" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -31518,7 +30595,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF181"/>
+  <dimension ref="A1:AF77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31616,12 +30693,12 @@
         <v>1550</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6">
         <f>MIN(F:F)</f>
-        <v>-32.454578670733859</v>
+        <v>0</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="5"/>
@@ -32299,7 +31376,7 @@
         <v>43830</v>
       </c>
       <c r="Y12" s="8">
-        <f t="shared" ref="Y12:Y14" si="5">VLOOKUP(X12,O:P,2,)</f>
+        <f>VLOOKUP(X12,O:P,2,)</f>
         <v>84.696913592045235</v>
       </c>
       <c r="Z12" s="1">
@@ -32357,7 +31434,7 @@
         <v>44196</v>
       </c>
       <c r="Y13" s="8">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(X13,O:P,2,)</f>
         <v>0</v>
       </c>
       <c r="Z13" s="1">
@@ -32415,7 +31492,7 @@
         <v>44561</v>
       </c>
       <c r="Y14" s="8">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(X14,O:P,2,)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="1">
@@ -34251,7 +33328,7 @@
         <v>880.65274109484881</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="14.1" customHeight="1">
+    <row r="65" spans="1:12" ht="14.1" customHeight="1">
       <c r="A65" s="16">
         <v>44712</v>
       </c>
@@ -34286,7 +33363,7 @@
         <v>880.65274109484881</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="14.1" customHeight="1">
+    <row r="66" spans="1:12" ht="14.1" customHeight="1">
       <c r="A66" s="16">
         <v>44742</v>
       </c>
@@ -34321,7 +33398,7 @@
         <v>885.53937444196254</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="14.1" customHeight="1">
+    <row r="67" spans="1:12" ht="14.1" customHeight="1">
       <c r="A67" s="16">
         <v>44771</v>
       </c>
@@ -34356,7 +33433,7 @@
         <v>885.55336083537998</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="14.1" customHeight="1">
+    <row r="68" spans="1:12" ht="14.1" customHeight="1">
       <c r="A68" s="16">
         <v>44804</v>
       </c>
@@ -34391,7 +33468,7 @@
         <v>885.55336083537998</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="14.1" customHeight="1">
+    <row r="69" spans="1:12" ht="14.1" customHeight="1">
       <c r="A69" s="16">
         <v>44834</v>
       </c>
@@ -34426,7 +33503,7 @@
         <v>885.55336083537998</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="14.1" customHeight="1">
+    <row r="70" spans="1:12" ht="14.1" customHeight="1">
       <c r="A70" s="16">
         <v>44865</v>
       </c>
@@ -34461,7 +33538,7 @@
         <v>885.55336083537998</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="14.1" customHeight="1">
+    <row r="71" spans="1:12" ht="14.1" customHeight="1">
       <c r="A71" s="16">
         <v>44895</v>
       </c>
@@ -34496,7 +33573,7 @@
         <v>885.55336083537998</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="14.1" customHeight="1">
+    <row r="72" spans="1:12" ht="14.1" customHeight="1">
       <c r="A72" s="16">
         <v>44925</v>
       </c>
@@ -34531,7 +33608,7 @@
         <v>885.55336083537998</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="14.1" customHeight="1">
+    <row r="73" spans="1:12" ht="14.1" customHeight="1">
       <c r="A73" s="16">
         <v>44957</v>
       </c>
@@ -34566,7 +33643,7 @@
         <v>886.57122878558403</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="14.1" customHeight="1">
+    <row r="74" spans="1:12" ht="14.1" customHeight="1">
       <c r="A74" s="16">
         <v>44985</v>
       </c>
@@ -34601,7 +33678,7 @@
         <v>897.90658932388078</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="14.1" customHeight="1">
+    <row r="75" spans="1:12" ht="14.1" customHeight="1">
       <c r="A75" s="16">
         <v>45016</v>
       </c>
@@ -34636,7 +33713,7 @@
         <v>1014.9823800683541</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="14.1" customHeight="1">
+    <row r="76" spans="1:12" ht="14.1" customHeight="1">
       <c r="A76" s="16">
         <v>45044</v>
       </c>
@@ -34647,16 +33724,16 @@
         <v>1.2002050404532403</v>
       </c>
       <c r="D76" s="22">
-        <v>-72.179575818738272</v>
+        <v>-26.223892142419245</v>
       </c>
       <c r="E76" s="23">
-        <v>-50.974276399168467</v>
+        <v>-18.519697728434608</v>
       </c>
       <c r="F76" s="23">
-        <v>-32.454578670733859</v>
+        <v>0</v>
       </c>
       <c r="G76" s="23">
-        <v>-45.955683676319026</v>
+        <v>0</v>
       </c>
       <c r="H76" s="23">
         <v>638.61817764814953</v>
@@ -34668,296 +33745,11 @@
         <v>402.58809456262395</v>
       </c>
       <c r="K76" s="22">
-        <v>1087.1619558870925</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="78" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="79" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="80" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="81" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="82" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="83" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="84" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="85" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="86" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="87" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="88" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="89" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="90" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="91" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="92" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="93" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="94" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L94" s="8"/>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L95" s="8"/>
-    </row>
-    <row r="96" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L96" s="8"/>
-    </row>
-    <row r="97" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L97" s="8"/>
-    </row>
-    <row r="98" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L98" s="8"/>
-    </row>
-    <row r="99" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L99" s="8"/>
-    </row>
-    <row r="100" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L100" s="8"/>
-    </row>
-    <row r="101" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L101" s="8"/>
-    </row>
-    <row r="102" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L102" s="8"/>
-    </row>
-    <row r="103" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L103" s="8"/>
-    </row>
-    <row r="104" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L104" s="8"/>
-    </row>
-    <row r="105" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L105" s="8"/>
-    </row>
-    <row r="106" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L106" s="8"/>
-      <c r="O106" s="3"/>
-    </row>
-    <row r="107" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L107" s="8"/>
-    </row>
-    <row r="108" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L108" s="8"/>
-    </row>
-    <row r="109" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L109" s="8"/>
-    </row>
-    <row r="110" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L110" s="8"/>
-    </row>
-    <row r="111" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L111" s="8"/>
-    </row>
-    <row r="112" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L112" s="8"/>
-    </row>
-    <row r="113" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L113" s="8"/>
-    </row>
-    <row r="114" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L114" s="8"/>
-    </row>
-    <row r="115" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L115" s="8"/>
-    </row>
-    <row r="116" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L116" s="8"/>
-    </row>
-    <row r="117" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L117" s="8"/>
-    </row>
-    <row r="118" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L118" s="8"/>
-      <c r="O118" s="3"/>
-    </row>
-    <row r="119" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L119" s="8"/>
-    </row>
-    <row r="120" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L120" s="8"/>
-    </row>
-    <row r="121" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L121" s="8"/>
-    </row>
-    <row r="122" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L122" s="8"/>
-    </row>
-    <row r="123" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L123" s="8"/>
-    </row>
-    <row r="124" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L124" s="8"/>
-    </row>
-    <row r="125" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L125" s="8"/>
-    </row>
-    <row r="126" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L126" s="8"/>
-    </row>
-    <row r="127" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L127" s="8"/>
-    </row>
-    <row r="128" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L128" s="8"/>
-    </row>
-    <row r="129" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L129" s="8"/>
-    </row>
-    <row r="130" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L130" s="8"/>
-      <c r="O130" s="3"/>
-    </row>
-    <row r="131" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L131" s="8"/>
-    </row>
-    <row r="132" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L132" s="8"/>
-    </row>
-    <row r="133" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L133" s="8"/>
-    </row>
-    <row r="134" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L134" s="8"/>
-    </row>
-    <row r="135" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L135" s="8"/>
-    </row>
-    <row r="136" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L136" s="8"/>
-    </row>
-    <row r="137" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L137" s="8"/>
-    </row>
-    <row r="138" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L138" s="8"/>
-    </row>
-    <row r="139" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L139" s="8"/>
-    </row>
-    <row r="140" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L140" s="8"/>
-    </row>
-    <row r="141" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L141" s="8"/>
-    </row>
-    <row r="142" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L142" s="8"/>
-      <c r="O142" s="3"/>
-    </row>
-    <row r="143" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L143" s="8"/>
-    </row>
-    <row r="144" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L144" s="8"/>
-    </row>
-    <row r="145" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L145" s="8"/>
-    </row>
-    <row r="146" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L146" s="8"/>
-    </row>
-    <row r="147" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L147" s="8"/>
-    </row>
-    <row r="148" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L148" s="8"/>
-    </row>
-    <row r="149" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L149" s="8"/>
-    </row>
-    <row r="150" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L150" s="8"/>
-    </row>
-    <row r="151" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L151" s="8"/>
-    </row>
-    <row r="152" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L152" s="8"/>
-    </row>
-    <row r="153" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L153" s="8"/>
-    </row>
-    <row r="154" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L154" s="8"/>
-      <c r="O154" s="3"/>
-    </row>
-    <row r="155" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L155" s="8"/>
-    </row>
-    <row r="156" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L156" s="8"/>
-    </row>
-    <row r="157" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L157" s="8"/>
-    </row>
-    <row r="158" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L158" s="8"/>
-    </row>
-    <row r="159" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L159" s="8"/>
-    </row>
-    <row r="160" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L160" s="8"/>
-    </row>
-    <row r="161" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L161" s="8"/>
-    </row>
-    <row r="162" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L162" s="8"/>
-    </row>
-    <row r="163" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L163" s="8"/>
-    </row>
-    <row r="164" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L164" s="8"/>
-    </row>
-    <row r="165" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L165" s="8"/>
-    </row>
-    <row r="166" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L166" s="8"/>
-      <c r="O166" s="3"/>
-    </row>
-    <row r="167" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L167" s="8"/>
-    </row>
-    <row r="168" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L168" s="8"/>
-    </row>
-    <row r="169" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L169" s="4"/>
-    </row>
-    <row r="170" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L170" s="4"/>
-    </row>
-    <row r="171" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L171" s="4"/>
-    </row>
-    <row r="172" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L172" s="4"/>
-    </row>
-    <row r="173" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L173" s="4"/>
-    </row>
-    <row r="174" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L174" s="4"/>
-    </row>
-    <row r="175" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L175" s="4"/>
-    </row>
-    <row r="176" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L176" s="4"/>
-    </row>
-    <row r="177" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L177" s="4"/>
-    </row>
-    <row r="178" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L178" s="4"/>
-    </row>
-    <row r="179" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L179" s="4"/>
-    </row>
-    <row r="180" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L180" s="4"/>
-    </row>
-    <row r="181" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L181" s="4"/>
+        <v>1041.2062722107735</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="14.1" customHeight="1">
+      <c r="L77" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -34975,7 +33767,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH180"/>
+  <dimension ref="A1:AH76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35017,7 +33809,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="31" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>1</v>
@@ -35050,16 +33842,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="19" customFormat="1" ht="15" customHeight="1">
@@ -35145,7 +33937,7 @@
       <c r="O4" s="28"/>
       <c r="P4" s="28"/>
       <c r="Q4" s="32" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="R4" s="33" t="s">
         <v>12</v>
@@ -35744,11 +34536,11 @@
         <v>43098</v>
       </c>
       <c r="AD10" s="1">
-        <f>VLOOKUP(AC10,Q:R,2,)</f>
+        <f t="shared" ref="AD10:AD15" si="3">VLOOKUP(AC10,Q:R,2,)</f>
         <v>1.8283260131836769</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" ref="AE10:AE15" si="3">-AD10</f>
+        <f t="shared" ref="AE10:AE15" si="4">-AD10</f>
         <v>-1.8283260131836769</v>
       </c>
     </row>
@@ -35814,11 +34606,11 @@
         <v>43462</v>
       </c>
       <c r="AD11" s="1">
-        <f t="shared" ref="AD11:AD15" si="4">VLOOKUP(AC11,Q:R,2,)</f>
+        <f t="shared" si="3"/>
         <v>672.01613508174762</v>
       </c>
       <c r="AE11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-672.01613508174762</v>
       </c>
     </row>
@@ -35873,7 +34665,7 @@
         <v>43830</v>
       </c>
       <c r="AA12" s="8">
-        <f t="shared" ref="AA12:AA14" si="5">VLOOKUP(Z12,Q:R,2,)</f>
+        <f>VLOOKUP(Z12,Q:R,2,)</f>
         <v>158.87923971358168</v>
       </c>
       <c r="AB12" s="1">
@@ -35884,11 +34676,11 @@
         <v>43830</v>
       </c>
       <c r="AD12" s="1">
+        <f t="shared" si="3"/>
+        <v>158.87923971358168</v>
+      </c>
+      <c r="AE12" s="1">
         <f t="shared" si="4"/>
-        <v>158.87923971358168</v>
-      </c>
-      <c r="AE12" s="1">
-        <f t="shared" si="3"/>
         <v>-158.87923971358168</v>
       </c>
     </row>
@@ -35943,7 +34735,7 @@
         <v>44196</v>
       </c>
       <c r="AA13" s="8">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(Z13,Q:R,2,)</f>
         <v>0</v>
       </c>
       <c r="AB13" s="1">
@@ -35954,11 +34746,11 @@
         <v>44196</v>
       </c>
       <c r="AD13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="1">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -36013,7 +34805,7 @@
         <v>44561</v>
       </c>
       <c r="AA14" s="8">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(Z14,Q:R,2,)</f>
         <v>0</v>
       </c>
       <c r="AB14" s="1">
@@ -36024,11 +34816,11 @@
         <v>44561</v>
       </c>
       <c r="AD14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="1">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -36089,11 +34881,11 @@
         <v>44925</v>
       </c>
       <c r="AD15" s="1">
+        <f t="shared" si="3"/>
+        <v>115.68877781628487</v>
+      </c>
+      <c r="AE15" s="1">
         <f t="shared" si="4"/>
-        <v>115.68877781628487</v>
-      </c>
-      <c r="AE15" s="1">
-        <f t="shared" si="3"/>
         <v>-115.68877781628487</v>
       </c>
     </row>
@@ -39012,184 +37804,6 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="14.1" customHeight="1">
-      <c r="L77" s="8"/>
-    </row>
-    <row r="78" spans="1:15" ht="14.1" customHeight="1">
-      <c r="L78" s="8"/>
-    </row>
-    <row r="79" spans="1:15" ht="14.1" customHeight="1">
-      <c r="L79" s="8"/>
-    </row>
-    <row r="80" spans="1:15" ht="14.1" customHeight="1">
-      <c r="L80" s="8"/>
-    </row>
-    <row r="81" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L81" s="8"/>
-    </row>
-    <row r="82" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L82" s="8"/>
-    </row>
-    <row r="83" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L83" s="8"/>
-    </row>
-    <row r="84" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L84" s="8"/>
-    </row>
-    <row r="85" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L85" s="8"/>
-    </row>
-    <row r="86" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L86" s="8"/>
-    </row>
-    <row r="87" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L87" s="8"/>
-    </row>
-    <row r="88" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L88" s="8"/>
-    </row>
-    <row r="89" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L89" s="8"/>
-    </row>
-    <row r="90" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L90" s="8"/>
-    </row>
-    <row r="91" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L91" s="8"/>
-    </row>
-    <row r="92" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L92" s="8"/>
-    </row>
-    <row r="93" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L93" s="8"/>
-      <c r="Q93" s="3"/>
-    </row>
-    <row r="94" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L94" s="8"/>
-    </row>
-    <row r="95" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L95" s="4"/>
-    </row>
-    <row r="96" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L96" s="4"/>
-    </row>
-    <row r="97" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L97" s="4"/>
-    </row>
-    <row r="98" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L98" s="4"/>
-    </row>
-    <row r="99" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L99" s="4"/>
-    </row>
-    <row r="100" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L100" s="4"/>
-    </row>
-    <row r="101" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L101" s="4"/>
-    </row>
-    <row r="102" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L102" s="4"/>
-    </row>
-    <row r="103" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L103" s="4"/>
-    </row>
-    <row r="104" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L104" s="4"/>
-    </row>
-    <row r="105" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L105" s="4"/>
-      <c r="Q105" s="3"/>
-    </row>
-    <row r="106" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L106" s="4"/>
-    </row>
-    <row r="107" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L107" s="4"/>
-    </row>
-    <row r="108" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="109" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="110" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="111" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="112" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="113" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="114" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="115" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="116" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="117" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q117" s="3"/>
-    </row>
-    <row r="118" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="119" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="120" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="121" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="122" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="123" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="124" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="125" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="126" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="127" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="128" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="129" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q129" s="3"/>
-    </row>
-    <row r="130" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="131" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="132" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="133" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="134" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="135" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="136" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="137" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="138" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="139" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="140" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="141" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q141" s="3"/>
-    </row>
-    <row r="142" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="143" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="144" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="145" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="146" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="147" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="148" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="149" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="150" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="151" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="152" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="153" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q153" s="3"/>
-    </row>
-    <row r="154" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="155" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="156" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="157" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="158" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="159" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="160" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="161" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="162" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="163" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="164" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="165" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q165" s="3"/>
-    </row>
-    <row r="166" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="167" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="168" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="169" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="170" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="171" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="172" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="173" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="174" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="175" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="176" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="177" ht="14.1" customHeight="1"/>
-    <row r="178" ht="14.1" customHeight="1"/>
-    <row r="179" ht="14.1" customHeight="1"/>
-    <row r="180" ht="14.1" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -39208,7 +37822,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH180"/>
+  <dimension ref="A1:AH76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39250,13 +37864,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="31" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D1" s="31" t="s">
         <v>3</v>
@@ -39283,19 +37897,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="19" customFormat="1" ht="15" customHeight="1">
@@ -39320,12 +37934,12 @@
         <v>1550</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6">
         <f>MIN(F:F)</f>
-        <v>-30.83184973719716</v>
+        <v>0</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="5"/>
@@ -39996,11 +38610,11 @@
         <v>43098</v>
       </c>
       <c r="AD10" s="1">
-        <f>VLOOKUP(AC10,Q:R,2,)</f>
+        <f t="shared" ref="AD10:AD15" si="3">VLOOKUP(AC10,Q:R,2,)</f>
         <v>1.1609492944336848</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" ref="AE10:AE15" si="3">-AD10</f>
+        <f t="shared" ref="AE10:AE15" si="4">-AD10</f>
         <v>-1.1609492944336848</v>
       </c>
     </row>
@@ -40068,11 +38682,11 @@
         <v>43462</v>
       </c>
       <c r="AD11" s="1">
-        <f t="shared" ref="AD11:AD15" si="4">VLOOKUP(AC11,Q:R,2,)</f>
+        <f t="shared" si="3"/>
         <v>412.0446810616325</v>
       </c>
       <c r="AE11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-412.0446810616325</v>
       </c>
     </row>
@@ -40129,7 +38743,7 @@
         <v>43830</v>
       </c>
       <c r="AA12" s="8">
-        <f t="shared" ref="AA12:AA14" si="5">VLOOKUP(Z12,Q:R,2,)</f>
+        <f>VLOOKUP(Z12,Q:R,2,)</f>
         <v>80.462067912442933</v>
       </c>
       <c r="AB12" s="1">
@@ -40140,11 +38754,11 @@
         <v>43830</v>
       </c>
       <c r="AD12" s="1">
+        <f t="shared" si="3"/>
+        <v>80.462067912442933</v>
+      </c>
+      <c r="AE12" s="1">
         <f t="shared" si="4"/>
-        <v>80.462067912442933</v>
-      </c>
-      <c r="AE12" s="1">
-        <f t="shared" si="3"/>
         <v>-80.462067912442933</v>
       </c>
     </row>
@@ -40201,7 +38815,7 @@
         <v>44196</v>
       </c>
       <c r="AA13" s="8">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(Z13,Q:R,2,)</f>
         <v>0</v>
       </c>
       <c r="AB13" s="1">
@@ -40212,11 +38826,11 @@
         <v>44196</v>
       </c>
       <c r="AD13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="1">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -40273,7 +38887,7 @@
         <v>44561</v>
       </c>
       <c r="AA14" s="8">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(Z14,Q:R,2,)</f>
         <v>0</v>
       </c>
       <c r="AB14" s="1">
@@ -40284,11 +38898,11 @@
         <v>44561</v>
       </c>
       <c r="AD14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="1">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -40351,11 +38965,11 @@
         <v>44925</v>
       </c>
       <c r="AD15" s="1">
+        <f t="shared" si="3"/>
+        <v>113.01957049723279</v>
+      </c>
+      <c r="AE15" s="1">
         <f t="shared" si="4"/>
-        <v>113.01957049723279</v>
-      </c>
-      <c r="AE15" s="1">
-        <f t="shared" si="3"/>
         <v>-113.01957049723279</v>
       </c>
     </row>
@@ -43385,28 +41999,28 @@
         <v>1.2002050404532403</v>
       </c>
       <c r="D76" s="22">
-        <v>-68.570597027801355</v>
+        <v>-24.912697535298282</v>
       </c>
       <c r="E76" s="23">
-        <v>-48.425562579210037</v>
+        <v>-17.593712842012877</v>
       </c>
       <c r="F76" s="23">
-        <v>-30.83184973719716</v>
+        <v>0</v>
       </c>
       <c r="G76" s="23">
-        <v>-43.65789949250307</v>
+        <v>0</v>
       </c>
       <c r="H76" s="23">
         <v>606.68726876574192</v>
       </c>
       <c r="I76" s="23">
-        <v>996.05056362079904</v>
+        <v>996.05056362079893</v>
       </c>
       <c r="J76" s="23">
-        <v>389.36329485505712</v>
+        <v>389.36329485505701</v>
       </c>
       <c r="K76" s="22">
-        <v>1039.7084631133021</v>
+        <v>996.05056362079893</v>
       </c>
       <c r="L76" s="27">
         <v>68.835098442807833</v>
@@ -43424,186 +42038,6 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="14.1" customHeight="1">
-      <c r="L77" s="8"/>
-    </row>
-    <row r="78" spans="1:16" ht="14.1" customHeight="1">
-      <c r="L78" s="8"/>
-    </row>
-    <row r="79" spans="1:16" ht="14.1" customHeight="1">
-      <c r="L79" s="8"/>
-    </row>
-    <row r="80" spans="1:16" ht="14.1" customHeight="1">
-      <c r="L80" s="8"/>
-    </row>
-    <row r="81" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L81" s="8"/>
-    </row>
-    <row r="82" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L82" s="8"/>
-    </row>
-    <row r="83" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L83" s="8"/>
-    </row>
-    <row r="84" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L84" s="8"/>
-    </row>
-    <row r="85" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L85" s="8"/>
-    </row>
-    <row r="86" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L86" s="8"/>
-    </row>
-    <row r="87" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L87" s="8"/>
-    </row>
-    <row r="88" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L88" s="8"/>
-    </row>
-    <row r="89" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L89" s="8"/>
-    </row>
-    <row r="90" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L90" s="8"/>
-    </row>
-    <row r="91" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L91" s="8"/>
-    </row>
-    <row r="92" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L92" s="8"/>
-    </row>
-    <row r="93" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L93" s="8"/>
-      <c r="Q93" s="3"/>
-    </row>
-    <row r="94" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L94" s="8"/>
-    </row>
-    <row r="95" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L95" s="8"/>
-    </row>
-    <row r="96" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L96" s="4"/>
-    </row>
-    <row r="97" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L97" s="4"/>
-    </row>
-    <row r="98" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L98" s="4"/>
-    </row>
-    <row r="99" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L99" s="4"/>
-    </row>
-    <row r="100" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L100" s="4"/>
-    </row>
-    <row r="101" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L101" s="4"/>
-    </row>
-    <row r="102" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L102" s="4"/>
-    </row>
-    <row r="103" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L103" s="4"/>
-    </row>
-    <row r="104" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L104" s="4"/>
-    </row>
-    <row r="105" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L105" s="4"/>
-      <c r="Q105" s="3"/>
-    </row>
-    <row r="106" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L106" s="4"/>
-    </row>
-    <row r="107" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L107" s="4"/>
-    </row>
-    <row r="108" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L108" s="4"/>
-    </row>
-    <row r="109" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="110" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="111" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="112" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="113" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="114" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="115" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="116" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="117" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q117" s="3"/>
-    </row>
-    <row r="118" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="119" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="120" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="121" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="122" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="123" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="124" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="125" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="126" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="127" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="128" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="129" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q129" s="3"/>
-    </row>
-    <row r="130" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="131" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="132" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="133" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="134" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="135" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="136" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="137" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="138" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="139" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="140" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="141" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q141" s="3"/>
-    </row>
-    <row r="142" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="143" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="144" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="145" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="146" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="147" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="148" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="149" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="150" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="151" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="152" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="153" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q153" s="3"/>
-    </row>
-    <row r="154" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="155" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="156" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="157" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="158" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="159" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="160" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="161" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="162" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="163" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="164" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="165" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q165" s="3"/>
-    </row>
-    <row r="166" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="167" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="168" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="169" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="170" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="171" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="172" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="173" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="174" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="175" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="176" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="177" ht="14.1" customHeight="1"/>
-    <row r="178" ht="14.1" customHeight="1"/>
-    <row r="179" ht="14.1" customHeight="1"/>
-    <row r="180" ht="14.1" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -43622,7 +42056,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH181"/>
+  <dimension ref="A1:AH77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -43678,10 +42112,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>3</v>
@@ -43735,7 +42169,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6">
@@ -44355,11 +42789,11 @@
         <v>43098</v>
       </c>
       <c r="AD10" s="1">
-        <f>VLOOKUP(AC10,Q:R,2,)</f>
+        <f t="shared" ref="AD10:AD15" si="4">VLOOKUP(AC10,Q:R,2,)</f>
         <v>0.57621376243097611</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" ref="AE10:AE15" si="4">-AD10</f>
+        <f t="shared" ref="AE10:AE15" si="5">-AD10</f>
         <v>-0.57621376243097611</v>
       </c>
     </row>
@@ -44419,11 +42853,11 @@
         <v>43462</v>
       </c>
       <c r="AD11" s="1">
-        <f t="shared" ref="AD11:AD15" si="5">VLOOKUP(AC11,Q:R,2,)</f>
+        <f t="shared" si="4"/>
         <v>262.72397636432083</v>
       </c>
       <c r="AE11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-262.72397636432083</v>
       </c>
     </row>
@@ -44472,7 +42906,7 @@
         <v>43830</v>
       </c>
       <c r="AA12" s="8">
-        <f t="shared" ref="AA12:AA14" si="6">VLOOKUP(Z12,Q:R,2,)</f>
+        <f>VLOOKUP(Z12,Q:R,2,)</f>
         <v>43.135897352006509</v>
       </c>
       <c r="AB12" s="1">
@@ -44483,11 +42917,11 @@
         <v>43830</v>
       </c>
       <c r="AD12" s="1">
+        <f t="shared" si="4"/>
+        <v>43.135897352006509</v>
+      </c>
+      <c r="AE12" s="1">
         <f t="shared" si="5"/>
-        <v>43.135897352006509</v>
-      </c>
-      <c r="AE12" s="1">
-        <f t="shared" si="4"/>
         <v>-43.135897352006509</v>
       </c>
     </row>
@@ -44536,7 +42970,7 @@
         <v>44196</v>
       </c>
       <c r="AA13" s="8">
-        <f t="shared" si="6"/>
+        <f>VLOOKUP(Z13,Q:R,2,)</f>
         <v>0</v>
       </c>
       <c r="AB13" s="1">
@@ -44547,11 +42981,11 @@
         <v>44196</v>
       </c>
       <c r="AD13" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -44600,7 +43034,7 @@
         <v>44561</v>
       </c>
       <c r="AA14" s="8">
-        <f t="shared" si="6"/>
+        <f>VLOOKUP(Z14,Q:R,2,)</f>
         <v>0</v>
       </c>
       <c r="AB14" s="1">
@@ -44611,11 +43045,11 @@
         <v>44561</v>
       </c>
       <c r="AD14" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -44670,11 +43104,11 @@
         <v>44925</v>
       </c>
       <c r="AD15" s="1">
+        <f t="shared" si="4"/>
+        <v>11.079325740253353</v>
+      </c>
+      <c r="AE15" s="1">
         <f t="shared" si="5"/>
-        <v>11.079325740253353</v>
-      </c>
-      <c r="AE15" s="1">
-        <f t="shared" si="4"/>
         <v>-11.079325740253353</v>
       </c>
     </row>
@@ -46736,7 +45170,7 @@
         <v>498.005167388789</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="14.1" customHeight="1">
+    <row r="65" spans="1:14" ht="14.1" customHeight="1">
       <c r="A65" s="16">
         <v>44712</v>
       </c>
@@ -46777,7 +45211,7 @@
         <v>498.005167388789</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="14.1" customHeight="1">
+    <row r="66" spans="1:14" ht="14.1" customHeight="1">
       <c r="A66" s="16">
         <v>44742</v>
       </c>
@@ -46818,7 +45252,7 @@
         <v>498.30074018920413</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="14.1" customHeight="1">
+    <row r="67" spans="1:14" ht="14.1" customHeight="1">
       <c r="A67" s="16">
         <v>44771</v>
       </c>
@@ -46859,7 +45293,7 @@
         <v>498.30156854831534</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="14.1" customHeight="1">
+    <row r="68" spans="1:14" ht="14.1" customHeight="1">
       <c r="A68" s="16">
         <v>44804</v>
       </c>
@@ -46900,7 +45334,7 @@
         <v>498.30156854831534</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="14.1" customHeight="1">
+    <row r="69" spans="1:14" ht="14.1" customHeight="1">
       <c r="A69" s="16">
         <v>44834</v>
       </c>
@@ -46941,7 +45375,7 @@
         <v>498.30156854831534</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="14.1" customHeight="1">
+    <row r="70" spans="1:14" ht="14.1" customHeight="1">
       <c r="A70" s="16">
         <v>44865</v>
       </c>
@@ -46982,7 +45416,7 @@
         <v>498.30156854831534</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="14.1" customHeight="1">
+    <row r="71" spans="1:14" ht="14.1" customHeight="1">
       <c r="A71" s="16">
         <v>44895</v>
       </c>
@@ -47023,7 +45457,7 @@
         <v>498.30156854831534</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="14.1" customHeight="1">
+    <row r="72" spans="1:14" ht="14.1" customHeight="1">
       <c r="A72" s="16">
         <v>44925</v>
       </c>
@@ -47064,7 +45498,7 @@
         <v>498.30156854831534</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="14.1" customHeight="1">
+    <row r="73" spans="1:14" ht="14.1" customHeight="1">
       <c r="A73" s="16">
         <v>44957</v>
       </c>
@@ -47105,7 +45539,7 @@
         <v>498.37951750781878</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="14.1" customHeight="1">
+    <row r="74" spans="1:14" ht="14.1" customHeight="1">
       <c r="A74" s="16">
         <v>44985</v>
       </c>
@@ -47146,7 +45580,7 @@
         <v>499.4421306862356</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="14.1" customHeight="1">
+    <row r="75" spans="1:14" ht="14.1" customHeight="1">
       <c r="A75" s="16">
         <v>45016</v>
       </c>
@@ -47187,7 +45621,7 @@
         <v>513.19080303179044</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="14.1" customHeight="1">
+    <row r="76" spans="1:14" ht="14.1" customHeight="1">
       <c r="A76" s="16">
         <v>45044</v>
       </c>
@@ -47228,293 +45662,8 @@
         <v>513.19080303179044</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="14.1" customHeight="1"/>
-    <row r="78" spans="1:13" ht="14.1" customHeight="1"/>
-    <row r="79" spans="1:13" ht="14.1" customHeight="1"/>
-    <row r="80" spans="1:13" ht="14.1" customHeight="1"/>
-    <row r="81" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="82" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="83" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="84" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="85" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="86" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="87" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="88" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="89" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="90" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="91" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="92" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="93" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="94" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N94" s="8"/>
-      <c r="Q94" s="3"/>
-    </row>
-    <row r="95" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N95" s="8"/>
-    </row>
-    <row r="96" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N96" s="8"/>
-    </row>
-    <row r="97" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N97" s="8"/>
-    </row>
-    <row r="98" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N98" s="8"/>
-    </row>
-    <row r="99" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N99" s="8"/>
-    </row>
-    <row r="100" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N100" s="8"/>
-    </row>
-    <row r="101" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N101" s="8"/>
-    </row>
-    <row r="102" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N102" s="8"/>
-    </row>
-    <row r="103" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N103" s="8"/>
-    </row>
-    <row r="104" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N104" s="8"/>
-    </row>
-    <row r="105" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N105" s="8"/>
-    </row>
-    <row r="106" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N106" s="8"/>
-      <c r="Q106" s="3"/>
-    </row>
-    <row r="107" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N107" s="8"/>
-    </row>
-    <row r="108" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N108" s="8"/>
-    </row>
-    <row r="109" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N109" s="8"/>
-    </row>
-    <row r="110" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N110" s="8"/>
-    </row>
-    <row r="111" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N111" s="8"/>
-    </row>
-    <row r="112" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N112" s="8"/>
-    </row>
-    <row r="113" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N113" s="8"/>
-    </row>
-    <row r="114" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N114" s="8"/>
-    </row>
-    <row r="115" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N115" s="8"/>
-    </row>
-    <row r="116" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N116" s="8"/>
-    </row>
-    <row r="117" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N117" s="8"/>
-    </row>
-    <row r="118" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N118" s="8"/>
-      <c r="Q118" s="3"/>
-    </row>
-    <row r="119" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N119" s="8"/>
-    </row>
-    <row r="120" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N120" s="8"/>
-    </row>
-    <row r="121" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N121" s="8"/>
-    </row>
-    <row r="122" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N122" s="8"/>
-    </row>
-    <row r="123" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N123" s="8"/>
-    </row>
-    <row r="124" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N124" s="8"/>
-    </row>
-    <row r="125" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N125" s="8"/>
-    </row>
-    <row r="126" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N126" s="8"/>
-    </row>
-    <row r="127" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N127" s="8"/>
-    </row>
-    <row r="128" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N128" s="8"/>
-    </row>
-    <row r="129" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N129" s="8"/>
-    </row>
-    <row r="130" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N130" s="8"/>
-      <c r="Q130" s="3"/>
-    </row>
-    <row r="131" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N131" s="8"/>
-    </row>
-    <row r="132" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N132" s="8"/>
-    </row>
-    <row r="133" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N133" s="8"/>
-    </row>
-    <row r="134" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N134" s="8"/>
-    </row>
-    <row r="135" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N135" s="8"/>
-    </row>
-    <row r="136" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N136" s="8"/>
-    </row>
-    <row r="137" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N137" s="8"/>
-    </row>
-    <row r="138" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N138" s="8"/>
-    </row>
-    <row r="139" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N139" s="8"/>
-    </row>
-    <row r="140" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N140" s="8"/>
-    </row>
-    <row r="141" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N141" s="8"/>
-    </row>
-    <row r="142" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N142" s="8"/>
-      <c r="Q142" s="3"/>
-    </row>
-    <row r="143" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N143" s="8"/>
-    </row>
-    <row r="144" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N144" s="8"/>
-    </row>
-    <row r="145" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N145" s="8"/>
-    </row>
-    <row r="146" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N146" s="8"/>
-    </row>
-    <row r="147" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N147" s="8"/>
-    </row>
-    <row r="148" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N148" s="8"/>
-    </row>
-    <row r="149" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N149" s="8"/>
-    </row>
-    <row r="150" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N150" s="8"/>
-    </row>
-    <row r="151" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N151" s="8"/>
-    </row>
-    <row r="152" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N152" s="8"/>
-    </row>
-    <row r="153" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N153" s="8"/>
-    </row>
-    <row r="154" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N154" s="8"/>
-      <c r="Q154" s="3"/>
-    </row>
-    <row r="155" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N155" s="8"/>
-    </row>
-    <row r="156" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N156" s="8"/>
-    </row>
-    <row r="157" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N157" s="8"/>
-    </row>
-    <row r="158" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N158" s="8"/>
-    </row>
-    <row r="159" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N159" s="8"/>
-    </row>
-    <row r="160" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N160" s="8"/>
-    </row>
-    <row r="161" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N161" s="8"/>
-    </row>
-    <row r="162" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N162" s="8"/>
-    </row>
-    <row r="163" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N163" s="8"/>
-    </row>
-    <row r="164" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N164" s="8"/>
-    </row>
-    <row r="165" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N165" s="8"/>
-    </row>
-    <row r="166" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N166" s="8"/>
-      <c r="Q166" s="3"/>
-    </row>
-    <row r="167" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N167" s="8"/>
-    </row>
-    <row r="168" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N168" s="8"/>
-    </row>
-    <row r="169" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N169" s="4"/>
-    </row>
-    <row r="170" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N170" s="4"/>
-    </row>
-    <row r="171" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N171" s="4"/>
-    </row>
-    <row r="172" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N172" s="4"/>
-    </row>
-    <row r="173" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N173" s="4"/>
-    </row>
-    <row r="174" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N174" s="4"/>
-    </row>
-    <row r="175" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N175" s="4"/>
-    </row>
-    <row r="176" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N176" s="4"/>
-    </row>
-    <row r="177" spans="14:14" ht="14.1" customHeight="1">
-      <c r="N177" s="4"/>
-    </row>
-    <row r="178" spans="14:14" ht="14.1" customHeight="1">
-      <c r="N178" s="4"/>
-    </row>
-    <row r="179" spans="14:14" ht="14.1" customHeight="1">
-      <c r="N179" s="4"/>
-    </row>
-    <row r="180" spans="14:14" ht="14.1" customHeight="1">
-      <c r="N180" s="4"/>
-    </row>
-    <row r="181" spans="14:14" ht="14.1" customHeight="1">
-      <c r="N181" s="4"/>
+    <row r="77" spans="1:14" ht="14.1" customHeight="1">
+      <c r="N77" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="30">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -165,14 +161,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RSV</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -186,14 +174,6 @@
   </si>
   <si>
     <t>J</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>每年投入本金</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -891,7 +871,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1110,6 +1090,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1119,7 +1105,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1337,6 +1323,12 @@
                   <c:v>3887.8048077681256</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>3887.8048077681256</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3887.8048077681256</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>3887.8048077681256</c:v>
                 </c:pt>
               </c:numCache>
@@ -1380,7 +1372,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1599,6 +1591,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1608,7 +1606,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1827,6 +1825,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>5893.6386663659068</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5897.0503205355863</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5897.0503205355863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1869,7 +1873,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2088,6 +2092,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2097,7 +2107,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2316,6 +2326,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>2005.8338585977813</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2009.2455127674607</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2009.2455127674607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2337,11 +2353,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489715200"/>
-        <c:axId val="489716736"/>
+        <c:axId val="531740928"/>
+        <c:axId val="531751296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489715200"/>
+        <c:axId val="531740928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2384,14 +2400,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489716736"/>
+        <c:crossAx val="531751296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489716736"/>
+        <c:axId val="531751296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2440,7 +2456,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489715200"/>
+        <c:crossAx val="531740928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2654,7 +2670,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2873,6 +2889,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2882,7 +2904,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3100,6 +3122,12 @@
                   <c:v>5134.7400550187222</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>5134.7400550187222</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5134.7400550187222</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>5134.7400550187222</c:v>
                 </c:pt>
               </c:numCache>
@@ -3143,7 +3171,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3362,6 +3390,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3371,7 +3405,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3590,6 +3624,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>8743.2633591106132</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8769.8776406979669</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8792.2998848275638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3632,7 +3672,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3851,6 +3891,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3860,7 +3906,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4079,6 +4125,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>3608.5233040918911</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3635.1375856792447</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3657.5598298088416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4100,11 +4152,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="558088192"/>
-        <c:axId val="558089728"/>
+        <c:axId val="537748608"/>
+        <c:axId val="537750528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="558088192"/>
+        <c:axId val="537748608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4147,14 +4199,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558089728"/>
+        <c:crossAx val="537750528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="558089728"/>
+        <c:axId val="537750528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4203,7 +4255,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558088192"/>
+        <c:crossAx val="537748608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4417,7 +4469,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4636,6 +4688,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4645,7 +4703,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4863,6 +4921,12 @@
                   <c:v>3693.4145673797188</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>3693.4145673797188</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3693.4145673797188</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>3693.4145673797188</c:v>
                 </c:pt>
               </c:numCache>
@@ -4906,7 +4970,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5125,6 +5189,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5134,7 +5204,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5353,6 +5423,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>5685.7594224862769</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5689.000493947472</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5689.000493947472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5395,7 +5471,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5614,6 +5690,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5623,7 +5705,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5842,6 +5924,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>1992.344855106558</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1995.5859265677532</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1995.5859265677532</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5863,11 +5951,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="652329344"/>
-        <c:axId val="652331264"/>
+        <c:axId val="511386752"/>
+        <c:axId val="511388288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="652329344"/>
+        <c:axId val="511386752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5910,14 +5998,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652331264"/>
+        <c:crossAx val="511388288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="652331264"/>
+        <c:axId val="511388288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5966,7 +6054,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652329344"/>
+        <c:crossAx val="511386752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6180,7 +6268,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6399,6 +6487,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6408,7 +6502,7 @@
               <c:f>'模型二 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6626,6 +6720,12 @@
                   <c:v>1980.6068162113841</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>1980.6068162113841</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1980.6068162113841</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>1980.6068162113841</c:v>
                 </c:pt>
               </c:numCache>
@@ -6669,7 +6769,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6888,6 +6988,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6897,7 +7003,7 @@
               <c:f>'模型二 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7115,6 +7221,12 @@
                   <c:v>2799.4811971394251</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>2799.4811971394251</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2799.4811971394251</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>2799.4811971394251</c:v>
                 </c:pt>
               </c:numCache>
@@ -7158,7 +7270,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7377,6 +7489,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7386,7 +7504,7 @@
               <c:f>'模型二 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7604,6 +7722,12 @@
                   <c:v>818.87438092804109</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>818.87438092804109</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>818.87438092804109</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>818.87438092804109</c:v>
                 </c:pt>
               </c:numCache>
@@ -7626,11 +7750,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="656720256"/>
-        <c:axId val="656721792"/>
+        <c:axId val="512112896"/>
+        <c:axId val="512118784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="656720256"/>
+        <c:axId val="512112896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7673,14 +7797,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656721792"/>
+        <c:crossAx val="512118784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="656721792"/>
+        <c:axId val="512118784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7729,7 +7853,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656720256"/>
+        <c:crossAx val="512112896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7943,7 +8067,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8162,6 +8286,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8171,7 +8301,7 @@
               <c:f>'模型二 (2)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8389,6 +8519,12 @@
                   <c:v>638.61817764814953</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>638.61817764814953</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>638.61817764814953</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>638.61817764814953</c:v>
                 </c:pt>
               </c:numCache>
@@ -8432,7 +8568,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8651,6 +8787,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8660,7 +8802,7 @@
               <c:f>'模型二 (2)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8878,6 +9020,12 @@
                   <c:v>1042.2248546144406</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>1041.2062722107735</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1041.2062722107735</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
               </c:numCache>
@@ -8921,7 +9069,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9140,6 +9288,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9149,7 +9303,7 @@
               <c:f>'模型二 (2)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9367,6 +9521,12 @@
                   <c:v>403.60667696629105</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>402.58809456262395</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>402.58809456262395</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>402.58809456262395</c:v>
                 </c:pt>
               </c:numCache>
@@ -9389,11 +9549,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="657190272"/>
-        <c:axId val="658751872"/>
+        <c:axId val="512310656"/>
+        <c:axId val="512312448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="657190272"/>
+        <c:axId val="512310656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9436,14 +9596,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658751872"/>
+        <c:crossAx val="512312448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="658751872"/>
+        <c:axId val="512312448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9492,7 +9652,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657190272"/>
+        <c:crossAx val="512310656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9706,7 +9866,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9925,6 +10085,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9934,7 +10100,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10152,6 +10318,12 @@
                   <c:v>948.41247862479781</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>948.41247862479781</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>948.41247862479781</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>948.41247862479781</c:v>
                 </c:pt>
               </c:numCache>
@@ -10195,7 +10367,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10414,6 +10586,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10423,7 +10601,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10642,6 +10820,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>1735.2438323190659</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1736.385632525677</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1737.2281518785637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10684,7 +10868,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10903,6 +11087,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10912,7 +11102,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11131,6 +11321,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>786.83135369426805</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>787.9731539008792</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>788.81567325376591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11152,11 +11348,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="660130048"/>
-        <c:axId val="660561920"/>
+        <c:axId val="512398080"/>
+        <c:axId val="512399616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="660130048"/>
+        <c:axId val="512398080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11199,14 +11395,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="660561920"/>
+        <c:crossAx val="512399616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="660561920"/>
+        <c:axId val="512399616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11255,7 +11451,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="660130048"/>
+        <c:crossAx val="512398080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11469,7 +11665,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11688,6 +11884,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11697,7 +11899,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11915,6 +12117,12 @@
                   <c:v>606.68726876574192</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>606.68726876574192</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>606.68726876574192</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>606.68726876574192</c:v>
                 </c:pt>
               </c:numCache>
@@ -11958,7 +12166,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12177,6 +12385,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12186,7 +12400,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12404,6 +12618,12 @@
                   <c:v>997.01821690428267</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
               </c:numCache>
@@ -12447,7 +12667,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12666,6 +12886,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12675,7 +12901,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12893,6 +13119,12 @@
                   <c:v>390.33094813854075</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>389.36329485505701</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>389.36329485505701</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>389.36329485505701</c:v>
                 </c:pt>
               </c:numCache>
@@ -12915,11 +13147,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="667907584"/>
-        <c:axId val="667909504"/>
+        <c:axId val="512862080"/>
+        <c:axId val="512863616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="667907584"/>
+        <c:axId val="512862080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12962,14 +13194,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="667909504"/>
+        <c:crossAx val="512863616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="667909504"/>
+        <c:axId val="512863616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13018,7 +13250,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="667907584"/>
+        <c:crossAx val="512862080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13232,7 +13464,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13451,6 +13683,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13460,7 +13698,7 @@
               <c:f>'模型二 (2)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13678,6 +13916,12 @@
                   <c:v>317.51541321901169</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>317.51541321901169</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>317.51541321901169</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>317.51541321901169</c:v>
                 </c:pt>
               </c:numCache>
@@ -13721,7 +13965,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13940,6 +14184,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13949,7 +14199,7 @@
               <c:f>'模型二 (2)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14167,6 +14417,12 @@
                   <c:v>513.19080303179044</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>513.19080303179044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>513.19080303179044</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>513.19080303179044</c:v>
                 </c:pt>
               </c:numCache>
@@ -14210,7 +14466,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14429,6 +14685,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14438,7 +14700,7 @@
               <c:f>'模型二 (2)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14656,6 +14918,12 @@
                   <c:v>195.67538981277875</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>195.67538981277875</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>195.67538981277875</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>195.67538981277875</c:v>
                 </c:pt>
               </c:numCache>
@@ -14678,11 +14946,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="470343040"/>
-        <c:axId val="470344832"/>
+        <c:axId val="512916480"/>
+        <c:axId val="512918272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="470343040"/>
+        <c:axId val="512916480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14725,14 +14993,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470344832"/>
+        <c:crossAx val="512918272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="470344832"/>
+        <c:axId val="512918272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14781,7 +15049,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470343040"/>
+        <c:crossAx val="512916480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14889,7 +15157,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14932,7 +15200,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14975,7 +15243,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15018,7 +15286,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15061,7 +15329,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15104,7 +15372,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15147,7 +15415,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15190,7 +15458,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15500,8 +15768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF76"/>
+  <sheetPr codeName="Sheet1">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AF78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18654,6 +18924,76 @@
         <v>5571.5782036552628</v>
       </c>
     </row>
+    <row r="77" spans="1:11" ht="12.75">
+      <c r="A77" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.2024986554579709</v>
+      </c>
+      <c r="D77" s="21">
+        <v>-325.47211688032309</v>
+      </c>
+      <c r="E77" s="22">
+        <v>-227.44382821926422</v>
+      </c>
+      <c r="F77" s="22">
+        <v>0</v>
+      </c>
+      <c r="G77" s="22">
+        <v>0</v>
+      </c>
+      <c r="H77" s="22">
+        <v>3887.8048077681256</v>
+      </c>
+      <c r="I77" s="22">
+        <v>5897.0503205355863</v>
+      </c>
+      <c r="J77" s="22">
+        <v>2009.2455127674607</v>
+      </c>
+      <c r="K77" s="21">
+        <v>5897.0503205355863</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="12.75">
+      <c r="A78" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.2060948269319787</v>
+      </c>
+      <c r="D78" s="21">
+        <v>0</v>
+      </c>
+      <c r="E78" s="22">
+        <v>0</v>
+      </c>
+      <c r="F78" s="22">
+        <v>0</v>
+      </c>
+      <c r="G78" s="22">
+        <v>0</v>
+      </c>
+      <c r="H78" s="22">
+        <v>3887.8048077681256</v>
+      </c>
+      <c r="I78" s="22">
+        <v>5897.0503205355863</v>
+      </c>
+      <c r="J78" s="22">
+        <v>2009.2455127674607</v>
+      </c>
+      <c r="K78" s="21">
+        <v>5897.0503205355863</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -18670,7 +19010,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH76"/>
+  <dimension ref="A1:AH78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18745,16 +19085,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -22704,6 +23044,100 @@
         <v>66.8045673873455</v>
       </c>
       <c r="O76" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="12.75">
+      <c r="A77" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.2024986554579709</v>
+      </c>
+      <c r="D77" s="21">
+        <v>-70.83541503419481</v>
+      </c>
+      <c r="E77" s="22">
+        <v>-49.500639634828609</v>
+      </c>
+      <c r="F77" s="22">
+        <v>1724.7864916140884</v>
+      </c>
+      <c r="G77" s="22">
+        <v>2468.1694596304528</v>
+      </c>
+      <c r="H77" s="22">
+        <v>5134.7400550187222</v>
+      </c>
+      <c r="I77" s="22">
+        <v>8769.8776406979669</v>
+      </c>
+      <c r="J77" s="22">
+        <v>3635.1375856792447</v>
+      </c>
+      <c r="K77" s="21">
+        <v>6301.7081810675136</v>
+      </c>
+      <c r="L77" s="26">
+        <v>5.5983571383853049E-2</v>
+      </c>
+      <c r="M77" s="27">
+        <v>8.3802011708645194E-2</v>
+      </c>
+      <c r="N77" s="27">
+        <v>66.8045673873455</v>
+      </c>
+      <c r="O77" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="12.75">
+      <c r="A78" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.2060948269319787</v>
+      </c>
+      <c r="D78" s="21">
+        <v>-73.750605424920849</v>
+      </c>
+      <c r="E78" s="22">
+        <v>-51.073826269164869</v>
+      </c>
+      <c r="F78" s="22">
+        <v>1673.7126653449236</v>
+      </c>
+      <c r="G78" s="22">
+        <v>2416.8410983351305</v>
+      </c>
+      <c r="H78" s="22">
+        <v>5134.7400550187222</v>
+      </c>
+      <c r="I78" s="22">
+        <v>8792.2998848275638</v>
+      </c>
+      <c r="J78" s="22">
+        <v>3657.5598298088416</v>
+      </c>
+      <c r="K78" s="21">
+        <v>6375.4587864924342</v>
+      </c>
+      <c r="L78" s="26">
+        <v>4.9152973769025082E-2</v>
+      </c>
+      <c r="M78" s="27">
+        <v>7.2335007373018539E-2</v>
+      </c>
+      <c r="N78" s="27">
+        <v>67.951847320001079</v>
+      </c>
+      <c r="O78" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -22722,8 +23156,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH76"/>
+  <sheetPr codeName="Sheet3">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AH78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22798,19 +23234,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -22835,7 +23271,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -22903,7 +23339,7 @@
         <v>11</v>
       </c>
       <c r="R4" s="32" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="S4" s="32" t="s">
         <v>13</v>
@@ -26937,6 +27373,106 @@
         <v>94.815894850860488</v>
       </c>
       <c r="P76" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="12.75">
+      <c r="A77" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.2024986554579709</v>
+      </c>
+      <c r="D77" s="21">
+        <v>-309.19851103630685</v>
+      </c>
+      <c r="E77" s="22">
+        <v>-216.07163680830098</v>
+      </c>
+      <c r="F77" s="22">
+        <v>0</v>
+      </c>
+      <c r="G77" s="22">
+        <v>0</v>
+      </c>
+      <c r="H77" s="22">
+        <v>3693.4145673797188</v>
+      </c>
+      <c r="I77" s="22">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="J77" s="22">
+        <v>1995.5859265677532</v>
+      </c>
+      <c r="K77" s="21">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="L77" s="26">
+        <v>68.835098442807833</v>
+      </c>
+      <c r="M77" s="27">
+        <v>68.645170694118619</v>
+      </c>
+      <c r="N77" s="27">
+        <v>55.559808615747677</v>
+      </c>
+      <c r="O77" s="27">
+        <v>94.815894850860488</v>
+      </c>
+      <c r="P77" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="12.75">
+      <c r="A78" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.2060948269319787</v>
+      </c>
+      <c r="D78" s="21">
+        <v>0</v>
+      </c>
+      <c r="E78" s="22">
+        <v>0</v>
+      </c>
+      <c r="F78" s="22">
+        <v>0</v>
+      </c>
+      <c r="G78" s="22">
+        <v>0</v>
+      </c>
+      <c r="H78" s="22">
+        <v>3693.4145673797188</v>
+      </c>
+      <c r="I78" s="22">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="J78" s="22">
+        <v>1995.5859265677532</v>
+      </c>
+      <c r="K78" s="21">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="L78" s="26">
+        <v>71.104385321535176</v>
+      </c>
+      <c r="M78" s="27">
+        <v>69.464908903257466</v>
+      </c>
+      <c r="N78" s="27">
+        <v>60.194842044917607</v>
+      </c>
+      <c r="O78" s="27">
+        <v>88.005042619937171</v>
+      </c>
+      <c r="P78" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -26958,7 +27494,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH76"/>
+  <dimension ref="A1:AH78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27005,7 +27541,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -27014,10 +27550,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -27071,7 +27607,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -30561,6 +31097,88 @@
         <v>818.87438092804109</v>
       </c>
       <c r="M76" s="21">
+        <v>2799.4811971394251</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="12.75">
+      <c r="A77" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.2024986554579709</v>
+      </c>
+      <c r="D77" s="20">
+        <v>827300</v>
+      </c>
+      <c r="E77" s="20">
+        <v>2183975.1230284986</v>
+      </c>
+      <c r="F77" s="21">
+        <v>0</v>
+      </c>
+      <c r="G77" s="22">
+        <v>0</v>
+      </c>
+      <c r="H77" s="22">
+        <v>0</v>
+      </c>
+      <c r="I77" s="22">
+        <v>0</v>
+      </c>
+      <c r="J77" s="22">
+        <v>1980.6068162113841</v>
+      </c>
+      <c r="K77" s="22">
+        <v>2799.4811971394251</v>
+      </c>
+      <c r="L77" s="22">
+        <v>818.87438092804109</v>
+      </c>
+      <c r="M77" s="21">
+        <v>2799.4811971394251</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="12.75">
+      <c r="A78" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.2060948269319787</v>
+      </c>
+      <c r="D78" s="20">
+        <v>443699.03125</v>
+      </c>
+      <c r="E78" s="20">
+        <v>2166399.987299507</v>
+      </c>
+      <c r="F78" s="21">
+        <v>0</v>
+      </c>
+      <c r="G78" s="22">
+        <v>0</v>
+      </c>
+      <c r="H78" s="22">
+        <v>0</v>
+      </c>
+      <c r="I78" s="22">
+        <v>0</v>
+      </c>
+      <c r="J78" s="22">
+        <v>1980.6068162113841</v>
+      </c>
+      <c r="K78" s="22">
+        <v>2799.4811971394251</v>
+      </c>
+      <c r="L78" s="22">
+        <v>818.87438092804109</v>
+      </c>
+      <c r="M78" s="21">
         <v>2799.4811971394251</v>
       </c>
     </row>
@@ -30582,7 +31200,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF76"/>
+  <dimension ref="A1:AF78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30624,7 +31242,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -33732,6 +34350,76 @@
         <v>402.58809456262395</v>
       </c>
       <c r="K76" s="21">
+        <v>1041.2062722107735</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="12.75">
+      <c r="A77" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.2024986554579709</v>
+      </c>
+      <c r="D77" s="21">
+        <v>0</v>
+      </c>
+      <c r="E77" s="22">
+        <v>0</v>
+      </c>
+      <c r="F77" s="22">
+        <v>0</v>
+      </c>
+      <c r="G77" s="22">
+        <v>0</v>
+      </c>
+      <c r="H77" s="22">
+        <v>638.61817764814953</v>
+      </c>
+      <c r="I77" s="22">
+        <v>1041.2062722107735</v>
+      </c>
+      <c r="J77" s="22">
+        <v>402.58809456262395</v>
+      </c>
+      <c r="K77" s="21">
+        <v>1041.2062722107735</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="12.75">
+      <c r="A78" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.2060948269319787</v>
+      </c>
+      <c r="D78" s="21">
+        <v>0</v>
+      </c>
+      <c r="E78" s="22">
+        <v>0</v>
+      </c>
+      <c r="F78" s="22">
+        <v>0</v>
+      </c>
+      <c r="G78" s="22">
+        <v>0</v>
+      </c>
+      <c r="H78" s="22">
+        <v>638.61817764814953</v>
+      </c>
+      <c r="I78" s="22">
+        <v>1041.2062722107735</v>
+      </c>
+      <c r="J78" s="22">
+        <v>402.58809456262395</v>
+      </c>
+      <c r="K78" s="21">
         <v>1041.2062722107735</v>
       </c>
     </row>
@@ -33751,7 +34439,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH76"/>
+  <dimension ref="A1:AH78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33793,7 +34481,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -33826,16 +34514,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -33860,7 +34548,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -37785,6 +38473,100 @@
         <v>66.8045673873455</v>
       </c>
       <c r="O76" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="12.75">
+      <c r="A77" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C77" s="21">
+        <v>1.2024986554579709</v>
+      </c>
+      <c r="D77" s="21">
+        <v>-16.185987171182685</v>
+      </c>
+      <c r="E77" s="22">
+        <v>-11.310962429003865</v>
+      </c>
+      <c r="F77" s="22">
+        <v>64.809123938851741</v>
+      </c>
+      <c r="G77" s="22">
+        <v>92.741855985656059</v>
+      </c>
+      <c r="H77" s="22">
+        <v>948.41247862479781</v>
+      </c>
+      <c r="I77" s="22">
+        <v>1736.385632525677</v>
+      </c>
+      <c r="J77" s="22">
+        <v>787.9731539008792</v>
+      </c>
+      <c r="K77" s="21">
+        <v>1643.643776540021</v>
+      </c>
+      <c r="L77" s="26">
+        <v>5.5983571383853049E-2</v>
+      </c>
+      <c r="M77" s="27">
+        <v>8.3802011708645194E-2</v>
+      </c>
+      <c r="N77" s="27">
+        <v>66.8045673873455</v>
+      </c>
+      <c r="O77" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="12.75">
+      <c r="A78" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C78" s="21">
+        <v>1.2060948269319787</v>
+      </c>
+      <c r="D78" s="21">
+        <v>-17.545650969491497</v>
+      </c>
+      <c r="E78" s="22">
+        <v>-12.1507277700585</v>
+      </c>
+      <c r="F78" s="22">
+        <v>52.658396168793239</v>
+      </c>
+      <c r="G78" s="22">
+        <v>76.038724369051195</v>
+      </c>
+      <c r="H78" s="22">
+        <v>948.41247862479781</v>
+      </c>
+      <c r="I78" s="22">
+        <v>1737.2281518785637</v>
+      </c>
+      <c r="J78" s="22">
+        <v>788.81567325376591</v>
+      </c>
+      <c r="K78" s="21">
+        <v>1661.1894275095126</v>
+      </c>
+      <c r="L78" s="26">
+        <v>4.9152973769025082E-2</v>
+      </c>
+      <c r="M78" s="27">
+        <v>7.2335007373018539E-2</v>
+      </c>
+      <c r="N78" s="27">
+        <v>67.951847320001079</v>
+      </c>
+      <c r="O78" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -37806,7 +38588,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH76"/>
+  <dimension ref="A1:AH78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -37881,19 +38663,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -37986,7 +38768,7 @@
         <v>11</v>
       </c>
       <c r="R4" s="32" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="S4" s="32" t="s">
         <v>13</v>
@@ -42019,6 +42801,106 @@
         <v>94.815894850860488</v>
       </c>
       <c r="P76" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="12.75">
+      <c r="A77" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.2024986554579709</v>
+      </c>
+      <c r="D77" s="21">
+        <v>0</v>
+      </c>
+      <c r="E77" s="22">
+        <v>0</v>
+      </c>
+      <c r="F77" s="22">
+        <v>0</v>
+      </c>
+      <c r="G77" s="22">
+        <v>0</v>
+      </c>
+      <c r="H77" s="22">
+        <v>606.68726876574192</v>
+      </c>
+      <c r="I77" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J77" s="22">
+        <v>389.36329485505701</v>
+      </c>
+      <c r="K77" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L77" s="26">
+        <v>68.835098442807833</v>
+      </c>
+      <c r="M77" s="27">
+        <v>68.645170694118619</v>
+      </c>
+      <c r="N77" s="27">
+        <v>55.559808615747677</v>
+      </c>
+      <c r="O77" s="27">
+        <v>94.815894850860488</v>
+      </c>
+      <c r="P77" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="12.75">
+      <c r="A78" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.2060948269319787</v>
+      </c>
+      <c r="D78" s="21">
+        <v>0</v>
+      </c>
+      <c r="E78" s="22">
+        <v>0</v>
+      </c>
+      <c r="F78" s="22">
+        <v>0</v>
+      </c>
+      <c r="G78" s="22">
+        <v>0</v>
+      </c>
+      <c r="H78" s="22">
+        <v>606.68726876574192</v>
+      </c>
+      <c r="I78" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J78" s="22">
+        <v>389.36329485505701</v>
+      </c>
+      <c r="K78" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L78" s="26">
+        <v>71.104385321535176</v>
+      </c>
+      <c r="M78" s="27">
+        <v>69.464908903257466</v>
+      </c>
+      <c r="N78" s="27">
+        <v>60.194842044917607</v>
+      </c>
+      <c r="O78" s="27">
+        <v>88.005042619937171</v>
+      </c>
+      <c r="P78" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -42040,7 +42922,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH76"/>
+  <dimension ref="A1:AH78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -42096,10 +42978,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -42153,7 +43035,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -45643,6 +46525,88 @@
         <v>195.67538981277875</v>
       </c>
       <c r="M76" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="12.75">
+      <c r="A77" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.2024986554579709</v>
+      </c>
+      <c r="D77" s="20">
+        <v>827300</v>
+      </c>
+      <c r="E77" s="20">
+        <v>2183975.1230284986</v>
+      </c>
+      <c r="F77" s="21">
+        <v>0</v>
+      </c>
+      <c r="G77" s="22">
+        <v>0</v>
+      </c>
+      <c r="H77" s="22">
+        <v>0</v>
+      </c>
+      <c r="I77" s="22">
+        <v>0</v>
+      </c>
+      <c r="J77" s="22">
+        <v>317.51541321901169</v>
+      </c>
+      <c r="K77" s="22">
+        <v>513.19080303179044</v>
+      </c>
+      <c r="L77" s="22">
+        <v>195.67538981277875</v>
+      </c>
+      <c r="M77" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="12.75">
+      <c r="A78" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.2060948269319787</v>
+      </c>
+      <c r="D78" s="20">
+        <v>443699.03125</v>
+      </c>
+      <c r="E78" s="20">
+        <v>2166399.987299507</v>
+      </c>
+      <c r="F78" s="21">
+        <v>0</v>
+      </c>
+      <c r="G78" s="22">
+        <v>0</v>
+      </c>
+      <c r="H78" s="22">
+        <v>0</v>
+      </c>
+      <c r="I78" s="22">
+        <v>0</v>
+      </c>
+      <c r="J78" s="22">
+        <v>317.51541321901169</v>
+      </c>
+      <c r="K78" s="22">
+        <v>513.19080303179044</v>
+      </c>
+      <c r="L78" s="22">
+        <v>195.67538981277875</v>
+      </c>
+      <c r="M78" s="21">
         <v>513.19080303179044</v>
       </c>
     </row>

--- a/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,6 +145,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -158,6 +162,10 @@
   </si>
   <si>
     <t>标志</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -871,7 +879,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1096,6 +1104,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1105,7 +1116,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1329,6 +1340,9 @@
                   <c:v>3887.8048077681256</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>3887.8048077681256</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>3887.8048077681256</c:v>
                 </c:pt>
               </c:numCache>
@@ -1372,7 +1386,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1597,6 +1611,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1606,7 +1623,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1830,6 +1847,9 @@
                   <c:v>5897.0503205355863</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>5897.0503205355863</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>5897.0503205355863</c:v>
                 </c:pt>
               </c:numCache>
@@ -1873,7 +1893,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2098,6 +2118,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2107,7 +2130,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2331,6 +2354,9 @@
                   <c:v>2009.2455127674607</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>2009.2455127674607</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>2009.2455127674607</c:v>
                 </c:pt>
               </c:numCache>
@@ -2353,11 +2379,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="531740928"/>
-        <c:axId val="531751296"/>
+        <c:axId val="543855360"/>
+        <c:axId val="543857280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="531740928"/>
+        <c:axId val="543855360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2400,14 +2426,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531751296"/>
+        <c:crossAx val="543857280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="531751296"/>
+        <c:axId val="543857280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2456,7 +2482,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531740928"/>
+        <c:crossAx val="543855360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2670,7 +2696,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2895,6 +2921,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2904,7 +2933,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3128,6 +3157,9 @@
                   <c:v>5134.7400550187222</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>5134.7400550187222</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>5134.7400550187222</c:v>
                 </c:pt>
               </c:numCache>
@@ -3171,7 +3203,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3396,6 +3428,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3405,7 +3440,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3630,6 +3665,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>8792.2998848275638</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8696.8981942673017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3672,7 +3710,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3897,6 +3935,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3906,7 +3947,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4131,6 +4172,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>3657.5598298088416</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3562.1581392485796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4152,11 +4196,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537748608"/>
-        <c:axId val="537750528"/>
+        <c:axId val="544499968"/>
+        <c:axId val="544506624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537748608"/>
+        <c:axId val="544499968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4199,14 +4243,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537750528"/>
+        <c:crossAx val="544506624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537750528"/>
+        <c:axId val="544506624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4255,7 +4299,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537748608"/>
+        <c:crossAx val="544499968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4469,7 +4513,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4694,6 +4738,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4703,7 +4750,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4927,6 +4974,9 @@
                   <c:v>3693.4145673797188</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>3693.4145673797188</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>3693.4145673797188</c:v>
                 </c:pt>
               </c:numCache>
@@ -4970,7 +5020,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5195,6 +5245,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5204,7 +5257,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5428,6 +5481,9 @@
                   <c:v>5689.000493947472</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>5689.000493947472</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>5689.000493947472</c:v>
                 </c:pt>
               </c:numCache>
@@ -5471,7 +5527,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5696,6 +5752,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5705,7 +5764,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5929,6 +5988,9 @@
                   <c:v>1995.5859265677532</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>1995.5859265677532</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>1995.5859265677532</c:v>
                 </c:pt>
               </c:numCache>
@@ -5951,11 +6013,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511386752"/>
-        <c:axId val="511388288"/>
+        <c:axId val="557563904"/>
+        <c:axId val="557565440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511386752"/>
+        <c:axId val="557563904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5998,14 +6060,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511388288"/>
+        <c:crossAx val="557565440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511388288"/>
+        <c:axId val="557565440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6054,7 +6116,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511386752"/>
+        <c:crossAx val="557563904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6268,7 +6330,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6493,6 +6555,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6502,7 +6567,7 @@
               <c:f>'模型二 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6726,6 +6791,9 @@
                   <c:v>1980.6068162113841</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>1980.6068162113841</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>1980.6068162113841</c:v>
                 </c:pt>
               </c:numCache>
@@ -6769,7 +6837,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6994,6 +7062,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7003,7 +7074,7 @@
               <c:f>'模型二 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7227,6 +7298,9 @@
                   <c:v>2799.4811971394251</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>2799.4811971394251</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>2799.4811971394251</c:v>
                 </c:pt>
               </c:numCache>
@@ -7270,7 +7344,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7495,6 +7569,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7504,7 +7581,7 @@
               <c:f>'模型二 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7728,6 +7805,9 @@
                   <c:v>818.87438092804109</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>818.87438092804109</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>818.87438092804109</c:v>
                 </c:pt>
               </c:numCache>
@@ -7750,11 +7830,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="512112896"/>
-        <c:axId val="512118784"/>
+        <c:axId val="399987456"/>
+        <c:axId val="399988992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="512112896"/>
+        <c:axId val="399987456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7797,14 +7877,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512118784"/>
+        <c:crossAx val="399988992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="512118784"/>
+        <c:axId val="399988992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7853,7 +7933,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512112896"/>
+        <c:crossAx val="399987456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8067,7 +8147,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8292,6 +8372,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8301,7 +8384,7 @@
               <c:f>'模型二 (2)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8525,6 +8608,9 @@
                   <c:v>638.61817764814953</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>638.61817764814953</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>638.61817764814953</c:v>
                 </c:pt>
               </c:numCache>
@@ -8568,7 +8654,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8793,6 +8879,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8802,7 +8891,7 @@
               <c:f>'模型二 (2)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9026,6 +9115,9 @@
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>1041.2062722107735</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
               </c:numCache>
@@ -9069,7 +9161,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9294,6 +9386,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9303,7 +9398,7 @@
               <c:f>'模型二 (2)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9527,6 +9622,9 @@
                   <c:v>402.58809456262395</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>402.58809456262395</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>402.58809456262395</c:v>
                 </c:pt>
               </c:numCache>
@@ -9549,11 +9647,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="512310656"/>
-        <c:axId val="512312448"/>
+        <c:axId val="400082816"/>
+        <c:axId val="400084352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="512310656"/>
+        <c:axId val="400082816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9596,14 +9694,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512312448"/>
+        <c:crossAx val="400084352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="512312448"/>
+        <c:axId val="400084352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9652,7 +9750,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512310656"/>
+        <c:crossAx val="400082816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9866,7 +9964,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10091,6 +10189,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10100,7 +10201,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10324,6 +10425,9 @@
                   <c:v>948.41247862479781</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>948.41247862479781</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>948.41247862479781</c:v>
                 </c:pt>
               </c:numCache>
@@ -10367,7 +10471,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10592,6 +10696,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10601,7 +10708,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10826,6 +10933,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>1737.2281518785637</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1734.2266211375272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10868,7 +10978,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11093,6 +11203,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11102,7 +11215,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11327,6 +11440,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>788.81567325376591</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>785.8141425127294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11348,11 +11464,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="512398080"/>
-        <c:axId val="512399616"/>
+        <c:axId val="521280512"/>
+        <c:axId val="521302784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="512398080"/>
+        <c:axId val="521280512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11395,14 +11511,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512399616"/>
+        <c:crossAx val="521302784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="512399616"/>
+        <c:axId val="521302784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11451,7 +11567,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512398080"/>
+        <c:crossAx val="521280512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11665,7 +11781,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11890,6 +12006,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11899,7 +12018,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12123,6 +12242,9 @@
                   <c:v>606.68726876574192</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>606.68726876574192</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>606.68726876574192</c:v>
                 </c:pt>
               </c:numCache>
@@ -12166,7 +12288,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12391,6 +12513,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12400,7 +12525,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12624,6 +12749,9 @@
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
               </c:numCache>
@@ -12667,7 +12795,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12892,6 +13020,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12901,7 +13032,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13125,6 +13256,9 @@
                   <c:v>389.36329485505701</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>389.36329485505701</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>389.36329485505701</c:v>
                 </c:pt>
               </c:numCache>
@@ -13147,11 +13281,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="512862080"/>
-        <c:axId val="512863616"/>
+        <c:axId val="538931584"/>
+        <c:axId val="538933120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="512862080"/>
+        <c:axId val="538931584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13194,14 +13328,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512863616"/>
+        <c:crossAx val="538933120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="512863616"/>
+        <c:axId val="538933120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13250,7 +13384,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512862080"/>
+        <c:crossAx val="538931584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13464,7 +13598,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13689,6 +13823,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13698,7 +13835,7 @@
               <c:f>'模型二 (2)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13922,6 +14059,9 @@
                   <c:v>317.51541321901169</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>317.51541321901169</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>317.51541321901169</c:v>
                 </c:pt>
               </c:numCache>
@@ -13965,7 +14105,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14190,6 +14330,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14199,7 +14342,7 @@
               <c:f>'模型二 (2)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14423,6 +14566,9 @@
                   <c:v>513.19080303179044</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>513.19080303179044</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>513.19080303179044</c:v>
                 </c:pt>
               </c:numCache>
@@ -14466,7 +14612,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14691,6 +14837,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14700,7 +14849,7 @@
               <c:f>'模型二 (2)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14924,6 +15073,9 @@
                   <c:v>195.67538981277875</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>195.67538981277875</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>195.67538981277875</c:v>
                 </c:pt>
               </c:numCache>
@@ -14946,11 +15098,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="512916480"/>
-        <c:axId val="512918272"/>
+        <c:axId val="541566464"/>
+        <c:axId val="541568000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="512916480"/>
+        <c:axId val="541566464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14993,14 +15145,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512918272"/>
+        <c:crossAx val="541568000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="512918272"/>
+        <c:axId val="541568000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15049,7 +15201,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512916480"/>
+        <c:crossAx val="541566464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15157,7 +15309,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15200,7 +15352,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15243,7 +15395,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15286,7 +15438,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15329,7 +15481,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15372,7 +15524,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15415,7 +15567,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15458,7 +15610,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15771,7 +15923,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF78"/>
+  <dimension ref="A1:AF79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18994,6 +19146,41 @@
         <v>5897.0503205355863</v>
       </c>
     </row>
+    <row r="79" spans="1:11" ht="12.75">
+      <c r="A79" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.2090686716896166</v>
+      </c>
+      <c r="D79" s="21">
+        <v>0</v>
+      </c>
+      <c r="E79" s="22">
+        <v>0</v>
+      </c>
+      <c r="F79" s="22">
+        <v>0</v>
+      </c>
+      <c r="G79" s="22">
+        <v>0</v>
+      </c>
+      <c r="H79" s="22">
+        <v>3887.8048077681256</v>
+      </c>
+      <c r="I79" s="22">
+        <v>5897.0503205355863</v>
+      </c>
+      <c r="J79" s="22">
+        <v>2009.2455127674607</v>
+      </c>
+      <c r="K79" s="21">
+        <v>5897.0503205355863</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -19010,7 +19197,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH78"/>
+  <dimension ref="A1:AH79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19085,16 +19272,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -23138,6 +23325,53 @@
         <v>67.951847320001079</v>
       </c>
       <c r="O78" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="12.75">
+      <c r="A79" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.2090686716896166</v>
+      </c>
+      <c r="D79" s="21">
+        <v>-55.158700837574443</v>
+      </c>
+      <c r="E79" s="22">
+        <v>-39.768350570179138</v>
+      </c>
+      <c r="F79" s="22">
+        <v>1633.9443147747445</v>
+      </c>
+      <c r="G79" s="22">
+        <v>2266.2807069372939</v>
+      </c>
+      <c r="H79" s="22">
+        <v>5134.7400550187222</v>
+      </c>
+      <c r="I79" s="22">
+        <v>8696.8981942673017</v>
+      </c>
+      <c r="J79" s="22">
+        <v>3562.1581392485796</v>
+      </c>
+      <c r="K79" s="21">
+        <v>6430.6174873300088</v>
+      </c>
+      <c r="L79" s="26">
+        <v>4.3127480048202861E-2</v>
+      </c>
+      <c r="M79" s="27">
+        <v>6.2445841384864087E-2</v>
+      </c>
+      <c r="N79" s="27">
+        <v>69.063814485901545</v>
+      </c>
+      <c r="O79" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -23159,7 +23393,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH78"/>
+  <dimension ref="A1:AH79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23201,7 +23435,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -23234,19 +23468,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -27473,6 +27707,56 @@
         <v>88.005042619937171</v>
       </c>
       <c r="P78" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="12.75">
+      <c r="A79" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.2090686716896166</v>
+      </c>
+      <c r="D79" s="21">
+        <v>0</v>
+      </c>
+      <c r="E79" s="22">
+        <v>0</v>
+      </c>
+      <c r="F79" s="22">
+        <v>0</v>
+      </c>
+      <c r="G79" s="22">
+        <v>0</v>
+      </c>
+      <c r="H79" s="22">
+        <v>3693.4145673797188</v>
+      </c>
+      <c r="I79" s="22">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="J79" s="22">
+        <v>1995.5859265677532</v>
+      </c>
+      <c r="K79" s="21">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="L79" s="26">
+        <v>73.071104223370014</v>
+      </c>
+      <c r="M79" s="27">
+        <v>70.666974009961649</v>
+      </c>
+      <c r="N79" s="27">
+        <v>63.685552699932288</v>
+      </c>
+      <c r="O79" s="27">
+        <v>84.629816630020372</v>
+      </c>
+      <c r="P79" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -27494,7 +27778,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH78"/>
+  <dimension ref="A1:AH79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27550,10 +27834,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -31179,6 +31463,47 @@
         <v>818.87438092804109</v>
       </c>
       <c r="M78" s="21">
+        <v>2799.4811971394251</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="12.75">
+      <c r="A79" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.2090686716896166</v>
+      </c>
+      <c r="D79" s="20">
+        <v>589925</v>
+      </c>
+      <c r="E79" s="20">
+        <v>2143295.723269396</v>
+      </c>
+      <c r="F79" s="21">
+        <v>0</v>
+      </c>
+      <c r="G79" s="22">
+        <v>0</v>
+      </c>
+      <c r="H79" s="22">
+        <v>0</v>
+      </c>
+      <c r="I79" s="22">
+        <v>0</v>
+      </c>
+      <c r="J79" s="22">
+        <v>1980.6068162113841</v>
+      </c>
+      <c r="K79" s="22">
+        <v>2799.4811971394251</v>
+      </c>
+      <c r="L79" s="22">
+        <v>818.87438092804109</v>
+      </c>
+      <c r="M79" s="21">
         <v>2799.4811971394251</v>
       </c>
     </row>
@@ -31200,7 +31525,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF78"/>
+  <dimension ref="A1:AF79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31242,7 +31567,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -34420,6 +34745,41 @@
         <v>402.58809456262395</v>
       </c>
       <c r="K78" s="21">
+        <v>1041.2062722107735</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="12.75">
+      <c r="A79" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.2090686716896166</v>
+      </c>
+      <c r="D79" s="21">
+        <v>0</v>
+      </c>
+      <c r="E79" s="22">
+        <v>0</v>
+      </c>
+      <c r="F79" s="22">
+        <v>0</v>
+      </c>
+      <c r="G79" s="22">
+        <v>0</v>
+      </c>
+      <c r="H79" s="22">
+        <v>638.61817764814953</v>
+      </c>
+      <c r="I79" s="22">
+        <v>1041.2062722107735</v>
+      </c>
+      <c r="J79" s="22">
+        <v>402.58809456262395</v>
+      </c>
+      <c r="K79" s="21">
         <v>1041.2062722107735</v>
       </c>
     </row>
@@ -34439,7 +34799,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH78"/>
+  <dimension ref="A1:AH79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34481,7 +34841,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -34514,16 +34874,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -38567,6 +38927,53 @@
         <v>67.951847320001079</v>
       </c>
       <c r="O78" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="12.75">
+      <c r="A79" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C79" s="21">
+        <v>1.2090686716896166</v>
+      </c>
+      <c r="D79" s="21">
+        <v>-9.8144589615775342</v>
+      </c>
+      <c r="E79" s="22">
+        <v>-7.0760340384009481</v>
+      </c>
+      <c r="F79" s="22">
+        <v>45.582362130392291</v>
+      </c>
+      <c r="G79" s="22">
+        <v>63.222734666437169</v>
+      </c>
+      <c r="H79" s="22">
+        <v>948.41247862479781</v>
+      </c>
+      <c r="I79" s="22">
+        <v>1734.2266211375272</v>
+      </c>
+      <c r="J79" s="22">
+        <v>785.8141425127294</v>
+      </c>
+      <c r="K79" s="21">
+        <v>1671.00388647109</v>
+      </c>
+      <c r="L79" s="26">
+        <v>4.3127480048202861E-2</v>
+      </c>
+      <c r="M79" s="27">
+        <v>6.2445841384864087E-2</v>
+      </c>
+      <c r="N79" s="27">
+        <v>69.063814485901545</v>
+      </c>
+      <c r="O79" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -38588,7 +38995,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH78"/>
+  <dimension ref="A1:AH79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -38630,7 +39037,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -38663,19 +39070,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -42901,6 +43308,56 @@
         <v>88.005042619937171</v>
       </c>
       <c r="P78" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="12.75">
+      <c r="A79" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.2090686716896166</v>
+      </c>
+      <c r="D79" s="21">
+        <v>0</v>
+      </c>
+      <c r="E79" s="22">
+        <v>0</v>
+      </c>
+      <c r="F79" s="22">
+        <v>0</v>
+      </c>
+      <c r="G79" s="22">
+        <v>0</v>
+      </c>
+      <c r="H79" s="22">
+        <v>606.68726876574192</v>
+      </c>
+      <c r="I79" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J79" s="22">
+        <v>389.36329485505701</v>
+      </c>
+      <c r="K79" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L79" s="26">
+        <v>73.071104223370014</v>
+      </c>
+      <c r="M79" s="27">
+        <v>70.666974009961649</v>
+      </c>
+      <c r="N79" s="27">
+        <v>63.685552699932288</v>
+      </c>
+      <c r="O79" s="27">
+        <v>84.629816630020372</v>
+      </c>
+      <c r="P79" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -42922,7 +43379,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH78"/>
+  <dimension ref="A1:AH79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -42978,10 +43435,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -46610,6 +47067,47 @@
         <v>513.19080303179044</v>
       </c>
     </row>
+    <row r="79" spans="1:13" ht="12.75">
+      <c r="A79" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.2090686716896166</v>
+      </c>
+      <c r="D79" s="20">
+        <v>589925</v>
+      </c>
+      <c r="E79" s="20">
+        <v>2143295.723269396</v>
+      </c>
+      <c r="F79" s="21">
+        <v>0</v>
+      </c>
+      <c r="G79" s="22">
+        <v>0</v>
+      </c>
+      <c r="H79" s="22">
+        <v>0</v>
+      </c>
+      <c r="I79" s="22">
+        <v>0</v>
+      </c>
+      <c r="J79" s="22">
+        <v>317.51541321901169</v>
+      </c>
+      <c r="K79" s="22">
+        <v>513.19080303179044</v>
+      </c>
+      <c r="L79" s="22">
+        <v>195.67538981277875</v>
+      </c>
+      <c r="M79" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="33">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -191,6 +191,10 @@
   <si>
     <t>成交均量</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每年投入本金</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -879,7 +883,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1107,6 +1111,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1116,7 +1123,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1343,6 +1350,9 @@
                   <c:v>3887.8048077681256</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>3887.8048077681256</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>3887.8048077681256</c:v>
                 </c:pt>
               </c:numCache>
@@ -1386,7 +1396,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1614,6 +1624,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1623,7 +1636,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1850,6 +1863,9 @@
                   <c:v>5897.0503205355863</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>5897.0503205355863</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>5897.0503205355863</c:v>
                 </c:pt>
               </c:numCache>
@@ -1893,7 +1909,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2121,6 +2137,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2130,7 +2149,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2357,6 +2376,9 @@
                   <c:v>2009.2455127674607</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>2009.2455127674607</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>2009.2455127674607</c:v>
                 </c:pt>
               </c:numCache>
@@ -2379,11 +2401,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="543855360"/>
-        <c:axId val="543857280"/>
+        <c:axId val="557913984"/>
+        <c:axId val="557915520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="543855360"/>
+        <c:axId val="557913984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2426,14 +2448,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543857280"/>
+        <c:crossAx val="557915520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="543857280"/>
+        <c:axId val="557915520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2482,7 +2504,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543855360"/>
+        <c:crossAx val="557913984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2696,7 +2718,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2924,6 +2946,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2933,7 +2958,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3160,6 +3185,9 @@
                   <c:v>5134.7400550187222</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>5134.7400550187222</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>5134.7400550187222</c:v>
                 </c:pt>
               </c:numCache>
@@ -3203,7 +3231,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3431,6 +3459,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3440,7 +3471,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3668,6 +3699,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>8696.8981942673017</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8556.3790392937008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3710,7 +3744,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3938,6 +3972,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3947,7 +3984,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4175,6 +4212,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>3562.1581392485796</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3421.6389842749786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4196,11 +4236,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="544499968"/>
-        <c:axId val="544506624"/>
+        <c:axId val="565901952"/>
+        <c:axId val="609232384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="544499968"/>
+        <c:axId val="565901952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4243,14 +4283,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544506624"/>
+        <c:crossAx val="609232384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="544506624"/>
+        <c:axId val="609232384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4299,7 +4339,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544499968"/>
+        <c:crossAx val="565901952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4513,7 +4553,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4741,6 +4781,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4750,7 +4793,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4977,6 +5020,9 @@
                   <c:v>3693.4145673797188</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>3693.4145673797188</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>3693.4145673797188</c:v>
                 </c:pt>
               </c:numCache>
@@ -5020,7 +5066,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5248,6 +5294,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5257,7 +5306,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5484,6 +5533,9 @@
                   <c:v>5689.000493947472</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>5689.000493947472</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>5689.000493947472</c:v>
                 </c:pt>
               </c:numCache>
@@ -5527,7 +5579,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5755,6 +5807,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5764,7 +5819,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5991,6 +6046,9 @@
                   <c:v>1995.5859265677532</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>1995.5859265677532</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>1995.5859265677532</c:v>
                 </c:pt>
               </c:numCache>
@@ -6013,11 +6071,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="557563904"/>
-        <c:axId val="557565440"/>
+        <c:axId val="507581568"/>
+        <c:axId val="507583104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="557563904"/>
+        <c:axId val="507581568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6060,14 +6118,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557565440"/>
+        <c:crossAx val="507583104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="557565440"/>
+        <c:axId val="507583104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6116,7 +6174,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557563904"/>
+        <c:crossAx val="507581568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6330,7 +6388,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6558,6 +6616,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6567,7 +6628,7 @@
               <c:f>'模型二 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6794,6 +6855,9 @@
                   <c:v>1980.6068162113841</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>1980.6068162113841</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>1980.6068162113841</c:v>
                 </c:pt>
               </c:numCache>
@@ -6837,7 +6901,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7065,6 +7129,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7074,7 +7141,7 @@
               <c:f>'模型二 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7301,6 +7368,9 @@
                   <c:v>2799.4811971394251</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>2799.4811971394251</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>2799.4811971394251</c:v>
                 </c:pt>
               </c:numCache>
@@ -7344,7 +7414,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7572,6 +7642,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7581,7 +7654,7 @@
               <c:f>'模型二 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7808,6 +7881,9 @@
                   <c:v>818.87438092804109</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>818.87438092804109</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>818.87438092804109</c:v>
                 </c:pt>
               </c:numCache>
@@ -7830,11 +7906,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="399987456"/>
-        <c:axId val="399988992"/>
+        <c:axId val="507635968"/>
+        <c:axId val="552206336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="399987456"/>
+        <c:axId val="507635968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7877,14 +7953,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399988992"/>
+        <c:crossAx val="552206336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="399988992"/>
+        <c:axId val="552206336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7933,7 +8009,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399987456"/>
+        <c:crossAx val="507635968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8147,7 +8223,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8375,6 +8451,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8384,7 +8463,7 @@
               <c:f>'模型二 (2)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8611,6 +8690,9 @@
                   <c:v>638.61817764814953</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>638.61817764814953</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>638.61817764814953</c:v>
                 </c:pt>
               </c:numCache>
@@ -8654,7 +8736,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8882,6 +8964,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8891,7 +8976,7 @@
               <c:f>'模型二 (2)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9118,6 +9203,9 @@
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>1041.2062722107735</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
               </c:numCache>
@@ -9161,7 +9249,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9389,6 +9477,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9398,7 +9489,7 @@
               <c:f>'模型二 (2)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9625,6 +9716,9 @@
                   <c:v>402.58809456262395</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>402.58809456262395</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>402.58809456262395</c:v>
                 </c:pt>
               </c:numCache>
@@ -9647,11 +9741,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="400082816"/>
-        <c:axId val="400084352"/>
+        <c:axId val="552263040"/>
+        <c:axId val="552268928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="400082816"/>
+        <c:axId val="552263040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9694,14 +9788,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400084352"/>
+        <c:crossAx val="552268928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="400084352"/>
+        <c:axId val="552268928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9750,7 +9844,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400082816"/>
+        <c:crossAx val="552263040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9964,7 +10058,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10192,6 +10286,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10201,7 +10298,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10428,6 +10525,9 @@
                   <c:v>948.41247862479781</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>948.41247862479781</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>948.41247862479781</c:v>
                 </c:pt>
               </c:numCache>
@@ -10471,7 +10571,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10699,6 +10799,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10708,7 +10811,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10936,6 +11039,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>1734.2266211375272</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1730.3065395592596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10978,7 +11084,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11206,6 +11312,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11215,7 +11324,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11443,6 +11552,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>785.8141425127294</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>781.89406093446178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11464,11 +11576,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="521280512"/>
-        <c:axId val="521302784"/>
+        <c:axId val="552362752"/>
+        <c:axId val="552364288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="521280512"/>
+        <c:axId val="552362752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11511,14 +11623,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521302784"/>
+        <c:crossAx val="552364288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="521302784"/>
+        <c:axId val="552364288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11567,7 +11679,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521280512"/>
+        <c:crossAx val="552362752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11781,7 +11893,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12009,6 +12121,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12018,7 +12133,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12245,6 +12360,9 @@
                   <c:v>606.68726876574192</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>606.68726876574192</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>606.68726876574192</c:v>
                 </c:pt>
               </c:numCache>
@@ -12288,7 +12406,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12516,6 +12634,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12525,7 +12646,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12752,6 +12873,9 @@
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
               </c:numCache>
@@ -12795,7 +12919,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13023,6 +13147,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13032,7 +13159,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13259,6 +13386,9 @@
                   <c:v>389.36329485505701</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>389.36329485505701</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>389.36329485505701</c:v>
                 </c:pt>
               </c:numCache>
@@ -13281,11 +13411,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="538931584"/>
-        <c:axId val="538933120"/>
+        <c:axId val="552449920"/>
+        <c:axId val="552451456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="538931584"/>
+        <c:axId val="552449920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13328,14 +13458,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538933120"/>
+        <c:crossAx val="552451456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="538933120"/>
+        <c:axId val="552451456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13384,7 +13514,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538931584"/>
+        <c:crossAx val="552449920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13598,7 +13728,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13826,6 +13956,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13835,7 +13968,7 @@
               <c:f>'模型二 (2)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14062,6 +14195,9 @@
                   <c:v>317.51541321901169</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>317.51541321901169</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>317.51541321901169</c:v>
                 </c:pt>
               </c:numCache>
@@ -14105,7 +14241,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14333,6 +14469,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14342,7 +14481,7 @@
               <c:f>'模型二 (2)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14569,6 +14708,9 @@
                   <c:v>513.19080303179044</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>513.19080303179044</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>513.19080303179044</c:v>
                 </c:pt>
               </c:numCache>
@@ -14612,7 +14754,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14840,6 +14982,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14849,7 +14994,7 @@
               <c:f>'模型二 (2)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15076,6 +15221,9 @@
                   <c:v>195.67538981277875</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>195.67538981277875</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>195.67538981277875</c:v>
                 </c:pt>
               </c:numCache>
@@ -15098,11 +15246,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="541566464"/>
-        <c:axId val="541568000"/>
+        <c:axId val="552627200"/>
+        <c:axId val="552633088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="541566464"/>
+        <c:axId val="552627200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15145,14 +15293,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541568000"/>
+        <c:crossAx val="552633088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="541568000"/>
+        <c:axId val="552633088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15201,7 +15349,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541566464"/>
+        <c:crossAx val="552627200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15309,7 +15457,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15352,7 +15500,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15395,7 +15543,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15438,7 +15586,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15481,7 +15629,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15524,7 +15672,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15567,7 +15715,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15610,7 +15758,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15923,7 +16071,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF79"/>
+  <dimension ref="A1:AF80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19181,6 +19329,41 @@
         <v>5897.0503205355863</v>
       </c>
     </row>
+    <row r="80" spans="1:11" ht="12.75">
+      <c r="A80" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.2109793806853366</v>
+      </c>
+      <c r="D80" s="21">
+        <v>0</v>
+      </c>
+      <c r="E80" s="22">
+        <v>0</v>
+      </c>
+      <c r="F80" s="22">
+        <v>0</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0</v>
+      </c>
+      <c r="H80" s="22">
+        <v>3887.8048077681256</v>
+      </c>
+      <c r="I80" s="22">
+        <v>5897.0503205355863</v>
+      </c>
+      <c r="J80" s="22">
+        <v>2009.2455127674607</v>
+      </c>
+      <c r="K80" s="21">
+        <v>5897.0503205355863</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -19197,7 +19380,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH79"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19239,7 +19422,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -23372,6 +23555,53 @@
         <v>69.063814485901545</v>
       </c>
       <c r="O79" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="12.75">
+      <c r="A80" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.2109793806853366</v>
+      </c>
+      <c r="D80" s="21">
+        <v>-27.906391691906613</v>
+      </c>
+      <c r="E80" s="22">
+        <v>-21.449955197819282</v>
+      </c>
+      <c r="F80" s="22">
+        <v>1612.4943595769253</v>
+      </c>
+      <c r="G80" s="22">
+        <v>2097.8551602717853</v>
+      </c>
+      <c r="H80" s="22">
+        <v>5134.7400550187222</v>
+      </c>
+      <c r="I80" s="22">
+        <v>8556.3790392937008</v>
+      </c>
+      <c r="J80" s="22">
+        <v>3421.6389842749786</v>
+      </c>
+      <c r="K80" s="21">
+        <v>6458.5238790219155</v>
+      </c>
+      <c r="L80" s="26">
+        <v>3.5939566706835714E-2</v>
+      </c>
+      <c r="M80" s="27">
+        <v>6.153820798871934E-2</v>
+      </c>
+      <c r="N80" s="27">
+        <v>58.40203652570424</v>
+      </c>
+      <c r="O80" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -23393,7 +23623,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH79"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23435,7 +23665,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -27757,6 +27987,56 @@
         <v>84.629816630020372</v>
       </c>
       <c r="P79" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="12.75">
+      <c r="A80" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.2109793806853366</v>
+      </c>
+      <c r="D80" s="21">
+        <v>0</v>
+      </c>
+      <c r="E80" s="22">
+        <v>0</v>
+      </c>
+      <c r="F80" s="22">
+        <v>0</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0</v>
+      </c>
+      <c r="H80" s="22">
+        <v>3693.4145673797188</v>
+      </c>
+      <c r="I80" s="22">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="J80" s="22">
+        <v>1995.5859265677532</v>
+      </c>
+      <c r="K80" s="21">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="L80" s="26">
+        <v>58.110511427528067</v>
+      </c>
+      <c r="M80" s="27">
+        <v>66.481486482483788</v>
+      </c>
+      <c r="N80" s="27">
+        <v>64.617530627449455</v>
+      </c>
+      <c r="O80" s="27">
+        <v>70.20939819255247</v>
+      </c>
+      <c r="P80" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -27778,7 +28058,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH79"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27951,7 +28231,7 @@
         <v>11</v>
       </c>
       <c r="R4" s="32" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="S4" s="32" t="s">
         <v>13</v>
@@ -31504,6 +31784,47 @@
         <v>818.87438092804109</v>
       </c>
       <c r="M79" s="21">
+        <v>2799.4811971394251</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="12.75">
+      <c r="A80" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.2109793806853366</v>
+      </c>
+      <c r="D80" s="20">
+        <v>543149</v>
+      </c>
+      <c r="E80" s="20">
+        <v>2120463.4883643081</v>
+      </c>
+      <c r="F80" s="21">
+        <v>0</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0</v>
+      </c>
+      <c r="H80" s="22">
+        <v>0</v>
+      </c>
+      <c r="I80" s="22">
+        <v>0</v>
+      </c>
+      <c r="J80" s="22">
+        <v>1980.6068162113841</v>
+      </c>
+      <c r="K80" s="22">
+        <v>2799.4811971394251</v>
+      </c>
+      <c r="L80" s="22">
+        <v>818.87438092804109</v>
+      </c>
+      <c r="M80" s="21">
         <v>2799.4811971394251</v>
       </c>
     </row>
@@ -31525,7 +31846,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF79"/>
+  <dimension ref="A1:AF80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31567,7 +31888,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -34780,6 +35101,41 @@
         <v>402.58809456262395</v>
       </c>
       <c r="K79" s="21">
+        <v>1041.2062722107735</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="12.75">
+      <c r="A80" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.2109793806853366</v>
+      </c>
+      <c r="D80" s="21">
+        <v>0</v>
+      </c>
+      <c r="E80" s="22">
+        <v>0</v>
+      </c>
+      <c r="F80" s="22">
+        <v>0</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0</v>
+      </c>
+      <c r="H80" s="22">
+        <v>638.61817764814953</v>
+      </c>
+      <c r="I80" s="22">
+        <v>1041.2062722107735</v>
+      </c>
+      <c r="J80" s="22">
+        <v>402.58809456262395</v>
+      </c>
+      <c r="K80" s="21">
         <v>1041.2062722107735</v>
       </c>
     </row>
@@ -34799,7 +35155,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH79"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -38977,6 +39333,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="80" spans="1:15" ht="12.75">
+      <c r="A80" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C80" s="21">
+        <v>1.2109793806853366</v>
+      </c>
+      <c r="D80" s="21">
+        <v>-2.5121506363294013</v>
+      </c>
+      <c r="E80" s="22">
+        <v>-1.9309382307232033</v>
+      </c>
+      <c r="F80" s="22">
+        <v>43.651423899669091</v>
+      </c>
+      <c r="G80" s="22">
+        <v>56.790502451840247</v>
+      </c>
+      <c r="H80" s="22">
+        <v>948.41247862479781</v>
+      </c>
+      <c r="I80" s="22">
+        <v>1730.3065395592596</v>
+      </c>
+      <c r="J80" s="22">
+        <v>781.89406093446178</v>
+      </c>
+      <c r="K80" s="21">
+        <v>1673.5160371074194</v>
+      </c>
+      <c r="L80" s="26">
+        <v>3.5939566706835714E-2</v>
+      </c>
+      <c r="M80" s="27">
+        <v>6.153820798871934E-2</v>
+      </c>
+      <c r="N80" s="27">
+        <v>58.40203652570424</v>
+      </c>
+      <c r="O80" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -38995,7 +39398,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH79"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39037,7 +39440,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -43358,6 +43761,56 @@
         <v>84.629816630020372</v>
       </c>
       <c r="P79" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="12.75">
+      <c r="A80" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.2109793806853366</v>
+      </c>
+      <c r="D80" s="21">
+        <v>0</v>
+      </c>
+      <c r="E80" s="22">
+        <v>0</v>
+      </c>
+      <c r="F80" s="22">
+        <v>0</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0</v>
+      </c>
+      <c r="H80" s="22">
+        <v>606.68726876574192</v>
+      </c>
+      <c r="I80" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J80" s="22">
+        <v>389.36329485505701</v>
+      </c>
+      <c r="K80" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L80" s="26">
+        <v>58.110511427528067</v>
+      </c>
+      <c r="M80" s="27">
+        <v>66.481486482483788</v>
+      </c>
+      <c r="N80" s="27">
+        <v>64.617530627449455</v>
+      </c>
+      <c r="O80" s="27">
+        <v>70.20939819255247</v>
+      </c>
+      <c r="P80" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -43379,7 +43832,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH79"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -43552,7 +44005,7 @@
         <v>11</v>
       </c>
       <c r="R4" s="32" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="S4" s="32" t="s">
         <v>13</v>
@@ -47105,6 +47558,47 @@
         <v>195.67538981277875</v>
       </c>
       <c r="M79" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="12.75">
+      <c r="A80" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.2109793806853366</v>
+      </c>
+      <c r="D80" s="20">
+        <v>543149</v>
+      </c>
+      <c r="E80" s="20">
+        <v>2120463.4883643081</v>
+      </c>
+      <c r="F80" s="21">
+        <v>0</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0</v>
+      </c>
+      <c r="H80" s="22">
+        <v>0</v>
+      </c>
+      <c r="I80" s="22">
+        <v>0</v>
+      </c>
+      <c r="J80" s="22">
+        <v>317.51541321901169</v>
+      </c>
+      <c r="K80" s="22">
+        <v>513.19080303179044</v>
+      </c>
+      <c r="L80" s="22">
+        <v>195.67538981277875</v>
+      </c>
+      <c r="M80" s="21">
         <v>513.19080303179044</v>
       </c>
     </row>

--- a/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
@@ -149,6 +149,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>人工智能产业LOF</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -162,10 +166,6 @@
   </si>
   <si>
     <t>标志</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -879,7 +879,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1113,6 +1113,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1122,7 +1125,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1356,6 +1359,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>3887.8048077681256</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3942.462549019066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1398,7 +1404,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1632,6 +1638,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1641,7 +1650,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1875,6 +1884,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>5897.0503205355863</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5951.7080617865267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1917,7 +1929,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2151,6 +2163,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2160,7 +2175,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2393,6 +2408,9 @@
                   <c:v>2009.2455127674607</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>2009.2455127674607</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>2009.2455127674607</c:v>
                 </c:pt>
               </c:numCache>
@@ -2415,11 +2433,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="530862848"/>
-        <c:axId val="531143296"/>
+        <c:axId val="522672000"/>
+        <c:axId val="523129984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="530862848"/>
+        <c:axId val="522672000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2462,14 +2480,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531143296"/>
+        <c:crossAx val="523129984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="531143296"/>
+        <c:axId val="523129984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2518,7 +2536,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530862848"/>
+        <c:crossAx val="522672000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2732,7 +2750,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2966,6 +2984,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2975,7 +2996,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3209,6 +3230,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>5134.7400550187222</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5186.6649092071157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3251,7 +3275,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3485,6 +3509,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3494,7 +3521,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3727,7 +3754,10 @@
                   <c:v>8556.3790392937008</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8459.629469986754</c:v>
+                  <c:v>8459.6294699867522</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8409.0233849248343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3770,7 +3800,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4004,6 +4034,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4013,7 +4046,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4246,7 +4279,10 @@
                   <c:v>3421.6389842749786</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3324.8894149680318</c:v>
+                  <c:v>3324.88941496803</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3222.3584757177186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4268,11 +4304,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482091392"/>
-        <c:axId val="482092928"/>
+        <c:axId val="605441408"/>
+        <c:axId val="503432320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="482091392"/>
+        <c:axId val="605441408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4315,14 +4351,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482092928"/>
+        <c:crossAx val="503432320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="482092928"/>
+        <c:axId val="503432320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4371,7 +4407,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482091392"/>
+        <c:crossAx val="605441408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4585,7 +4621,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4819,6 +4855,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4828,7 +4867,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5062,6 +5101,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>3693.4145673797188</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3745.3394215681124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5104,7 +5146,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5338,6 +5380,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5347,7 +5392,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5581,6 +5626,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>5689.000493947472</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5740.9253481358655</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5623,7 +5671,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5857,6 +5905,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5866,7 +5917,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6099,6 +6150,9 @@
                   <c:v>1995.5859265677532</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>1995.5859265677532</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>1995.5859265677532</c:v>
                 </c:pt>
               </c:numCache>
@@ -6121,11 +6175,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482113024"/>
-        <c:axId val="482114560"/>
+        <c:axId val="516330240"/>
+        <c:axId val="516331776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="482113024"/>
+        <c:axId val="516330240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6168,14 +6222,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482114560"/>
+        <c:crossAx val="516331776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="482114560"/>
+        <c:axId val="516331776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6224,7 +6278,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482113024"/>
+        <c:crossAx val="516330240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6438,7 +6492,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6672,6 +6726,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6681,7 +6738,7 @@
               <c:f>'模型二 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6915,6 +6972,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>1980.6068162113841</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1986.8457267524557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6957,7 +7017,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7191,6 +7251,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7200,7 +7263,7 @@
               <c:f>'模型二 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7434,6 +7497,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2799.4811971394251</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2805.7201076804968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7476,7 +7542,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7710,6 +7776,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7719,7 +7788,7 @@
               <c:f>'模型二 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7952,6 +8021,9 @@
                   <c:v>818.87438092804109</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>818.87438092804109</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>818.87438092804109</c:v>
                 </c:pt>
               </c:numCache>
@@ -7974,11 +8046,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="523790976"/>
-        <c:axId val="523805056"/>
+        <c:axId val="516355968"/>
+        <c:axId val="516357504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="523790976"/>
+        <c:axId val="516355968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8021,14 +8093,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523805056"/>
+        <c:crossAx val="516357504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="523805056"/>
+        <c:axId val="516357504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8077,7 +8149,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523790976"/>
+        <c:crossAx val="516355968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8291,7 +8363,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8525,6 +8597,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8534,7 +8609,7 @@
               <c:f>'模型二 (2)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8768,6 +8843,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>638.61817764814953</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>640.54557679566869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8810,7 +8888,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9044,6 +9122,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9053,7 +9134,7 @@
               <c:f>'模型二 (2)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9286,6 +9367,9 @@
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>1041.2062722107735</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
               </c:numCache>
@@ -9329,7 +9413,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9563,6 +9647,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9572,7 +9659,7 @@
               <c:f>'模型二 (2)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9806,6 +9893,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>402.58809456262395</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>400.66069541510478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9827,11 +9917,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="523841536"/>
-        <c:axId val="523843072"/>
+        <c:axId val="520879104"/>
+        <c:axId val="520880896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="523841536"/>
+        <c:axId val="520879104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9874,14 +9964,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523843072"/>
+        <c:crossAx val="520880896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="523843072"/>
+        <c:axId val="520880896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9930,7 +10020,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523841536"/>
+        <c:crossAx val="520879104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10144,7 +10234,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10378,6 +10468,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10387,7 +10480,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10621,6 +10714,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>948.41247862479781</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>950.24350781494104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10663,7 +10759,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10897,6 +10993,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10906,7 +11005,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11140,6 +11239,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>1727.687456623034</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1726.7486187892623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11182,7 +11284,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11416,6 +11518,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11425,7 +11530,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11659,6 +11764,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>779.27497799823618</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>776.50511097432127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11680,11 +11788,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="523940992"/>
-        <c:axId val="523942528"/>
+        <c:axId val="520946048"/>
+        <c:axId val="520947584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="523940992"/>
+        <c:axId val="520946048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11727,14 +11835,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523942528"/>
+        <c:crossAx val="520947584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="523942528"/>
+        <c:axId val="520947584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11783,7 +11891,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523940992"/>
+        <c:crossAx val="520946048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11997,7 +12105,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12231,6 +12339,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12240,7 +12351,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12474,6 +12585,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>606.68726876574192</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>608.51829795588515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12516,7 +12630,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12750,6 +12864,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12759,7 +12876,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12992,6 +13109,9 @@
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
               </c:numCache>
@@ -13035,7 +13155,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13269,6 +13389,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13278,7 +13401,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13512,6 +13635,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>389.36329485505701</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>387.53226566491378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13533,11 +13659,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524011776"/>
-        <c:axId val="524013568"/>
+        <c:axId val="521045504"/>
+        <c:axId val="521047040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524011776"/>
+        <c:axId val="521045504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13580,14 +13706,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524013568"/>
+        <c:crossAx val="521047040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524013568"/>
+        <c:axId val="521047040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13636,7 +13762,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524011776"/>
+        <c:crossAx val="521045504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13850,7 +13976,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14084,6 +14210,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14093,7 +14222,7 @@
               <c:f>'模型二 (2)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14327,6 +14456,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>317.51541321901169</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>317.73541628871601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14369,7 +14501,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14603,6 +14735,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14612,7 +14747,7 @@
               <c:f>'模型二 (2)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14846,6 +14981,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>513.19080303179044</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>513.4108061014947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14888,7 +15026,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15122,6 +15260,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15131,7 +15272,7 @@
               <c:f>'模型二 (2)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15365,6 +15506,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>195.67538981277875</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>195.67538981277869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15386,11 +15530,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524176768"/>
-        <c:axId val="524199040"/>
+        <c:axId val="521116288"/>
+        <c:axId val="521130368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524176768"/>
+        <c:axId val="521116288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15433,14 +15577,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524199040"/>
+        <c:crossAx val="521130368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524199040"/>
+        <c:axId val="521130368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15489,7 +15633,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524176768"/>
+        <c:crossAx val="521116288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16208,10 +16352,8 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:AF81"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AF82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19539,6 +19681,41 @@
         <v>5897.0503205355863</v>
       </c>
     </row>
+    <row r="82" spans="1:11" ht="12.75">
+      <c r="A82" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.2112630579179002</v>
+      </c>
+      <c r="D82" s="21">
+        <v>54.657741250940553</v>
+      </c>
+      <c r="E82" s="22">
+        <v>46.477671169443127</v>
+      </c>
+      <c r="F82" s="22">
+        <v>46.477671169443127</v>
+      </c>
+      <c r="G82" s="22">
+        <v>54.657741250940553</v>
+      </c>
+      <c r="H82" s="22">
+        <v>3942.462549019066</v>
+      </c>
+      <c r="I82" s="22">
+        <v>5951.7080617865267</v>
+      </c>
+      <c r="J82" s="22">
+        <v>2009.2455127674607</v>
+      </c>
+      <c r="K82" s="21">
+        <v>5897.0503205355863</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -19555,7 +19732,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH81"/>
+  <dimension ref="A1:AH82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19600,7 +19777,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>2</v>
@@ -19630,16 +19807,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -23627,13 +23804,13 @@
         <v>6301.7081810675136</v>
       </c>
       <c r="L77" s="26">
-        <v>5.5983571383853049E-2</v>
+        <v>4.9152973769025082E-2</v>
       </c>
       <c r="M77" s="27">
-        <v>8.3802011708645194E-2</v>
+        <v>7.2335007373018539E-2</v>
       </c>
       <c r="N77" s="27">
-        <v>66.8045673873455</v>
+        <v>67.951847320001079</v>
       </c>
       <c r="O77" s="27">
         <v>0.2</v>
@@ -23674,13 +23851,13 @@
         <v>6375.4587864924342</v>
       </c>
       <c r="L78" s="26">
-        <v>4.9152973769025082E-2</v>
+        <v>4.3127480048202861E-2</v>
       </c>
       <c r="M78" s="27">
-        <v>7.2335007373018539E-2</v>
+        <v>6.2445841384864087E-2</v>
       </c>
       <c r="N78" s="27">
-        <v>67.951847320001079</v>
+        <v>69.063814485901545</v>
       </c>
       <c r="O78" s="27">
         <v>0.2</v>
@@ -23721,13 +23898,13 @@
         <v>6430.6174873300088</v>
       </c>
       <c r="L79" s="26">
-        <v>4.3127480048202861E-2</v>
+        <v>3.5939566706835714E-2</v>
       </c>
       <c r="M79" s="27">
-        <v>6.2445841384864087E-2</v>
+        <v>6.153820798871934E-2</v>
       </c>
       <c r="N79" s="27">
-        <v>69.063814485901545</v>
+        <v>58.40203652570424</v>
       </c>
       <c r="O79" s="27">
         <v>0.2</v>
@@ -23768,13 +23945,13 @@
         <v>6458.5238790219155</v>
       </c>
       <c r="L80" s="26">
-        <v>3.5939566706835714E-2</v>
+        <v>2.9949638922363093E-2</v>
       </c>
       <c r="M80" s="27">
-        <v>6.153820798871934E-2</v>
+        <v>6.561516760188689E-2</v>
       </c>
       <c r="N80" s="27">
-        <v>58.40203652570424</v>
+        <v>45.644383786504008</v>
       </c>
       <c r="O80" s="27">
         <v>0.2</v>
@@ -23791,40 +23968,87 @@
         <v>1.2114211188663961</v>
       </c>
       <c r="D81" s="21">
-        <v>-9.169470594120444</v>
+        <v>-43.554985322072106</v>
       </c>
       <c r="E81" s="22">
-        <v>-7.3887753250425572</v>
+        <v>-35.096682793952148</v>
       </c>
       <c r="F81" s="22">
-        <v>1605.1055842518826</v>
+        <v>1577.3976767829731</v>
       </c>
       <c r="G81" s="22">
-        <v>1991.9361203707167</v>
+        <v>1957.550605642765</v>
       </c>
       <c r="H81" s="22">
         <v>5134.7400550187222</v>
       </c>
       <c r="I81" s="22">
-        <v>8459.629469986754</v>
+        <v>8459.6294699867522</v>
       </c>
       <c r="J81" s="22">
-        <v>3324.8894149680318</v>
+        <v>3324.88941496803</v>
       </c>
       <c r="K81" s="21">
-        <v>6467.6933496160364</v>
+        <v>6502.0788643439873</v>
       </c>
       <c r="L81" s="26">
-        <v>2.9949638922363093E-2</v>
+        <v>2.4958032435302577E-2</v>
       </c>
       <c r="M81" s="27">
-        <v>6.561516760188689E-2</v>
+        <v>6.4679296798162575E-2</v>
       </c>
       <c r="N81" s="27">
-        <v>45.644383786504008</v>
+        <v>38.587358970809944</v>
       </c>
       <c r="O81" s="27">
-        <v>0.2</v>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="12.75">
+      <c r="A82" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.2112630579179002</v>
+      </c>
+      <c r="D82" s="21">
+        <v>51.924854188393525</v>
+      </c>
+      <c r="E82" s="22">
+        <v>44.153787610970966</v>
+      </c>
+      <c r="F82" s="22">
+        <v>1621.5514643939441</v>
+      </c>
+      <c r="G82" s="22">
+        <v>1906.9445205808463</v>
+      </c>
+      <c r="H82" s="22">
+        <v>5186.6649092071157</v>
+      </c>
+      <c r="I82" s="22">
+        <v>8409.0233849248343</v>
+      </c>
+      <c r="J82" s="22">
+        <v>3222.3584757177186</v>
+      </c>
+      <c r="K82" s="21">
+        <v>6502.0788643439873</v>
+      </c>
+      <c r="L82" s="26">
+        <v>2.4958032435302577E-2</v>
+      </c>
+      <c r="M82" s="27">
+        <v>6.4679296798162575E-2</v>
+      </c>
+      <c r="N82" s="27">
+        <v>38.587358970809944</v>
+      </c>
+      <c r="O82" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -23842,10 +24066,8 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:AH81"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:AH82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23887,7 +24109,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -23932,7 +24154,7 @@
         <v>29</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -28097,16 +28319,16 @@
         <v>5689.000493947472</v>
       </c>
       <c r="L77" s="26">
-        <v>68.835098442807833</v>
+        <v>71.104385321535176</v>
       </c>
       <c r="M77" s="27">
-        <v>68.645170694118619</v>
+        <v>69.464908903257466</v>
       </c>
       <c r="N77" s="27">
-        <v>55.559808615747677</v>
+        <v>60.194842044917607</v>
       </c>
       <c r="O77" s="27">
-        <v>94.815894850860488</v>
+        <v>88.005042619937171</v>
       </c>
       <c r="P77" s="27">
         <v>0.95</v>
@@ -28147,16 +28369,16 @@
         <v>5689.000493947472</v>
       </c>
       <c r="L78" s="26">
-        <v>71.104385321535176</v>
+        <v>73.071104223370014</v>
       </c>
       <c r="M78" s="27">
-        <v>69.464908903257466</v>
+        <v>70.666974009961649</v>
       </c>
       <c r="N78" s="27">
-        <v>60.194842044917607</v>
+        <v>63.685552699932288</v>
       </c>
       <c r="O78" s="27">
-        <v>88.005042619937171</v>
+        <v>84.629816630020372</v>
       </c>
       <c r="P78" s="27">
         <v>0.95</v>
@@ -28197,16 +28419,16 @@
         <v>5689.000493947472</v>
       </c>
       <c r="L79" s="26">
-        <v>73.071104223370014</v>
+        <v>58.110511427528067</v>
       </c>
       <c r="M79" s="27">
-        <v>70.666974009961649</v>
+        <v>66.481486482483788</v>
       </c>
       <c r="N79" s="27">
-        <v>63.685552699932288</v>
+        <v>64.617530627449455</v>
       </c>
       <c r="O79" s="27">
-        <v>84.629816630020372</v>
+        <v>70.20939819255247</v>
       </c>
       <c r="P79" s="27">
         <v>0.95</v>
@@ -28247,19 +28469,19 @@
         <v>5689.000493947472</v>
       </c>
       <c r="L80" s="26">
-        <v>58.110511427528067</v>
+        <v>41.742288695769702</v>
       </c>
       <c r="M80" s="27">
-        <v>66.481486482483788</v>
+        <v>58.235087220245759</v>
       </c>
       <c r="N80" s="27">
-        <v>64.617530627449455</v>
+        <v>62.490049491714892</v>
       </c>
       <c r="O80" s="27">
-        <v>70.20939819255247</v>
+        <v>49.725162677307495</v>
       </c>
       <c r="P80" s="27">
-        <v>0.95</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="12.75">
@@ -28297,19 +28519,69 @@
         <v>5689.000493947472</v>
       </c>
       <c r="L81" s="26">
-        <v>41.742288695769702</v>
+        <v>30.853007280392731</v>
       </c>
       <c r="M81" s="27">
-        <v>58.235087220245759</v>
+        <v>49.107727240294743</v>
       </c>
       <c r="N81" s="27">
-        <v>62.490049491714892</v>
+        <v>58.02927540790818</v>
       </c>
       <c r="O81" s="27">
-        <v>49.725162677307495</v>
+        <v>31.264630905067875</v>
       </c>
       <c r="P81" s="27">
-        <v>0.2</v>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="12.75">
+      <c r="A82" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.2112630579179002</v>
+      </c>
+      <c r="D82" s="21">
+        <v>51.924854188393525</v>
+      </c>
+      <c r="E82" s="22">
+        <v>44.153787610970966</v>
+      </c>
+      <c r="F82" s="22">
+        <v>44.153787610970966</v>
+      </c>
+      <c r="G82" s="22">
+        <v>51.924854188393525</v>
+      </c>
+      <c r="H82" s="22">
+        <v>3745.3394215681124</v>
+      </c>
+      <c r="I82" s="22">
+        <v>5740.9253481358655</v>
+      </c>
+      <c r="J82" s="22">
+        <v>1995.5859265677532</v>
+      </c>
+      <c r="K82" s="21">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="L82" s="26">
+        <v>30.853007280392731</v>
+      </c>
+      <c r="M82" s="27">
+        <v>49.107727240294743</v>
+      </c>
+      <c r="N82" s="27">
+        <v>58.02927540790818</v>
+      </c>
+      <c r="O82" s="27">
+        <v>31.264630905067875</v>
+      </c>
+      <c r="P82" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -28327,10 +28599,8 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:AH81"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:AH82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28377,7 +28647,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -32141,6 +32411,47 @@
         <v>2799.4811971394251</v>
       </c>
     </row>
+    <row r="82" spans="1:13" ht="12.75">
+      <c r="A82" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.2112630579179002</v>
+      </c>
+      <c r="D82" s="20">
+        <v>237500</v>
+      </c>
+      <c r="E82" s="20">
+        <v>2080685.9565690882</v>
+      </c>
+      <c r="F82" s="21">
+        <v>6.2389105410715286</v>
+      </c>
+      <c r="G82" s="22">
+        <v>5.3051960426283653</v>
+      </c>
+      <c r="H82" s="22">
+        <v>5.3051960426283653</v>
+      </c>
+      <c r="I82" s="22">
+        <v>6.2389105410715286</v>
+      </c>
+      <c r="J82" s="22">
+        <v>1986.8457267524557</v>
+      </c>
+      <c r="K82" s="22">
+        <v>2805.7201076804968</v>
+      </c>
+      <c r="L82" s="22">
+        <v>818.87438092804109</v>
+      </c>
+      <c r="M82" s="21">
+        <v>2799.4811971394251</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -32156,10 +32467,8 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:AF81"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:AF82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35487,6 +35796,41 @@
         <v>1041.2062722107735</v>
       </c>
     </row>
+    <row r="82" spans="1:11" ht="12.75">
+      <c r="A82" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.2112630579179002</v>
+      </c>
+      <c r="D82" s="21">
+        <v>1.9273991475192054</v>
+      </c>
+      <c r="E82" s="22">
+        <v>0</v>
+      </c>
+      <c r="F82" s="22">
+        <v>0</v>
+      </c>
+      <c r="G82" s="22">
+        <v>0</v>
+      </c>
+      <c r="H82" s="22">
+        <v>640.54557679566869</v>
+      </c>
+      <c r="I82" s="22">
+        <v>1041.2062722107735</v>
+      </c>
+      <c r="J82" s="22">
+        <v>400.66069541510478</v>
+      </c>
+      <c r="K82" s="21">
+        <v>1041.2062722107735</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -35503,7 +35847,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH81"/>
+  <dimension ref="A1:AH82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35578,16 +35922,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -39575,13 +39919,13 @@
         <v>1643.643776540021</v>
       </c>
       <c r="L77" s="26">
-        <v>5.5983571383853049E-2</v>
+        <v>4.9152973769025082E-2</v>
       </c>
       <c r="M77" s="27">
-        <v>8.3802011708645194E-2</v>
+        <v>7.2335007373018539E-2</v>
       </c>
       <c r="N77" s="27">
-        <v>66.8045673873455</v>
+        <v>67.951847320001079</v>
       </c>
       <c r="O77" s="27">
         <v>0.2</v>
@@ -39622,13 +39966,13 @@
         <v>1661.1894275095126</v>
       </c>
       <c r="L78" s="26">
-        <v>4.9152973769025082E-2</v>
+        <v>4.3127480048202861E-2</v>
       </c>
       <c r="M78" s="27">
-        <v>7.2335007373018539E-2</v>
+        <v>6.2445841384864087E-2</v>
       </c>
       <c r="N78" s="27">
-        <v>67.951847320001079</v>
+        <v>69.063814485901545</v>
       </c>
       <c r="O78" s="27">
         <v>0.2</v>
@@ -39669,13 +40013,13 @@
         <v>1671.00388647109</v>
       </c>
       <c r="L79" s="26">
-        <v>4.3127480048202861E-2</v>
+        <v>3.5939566706835714E-2</v>
       </c>
       <c r="M79" s="27">
-        <v>6.2445841384864087E-2</v>
+        <v>6.153820798871934E-2</v>
       </c>
       <c r="N79" s="27">
-        <v>69.063814485901545</v>
+        <v>58.40203652570424</v>
       </c>
       <c r="O79" s="27">
         <v>0.2</v>
@@ -39716,13 +40060,13 @@
         <v>1673.5160371074194</v>
       </c>
       <c r="L80" s="26">
-        <v>3.5939566706835714E-2</v>
+        <v>2.9949638922363093E-2</v>
       </c>
       <c r="M80" s="27">
-        <v>6.153820798871934E-2</v>
+        <v>6.561516760188689E-2</v>
       </c>
       <c r="N80" s="27">
-        <v>58.40203652570424</v>
+        <v>45.644383786504008</v>
       </c>
       <c r="O80" s="27">
         <v>0.2</v>
@@ -39739,16 +40083,16 @@
         <v>1.2114211188663961</v>
       </c>
       <c r="D81" s="21">
-        <v>-0.271223196698192</v>
+        <v>-1.288310184316412</v>
       </c>
       <c r="E81" s="22">
-        <v>-0.21855212280496919</v>
+        <v>-1.0381225833236036</v>
       </c>
       <c r="F81" s="22">
-        <v>43.432871776864118</v>
+        <v>42.613301316345485</v>
       </c>
       <c r="G81" s="22">
-        <v>53.900196318916414</v>
+        <v>52.883109331298193</v>
       </c>
       <c r="H81" s="22">
         <v>948.41247862479781</v>
@@ -39760,19 +40104,66 @@
         <v>779.27497799823618</v>
       </c>
       <c r="K81" s="21">
-        <v>1673.7872603041176</v>
+        <v>1674.8043472917359</v>
       </c>
       <c r="L81" s="26">
-        <v>2.9949638922363093E-2</v>
+        <v>2.4958032435302577E-2</v>
       </c>
       <c r="M81" s="27">
-        <v>6.561516760188689E-2</v>
+        <v>6.4679296798162575E-2</v>
       </c>
       <c r="N81" s="27">
-        <v>45.644383786504008</v>
+        <v>38.587358970809944</v>
       </c>
       <c r="O81" s="27">
-        <v>0.2</v>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="12.75">
+      <c r="A82" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C82" s="21">
+        <v>1.2112630579179002</v>
+      </c>
+      <c r="D82" s="21">
+        <v>1.8310291901432449</v>
+      </c>
+      <c r="E82" s="22">
+        <v>1.5569976119286679</v>
+      </c>
+      <c r="F82" s="22">
+        <v>44.17029892827415</v>
+      </c>
+      <c r="G82" s="22">
+        <v>51.944271497526323</v>
+      </c>
+      <c r="H82" s="22">
+        <v>950.24350781494104</v>
+      </c>
+      <c r="I82" s="22">
+        <v>1726.7486187892623</v>
+      </c>
+      <c r="J82" s="22">
+        <v>776.50511097432127</v>
+      </c>
+      <c r="K82" s="21">
+        <v>1674.8043472917359</v>
+      </c>
+      <c r="L82" s="26">
+        <v>2.4958032435302577E-2</v>
+      </c>
+      <c r="M82" s="27">
+        <v>6.4679296798162575E-2</v>
+      </c>
+      <c r="N82" s="27">
+        <v>38.587358970809944</v>
+      </c>
+      <c r="O82" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -39790,10 +40181,8 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:AH81"/>
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:AH82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39835,7 +40224,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -39880,7 +40269,7 @@
         <v>29</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -44044,16 +44433,16 @@
         <v>996.05056362079893</v>
       </c>
       <c r="L77" s="26">
-        <v>68.835098442807833</v>
+        <v>71.104385321535176</v>
       </c>
       <c r="M77" s="27">
-        <v>68.645170694118619</v>
+        <v>69.464908903257466</v>
       </c>
       <c r="N77" s="27">
-        <v>55.559808615747677</v>
+        <v>60.194842044917607</v>
       </c>
       <c r="O77" s="27">
-        <v>94.815894850860488</v>
+        <v>88.005042619937171</v>
       </c>
       <c r="P77" s="27">
         <v>0.95</v>
@@ -44094,16 +44483,16 @@
         <v>996.05056362079893</v>
       </c>
       <c r="L78" s="26">
-        <v>71.104385321535176</v>
+        <v>73.071104223370014</v>
       </c>
       <c r="M78" s="27">
-        <v>69.464908903257466</v>
+        <v>70.666974009961649</v>
       </c>
       <c r="N78" s="27">
-        <v>60.194842044917607</v>
+        <v>63.685552699932288</v>
       </c>
       <c r="O78" s="27">
-        <v>88.005042619937171</v>
+        <v>84.629816630020372</v>
       </c>
       <c r="P78" s="27">
         <v>0.95</v>
@@ -44144,16 +44533,16 @@
         <v>996.05056362079893</v>
       </c>
       <c r="L79" s="26">
-        <v>73.071104223370014</v>
+        <v>58.110511427528067</v>
       </c>
       <c r="M79" s="27">
-        <v>70.666974009961649</v>
+        <v>66.481486482483788</v>
       </c>
       <c r="N79" s="27">
-        <v>63.685552699932288</v>
+        <v>64.617530627449455</v>
       </c>
       <c r="O79" s="27">
-        <v>84.629816630020372</v>
+        <v>70.20939819255247</v>
       </c>
       <c r="P79" s="27">
         <v>0.95</v>
@@ -44194,19 +44583,19 @@
         <v>996.05056362079893</v>
       </c>
       <c r="L80" s="26">
-        <v>58.110511427528067</v>
+        <v>41.742288695769702</v>
       </c>
       <c r="M80" s="27">
-        <v>66.481486482483788</v>
+        <v>58.235087220245759</v>
       </c>
       <c r="N80" s="27">
-        <v>64.617530627449455</v>
+        <v>62.490049491714892</v>
       </c>
       <c r="O80" s="27">
-        <v>70.20939819255247</v>
+        <v>49.725162677307495</v>
       </c>
       <c r="P80" s="27">
-        <v>0.95</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="12.75">
@@ -44244,19 +44633,69 @@
         <v>996.05056362079893</v>
       </c>
       <c r="L81" s="26">
-        <v>41.742288695769702</v>
+        <v>30.853007280392731</v>
       </c>
       <c r="M81" s="27">
-        <v>58.235087220245759</v>
+        <v>49.107727240294743</v>
       </c>
       <c r="N81" s="27">
-        <v>62.490049491714892</v>
+        <v>58.02927540790818</v>
       </c>
       <c r="O81" s="27">
-        <v>49.725162677307495</v>
+        <v>31.264630905067875</v>
       </c>
       <c r="P81" s="27">
-        <v>0.2</v>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="12.75">
+      <c r="A82" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.2112630579179002</v>
+      </c>
+      <c r="D82" s="21">
+        <v>1.8310291901432449</v>
+      </c>
+      <c r="E82" s="22">
+        <v>0</v>
+      </c>
+      <c r="F82" s="22">
+        <v>0</v>
+      </c>
+      <c r="G82" s="22">
+        <v>0</v>
+      </c>
+      <c r="H82" s="22">
+        <v>608.51829795588515</v>
+      </c>
+      <c r="I82" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J82" s="22">
+        <v>387.53226566491378</v>
+      </c>
+      <c r="K82" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L82" s="26">
+        <v>30.853007280392731</v>
+      </c>
+      <c r="M82" s="27">
+        <v>49.107727240294743</v>
+      </c>
+      <c r="N82" s="27">
+        <v>58.02927540790818</v>
+      </c>
+      <c r="O82" s="27">
+        <v>31.264630905067875</v>
+      </c>
+      <c r="P82" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -44274,10 +44713,8 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:AH81"/>
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:AH82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -44324,7 +44761,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -48088,6 +48525,47 @@
         <v>513.19080303179044</v>
       </c>
     </row>
+    <row r="82" spans="1:13" ht="12.75">
+      <c r="A82" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.2112630579179002</v>
+      </c>
+      <c r="D82" s="20">
+        <v>237500</v>
+      </c>
+      <c r="E82" s="20">
+        <v>2080685.9565690882</v>
+      </c>
+      <c r="F82" s="21">
+        <v>0.22000306970429231</v>
+      </c>
+      <c r="G82" s="22">
+        <v>0.18707744037644836</v>
+      </c>
+      <c r="H82" s="22">
+        <v>0.18707744037644836</v>
+      </c>
+      <c r="I82" s="22">
+        <v>0.22000306970429231</v>
+      </c>
+      <c r="J82" s="22">
+        <v>317.73541628871601</v>
+      </c>
+      <c r="K82" s="22">
+        <v>513.4108061014947</v>
+      </c>
+      <c r="L82" s="22">
+        <v>195.67538981277869</v>
+      </c>
+      <c r="M82" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="33">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -149,10 +149,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>人工智能产业LOF</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -185,11 +181,19 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>成交量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成交均量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -879,7 +883,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1116,6 +1120,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1125,7 +1135,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1362,6 +1372,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>3942.462549019066</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3950.9794160171136</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3962.6804019674473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1404,7 +1420,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1641,6 +1657,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1650,7 +1672,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1887,6 +1909,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>5951.7080617865267</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5961.6192575899213</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5973.2131654186333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1929,7 +1957,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2166,6 +2194,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2175,7 +2209,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2412,6 +2446,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2009.2455127674607</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2010.6398415728077</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2010.5327634511859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2433,11 +2473,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="522672000"/>
-        <c:axId val="523129984"/>
+        <c:axId val="547479552"/>
+        <c:axId val="547481472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="522672000"/>
+        <c:axId val="547479552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2480,14 +2520,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523129984"/>
+        <c:crossAx val="547481472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="523129984"/>
+        <c:axId val="547481472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2536,7 +2576,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522672000"/>
+        <c:crossAx val="547479552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2750,7 +2790,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2987,6 +3027,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2996,7 +3042,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3233,6 +3279,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>5186.6649092071157</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5194.7559328552607</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5205.8718695080779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3275,7 +3327,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3512,6 +3564,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3521,7 +3579,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3758,6 +3816,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>8409.0233849248343</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8465.7609061118383</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8473.6203638122861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3800,7 +3864,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4037,6 +4101,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4046,7 +4116,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4283,6 +4353,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>3222.3584757177186</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3271.0049732565776</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3267.7484943042082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4304,11 +4380,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="605441408"/>
-        <c:axId val="503432320"/>
+        <c:axId val="442564608"/>
+        <c:axId val="442566144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="605441408"/>
+        <c:axId val="442564608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4351,14 +4427,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503432320"/>
+        <c:crossAx val="442566144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="503432320"/>
+        <c:axId val="442566144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4407,7 +4483,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605441408"/>
+        <c:crossAx val="442564608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4621,7 +4697,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4858,6 +4934,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4867,7 +4949,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5104,6 +5186,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>3745.3394215681124</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3753.4304452162578</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3764.5463818690746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5146,7 +5234,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5383,6 +5471,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5392,7 +5486,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5629,6 +5723,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>5740.9253481358655</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5750.3409841490902</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5761.3551965863662</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5671,7 +5771,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5908,6 +6008,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5917,7 +6023,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6154,6 +6260,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>1995.5859265677532</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1996.9105389328324</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1996.8088147172916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6175,11 +6287,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="516330240"/>
-        <c:axId val="516331776"/>
+        <c:axId val="442629504"/>
+        <c:axId val="442631296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="516330240"/>
+        <c:axId val="442629504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6222,14 +6334,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516331776"/>
+        <c:crossAx val="442631296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="516331776"/>
+        <c:axId val="442631296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6278,7 +6390,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516330240"/>
+        <c:crossAx val="442629504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6492,7 +6604,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6729,6 +6841,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6738,7 +6856,7 @@
               <c:f>'模型二 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6975,6 +7093,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>1986.8457267524557</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1987.8192724956932</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1990.0742505012997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7017,7 +7141,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7254,6 +7378,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7263,7 +7393,7 @@
               <c:f>'模型二 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7500,6 +7630,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2805.7201076804968</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2806.8528091532303</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2809.0955624203825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7542,7 +7678,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7779,6 +7915,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7788,7 +7930,7 @@
               <c:f>'模型二 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8025,6 +8167,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>818.87438092804109</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>819.03353665753707</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>819.02131191908279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8046,11 +8194,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="516355968"/>
-        <c:axId val="516357504"/>
+        <c:axId val="442690176"/>
+        <c:axId val="442691968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="516355968"/>
+        <c:axId val="442690176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8093,14 +8241,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516357504"/>
+        <c:crossAx val="442691968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="516357504"/>
+        <c:axId val="442691968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8149,7 +8297,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516355968"/>
+        <c:crossAx val="442690176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8363,7 +8511,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8600,6 +8748,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8609,7 +8763,7 @@
               <c:f>'模型二 (2)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8846,6 +9000,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>640.54557679566869</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>640.59237487532187</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>640.68070588965088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8888,7 +9048,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9125,6 +9285,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9134,7 +9300,7 @@
               <c:f>'模型二 (2)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9370,6 +9536,12 @@
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
                 <c:pt idx="78">
+                  <c:v>1041.2062722107735</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1041.2062722107735</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
               </c:numCache>
@@ -9413,7 +9585,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9650,6 +9822,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9659,7 +9837,7 @@
               <c:f>'模型二 (2)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9896,6 +10074,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>400.66069541510478</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>400.61389733545161</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>400.5255663211226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9917,11 +10101,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520879104"/>
-        <c:axId val="520880896"/>
+        <c:axId val="456685824"/>
+        <c:axId val="456691712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520879104"/>
+        <c:axId val="456685824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9964,14 +10148,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520880896"/>
+        <c:crossAx val="456691712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="520880896"/>
+        <c:axId val="456691712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10020,7 +10204,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520879104"/>
+        <c:crossAx val="456685824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10234,7 +10418,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10471,6 +10655,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10480,7 +10670,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10717,6 +10907,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>950.24350781494104</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>950.28796599061161</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>950.37188045422408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10759,7 +10955,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10996,6 +11192,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11005,7 +11207,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11242,6 +11444,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>1726.7486187892623</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1728.1181846690586</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1728.1136859447943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11284,7 +11492,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11521,6 +11729,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11530,7 +11744,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11767,6 +11981,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>776.50511097432127</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>777.83021867844695</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>777.74180549057019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11788,11 +12008,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520946048"/>
-        <c:axId val="520947584"/>
+        <c:axId val="532019072"/>
+        <c:axId val="532020608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520946048"/>
+        <c:axId val="532019072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11835,14 +12055,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520947584"/>
+        <c:crossAx val="532020608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="520947584"/>
+        <c:axId val="532020608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11891,7 +12111,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520946048"/>
+        <c:crossAx val="532019072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12105,7 +12325,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12342,6 +12562,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12351,7 +12577,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12588,6 +12814,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>608.51829795588515</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>608.56275613155572</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>608.64667059516819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12630,7 +12862,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12867,6 +13099,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12876,7 +13114,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13112,6 +13350,12 @@
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
                 <c:pt idx="78">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
               </c:numCache>
@@ -13155,7 +13399,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13392,6 +13636,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13401,7 +13651,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13638,6 +13888,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>387.53226566491378</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>387.48780748924321</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>387.40389302563074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13659,11 +13915,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="521045504"/>
-        <c:axId val="521047040"/>
+        <c:axId val="534373888"/>
+        <c:axId val="534375424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="521045504"/>
+        <c:axId val="534373888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13706,14 +13962,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521047040"/>
+        <c:crossAx val="534375424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="521047040"/>
+        <c:axId val="534375424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13762,7 +14018,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521045504"/>
+        <c:crossAx val="534373888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13976,7 +14232,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14213,6 +14469,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14222,7 +14484,7 @@
               <c:f>'模型二 (2)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14459,6 +14721,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>317.73541628871601</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>317.74076568201389</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>317.75778856327963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14501,7 +14769,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14738,6 +15006,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14747,7 +15021,7 @@
               <c:f>'模型二 (2)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14984,6 +15258,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>513.4108061014947</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>513.42176781265152</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>513.43840767266863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15026,7 +15306,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15263,6 +15543,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15272,7 +15558,7 @@
               <c:f>'模型二 (2)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15509,6 +15795,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>195.67538981277869</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>195.68100213063764</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>195.680619109389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15530,11 +15822,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="521116288"/>
-        <c:axId val="521130368"/>
+        <c:axId val="534623360"/>
+        <c:axId val="534624896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="521116288"/>
+        <c:axId val="534623360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15577,14 +15869,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521130368"/>
+        <c:crossAx val="534624896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="521130368"/>
+        <c:axId val="534624896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15633,7 +15925,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521116288"/>
+        <c:crossAx val="534623360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16353,7 +16645,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF82"/>
+  <dimension ref="A1:AF84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19716,6 +20008,76 @@
         <v>5897.0503205355863</v>
       </c>
     </row>
+    <row r="83" spans="1:11" ht="12.75">
+      <c r="A83" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.2114947233380624</v>
+      </c>
+      <c r="D83" s="21">
+        <v>8.5168669980476341</v>
+      </c>
+      <c r="E83" s="22">
+        <v>7.0620789443036953</v>
+      </c>
+      <c r="F83" s="22">
+        <v>53.53975011374682</v>
+      </c>
+      <c r="G83" s="22">
+        <v>64.56893705433464</v>
+      </c>
+      <c r="H83" s="22">
+        <v>3950.9794160171136</v>
+      </c>
+      <c r="I83" s="22">
+        <v>5961.6192575899213</v>
+      </c>
+      <c r="J83" s="22">
+        <v>2010.6398415728077</v>
+      </c>
+      <c r="K83" s="21">
+        <v>5897.0503205355863</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="12.75">
+      <c r="A84" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.2115490193790663</v>
+      </c>
+      <c r="D84" s="21">
+        <v>11.700985950333587</v>
+      </c>
+      <c r="E84" s="22">
+        <v>9.7184268998392387</v>
+      </c>
+      <c r="F84" s="22">
+        <v>63.258177013586057</v>
+      </c>
+      <c r="G84" s="22">
+        <v>76.162844883046816</v>
+      </c>
+      <c r="H84" s="22">
+        <v>3962.6804019674473</v>
+      </c>
+      <c r="I84" s="22">
+        <v>5973.2131654186333</v>
+      </c>
+      <c r="J84" s="22">
+        <v>2010.5327634511859</v>
+      </c>
+      <c r="K84" s="21">
+        <v>5897.0503205355863</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -19732,7 +20094,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH82"/>
+  <dimension ref="A1:AH84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19774,10 +20136,10 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>2</v>
@@ -19807,16 +20169,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -24039,15 +24401,109 @@
         <v>6502.0788643439873</v>
       </c>
       <c r="L82" s="26">
-        <v>2.4958032435302577E-2</v>
+        <v>2.0798360362752146E-2</v>
       </c>
       <c r="M82" s="27">
-        <v>6.4679296798162575E-2</v>
+        <v>6.4732756868545308E-2</v>
       </c>
       <c r="N82" s="27">
-        <v>38.587358970809944</v>
+        <v>32.129576073807549</v>
       </c>
       <c r="O82" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="12.75">
+      <c r="A83" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.2114947233380624</v>
+      </c>
+      <c r="D83" s="21">
+        <v>8.0910236481452529</v>
+      </c>
+      <c r="E83" s="22">
+        <v>6.7089749970885109</v>
+      </c>
+      <c r="F83" s="22">
+        <v>1628.2604393910326</v>
+      </c>
+      <c r="G83" s="22">
+        <v>1963.6820417678503</v>
+      </c>
+      <c r="H83" s="22">
+        <v>5194.7559328552607</v>
+      </c>
+      <c r="I83" s="22">
+        <v>8465.7609061118383</v>
+      </c>
+      <c r="J83" s="22">
+        <v>3271.0049732565776</v>
+      </c>
+      <c r="K83" s="21">
+        <v>6502.0788643439873</v>
+      </c>
+      <c r="L83" s="26">
+        <v>2.2331962200588539E-2</v>
+      </c>
+      <c r="M83" s="27">
+        <v>5.8943959288749508E-2</v>
+      </c>
+      <c r="N83" s="27">
+        <v>37.886769857434714</v>
+      </c>
+      <c r="O83" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="12.75">
+      <c r="A84" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.2115490193790663</v>
+      </c>
+      <c r="D84" s="21">
+        <v>11.115936652816908</v>
+      </c>
+      <c r="E84" s="22">
+        <v>9.2325055548472772</v>
+      </c>
+      <c r="F84" s="22">
+        <v>1637.4929449458798</v>
+      </c>
+      <c r="G84" s="22">
+        <v>1971.5414994682994</v>
+      </c>
+      <c r="H84" s="22">
+        <v>5205.8718695080779</v>
+      </c>
+      <c r="I84" s="22">
+        <v>8473.6203638122861</v>
+      </c>
+      <c r="J84" s="22">
+        <v>3267.7484943042082</v>
+      </c>
+      <c r="K84" s="21">
+        <v>6502.0788643439873</v>
+      </c>
+      <c r="L84" s="26">
+        <v>2.2331962200588539E-2</v>
+      </c>
+      <c r="M84" s="27">
+        <v>5.8943959288749508E-2</v>
+      </c>
+      <c r="N84" s="27">
+        <v>37.886769857434714</v>
+      </c>
+      <c r="O84" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -24067,7 +24523,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH82"/>
+  <dimension ref="A1:AH84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24142,19 +24598,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -28569,18 +29025,118 @@
         <v>5689.000493947472</v>
       </c>
       <c r="L82" s="26">
-        <v>30.853007280392731</v>
+        <v>9.3495941806654201</v>
       </c>
       <c r="M82" s="27">
-        <v>49.107727240294743</v>
+        <v>35.8550162204183</v>
       </c>
       <c r="N82" s="27">
-        <v>58.02927540790818</v>
+        <v>50.637855678744891</v>
       </c>
       <c r="O82" s="27">
-        <v>31.264630905067875</v>
+        <v>6.289337303765123</v>
       </c>
       <c r="P82" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="12.75">
+      <c r="A83" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.2114947233380624</v>
+      </c>
+      <c r="D83" s="21">
+        <v>8.0910236481452529</v>
+      </c>
+      <c r="E83" s="22">
+        <v>6.7089749970885109</v>
+      </c>
+      <c r="F83" s="22">
+        <v>50.862762608059477</v>
+      </c>
+      <c r="G83" s="22">
+        <v>61.340490201617911</v>
+      </c>
+      <c r="H83" s="22">
+        <v>3753.4304452162578</v>
+      </c>
+      <c r="I83" s="22">
+        <v>5750.3409841490902</v>
+      </c>
+      <c r="J83" s="22">
+        <v>1996.9105389328324</v>
+      </c>
+      <c r="K83" s="21">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="L83" s="26">
+        <v>15.447149282091519</v>
+      </c>
+      <c r="M83" s="27">
+        <v>29.052393907642706</v>
+      </c>
+      <c r="N83" s="27">
+        <v>43.442701755044162</v>
+      </c>
+      <c r="O83" s="27">
+        <v>0.27177821283979142</v>
+      </c>
+      <c r="P83" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="12.75">
+      <c r="A84" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.2115490193790663</v>
+      </c>
+      <c r="D84" s="21">
+        <v>11.115936652816908</v>
+      </c>
+      <c r="E84" s="22">
+        <v>9.2325055548472772</v>
+      </c>
+      <c r="F84" s="22">
+        <v>60.095268162906756</v>
+      </c>
+      <c r="G84" s="22">
+        <v>72.35470263889448</v>
+      </c>
+      <c r="H84" s="22">
+        <v>3764.5463818690746</v>
+      </c>
+      <c r="I84" s="22">
+        <v>5761.3551965863662</v>
+      </c>
+      <c r="J84" s="22">
+        <v>1996.8088147172916</v>
+      </c>
+      <c r="K84" s="21">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="L84" s="26">
+        <v>15.447149282091519</v>
+      </c>
+      <c r="M84" s="27">
+        <v>29.052393907642706</v>
+      </c>
+      <c r="N84" s="27">
+        <v>43.442701755044162</v>
+      </c>
+      <c r="O84" s="27">
+        <v>0.27177821283979142</v>
+      </c>
+      <c r="P84" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -28600,7 +29156,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH82"/>
+  <dimension ref="A1:AH84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28647,7 +29203,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -32449,6 +33005,88 @@
         <v>818.87438092804109</v>
       </c>
       <c r="M82" s="21">
+        <v>2799.4811971394251</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="12.75">
+      <c r="A83" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.2114947233380624</v>
+      </c>
+      <c r="D83" s="20">
+        <v>235100</v>
+      </c>
+      <c r="E83" s="20">
+        <v>2056724.5505921205</v>
+      </c>
+      <c r="F83" s="21">
+        <v>0.9735457432374901</v>
+      </c>
+      <c r="G83" s="22">
+        <v>0.80725187985323965</v>
+      </c>
+      <c r="H83" s="22">
+        <v>6.1124479224816053</v>
+      </c>
+      <c r="I83" s="22">
+        <v>7.3716120138049934</v>
+      </c>
+      <c r="J83" s="22">
+        <v>1987.8192724956932</v>
+      </c>
+      <c r="K83" s="22">
+        <v>2806.8528091532303</v>
+      </c>
+      <c r="L83" s="22">
+        <v>819.03353665753707</v>
+      </c>
+      <c r="M83" s="21">
+        <v>2799.4811971394251</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="12.75">
+      <c r="A84" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.2115490193790663</v>
+      </c>
+      <c r="D84" s="20">
+        <v>392114</v>
+      </c>
+      <c r="E84" s="20">
+        <v>2034663.0404028799</v>
+      </c>
+      <c r="F84" s="21">
+        <v>2.2549780056065787</v>
+      </c>
+      <c r="G84" s="22">
+        <v>1.8729053262052704</v>
+      </c>
+      <c r="H84" s="22">
+        <v>7.9853532486868755</v>
+      </c>
+      <c r="I84" s="22">
+        <v>9.6143652809572924</v>
+      </c>
+      <c r="J84" s="22">
+        <v>1990.0742505012997</v>
+      </c>
+      <c r="K84" s="22">
+        <v>2809.0955624203825</v>
+      </c>
+      <c r="L84" s="22">
+        <v>819.02131191908279</v>
+      </c>
+      <c r="M84" s="21">
         <v>2799.4811971394251</v>
       </c>
     </row>
@@ -32468,7 +33106,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF82"/>
+  <dimension ref="A1:AF84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -32510,7 +33148,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -35828,6 +36466,76 @@
         <v>400.66069541510478</v>
       </c>
       <c r="K82" s="21">
+        <v>1041.2062722107735</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="12.75">
+      <c r="A83" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.2114947233380624</v>
+      </c>
+      <c r="D83" s="21">
+        <v>4.6798079653182528E-2</v>
+      </c>
+      <c r="E83" s="22">
+        <v>0</v>
+      </c>
+      <c r="F83" s="22">
+        <v>0</v>
+      </c>
+      <c r="G83" s="22">
+        <v>0</v>
+      </c>
+      <c r="H83" s="22">
+        <v>640.59237487532187</v>
+      </c>
+      <c r="I83" s="22">
+        <v>1041.2062722107735</v>
+      </c>
+      <c r="J83" s="22">
+        <v>400.61389733545161</v>
+      </c>
+      <c r="K83" s="21">
+        <v>1041.2062722107735</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="12.75">
+      <c r="A84" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.2115490193790663</v>
+      </c>
+      <c r="D84" s="21">
+        <v>8.8331014328970323E-2</v>
+      </c>
+      <c r="E84" s="22">
+        <v>0</v>
+      </c>
+      <c r="F84" s="22">
+        <v>0</v>
+      </c>
+      <c r="G84" s="22">
+        <v>0</v>
+      </c>
+      <c r="H84" s="22">
+        <v>640.68070588965088</v>
+      </c>
+      <c r="I84" s="22">
+        <v>1041.2062722107735</v>
+      </c>
+      <c r="J84" s="22">
+        <v>400.5255663211226</v>
+      </c>
+      <c r="K84" s="21">
         <v>1041.2062722107735</v>
       </c>
     </row>
@@ -35847,7 +36555,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH82"/>
+  <dimension ref="A1:AH84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35922,16 +36630,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -40154,15 +40862,109 @@
         <v>1674.8043472917359</v>
       </c>
       <c r="L82" s="26">
-        <v>2.4958032435302577E-2</v>
+        <v>2.0798360362752146E-2</v>
       </c>
       <c r="M82" s="27">
-        <v>6.4679296798162575E-2</v>
+        <v>6.4732756868545308E-2</v>
       </c>
       <c r="N82" s="27">
-        <v>38.587358970809944</v>
+        <v>32.129576073807549</v>
       </c>
       <c r="O82" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="12.75">
+      <c r="A83" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C83" s="21">
+        <v>1.2114947233380624</v>
+      </c>
+      <c r="D83" s="21">
+        <v>4.4458175670523403E-2</v>
+      </c>
+      <c r="E83" s="22">
+        <v>3.6864159834470875E-2</v>
+      </c>
+      <c r="F83" s="22">
+        <v>44.207163088108622</v>
+      </c>
+      <c r="G83" s="22">
+        <v>53.313837377322685</v>
+      </c>
+      <c r="H83" s="22">
+        <v>950.28796599061161</v>
+      </c>
+      <c r="I83" s="22">
+        <v>1728.1181846690586</v>
+      </c>
+      <c r="J83" s="22">
+        <v>777.83021867844695</v>
+      </c>
+      <c r="K83" s="21">
+        <v>1674.8043472917359</v>
+      </c>
+      <c r="L83" s="26">
+        <v>2.2331962200588539E-2</v>
+      </c>
+      <c r="M83" s="27">
+        <v>5.8943959288749508E-2</v>
+      </c>
+      <c r="N83" s="27">
+        <v>37.886769857434714</v>
+      </c>
+      <c r="O83" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="12.75">
+      <c r="A84" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C84" s="21">
+        <v>1.2115490193790663</v>
+      </c>
+      <c r="D84" s="21">
+        <v>8.3914463612521806E-2</v>
+      </c>
+      <c r="E84" s="22">
+        <v>6.969639857009341E-2</v>
+      </c>
+      <c r="F84" s="22">
+        <v>44.276859486678717</v>
+      </c>
+      <c r="G84" s="22">
+        <v>53.309338653058362</v>
+      </c>
+      <c r="H84" s="22">
+        <v>950.37188045422408</v>
+      </c>
+      <c r="I84" s="22">
+        <v>1728.1136859447943</v>
+      </c>
+      <c r="J84" s="22">
+        <v>777.74180549057019</v>
+      </c>
+      <c r="K84" s="21">
+        <v>1674.8043472917359</v>
+      </c>
+      <c r="L84" s="26">
+        <v>2.2331962200588539E-2</v>
+      </c>
+      <c r="M84" s="27">
+        <v>5.8943959288749508E-2</v>
+      </c>
+      <c r="N84" s="27">
+        <v>37.886769857434714</v>
+      </c>
+      <c r="O84" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -40182,7 +40984,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH82"/>
+  <dimension ref="A1:AH84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -40224,7 +41026,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -40257,19 +41059,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -44683,18 +45485,118 @@
         <v>996.05056362079893</v>
       </c>
       <c r="L82" s="26">
-        <v>30.853007280392731</v>
+        <v>9.3495941806654201</v>
       </c>
       <c r="M82" s="27">
-        <v>49.107727240294743</v>
+        <v>35.8550162204183</v>
       </c>
       <c r="N82" s="27">
-        <v>58.02927540790818</v>
+        <v>50.637855678744891</v>
       </c>
       <c r="O82" s="27">
-        <v>31.264630905067875</v>
+        <v>6.289337303765123</v>
       </c>
       <c r="P82" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="12.75">
+      <c r="A83" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.2114947233380624</v>
+      </c>
+      <c r="D83" s="21">
+        <v>4.4458175670523403E-2</v>
+      </c>
+      <c r="E83" s="22">
+        <v>0</v>
+      </c>
+      <c r="F83" s="22">
+        <v>0</v>
+      </c>
+      <c r="G83" s="22">
+        <v>0</v>
+      </c>
+      <c r="H83" s="22">
+        <v>608.56275613155572</v>
+      </c>
+      <c r="I83" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J83" s="22">
+        <v>387.48780748924321</v>
+      </c>
+      <c r="K83" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L83" s="26">
+        <v>15.447149282091519</v>
+      </c>
+      <c r="M83" s="27">
+        <v>29.052393907642706</v>
+      </c>
+      <c r="N83" s="27">
+        <v>43.442701755044162</v>
+      </c>
+      <c r="O83" s="27">
+        <v>0.27177821283979142</v>
+      </c>
+      <c r="P83" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="12.75">
+      <c r="A84" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.2115490193790663</v>
+      </c>
+      <c r="D84" s="21">
+        <v>8.3914463612521806E-2</v>
+      </c>
+      <c r="E84" s="22">
+        <v>0</v>
+      </c>
+      <c r="F84" s="22">
+        <v>0</v>
+      </c>
+      <c r="G84" s="22">
+        <v>0</v>
+      </c>
+      <c r="H84" s="22">
+        <v>608.64667059516819</v>
+      </c>
+      <c r="I84" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J84" s="22">
+        <v>387.40389302563074</v>
+      </c>
+      <c r="K84" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L84" s="26">
+        <v>15.447149282091519</v>
+      </c>
+      <c r="M84" s="27">
+        <v>29.052393907642706</v>
+      </c>
+      <c r="N84" s="27">
+        <v>43.442701755044162</v>
+      </c>
+      <c r="O84" s="27">
+        <v>0.27177821283979142</v>
+      </c>
+      <c r="P84" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -44714,7 +45616,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH82"/>
+  <dimension ref="A1:AH84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -44884,7 +45786,7 @@
       </c>
       <c r="N4" s="7"/>
       <c r="Q4" s="31" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -48563,6 +49465,88 @@
         <v>195.67538981277869</v>
       </c>
       <c r="M82" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="12.75">
+      <c r="A83" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.2114947233380624</v>
+      </c>
+      <c r="D83" s="20">
+        <v>235100</v>
+      </c>
+      <c r="E83" s="20">
+        <v>2056724.5505921205</v>
+      </c>
+      <c r="F83" s="21">
+        <v>5.3493932978510546E-3</v>
+      </c>
+      <c r="G83" s="22">
+        <v>4.4356496094412707E-3</v>
+      </c>
+      <c r="H83" s="22">
+        <v>0.19151308998588962</v>
+      </c>
+      <c r="I83" s="22">
+        <v>0.2309647808611083</v>
+      </c>
+      <c r="J83" s="22">
+        <v>317.74076568201389</v>
+      </c>
+      <c r="K83" s="22">
+        <v>513.42176781265152</v>
+      </c>
+      <c r="L83" s="22">
+        <v>195.68100213063764</v>
+      </c>
+      <c r="M83" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="12.75">
+      <c r="A84" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.2115490193790663</v>
+      </c>
+      <c r="D84" s="20">
+        <v>392114</v>
+      </c>
+      <c r="E84" s="20">
+        <v>2034663.0404028799</v>
+      </c>
+      <c r="F84" s="21">
+        <v>1.7022881265750859E-2</v>
+      </c>
+      <c r="G84" s="22">
+        <v>1.4138605747246976E-2</v>
+      </c>
+      <c r="H84" s="22">
+        <v>0.2056516957331366</v>
+      </c>
+      <c r="I84" s="22">
+        <v>0.2476046408781975</v>
+      </c>
+      <c r="J84" s="22">
+        <v>317.75778856327963</v>
+      </c>
+      <c r="K84" s="22">
+        <v>513.43840767266863</v>
+      </c>
+      <c r="L84" s="22">
+        <v>195.680619109389</v>
+      </c>
+      <c r="M84" s="21">
         <v>513.19080303179044</v>
       </c>
     </row>

--- a/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -190,10 +190,6 @@
   </si>
   <si>
     <t>成交均量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,7 +879,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1126,6 +1122,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1135,7 +1134,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1378,6 +1377,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>3962.6804019674473</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4326.5405219681797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1420,7 +1422,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1663,6 +1665,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1672,7 +1677,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1915,6 +1920,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>5973.2131654186333</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6322.5871646327578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1957,7 +1965,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2200,6 +2208,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2209,7 +2220,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2452,6 +2463,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>2010.5327634511859</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1996.046642664578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2473,11 +2487,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="547479552"/>
-        <c:axId val="547481472"/>
+        <c:axId val="462610432"/>
+        <c:axId val="462612736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="547479552"/>
+        <c:axId val="462610432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2520,14 +2534,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547481472"/>
+        <c:crossAx val="462612736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="547481472"/>
+        <c:axId val="462612736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2576,7 +2590,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547479552"/>
+        <c:crossAx val="462610432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2790,7 +2804,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3033,6 +3047,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3042,7 +3059,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3285,6 +3302,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>5205.8718695080779</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5551.5389835087735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3327,7 +3347,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3570,6 +3590,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3579,7 +3602,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3822,6 +3845,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>8473.6203638122861</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8444.3016387077896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3864,7 +3890,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4107,6 +4133,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4116,7 +4145,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4359,6 +4388,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>3267.7484943042082</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2892.7626551990161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4380,11 +4412,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442564608"/>
-        <c:axId val="442566144"/>
+        <c:axId val="363219968"/>
+        <c:axId val="363221760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442564608"/>
+        <c:axId val="363219968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4427,14 +4459,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442566144"/>
+        <c:crossAx val="363221760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442566144"/>
+        <c:axId val="363221760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4483,7 +4515,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442564608"/>
+        <c:crossAx val="363219968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4697,7 +4729,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4940,6 +4972,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4949,7 +4984,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5192,6 +5227,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>3764.5463818690746</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4110.2134958697707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5234,7 +5272,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5477,6 +5515,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5486,7 +5527,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5729,6 +5770,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>5761.3551965863662</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6093.2604958397851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5771,7 +5815,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6014,6 +6058,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6023,7 +6070,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6266,6 +6313,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>1996.8088147172916</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1983.0469999700144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6287,11 +6337,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442629504"/>
-        <c:axId val="442631296"/>
+        <c:axId val="363506304"/>
+        <c:axId val="363520384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442629504"/>
+        <c:axId val="363506304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6334,14 +6384,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442631296"/>
+        <c:crossAx val="363520384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442631296"/>
+        <c:axId val="363520384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6390,7 +6440,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442629504"/>
+        <c:crossAx val="363506304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6604,7 +6654,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6847,6 +6897,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6856,7 +6909,7 @@
               <c:f>'模型二 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7099,6 +7152,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>1990.0742505012997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2110.9250413985901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7141,7 +7197,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7384,6 +7440,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7393,7 +7452,7 @@
               <c:f>'模型二 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7636,6 +7695,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>2809.0955624203825</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2928.1177076445711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7678,7 +7740,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7921,6 +7983,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7930,7 +7995,7 @@
               <c:f>'模型二 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8173,6 +8238,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>819.02131191908279</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>817.19266624598094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8194,11 +8262,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442690176"/>
-        <c:axId val="442691968"/>
+        <c:axId val="366573824"/>
+        <c:axId val="366575616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442690176"/>
+        <c:axId val="366573824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8241,14 +8309,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442691968"/>
+        <c:crossAx val="366575616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442691968"/>
+        <c:axId val="366575616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8297,7 +8365,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442690176"/>
+        <c:crossAx val="366573824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8511,7 +8579,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8754,6 +8822,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8763,7 +8834,7 @@
               <c:f>'模型二 (2)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9006,6 +9077,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>640.68070588965088</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>726.09631035864925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9048,7 +9122,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9291,6 +9365,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9300,7 +9377,7 @@
               <c:f>'模型二 (2)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9542,6 +9619,9 @@
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
                 <c:pt idx="80">
+                  <c:v>1041.2062722107735</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
               </c:numCache>
@@ -9585,7 +9665,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9828,6 +9908,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9837,7 +9920,7 @@
               <c:f>'模型二 (2)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10080,6 +10163,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>400.5255663211226</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>315.10996185212423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10101,11 +10187,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="456685824"/>
-        <c:axId val="456691712"/>
+        <c:axId val="366602112"/>
+        <c:axId val="366603648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="456685824"/>
+        <c:axId val="366602112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10148,14 +10234,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456691712"/>
+        <c:crossAx val="366603648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="456691712"/>
+        <c:axId val="366603648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10204,7 +10290,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456685824"/>
+        <c:crossAx val="366602112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10418,7 +10504,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10661,6 +10747,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10670,7 +10759,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10913,6 +11002,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>950.37188045422408</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1031.5167046997726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10955,7 +11047,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11198,6 +11290,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11207,7 +11302,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11450,6 +11545,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>1728.1136859447943</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1799.1191105924386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11492,7 +11590,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11735,6 +11833,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11744,7 +11845,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11987,6 +12088,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>777.74180549057019</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>767.60240589266596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12008,11 +12112,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532019072"/>
-        <c:axId val="532020608"/>
+        <c:axId val="441021952"/>
+        <c:axId val="441023488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="532019072"/>
+        <c:axId val="441021952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12055,14 +12159,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532020608"/>
+        <c:crossAx val="441023488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="532020608"/>
+        <c:axId val="441023488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12111,7 +12215,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532019072"/>
+        <c:crossAx val="441021952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12325,7 +12429,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12568,6 +12672,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12577,7 +12684,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12820,6 +12927,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>608.64667059516819</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>689.79149484071661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12862,7 +12972,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13105,6 +13215,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13114,7 +13227,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13356,6 +13469,9 @@
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
                 <c:pt idx="80">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
               </c:numCache>
@@ -13399,7 +13515,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13642,6 +13758,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13651,7 +13770,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13894,6 +14013,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>387.40389302563074</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>306.25906878008232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13915,11 +14037,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="534373888"/>
-        <c:axId val="534375424"/>
+        <c:axId val="458650752"/>
+        <c:axId val="458652288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="534373888"/>
+        <c:axId val="458650752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13962,14 +14084,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534375424"/>
+        <c:crossAx val="458652288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="534375424"/>
+        <c:axId val="458652288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14018,7 +14140,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534373888"/>
+        <c:crossAx val="458650752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14232,7 +14354,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14475,6 +14597,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14484,7 +14609,7 @@
               <c:f>'模型二 (2)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14727,6 +14852,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>317.75778856327963</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>346.12732616203544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14769,7 +14897,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15012,6 +15140,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15021,7 +15152,7 @@
               <c:f>'模型二 (2)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15264,6 +15395,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>513.43840767266863</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>541.76085103878916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15306,7 +15440,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15549,6 +15683,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15558,7 +15695,7 @@
               <c:f>'模型二 (2)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15801,6 +15938,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>195.680619109389</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>195.63352487675371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15822,11 +15962,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="534623360"/>
-        <c:axId val="534624896"/>
+        <c:axId val="461550336"/>
+        <c:axId val="461551872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="534623360"/>
+        <c:axId val="461550336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15869,14 +16009,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534624896"/>
+        <c:crossAx val="461551872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="534624896"/>
+        <c:axId val="461551872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15925,7 +16065,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534623360"/>
+        <c:crossAx val="461550336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16033,7 +16173,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16076,7 +16216,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16119,7 +16259,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16162,7 +16302,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16205,7 +16345,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16248,7 +16388,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16291,7 +16431,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16334,7 +16474,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16645,7 +16785,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF84"/>
+  <dimension ref="A1:AF85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20078,6 +20218,41 @@
         <v>5897.0503205355863</v>
       </c>
     </row>
+    <row r="85" spans="1:11" ht="12.75">
+      <c r="A85" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B85" s="25">
+        <v>0.97500002384185791</v>
+      </c>
+      <c r="C85" s="20">
+        <v>1.2097484883584595</v>
+      </c>
+      <c r="D85" s="21">
+        <v>363.86012000073248</v>
+      </c>
+      <c r="E85" s="22">
+        <v>373.18985754173633</v>
+      </c>
+      <c r="F85" s="22">
+        <v>436.44803455532241</v>
+      </c>
+      <c r="G85" s="22">
+        <v>425.53684409717135</v>
+      </c>
+      <c r="H85" s="22">
+        <v>4326.5405219681797</v>
+      </c>
+      <c r="I85" s="22">
+        <v>6322.5871646327578</v>
+      </c>
+      <c r="J85" s="22">
+        <v>1996.046642664578</v>
+      </c>
+      <c r="K85" s="21">
+        <v>5897.0503205355863</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -20094,7 +20269,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH84"/>
+  <dimension ref="A1:AH85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20136,7 +20311,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -24504,6 +24679,53 @@
         <v>37.886769857434714</v>
       </c>
       <c r="O84" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="12.75">
+      <c r="A85" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B85" s="25">
+        <v>0.97500002384185791</v>
+      </c>
+      <c r="C85" s="20">
+        <v>1.2097484883584595</v>
+      </c>
+      <c r="D85" s="21">
+        <v>345.66711400069585</v>
+      </c>
+      <c r="E85" s="22">
+        <v>354.53036466464948</v>
+      </c>
+      <c r="F85" s="22">
+        <v>1992.0233096105294</v>
+      </c>
+      <c r="G85" s="22">
+        <v>1942.222774363803</v>
+      </c>
+      <c r="H85" s="22">
+        <v>5551.5389835087735</v>
+      </c>
+      <c r="I85" s="22">
+        <v>8444.3016387077896</v>
+      </c>
+      <c r="J85" s="22">
+        <v>2892.7626551990161</v>
+      </c>
+      <c r="K85" s="21">
+        <v>6502.0788643439873</v>
+      </c>
+      <c r="L85" s="26">
+        <v>1.8609968500490449E-2</v>
+      </c>
+      <c r="M85" s="27">
+        <v>4.9453295115756829E-2</v>
+      </c>
+      <c r="N85" s="27">
+        <v>37.631402431181847</v>
+      </c>
+      <c r="O85" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -24523,7 +24745,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH84"/>
+  <dimension ref="A1:AH85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29140,6 +29362,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="85" spans="1:16" ht="12.75">
+      <c r="A85" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B85" s="25">
+        <v>0.97500002384185791</v>
+      </c>
+      <c r="C85" s="20">
+        <v>1.2097484883584595</v>
+      </c>
+      <c r="D85" s="21">
+        <v>345.66711400069585</v>
+      </c>
+      <c r="E85" s="22">
+        <v>354.53036466464948</v>
+      </c>
+      <c r="F85" s="22">
+        <v>414.62563282755622</v>
+      </c>
+      <c r="G85" s="22">
+        <v>404.26000189231274</v>
+      </c>
+      <c r="H85" s="22">
+        <v>4110.2134958697707</v>
+      </c>
+      <c r="I85" s="22">
+        <v>6093.2604958397851</v>
+      </c>
+      <c r="J85" s="22">
+        <v>1983.0469999700144</v>
+      </c>
+      <c r="K85" s="21">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="L85" s="26">
+        <v>15.040650454569146</v>
+      </c>
+      <c r="M85" s="27">
+        <v>24.381812756618189</v>
+      </c>
+      <c r="N85" s="27">
+        <v>37.089072088902171</v>
+      </c>
+      <c r="O85" s="27">
+        <v>-1.0327059079497758</v>
+      </c>
+      <c r="P85" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -29156,7 +29428,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH84"/>
+  <dimension ref="A1:AH85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33090,6 +33362,47 @@
         <v>2799.4811971394251</v>
       </c>
     </row>
+    <row r="85" spans="1:13" ht="12.75">
+      <c r="A85" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B85" s="25">
+        <v>0.97500002384185791</v>
+      </c>
+      <c r="C85" s="20">
+        <v>1.2097484883584595</v>
+      </c>
+      <c r="D85" s="20">
+        <v>668836</v>
+      </c>
+      <c r="E85" s="20">
+        <v>2013745.5900279626</v>
+      </c>
+      <c r="F85" s="21">
+        <v>120.85079089729037</v>
+      </c>
+      <c r="G85" s="22">
+        <v>123.949526094465</v>
+      </c>
+      <c r="H85" s="22">
+        <v>131.93487934315186</v>
+      </c>
+      <c r="I85" s="22">
+        <v>128.63651050514571</v>
+      </c>
+      <c r="J85" s="22">
+        <v>2110.9250413985901</v>
+      </c>
+      <c r="K85" s="22">
+        <v>2928.1177076445711</v>
+      </c>
+      <c r="L85" s="22">
+        <v>817.19266624598094</v>
+      </c>
+      <c r="M85" s="21">
+        <v>2799.4811971394251</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -33106,7 +33419,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF84"/>
+  <dimension ref="A1:AF85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33148,7 +33461,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -36536,6 +36849,41 @@
         <v>400.5255663211226</v>
       </c>
       <c r="K84" s="21">
+        <v>1041.2062722107735</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="12.75">
+      <c r="A85" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B85" s="25">
+        <v>0.97500002384185791</v>
+      </c>
+      <c r="C85" s="20">
+        <v>1.2097484883584595</v>
+      </c>
+      <c r="D85" s="21">
+        <v>85.415604468998339</v>
+      </c>
+      <c r="E85" s="22">
+        <v>0</v>
+      </c>
+      <c r="F85" s="22">
+        <v>0</v>
+      </c>
+      <c r="G85" s="22">
+        <v>0</v>
+      </c>
+      <c r="H85" s="22">
+        <v>726.09631035864925</v>
+      </c>
+      <c r="I85" s="22">
+        <v>1041.2062722107735</v>
+      </c>
+      <c r="J85" s="22">
+        <v>315.10996185212423</v>
+      </c>
+      <c r="K85" s="21">
         <v>1041.2062722107735</v>
       </c>
     </row>
@@ -36555,7 +36903,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH84"/>
+  <dimension ref="A1:AH85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -36597,7 +36945,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -40965,6 +41313,53 @@
         <v>37.886769857434714</v>
       </c>
       <c r="O84" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="12.75">
+      <c r="A85" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B85" s="25">
+        <v>0.97500002384185791</v>
+      </c>
+      <c r="C85" s="21">
+        <v>1.2097484883584595</v>
+      </c>
+      <c r="D85" s="21">
+        <v>81.144824245548421</v>
+      </c>
+      <c r="E85" s="22">
+        <v>83.225458729537294</v>
+      </c>
+      <c r="F85" s="22">
+        <v>127.50231821621601</v>
+      </c>
+      <c r="G85" s="22">
+        <v>124.31476330070277</v>
+      </c>
+      <c r="H85" s="22">
+        <v>1031.5167046997726</v>
+      </c>
+      <c r="I85" s="22">
+        <v>1799.1191105924386</v>
+      </c>
+      <c r="J85" s="22">
+        <v>767.60240589266596</v>
+      </c>
+      <c r="K85" s="21">
+        <v>1674.8043472917359</v>
+      </c>
+      <c r="L85" s="26">
+        <v>1.8609968500490449E-2</v>
+      </c>
+      <c r="M85" s="27">
+        <v>4.9453295115756829E-2</v>
+      </c>
+      <c r="N85" s="27">
+        <v>37.631402431181847</v>
+      </c>
+      <c r="O85" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -40984,7 +41379,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH84"/>
+  <dimension ref="A1:AH85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -41026,7 +41421,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -45597,6 +45992,56 @@
         <v>0.27177821283979142</v>
       </c>
       <c r="P84" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="12.75">
+      <c r="A85" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B85" s="25">
+        <v>0.97500002384185791</v>
+      </c>
+      <c r="C85" s="20">
+        <v>1.2097484883584595</v>
+      </c>
+      <c r="D85" s="21">
+        <v>81.144824245548421</v>
+      </c>
+      <c r="E85" s="22">
+        <v>0</v>
+      </c>
+      <c r="F85" s="22">
+        <v>0</v>
+      </c>
+      <c r="G85" s="22">
+        <v>0</v>
+      </c>
+      <c r="H85" s="22">
+        <v>689.79149484071661</v>
+      </c>
+      <c r="I85" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J85" s="22">
+        <v>306.25906878008232</v>
+      </c>
+      <c r="K85" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L85" s="26">
+        <v>15.040650454569146</v>
+      </c>
+      <c r="M85" s="27">
+        <v>24.381812756618189</v>
+      </c>
+      <c r="N85" s="27">
+        <v>37.089072088902171</v>
+      </c>
+      <c r="O85" s="27">
+        <v>-1.0327059079497758</v>
+      </c>
+      <c r="P85" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -45616,7 +46061,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH84"/>
+  <dimension ref="A1:AH85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -45663,7 +46108,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -45786,7 +46231,7 @@
       </c>
       <c r="N4" s="7"/>
       <c r="Q4" s="31" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -49547,6 +49992,47 @@
         <v>195.680619109389</v>
       </c>
       <c r="M84" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="12.75">
+      <c r="A85" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B85" s="25">
+        <v>0.97500002384185791</v>
+      </c>
+      <c r="C85" s="20">
+        <v>1.2097484883584595</v>
+      </c>
+      <c r="D85" s="20">
+        <v>668836</v>
+      </c>
+      <c r="E85" s="20">
+        <v>2013745.5900279626</v>
+      </c>
+      <c r="F85" s="21">
+        <v>28.369537598755802</v>
+      </c>
+      <c r="G85" s="22">
+        <v>29.096960928236097</v>
+      </c>
+      <c r="H85" s="22">
+        <v>29.302612623969235</v>
+      </c>
+      <c r="I85" s="22">
+        <v>28.570048006998732</v>
+      </c>
+      <c r="J85" s="22">
+        <v>346.12732616203544</v>
+      </c>
+      <c r="K85" s="22">
+        <v>541.76085103878916</v>
+      </c>
+      <c r="L85" s="22">
+        <v>195.63352487675371</v>
+      </c>
+      <c r="M85" s="21">
         <v>513.19080303179044</v>
       </c>
     </row>

--- a/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="33">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -149,6 +149,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -165,6 +169,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>RSV</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -178,10 +186,6 @@
   </si>
   <si>
     <t>J</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -879,7 +883,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1125,6 +1129,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1134,7 +1141,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1380,6 +1387,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>4326.5405219681797</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4353.8229600510713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1422,7 +1432,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1668,6 +1678,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1677,7 +1690,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1923,6 +1936,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>6322.5871646327578</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6444.142361114199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1965,7 +1981,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2211,6 +2227,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2220,7 +2239,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2466,6 +2485,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>1996.046642664578</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2090.3194010631278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2487,11 +2509,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="462610432"/>
-        <c:axId val="462612736"/>
+        <c:axId val="476809088"/>
+        <c:axId val="489635200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="462610432"/>
+        <c:axId val="476809088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2534,14 +2556,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462612736"/>
+        <c:crossAx val="489635200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="462612736"/>
+        <c:axId val="489635200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2590,7 +2612,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462610432"/>
+        <c:crossAx val="476809088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2804,7 +2826,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3050,6 +3072,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3059,7 +3084,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3305,6 +3330,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>5551.5389835087735</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5577.4572996875213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3347,7 +3375,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3593,6 +3621,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3602,7 +3633,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3848,6 +3879,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>8444.3016387077896</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8900.4969118730114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3890,7 +3924,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4136,6 +4170,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4145,7 +4182,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4391,6 +4428,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>2892.7626551990161</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3323.0396121854901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4412,11 +4452,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="363219968"/>
-        <c:axId val="363221760"/>
+        <c:axId val="524262400"/>
+        <c:axId val="528386688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="363219968"/>
+        <c:axId val="524262400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4459,14 +4499,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363221760"/>
+        <c:crossAx val="528386688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="363221760"/>
+        <c:axId val="528386688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4515,7 +4555,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363219968"/>
+        <c:crossAx val="524262400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4729,7 +4769,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4975,6 +5015,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4984,7 +5027,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5230,6 +5273,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>4110.2134958697707</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4137.4959339526622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5272,7 +5318,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5518,6 +5564,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5527,7 +5576,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5773,6 +5822,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>6093.2604958397851</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6210.1020544012981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5815,7 +5867,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6061,6 +6113,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6070,7 +6125,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6316,6 +6371,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>1983.0469999700144</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2072.6061204486359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6337,11 +6395,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="363506304"/>
-        <c:axId val="363520384"/>
+        <c:axId val="462021376"/>
+        <c:axId val="462022912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="363506304"/>
+        <c:axId val="462021376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6384,14 +6442,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363520384"/>
+        <c:crossAx val="462022912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="363520384"/>
+        <c:axId val="462022912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6440,7 +6498,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363506304"/>
+        <c:crossAx val="462021376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6654,7 +6712,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6900,6 +6958,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6909,7 +6970,7 @@
               <c:f>'模型二 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7155,6 +7216,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>2110.9250413985901</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2123.6704760526582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7197,7 +7261,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7443,6 +7507,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7452,7 +7519,7 @@
               <c:f>'模型二 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7698,6 +7765,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>2928.1177076445711</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2969.3610710780208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7740,7 +7810,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7986,6 +8056,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7995,7 +8068,7 @@
               <c:f>'模型二 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8241,6 +8314,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>817.19266624598094</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>845.69059502536265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8262,11 +8338,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="366573824"/>
-        <c:axId val="366575616"/>
+        <c:axId val="462848384"/>
+        <c:axId val="462849920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="366573824"/>
+        <c:axId val="462848384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8309,14 +8385,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366575616"/>
+        <c:crossAx val="462849920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="366575616"/>
+        <c:axId val="462849920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8365,7 +8441,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366573824"/>
+        <c:crossAx val="462848384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8579,7 +8655,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8825,6 +8901,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8834,7 +8913,7 @@
               <c:f>'模型二 (2)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9080,6 +9159,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>726.09631035864925</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>726.57652418300199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9122,7 +9204,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9368,6 +9450,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9377,7 +9462,7 @@
               <c:f>'模型二 (2)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9622,6 +9707,9 @@
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
                 <c:pt idx="81">
+                  <c:v>1041.2062722107735</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
               </c:numCache>
@@ -9665,7 +9753,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9911,6 +9999,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9920,7 +10011,7 @@
               <c:f>'模型二 (2)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10166,6 +10257,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>315.10996185212423</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>314.62974802777148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10187,11 +10281,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="366602112"/>
-        <c:axId val="366603648"/>
+        <c:axId val="462938112"/>
+        <c:axId val="462939648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="366602112"/>
+        <c:axId val="462938112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10234,14 +10328,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366603648"/>
+        <c:crossAx val="462939648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="366603648"/>
+        <c:axId val="462939648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10290,7 +10384,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366602112"/>
+        <c:crossAx val="462938112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10504,7 +10598,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10750,6 +10844,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10759,7 +10856,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11005,6 +11102,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>1031.5167046997726</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1031.9729078329078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11047,7 +11147,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11293,6 +11393,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11302,7 +11405,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11548,6 +11651,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>1799.1191105924386</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1827.1158094748534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11590,7 +11696,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11836,6 +11942,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11845,7 +11954,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12091,6 +12200,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>767.60240589266596</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>795.14290164194563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12112,11 +12224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="441021952"/>
-        <c:axId val="441023488"/>
+        <c:axId val="463977856"/>
+        <c:axId val="464221312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="441021952"/>
+        <c:axId val="463977856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12159,14 +12271,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441023488"/>
+        <c:crossAx val="464221312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="441023488"/>
+        <c:axId val="464221312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12215,7 +12327,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441021952"/>
+        <c:crossAx val="463977856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12429,7 +12541,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12675,6 +12787,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12684,7 +12799,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12930,6 +13045,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>689.79149484071661</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>690.27170866506935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12972,7 +13090,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13218,6 +13336,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13227,7 +13348,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13472,6 +13593,9 @@
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
                 <c:pt idx="81">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
               </c:numCache>
@@ -13515,7 +13639,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13761,6 +13885,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13770,7 +13897,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14016,6 +14143,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>306.25906878008232</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>305.77885495572957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14037,11 +14167,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="458650752"/>
-        <c:axId val="458652288"/>
+        <c:axId val="464423936"/>
+        <c:axId val="464450304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="458650752"/>
+        <c:axId val="464423936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14084,14 +14214,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458652288"/>
+        <c:crossAx val="464450304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="458652288"/>
+        <c:axId val="464450304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14140,7 +14270,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458650752"/>
+        <c:crossAx val="464423936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14354,7 +14484,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14600,6 +14730,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14609,7 +14742,7 @@
               <c:f>'模型二 (2)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14855,6 +14988,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>346.12732616203544</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>346.35166585996393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14897,7 +15033,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15143,6 +15279,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15152,7 +15291,7 @@
               <c:f>'模型二 (2)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15398,6 +15537,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>541.76085103878916</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>548.31455391774386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15440,7 +15582,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15686,6 +15828,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15695,7 +15840,7 @@
               <c:f>'模型二 (2)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15941,6 +16086,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>195.63352487675371</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>201.96288805777994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15962,11 +16110,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461550336"/>
-        <c:axId val="461551872"/>
+        <c:axId val="464734848"/>
+        <c:axId val="464740736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461550336"/>
+        <c:axId val="464734848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16009,14 +16157,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461551872"/>
+        <c:crossAx val="464740736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461551872"/>
+        <c:axId val="464740736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16065,7 +16213,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461550336"/>
+        <c:crossAx val="464734848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16173,7 +16321,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16216,7 +16364,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16259,7 +16407,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16302,7 +16450,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16345,7 +16493,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16388,7 +16536,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16431,7 +16579,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16474,7 +16622,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16785,7 +16933,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF85"/>
+  <dimension ref="A1:AF86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20253,6 +20401,41 @@
         <v>5897.0503205355863</v>
       </c>
     </row>
+    <row r="86" spans="1:11" ht="12.75">
+      <c r="A86" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.2086015576979154</v>
+      </c>
+      <c r="D86" s="21">
+        <v>27.282438082891979</v>
+      </c>
+      <c r="E86" s="22">
+        <v>22.907169128822535</v>
+      </c>
+      <c r="F86" s="22">
+        <v>459.35520368414495</v>
+      </c>
+      <c r="G86" s="22">
+        <v>547.09204057861245</v>
+      </c>
+      <c r="H86" s="22">
+        <v>4353.8229600510713</v>
+      </c>
+      <c r="I86" s="22">
+        <v>6444.142361114199</v>
+      </c>
+      <c r="J86" s="22">
+        <v>2090.3194010631278</v>
+      </c>
+      <c r="K86" s="21">
+        <v>5897.0503205355863</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -20269,7 +20452,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH85"/>
+  <dimension ref="A1:AH86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20311,7 +20494,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -20344,16 +20527,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -20378,7 +20561,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -24726,6 +24909,53 @@
         <v>37.631402431181847</v>
       </c>
       <c r="O85" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="12.75">
+      <c r="A86" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.2086015576979154</v>
+      </c>
+      <c r="D86" s="21">
+        <v>25.918316178747379</v>
+      </c>
+      <c r="E86" s="22">
+        <v>21.761810672381408</v>
+      </c>
+      <c r="F86" s="22">
+        <v>2013.7851202829108</v>
+      </c>
+      <c r="G86" s="22">
+        <v>2398.4180475290245</v>
+      </c>
+      <c r="H86" s="22">
+        <v>5577.4572996875213</v>
+      </c>
+      <c r="I86" s="22">
+        <v>8900.4969118730114</v>
+      </c>
+      <c r="J86" s="22">
+        <v>3323.0396121854901</v>
+      </c>
+      <c r="K86" s="21">
+        <v>6502.0788643439873</v>
+      </c>
+      <c r="L86" s="26">
+        <v>1.550830708374204E-2</v>
+      </c>
+      <c r="M86" s="27">
+        <v>7.9377741320371495E-2</v>
+      </c>
+      <c r="N86" s="27">
+        <v>19.537349924268998</v>
+      </c>
+      <c r="O86" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -24745,7 +24975,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH85"/>
+  <dimension ref="A1:AH86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24820,19 +25050,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -24857,7 +25087,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -29410,6 +29640,56 @@
       </c>
       <c r="P85" s="27">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="12.75">
+      <c r="A86" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.2086015576979154</v>
+      </c>
+      <c r="D86" s="21">
+        <v>27.282438082891979</v>
+      </c>
+      <c r="E86" s="22">
+        <v>22.907169128822535</v>
+      </c>
+      <c r="F86" s="22">
+        <v>437.53280195637876</v>
+      </c>
+      <c r="G86" s="22">
+        <v>521.10156045382632</v>
+      </c>
+      <c r="H86" s="22">
+        <v>4137.4959339526622</v>
+      </c>
+      <c r="I86" s="22">
+        <v>6210.1020544012981</v>
+      </c>
+      <c r="J86" s="22">
+        <v>2072.6061204486359</v>
+      </c>
+      <c r="K86" s="21">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="L86" s="26">
+        <v>0</v>
+      </c>
+      <c r="M86" s="27">
+        <v>16.25454183774546</v>
+      </c>
+      <c r="N86" s="27">
+        <v>30.144228671849934</v>
+      </c>
+      <c r="O86" s="27">
+        <v>-11.524831830463491</v>
+      </c>
+      <c r="P86" s="27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -29428,7 +29708,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH85"/>
+  <dimension ref="A1:AH86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29475,7 +29755,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -29484,10 +29764,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -29541,7 +29821,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -33400,6 +33680,47 @@
         <v>817.19266624598094</v>
       </c>
       <c r="M85" s="21">
+        <v>2799.4811971394251</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="12.75">
+      <c r="A86" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.2086015576979154</v>
+      </c>
+      <c r="D86" s="20">
+        <v>937400</v>
+      </c>
+      <c r="E86" s="20">
+        <v>2006566.1276400539</v>
+      </c>
+      <c r="F86" s="21">
+        <v>12.745434654068182</v>
+      </c>
+      <c r="G86" s="22">
+        <v>10.701456605675443</v>
+      </c>
+      <c r="H86" s="22">
+        <v>142.63633594882731</v>
+      </c>
+      <c r="I86" s="22">
+        <v>169.87987393859555</v>
+      </c>
+      <c r="J86" s="22">
+        <v>2123.6704760526582</v>
+      </c>
+      <c r="K86" s="22">
+        <v>2969.3610710780208</v>
+      </c>
+      <c r="L86" s="22">
+        <v>845.69059502536265</v>
+      </c>
+      <c r="M86" s="21">
         <v>2799.4811971394251</v>
       </c>
     </row>
@@ -33419,7 +33740,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF85"/>
+  <dimension ref="A1:AF86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33461,7 +33782,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -36884,6 +37205,41 @@
         <v>315.10996185212423</v>
       </c>
       <c r="K85" s="21">
+        <v>1041.2062722107735</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="12.75">
+      <c r="A86" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.2086015576979154</v>
+      </c>
+      <c r="D86" s="21">
+        <v>0.48021382435279653</v>
+      </c>
+      <c r="E86" s="22">
+        <v>0</v>
+      </c>
+      <c r="F86" s="22">
+        <v>0</v>
+      </c>
+      <c r="G86" s="22">
+        <v>0</v>
+      </c>
+      <c r="H86" s="22">
+        <v>726.57652418300199</v>
+      </c>
+      <c r="I86" s="22">
+        <v>1041.2062722107735</v>
+      </c>
+      <c r="J86" s="22">
+        <v>314.62974802777148</v>
+      </c>
+      <c r="K86" s="21">
         <v>1041.2062722107735</v>
       </c>
     </row>
@@ -36903,7 +37259,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH85"/>
+  <dimension ref="A1:AH86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -36945,7 +37301,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -36978,16 +37334,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -37012,7 +37368,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -41360,6 +41716,53 @@
         <v>37.631402431181847</v>
       </c>
       <c r="O85" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="12.75">
+      <c r="A86" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C86" s="21">
+        <v>1.2086015576979154</v>
+      </c>
+      <c r="D86" s="21">
+        <v>0.4562031331351567</v>
+      </c>
+      <c r="E86" s="22">
+        <v>0.38304209821991209</v>
+      </c>
+      <c r="F86" s="22">
+        <v>127.88536031443593</v>
+      </c>
+      <c r="G86" s="22">
+        <v>152.31146218311744</v>
+      </c>
+      <c r="H86" s="22">
+        <v>1031.9729078329078</v>
+      </c>
+      <c r="I86" s="22">
+        <v>1827.1158094748534</v>
+      </c>
+      <c r="J86" s="22">
+        <v>795.14290164194563</v>
+      </c>
+      <c r="K86" s="21">
+        <v>1674.8043472917359</v>
+      </c>
+      <c r="L86" s="26">
+        <v>1.550830708374204E-2</v>
+      </c>
+      <c r="M86" s="27">
+        <v>7.9377741320371495E-2</v>
+      </c>
+      <c r="N86" s="27">
+        <v>19.537349924268998</v>
+      </c>
+      <c r="O86" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -41379,7 +41782,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH85"/>
+  <dimension ref="A1:AH86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -41454,19 +41857,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -41491,7 +41894,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -46043,6 +46446,56 @@
       </c>
       <c r="P85" s="27">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="12.75">
+      <c r="A86" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.2086015576979154</v>
+      </c>
+      <c r="D86" s="21">
+        <v>0.48021382435279653</v>
+      </c>
+      <c r="E86" s="22">
+        <v>0</v>
+      </c>
+      <c r="F86" s="22">
+        <v>0</v>
+      </c>
+      <c r="G86" s="22">
+        <v>0</v>
+      </c>
+      <c r="H86" s="22">
+        <v>690.27170866506935</v>
+      </c>
+      <c r="I86" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J86" s="22">
+        <v>305.77885495572957</v>
+      </c>
+      <c r="K86" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L86" s="26">
+        <v>0</v>
+      </c>
+      <c r="M86" s="27">
+        <v>16.25454183774546</v>
+      </c>
+      <c r="N86" s="27">
+        <v>30.144228671849934</v>
+      </c>
+      <c r="O86" s="27">
+        <v>-11.524831830463491</v>
+      </c>
+      <c r="P86" s="27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -46061,7 +46514,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH85"/>
+  <dimension ref="A1:AH86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -46108,7 +46561,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -46117,10 +46570,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -46174,7 +46627,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -50033,6 +50486,47 @@
         <v>195.63352487675371</v>
       </c>
       <c r="M85" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="12.75">
+      <c r="A86" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.2086015576979154</v>
+      </c>
+      <c r="D86" s="20">
+        <v>937400</v>
+      </c>
+      <c r="E86" s="20">
+        <v>2006566.1276400539</v>
+      </c>
+      <c r="F86" s="21">
+        <v>0.22433969792849093</v>
+      </c>
+      <c r="G86" s="22">
+        <v>0.18836246918780361</v>
+      </c>
+      <c r="H86" s="22">
+        <v>29.49097509315704</v>
+      </c>
+      <c r="I86" s="22">
+        <v>35.12375088595347</v>
+      </c>
+      <c r="J86" s="22">
+        <v>346.35166585996393</v>
+      </c>
+      <c r="K86" s="22">
+        <v>548.31455391774386</v>
+      </c>
+      <c r="L86" s="22">
+        <v>201.96288805777994</v>
+      </c>
+      <c r="M86" s="21">
         <v>513.19080303179044</v>
       </c>
     </row>

--- a/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="34">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,14 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -169,8 +161,8 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>RSV</t>
@@ -187,6 +179,18 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年化收益率</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -883,7 +887,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1132,6 +1136,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1141,7 +1148,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1390,6 +1397,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>4353.8229600510713</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4380.0986209711864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1432,7 +1442,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1681,6 +1691,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1690,7 +1703,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1939,6 +1952,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>6444.142361114199</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6470.8773987036857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1981,7 +1997,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2230,6 +2246,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2239,7 +2258,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2488,6 +2507,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2090.3194010631278</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2090.7787777324993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2509,11 +2531,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476809088"/>
-        <c:axId val="489635200"/>
+        <c:axId val="491845888"/>
+        <c:axId val="617925632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="476809088"/>
+        <c:axId val="491845888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2556,14 +2578,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489635200"/>
+        <c:crossAx val="617925632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489635200"/>
+        <c:axId val="617925632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2612,7 +2634,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476809088"/>
+        <c:crossAx val="491845888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2826,7 +2848,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3075,6 +3097,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3084,7 +3109,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3333,6 +3358,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>5577.4572996875213</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5630.0086215277506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3375,7 +3403,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3624,6 +3652,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3633,7 +3664,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3882,6 +3913,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>8900.4969118730114</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8955.0621129377869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3924,7 +3958,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4173,6 +4207,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4182,7 +4219,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4431,6 +4468,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>3323.0396121854901</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3325.0534914100363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4452,11 +4492,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524262400"/>
-        <c:axId val="528386688"/>
+        <c:axId val="631091584"/>
+        <c:axId val="631093888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524262400"/>
+        <c:axId val="631091584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4499,14 +4539,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528386688"/>
+        <c:crossAx val="631093888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="528386688"/>
+        <c:axId val="631093888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4555,7 +4595,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524262400"/>
+        <c:crossAx val="631091584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4769,7 +4809,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5018,6 +5058,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5027,7 +5070,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5276,6 +5319,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>4137.4959339526622</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4162.4578118267709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5318,7 +5364,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5567,6 +5613,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5576,7 +5625,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5825,6 +5874,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>6210.1020544012981</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6235.5014855232894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5867,7 +5919,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6116,6 +6168,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6125,7 +6180,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6374,6 +6429,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2072.6061204486359</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2073.0436736965185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6395,11 +6453,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="462021376"/>
-        <c:axId val="462022912"/>
+        <c:axId val="634457088"/>
+        <c:axId val="634463360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="462021376"/>
+        <c:axId val="634457088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6442,14 +6500,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462022912"/>
+        <c:crossAx val="634463360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="462022912"/>
+        <c:axId val="634463360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6498,7 +6556,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462021376"/>
+        <c:crossAx val="634457088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6712,7 +6770,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6961,6 +7019,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6970,7 +7031,7 @@
               <c:f>'模型二 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7219,6 +7280,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2123.6704760526582</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2128.3626705950696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7261,7 +7325,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7510,6 +7574,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7519,7 +7586,7 @@
               <c:f>'模型二 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7768,6 +7835,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2969.3610710780208</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2974.195908621783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7810,7 +7880,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8059,6 +8129,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8068,7 +8141,7 @@
               <c:f>'模型二 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8317,6 +8390,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>845.69059502536265</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>845.83323802671339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8338,11 +8414,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="462848384"/>
-        <c:axId val="462849920"/>
+        <c:axId val="475877760"/>
+        <c:axId val="475879296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="462848384"/>
+        <c:axId val="475877760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8385,14 +8461,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462849920"/>
+        <c:crossAx val="475879296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="462849920"/>
+        <c:axId val="475879296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8441,7 +8517,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462848384"/>
+        <c:crossAx val="475877760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8655,7 +8731,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8904,6 +8980,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8913,7 +8992,7 @@
               <c:f>'模型二 (2)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9162,6 +9241,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>726.57652418300199</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>727.02195021963996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9204,7 +9286,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9453,6 +9535,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9462,7 +9547,7 @@
               <c:f>'模型二 (2)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9710,6 +9795,9 @@
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>1041.2062722107735</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
               </c:numCache>
@@ -9753,7 +9841,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10002,6 +10090,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10011,7 +10102,7 @@
               <c:f>'模型二 (2)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10260,6 +10351,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>314.62974802777148</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>314.18432199113352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10281,11 +10375,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="462938112"/>
-        <c:axId val="462939648"/>
+        <c:axId val="475901952"/>
+        <c:axId val="475903488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="462938112"/>
+        <c:axId val="475901952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10328,14 +10422,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462939648"/>
+        <c:crossAx val="475903488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="462939648"/>
+        <c:axId val="475903488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10384,7 +10478,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462938112"/>
+        <c:crossAx val="475901952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10598,7 +10692,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10847,6 +10941,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10856,7 +10953,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11105,6 +11202,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>1031.9729078329078</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1032.8637599061838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11147,7 +11247,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11396,6 +11496,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11405,7 +11508,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11654,6 +11757,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>1827.1158094748534</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1828.1345528845318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11696,7 +11802,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11945,6 +12051,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11954,7 +12063,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12203,6 +12312,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>795.14290164194563</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>795.27079297834803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12224,11 +12336,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="463977856"/>
-        <c:axId val="464221312"/>
+        <c:axId val="482336128"/>
+        <c:axId val="486061184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="463977856"/>
+        <c:axId val="482336128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12271,14 +12383,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464221312"/>
+        <c:crossAx val="486061184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="464221312"/>
+        <c:axId val="486061184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12327,7 +12439,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463977856"/>
+        <c:crossAx val="482336128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12541,7 +12653,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12790,6 +12902,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12799,7 +12914,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13048,6 +13163,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>690.27170866506935</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>690.69486339987543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13090,7 +13208,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13339,6 +13457,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13348,7 +13469,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13596,6 +13717,9 @@
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
               </c:numCache>
@@ -13639,7 +13763,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13888,6 +14012,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13897,7 +14024,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14146,6 +14273,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>305.77885495572957</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>305.3557002209235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14167,11 +14297,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="464423936"/>
-        <c:axId val="464450304"/>
+        <c:axId val="486439936"/>
+        <c:axId val="486441728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="464423936"/>
+        <c:axId val="486439936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14214,14 +14344,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464450304"/>
+        <c:crossAx val="486441728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="464450304"/>
+        <c:axId val="486441728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14270,7 +14400,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464423936"/>
+        <c:crossAx val="486439936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14484,7 +14614,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14733,6 +14863,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14742,7 +14875,7 @@
               <c:f>'模型二 (2)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14991,6 +15124,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>346.35166585996393</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>346.43120812626563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15033,7 +15169,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15282,6 +15418,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15291,7 +15430,7 @@
               <c:f>'模型二 (2)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15540,6 +15679,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>548.31455391774386</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>548.42358853725318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15582,7 +15724,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15831,6 +15973,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15840,7 +15985,7 @@
               <c:f>'模型二 (2)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16089,6 +16234,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>201.96288805777994</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>201.99238041098755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16110,11 +16258,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="464734848"/>
-        <c:axId val="464740736"/>
+        <c:axId val="489142912"/>
+        <c:axId val="489148800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="464734848"/>
+        <c:axId val="489142912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16157,14 +16305,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464740736"/>
+        <c:crossAx val="489148800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="464740736"/>
+        <c:axId val="489148800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16213,7 +16361,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464734848"/>
+        <c:crossAx val="489142912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16933,7 +17081,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF86"/>
+  <dimension ref="A1:AF87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20436,6 +20584,41 @@
         <v>5897.0503205355863</v>
       </c>
     </row>
+    <row r="87" spans="1:11" ht="12.75">
+      <c r="A87" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.2089520707745522</v>
+      </c>
+      <c r="D87" s="21">
+        <v>26.275660920114696</v>
+      </c>
+      <c r="E87" s="22">
+        <v>22.043339116093293</v>
+      </c>
+      <c r="F87" s="22">
+        <v>481.39854280023826</v>
+      </c>
+      <c r="G87" s="22">
+        <v>573.82707816809909</v>
+      </c>
+      <c r="H87" s="22">
+        <v>4380.0986209711864</v>
+      </c>
+      <c r="I87" s="22">
+        <v>6470.8773987036857</v>
+      </c>
+      <c r="J87" s="22">
+        <v>2090.7787777324993</v>
+      </c>
+      <c r="K87" s="21">
+        <v>5897.0503205355863</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -20452,7 +20635,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AH87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20494,7 +20677,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -20527,16 +20710,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -20561,7 +20744,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -24957,6 +25140,53 @@
       </c>
       <c r="O86" s="27">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="12.75">
+      <c r="A87" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.2089520707745522</v>
+      </c>
+      <c r="D87" s="21">
+        <v>52.551321840229392</v>
+      </c>
+      <c r="E87" s="22">
+        <v>44.086678232186586</v>
+      </c>
+      <c r="F87" s="22">
+        <v>2057.8717985150975</v>
+      </c>
+      <c r="G87" s="22">
+        <v>2452.9832485937991</v>
+      </c>
+      <c r="H87" s="22">
+        <v>5630.0086215277506</v>
+      </c>
+      <c r="I87" s="22">
+        <v>8955.0621129377869</v>
+      </c>
+      <c r="J87" s="22">
+        <v>3325.0534914100363</v>
+      </c>
+      <c r="K87" s="21">
+        <v>6502.0788643439873</v>
+      </c>
+      <c r="L87" s="26">
+        <v>4.8923582719677207E-2</v>
+      </c>
+      <c r="M87" s="27">
+        <v>0.10214811125020175</v>
+      </c>
+      <c r="N87" s="27">
+        <v>47.894750202325042</v>
+      </c>
+      <c r="O87" s="27">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -24975,7 +25205,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AH87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25017,7 +25247,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -25050,19 +25280,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -25087,7 +25317,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -29690,6 +29920,56 @@
       </c>
       <c r="P86" s="27">
         <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="12.75">
+      <c r="A87" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.2089520707745522</v>
+      </c>
+      <c r="D87" s="21">
+        <v>24.961877874108961</v>
+      </c>
+      <c r="E87" s="22">
+        <v>20.94117216028863</v>
+      </c>
+      <c r="F87" s="22">
+        <v>458.47397411666736</v>
+      </c>
+      <c r="G87" s="22">
+        <v>546.50099157581769</v>
+      </c>
+      <c r="H87" s="22">
+        <v>4162.4578118267709</v>
+      </c>
+      <c r="I87" s="22">
+        <v>6235.5014855232894</v>
+      </c>
+      <c r="J87" s="22">
+        <v>2073.0436736965185</v>
+      </c>
+      <c r="K87" s="21">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="L87" s="26">
+        <v>39.198850542858423</v>
+      </c>
+      <c r="M87" s="27">
+        <v>23.902644739449784</v>
+      </c>
+      <c r="N87" s="27">
+        <v>28.063700694383215</v>
+      </c>
+      <c r="O87" s="27">
+        <v>15.580532829582921</v>
+      </c>
+      <c r="P87" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -29708,7 +29988,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AH87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29764,10 +30044,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -29821,7 +30101,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -33721,6 +34001,47 @@
         <v>845.69059502536265</v>
       </c>
       <c r="M86" s="21">
+        <v>2799.4811971394251</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="12.75">
+      <c r="A87" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.2089520707745522</v>
+      </c>
+      <c r="D87" s="20">
+        <v>356409</v>
+      </c>
+      <c r="E87" s="20">
+        <v>1995842.6591715976</v>
+      </c>
+      <c r="F87" s="21">
+        <v>4.6921945424115661</v>
+      </c>
+      <c r="G87" s="22">
+        <v>3.9364047135301843</v>
+      </c>
+      <c r="H87" s="22">
+        <v>146.57274066235749</v>
+      </c>
+      <c r="I87" s="22">
+        <v>174.71471148235784</v>
+      </c>
+      <c r="J87" s="22">
+        <v>2128.3626705950696</v>
+      </c>
+      <c r="K87" s="22">
+        <v>2974.195908621783</v>
+      </c>
+      <c r="L87" s="22">
+        <v>845.83323802671339</v>
+      </c>
+      <c r="M87" s="21">
         <v>2799.4811971394251</v>
       </c>
     </row>
@@ -33740,7 +34061,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF86"/>
+  <dimension ref="A1:AF87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33782,7 +34103,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -37240,6 +37561,41 @@
         <v>314.62974802777148</v>
       </c>
       <c r="K86" s="21">
+        <v>1041.2062722107735</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="12.75">
+      <c r="A87" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.2089520707745522</v>
+      </c>
+      <c r="D87" s="21">
+        <v>0.44542603663796299</v>
+      </c>
+      <c r="E87" s="22">
+        <v>0</v>
+      </c>
+      <c r="F87" s="22">
+        <v>0</v>
+      </c>
+      <c r="G87" s="22">
+        <v>0</v>
+      </c>
+      <c r="H87" s="22">
+        <v>727.02195021963996</v>
+      </c>
+      <c r="I87" s="22">
+        <v>1041.2062722107735</v>
+      </c>
+      <c r="J87" s="22">
+        <v>314.18432199113352</v>
+      </c>
+      <c r="K87" s="21">
         <v>1041.2062722107735</v>
       </c>
     </row>
@@ -37259,7 +37615,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AH87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -37301,7 +37657,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -37334,16 +37690,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -37368,7 +37724,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -41764,6 +42120,53 @@
       </c>
       <c r="O86" s="27">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="12.75">
+      <c r="A87" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C87" s="21">
+        <v>1.2089520707745522</v>
+      </c>
+      <c r="D87" s="21">
+        <v>0.89085207327592597</v>
+      </c>
+      <c r="E87" s="22">
+        <v>0.74735910214395884</v>
+      </c>
+      <c r="F87" s="22">
+        <v>128.63271941657987</v>
+      </c>
+      <c r="G87" s="22">
+        <v>153.33020559279601</v>
+      </c>
+      <c r="H87" s="22">
+        <v>1032.8637599061838</v>
+      </c>
+      <c r="I87" s="22">
+        <v>1828.1345528845318</v>
+      </c>
+      <c r="J87" s="22">
+        <v>795.27079297834803</v>
+      </c>
+      <c r="K87" s="21">
+        <v>1674.8043472917359</v>
+      </c>
+      <c r="L87" s="26">
+        <v>4.8923582719677207E-2</v>
+      </c>
+      <c r="M87" s="27">
+        <v>0.10214811125020175</v>
+      </c>
+      <c r="N87" s="27">
+        <v>47.894750202325042</v>
+      </c>
+      <c r="O87" s="27">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -41782,7 +42185,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AH87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -41857,19 +42260,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -41894,7 +42297,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -41980,7 +42383,7 @@
         <v>17</v>
       </c>
       <c r="X4" s="32" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Z4" s="6">
         <v>43098</v>
@@ -46496,6 +46899,56 @@
       </c>
       <c r="P86" s="27">
         <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="12.75">
+      <c r="A87" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.2089520707745522</v>
+      </c>
+      <c r="D87" s="21">
+        <v>0.4231547348060648</v>
+      </c>
+      <c r="E87" s="22">
+        <v>0</v>
+      </c>
+      <c r="F87" s="22">
+        <v>0</v>
+      </c>
+      <c r="G87" s="22">
+        <v>0</v>
+      </c>
+      <c r="H87" s="22">
+        <v>690.69486339987543</v>
+      </c>
+      <c r="I87" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J87" s="22">
+        <v>305.3557002209235</v>
+      </c>
+      <c r="K87" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L87" s="26">
+        <v>39.198850542858423</v>
+      </c>
+      <c r="M87" s="27">
+        <v>23.902644739449784</v>
+      </c>
+      <c r="N87" s="27">
+        <v>28.063700694383215</v>
+      </c>
+      <c r="O87" s="27">
+        <v>15.580532829582921</v>
+      </c>
+      <c r="P87" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -46514,7 +46967,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AH87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -46570,10 +47023,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -46627,7 +47080,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -50527,6 +50980,47 @@
         <v>201.96288805777994</v>
       </c>
       <c r="M86" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="12.75">
+      <c r="A87" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.2089520707745522</v>
+      </c>
+      <c r="D87" s="20">
+        <v>356409</v>
+      </c>
+      <c r="E87" s="20">
+        <v>1995842.6591715976</v>
+      </c>
+      <c r="F87" s="21">
+        <v>7.9542266301689715E-2</v>
+      </c>
+      <c r="G87" s="22">
+        <v>6.6730087417458298E-2</v>
+      </c>
+      <c r="H87" s="22">
+        <v>29.557705180574498</v>
+      </c>
+      <c r="I87" s="22">
+        <v>35.2327855054628</v>
+      </c>
+      <c r="J87" s="22">
+        <v>346.43120812626563</v>
+      </c>
+      <c r="K87" s="22">
+        <v>548.42358853725318</v>
+      </c>
+      <c r="L87" s="22">
+        <v>201.99238041098755</v>
+      </c>
+      <c r="M87" s="21">
         <v>513.19080303179044</v>
       </c>
     </row>

--- a/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
@@ -145,6 +145,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能产业LOF</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -181,16 +189,8 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年化收益率</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -887,7 +887,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1139,6 +1139,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1148,7 +1151,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1399,6 +1402,9 @@
                   <c:v>4353.8229600510713</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>4380.0986209711864</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>4380.0986209711864</c:v>
                 </c:pt>
               </c:numCache>
@@ -1442,7 +1448,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1694,6 +1700,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1703,7 +1712,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1955,6 +1964,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>6470.8773987036857</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6484.3565565248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1997,7 +2009,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2249,6 +2261,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2258,7 +2273,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2510,6 +2525,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>2090.7787777324993</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2104.2579355536136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2531,11 +2549,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491845888"/>
-        <c:axId val="617925632"/>
+        <c:axId val="584932736"/>
+        <c:axId val="584967296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491845888"/>
+        <c:axId val="584932736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2578,14 +2596,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617925632"/>
+        <c:crossAx val="584967296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617925632"/>
+        <c:axId val="584967296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2634,7 +2652,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491845888"/>
+        <c:crossAx val="584932736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2848,7 +2866,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3100,6 +3118,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3109,7 +3130,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3360,6 +3381,9 @@
                   <c:v>5577.4572996875213</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>5630.0086215277506</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>5630.0086215277506</c:v>
                 </c:pt>
               </c:numCache>
@@ -3403,7 +3427,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3655,6 +3679,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3664,7 +3691,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3916,6 +3943,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>8955.0621129377869</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9012.6825174085898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3958,7 +3988,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4210,6 +4240,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4219,7 +4252,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4471,6 +4504,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>3325.0534914100363</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3382.6738958808392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4492,11 +4528,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="631091584"/>
-        <c:axId val="631093888"/>
+        <c:axId val="508851328"/>
+        <c:axId val="508852864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="631091584"/>
+        <c:axId val="508851328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4539,14 +4575,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631093888"/>
+        <c:crossAx val="508852864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="631093888"/>
+        <c:axId val="508852864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4595,7 +4631,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631091584"/>
+        <c:crossAx val="508851328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4809,7 +4845,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5061,6 +5097,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5070,7 +5109,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5321,6 +5360,9 @@
                   <c:v>4137.4959339526622</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>4162.4578118267709</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>4162.4578118267709</c:v>
                 </c:pt>
               </c:numCache>
@@ -5364,7 +5406,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5616,6 +5658,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5625,7 +5670,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5877,6 +5922,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>6235.5014855232894</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6248.3387554868523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5919,7 +5967,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6171,6 +6219,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6180,7 +6231,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6432,6 +6483,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>2073.0436736965185</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2085.8809436600814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6453,11 +6507,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="634457088"/>
-        <c:axId val="634463360"/>
+        <c:axId val="508875136"/>
+        <c:axId val="508876672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="634457088"/>
+        <c:axId val="508875136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6500,14 +6554,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="634463360"/>
+        <c:crossAx val="508876672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="634463360"/>
+        <c:axId val="508876672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6556,7 +6610,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="634457088"/>
+        <c:crossAx val="508875136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6770,7 +6824,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7022,6 +7076,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7031,7 +7088,7 @@
               <c:f>'模型二 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7282,6 +7339,9 @@
                   <c:v>2123.6704760526582</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>2128.3626705950696</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>2128.3626705950696</c:v>
                 </c:pt>
               </c:numCache>
@@ -7325,7 +7385,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7577,6 +7637,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7586,7 +7649,7 @@
               <c:f>'模型二 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7838,6 +7901,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>2974.195908621783</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2978.2999449409808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7880,7 +7946,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8132,6 +8198,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8141,7 +8210,7 @@
               <c:f>'模型二 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8393,6 +8462,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>845.83323802671339</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>849.93727434591119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8414,11 +8486,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="475877760"/>
-        <c:axId val="475879296"/>
+        <c:axId val="509431808"/>
+        <c:axId val="509433344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="475877760"/>
+        <c:axId val="509431808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8461,14 +8533,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475879296"/>
+        <c:crossAx val="509433344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="475879296"/>
+        <c:axId val="509433344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8517,7 +8589,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475877760"/>
+        <c:crossAx val="509431808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8731,7 +8803,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8983,6 +9055,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8992,7 +9067,7 @@
               <c:f>'模型二 (2)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9243,6 +9318,9 @@
                   <c:v>726.57652418300199</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>727.02195021963996</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>727.02195021963996</c:v>
                 </c:pt>
               </c:numCache>
@@ -9286,7 +9364,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9538,6 +9616,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9547,7 +9628,7 @@
               <c:f>'模型二 (2)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9799,6 +9880,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>1041.2062722107735</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1041.412408981193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9841,7 +9925,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10093,6 +10177,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10102,7 +10189,7 @@
               <c:f>'模型二 (2)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10354,6 +10441,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>314.18432199113352</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>314.39045876155308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10375,11 +10465,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="475901952"/>
-        <c:axId val="475903488"/>
+        <c:axId val="509476224"/>
+        <c:axId val="509678720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="475901952"/>
+        <c:axId val="509476224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10422,14 +10512,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475903488"/>
+        <c:crossAx val="509678720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="475903488"/>
+        <c:axId val="509678720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10478,7 +10568,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475901952"/>
+        <c:crossAx val="509476224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10692,7 +10782,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10944,6 +11034,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10953,7 +11046,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11204,6 +11297,9 @@
                   <c:v>1031.9729078329078</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>1032.8637599061838</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>1032.8637599061838</c:v>
                 </c:pt>
               </c:numCache>
@@ -11247,7 +11343,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11499,6 +11595,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11508,7 +11607,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11760,6 +11859,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>1828.1345528845318</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1831.736268660175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11802,7 +11904,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12054,6 +12156,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12063,7 +12168,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12315,6 +12420,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>795.27079297834803</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>798.87250875399127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12336,11 +12444,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482336128"/>
-        <c:axId val="486061184"/>
+        <c:axId val="509856768"/>
+        <c:axId val="510001920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="482336128"/>
+        <c:axId val="509856768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12383,14 +12491,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486061184"/>
+        <c:crossAx val="510001920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="486061184"/>
+        <c:axId val="510001920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12439,7 +12547,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482336128"/>
+        <c:crossAx val="509856768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12653,7 +12761,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12905,6 +13013,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12914,7 +13025,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13165,6 +13276,9 @@
                   <c:v>690.27170866506935</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>690.69486339987543</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>690.69486339987543</c:v>
                 </c:pt>
               </c:numCache>
@@ -13208,7 +13322,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13460,6 +13574,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13469,7 +13586,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13721,6 +13838,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>996.24639355269744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13763,7 +13883,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14015,6 +14135,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14024,7 +14147,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14276,6 +14399,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>305.3557002209235</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>305.55153015282201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14297,11 +14423,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="486439936"/>
-        <c:axId val="486441728"/>
+        <c:axId val="510065280"/>
+        <c:axId val="510079360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="486439936"/>
+        <c:axId val="510065280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14344,14 +14470,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486441728"/>
+        <c:crossAx val="510079360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="486441728"/>
+        <c:axId val="510079360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14400,7 +14526,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486439936"/>
+        <c:crossAx val="510065280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14614,7 +14740,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14866,6 +14992,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14875,7 +15004,7 @@
               <c:f>'模型二 (2)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15126,6 +15255,9 @@
                   <c:v>346.35166585996393</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>346.43120812626563</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>346.43120812626563</c:v>
                 </c:pt>
               </c:numCache>
@@ -15169,7 +15301,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15421,6 +15553,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15430,7 +15565,7 @@
               <c:f>'模型二 (2)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15682,6 +15817,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>548.42358853725318</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>549.25120419774407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15724,7 +15862,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15976,6 +16114,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15985,7 +16126,7 @@
               <c:f>'模型二 (2)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16237,6 +16378,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>201.99238041098755</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>202.81999607147844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16258,11 +16402,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489142912"/>
-        <c:axId val="489148800"/>
+        <c:axId val="511412480"/>
+        <c:axId val="511426560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489142912"/>
+        <c:axId val="511412480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16305,14 +16449,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489148800"/>
+        <c:crossAx val="511426560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489148800"/>
+        <c:axId val="511426560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16361,7 +16505,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489142912"/>
+        <c:crossAx val="511412480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16469,7 +16613,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16512,7 +16656,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16555,7 +16699,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16598,7 +16742,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16641,7 +16785,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16684,7 +16828,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16727,7 +16871,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16770,7 +16914,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17081,7 +17225,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF87"/>
+  <dimension ref="A1:AF88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20619,6 +20763,41 @@
         <v>5897.0503205355863</v>
       </c>
     </row>
+    <row r="88" spans="1:11" ht="12.75">
+      <c r="A88" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.2084678360699213</v>
+      </c>
+      <c r="D88" s="21">
+        <v>-17.874898437477771</v>
+      </c>
+      <c r="E88" s="22">
+        <v>-14.651555752699506</v>
+      </c>
+      <c r="F88" s="22">
+        <v>466.74698704753877</v>
+      </c>
+      <c r="G88" s="22">
+        <v>569.43133755173574</v>
+      </c>
+      <c r="H88" s="22">
+        <v>4380.0986209711864</v>
+      </c>
+      <c r="I88" s="22">
+        <v>6484.3565565248</v>
+      </c>
+      <c r="J88" s="22">
+        <v>2104.2579355536136</v>
+      </c>
+      <c r="K88" s="21">
+        <v>5914.9252189730641</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -20635,7 +20814,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH87"/>
+  <dimension ref="A1:AH88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20677,7 +20856,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -20710,16 +20889,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -25187,6 +25366,53 @@
       </c>
       <c r="O87" s="27">
         <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="12.75">
+      <c r="A88" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.2084678360699213</v>
+      </c>
+      <c r="D88" s="21">
+        <v>-16.981153515603882</v>
+      </c>
+      <c r="E88" s="22">
+        <v>-13.918977965064531</v>
+      </c>
+      <c r="F88" s="22">
+        <v>2043.9528205500328</v>
+      </c>
+      <c r="G88" s="22">
+        <v>2493.6224995489993</v>
+      </c>
+      <c r="H88" s="22">
+        <v>5630.0086215277506</v>
+      </c>
+      <c r="I88" s="22">
+        <v>9012.6825174085898</v>
+      </c>
+      <c r="J88" s="22">
+        <v>3382.6738958808392</v>
+      </c>
+      <c r="K88" s="21">
+        <v>6519.0600178595914</v>
+      </c>
+      <c r="L88" s="26">
+        <v>4.0936326721404591E-2</v>
+      </c>
+      <c r="M88" s="27">
+        <v>8.5290100496841714E-2</v>
+      </c>
+      <c r="N88" s="27">
+        <v>47.99657461175164</v>
+      </c>
+      <c r="O88" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -25205,7 +25431,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH87"/>
+  <dimension ref="A1:AH88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25247,7 +25473,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -25280,19 +25506,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -25317,7 +25543,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -29969,6 +30195,56 @@
         <v>15.580532829582921</v>
       </c>
       <c r="P87" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="12.75">
+      <c r="A88" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.2084678360699213</v>
+      </c>
+      <c r="D88" s="21">
+        <v>-16.981153515603882</v>
+      </c>
+      <c r="E88" s="22">
+        <v>-13.918977965064531</v>
+      </c>
+      <c r="F88" s="22">
+        <v>444.55499615160284</v>
+      </c>
+      <c r="G88" s="22">
+        <v>542.35710802377594</v>
+      </c>
+      <c r="H88" s="22">
+        <v>4162.4578118267709</v>
+      </c>
+      <c r="I88" s="22">
+        <v>6248.3387554868523</v>
+      </c>
+      <c r="J88" s="22">
+        <v>2085.8809436600814</v>
+      </c>
+      <c r="K88" s="21">
+        <v>5705.9816474630761</v>
+      </c>
+      <c r="L88" s="26">
+        <v>49.019609926414297</v>
+      </c>
+      <c r="M88" s="27">
+        <v>32.274966468437952</v>
+      </c>
+      <c r="N88" s="27">
+        <v>29.467455952401462</v>
+      </c>
+      <c r="O88" s="27">
+        <v>37.889987500510934</v>
+      </c>
+      <c r="P88" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -29988,7 +30264,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH87"/>
+  <dimension ref="A1:AH88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30035,7 +30311,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -34043,6 +34319,47 @@
       </c>
       <c r="M87" s="21">
         <v>2799.4811971394251</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="12.75">
+      <c r="A88" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.2084678360699213</v>
+      </c>
+      <c r="D88" s="20">
+        <v>773500</v>
+      </c>
+      <c r="E88" s="20">
+        <v>1980368.9602156433</v>
+      </c>
+      <c r="F88" s="21">
+        <v>-6.9816454504939882</v>
+      </c>
+      <c r="G88" s="22">
+        <v>-5.7226600711207949</v>
+      </c>
+      <c r="H88" s="22">
+        <v>140.85008059123669</v>
+      </c>
+      <c r="I88" s="22">
+        <v>171.8371023510619</v>
+      </c>
+      <c r="J88" s="22">
+        <v>2128.3626705950696</v>
+      </c>
+      <c r="K88" s="22">
+        <v>2978.2999449409808</v>
+      </c>
+      <c r="L88" s="22">
+        <v>849.93727434591119</v>
+      </c>
+      <c r="M88" s="21">
+        <v>2806.4628425899191</v>
       </c>
     </row>
   </sheetData>
@@ -34061,7 +34378,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF87"/>
+  <dimension ref="A1:AF88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34103,10 +34420,10 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>2</v>
@@ -37597,6 +37914,41 @@
       </c>
       <c r="K87" s="21">
         <v>1041.2062722107735</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="12.75">
+      <c r="A88" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.2084678360699213</v>
+      </c>
+      <c r="D88" s="21">
+        <v>-0.20613677041944856</v>
+      </c>
+      <c r="E88" s="22">
+        <v>0</v>
+      </c>
+      <c r="F88" s="22">
+        <v>0</v>
+      </c>
+      <c r="G88" s="22">
+        <v>0</v>
+      </c>
+      <c r="H88" s="22">
+        <v>727.02195021963996</v>
+      </c>
+      <c r="I88" s="22">
+        <v>1041.412408981193</v>
+      </c>
+      <c r="J88" s="22">
+        <v>314.39045876155308</v>
+      </c>
+      <c r="K88" s="21">
+        <v>1041.412408981193</v>
       </c>
     </row>
   </sheetData>
@@ -37615,7 +37967,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH87"/>
+  <dimension ref="A1:AH88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -37657,7 +38009,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -37690,16 +38042,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -42167,6 +42519,53 @@
       </c>
       <c r="O87" s="27">
         <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="12.75">
+      <c r="A88" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C88" s="21">
+        <v>1.2084678360699213</v>
+      </c>
+      <c r="D88" s="21">
+        <v>-0.19582993189847611</v>
+      </c>
+      <c r="E88" s="22">
+        <v>-0.16051633385743194</v>
+      </c>
+      <c r="F88" s="22">
+        <v>128.47220308272244</v>
+      </c>
+      <c r="G88" s="22">
+        <v>156.73609143654059</v>
+      </c>
+      <c r="H88" s="22">
+        <v>1032.8637599061838</v>
+      </c>
+      <c r="I88" s="22">
+        <v>1831.736268660175</v>
+      </c>
+      <c r="J88" s="22">
+        <v>798.87250875399127</v>
+      </c>
+      <c r="K88" s="21">
+        <v>1675.0001772236344</v>
+      </c>
+      <c r="L88" s="26">
+        <v>4.0936326721404591E-2</v>
+      </c>
+      <c r="M88" s="27">
+        <v>8.5290100496841714E-2</v>
+      </c>
+      <c r="N88" s="27">
+        <v>47.99657461175164</v>
+      </c>
+      <c r="O88" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -42185,7 +42584,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH87"/>
+  <dimension ref="A1:AH88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -42227,7 +42626,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -42260,19 +42659,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -42297,7 +42696,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -42383,7 +42782,7 @@
         <v>17</v>
       </c>
       <c r="X4" s="32" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="Z4" s="6">
         <v>43098</v>
@@ -46948,6 +47347,56 @@
         <v>15.580532829582921</v>
       </c>
       <c r="P87" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="12.75">
+      <c r="A88" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.2084678360699213</v>
+      </c>
+      <c r="D88" s="21">
+        <v>-0.19582993189847611</v>
+      </c>
+      <c r="E88" s="22">
+        <v>0</v>
+      </c>
+      <c r="F88" s="22">
+        <v>0</v>
+      </c>
+      <c r="G88" s="22">
+        <v>0</v>
+      </c>
+      <c r="H88" s="22">
+        <v>690.69486339987543</v>
+      </c>
+      <c r="I88" s="22">
+        <v>996.24639355269744</v>
+      </c>
+      <c r="J88" s="22">
+        <v>305.55153015282201</v>
+      </c>
+      <c r="K88" s="21">
+        <v>996.24639355269744</v>
+      </c>
+      <c r="L88" s="26">
+        <v>49.019609926414297</v>
+      </c>
+      <c r="M88" s="27">
+        <v>32.274966468437952</v>
+      </c>
+      <c r="N88" s="27">
+        <v>29.467455952401462</v>
+      </c>
+      <c r="O88" s="27">
+        <v>37.889987500510934</v>
+      </c>
+      <c r="P88" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -46967,7 +47416,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH87"/>
+  <dimension ref="A1:AH88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -47014,7 +47463,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -51024,6 +51473,47 @@
         <v>513.19080303179044</v>
       </c>
     </row>
+    <row r="88" spans="1:13" ht="12.75">
+      <c r="A88" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.2084678360699213</v>
+      </c>
+      <c r="D88" s="20">
+        <v>773500</v>
+      </c>
+      <c r="E88" s="20">
+        <v>1980368.9602156433</v>
+      </c>
+      <c r="F88" s="21">
+        <v>-8.0513679583263734E-2</v>
+      </c>
+      <c r="G88" s="22">
+        <v>-6.5994817782899062E-2</v>
+      </c>
+      <c r="H88" s="22">
+        <v>29.491710362791601</v>
+      </c>
+      <c r="I88" s="22">
+        <v>35.979887486370352</v>
+      </c>
+      <c r="J88" s="22">
+        <v>346.43120812626563</v>
+      </c>
+      <c r="K88" s="22">
+        <v>549.25120419774407</v>
+      </c>
+      <c r="L88" s="22">
+        <v>202.81999607147844</v>
+      </c>
+      <c r="M88" s="21">
+        <v>513.27131671137374</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,14 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工智能产业LOF</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -166,10 +158,6 @@
   </si>
   <si>
     <t>标志</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -187,6 +175,10 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
@@ -887,7 +879,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1142,6 +1134,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1151,7 +1146,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1406,6 +1401,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>4380.0986209711864</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4468.6931805976556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1448,7 +1446,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1703,6 +1701,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1712,7 +1713,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1967,6 +1968,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>6484.3565565248</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6540.7455713742411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2009,7 +2013,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2264,6 +2268,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2273,7 +2280,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2528,6 +2535,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2104.2579355536136</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2072.0523907765855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2549,11 +2559,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="584932736"/>
-        <c:axId val="584967296"/>
+        <c:axId val="477860224"/>
+        <c:axId val="477862144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="584932736"/>
+        <c:axId val="477860224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2596,14 +2606,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584967296"/>
+        <c:crossAx val="477862144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="584967296"/>
+        <c:axId val="477862144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2652,7 +2662,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584932736"/>
+        <c:crossAx val="477860224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2866,7 +2876,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3121,6 +3131,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3130,7 +3143,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3378,13 +3391,16 @@
                   <c:v>5551.5389835087735</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5577.4572996875213</c:v>
+                  <c:v>5606.1038596745575</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5630.0086215277506</c:v>
+                  <c:v>5631.0657375486662</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5630.0086215277506</c:v>
+                  <c:v>5631.0657375486662</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5648.7846494739597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3427,7 +3443,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3682,6 +3698,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3691,7 +3710,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3939,13 +3958,16 @@
                   <c:v>8444.3016387077896</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8900.4969118730114</c:v>
+                  <c:v>8929.1434718600485</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8955.0621129377869</c:v>
+                  <c:v>8956.1432826102628</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9012.6825174085898</c:v>
+                  <c:v>9013.7890836808474</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8890.4126548029853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3988,7 +4010,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4243,6 +4265,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4252,7 +4277,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4500,13 +4525,16 @@
                   <c:v>2892.7626551990161</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3323.0396121854901</c:v>
+                  <c:v>3323.039612185491</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3325.0534914100363</c:v>
+                  <c:v>3325.0775450615965</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3382.6738958808392</c:v>
+                  <c:v>3382.7233461321812</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3241.6280053290257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4528,11 +4556,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="508851328"/>
-        <c:axId val="508852864"/>
+        <c:axId val="498977408"/>
+        <c:axId val="596133376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="508851328"/>
+        <c:axId val="498977408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4575,14 +4603,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508852864"/>
+        <c:crossAx val="596133376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="508852864"/>
+        <c:axId val="596133376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4631,7 +4659,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508851328"/>
+        <c:crossAx val="498977408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4845,7 +4873,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5100,6 +5128,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5109,7 +5140,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5354,16 +5385,19 @@
                   <c:v>3764.5463818690746</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4110.2134958697707</c:v>
+                  <c:v>4128.4065018698075</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4137.4959339526622</c:v>
+                  <c:v>4154.3248180485552</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4162.4578118267709</c:v>
+                  <c:v>4179.286695922664</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4162.4578118267709</c:v>
+                  <c:v>4179.286695922664</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4263.4515275678095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5406,7 +5440,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5661,6 +5695,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5670,7 +5707,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5915,16 +5952,19 @@
                   <c:v>5761.3551965863662</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>6093.2604958397851</c:v>
+                  <c:v>6111.453501839821</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6210.1020544012981</c:v>
+                  <c:v>6230.9613882290432</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>6235.5014855232894</c:v>
+                  <c:v>6256.3783343038913</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6248.3387554868523</c:v>
+                  <c:v>6269.7059999811236</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6321.9880589728027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5967,7 +6007,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6222,6 +6262,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6231,7 +6274,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6476,16 +6519,19 @@
                   <c:v>1996.8088147172916</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1983.0469999700144</c:v>
+                  <c:v>1983.0469999700135</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2072.6061204486359</c:v>
+                  <c:v>2076.636570180488</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2073.0436736965185</c:v>
+                  <c:v>2077.0916383812273</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2085.8809436600814</c:v>
+                  <c:v>2090.4193040584596</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2058.5365314049932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6507,11 +6553,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="508875136"/>
-        <c:axId val="508876672"/>
+        <c:axId val="787981824"/>
+        <c:axId val="797695360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="508875136"/>
+        <c:axId val="787981824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6554,14 +6600,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508876672"/>
+        <c:crossAx val="797695360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="508876672"/>
+        <c:axId val="797695360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6610,7 +6656,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508875136"/>
+        <c:crossAx val="787981824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6824,7 +6870,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7079,6 +7125,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7088,7 +7137,7 @@
               <c:f>'模型二 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7343,6 +7392,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2128.3626705950696</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2141.070828022001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7385,7 +7437,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7640,6 +7692,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7649,7 +7704,7 @@
               <c:f>'模型二 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7904,6 +7959,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2978.2999449409808</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2981.2894460011667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7946,7 +8004,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8201,6 +8259,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8210,7 +8271,7 @@
               <c:f>'模型二 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8465,6 +8526,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>849.93727434591119</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>840.21861797916563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8486,11 +8550,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="509431808"/>
-        <c:axId val="509433344"/>
+        <c:axId val="475620864"/>
+        <c:axId val="475622400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="509431808"/>
+        <c:axId val="475620864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8533,14 +8597,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509433344"/>
+        <c:crossAx val="475622400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="509433344"/>
+        <c:axId val="475622400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8589,7 +8653,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509431808"/>
+        <c:crossAx val="475620864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8803,7 +8867,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9058,6 +9122,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9067,7 +9134,7 @@
               <c:f>'模型二 (2)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9322,6 +9389,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>727.02195021963996</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>732.0858186037741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9364,7 +9434,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9619,6 +9689,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9628,7 +9701,7 @@
               <c:f>'模型二 (2)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9882,6 +9955,9 @@
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>1041.412408981193</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>1041.412408981193</c:v>
                 </c:pt>
               </c:numCache>
@@ -9925,7 +10001,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10180,6 +10256,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10189,7 +10268,7 @@
               <c:f>'模型二 (2)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10444,6 +10523,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>314.39045876155308</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>309.32659037741894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10465,11 +10547,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="509476224"/>
-        <c:axId val="509678720"/>
+        <c:axId val="476198016"/>
+        <c:axId val="476199552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="509476224"/>
+        <c:axId val="476198016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10512,14 +10594,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509678720"/>
+        <c:crossAx val="476199552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="509678720"/>
+        <c:axId val="476199552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10568,7 +10650,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509476224"/>
+        <c:crossAx val="476198016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10782,7 +10864,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11037,6 +11119,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11046,7 +11131,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11294,13 +11379,16 @@
                   <c:v>1031.5167046997726</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1031.9729078329078</c:v>
+                  <c:v>1032.4771323484781</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1032.8637599061838</c:v>
+                  <c:v>1032.9002870832842</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1032.8637599061838</c:v>
+                  <c:v>1032.9002870832842</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1033.913060760111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11343,7 +11431,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11598,6 +11686,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11607,7 +11698,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11855,13 +11946,16 @@
                   <c:v>1799.1191105924386</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1827.1158094748534</c:v>
+                  <c:v>1827.6200339904237</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1828.1345528845318</c:v>
+                  <c:v>1828.1715034437352</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1831.736268660175</c:v>
+                  <c:v>1831.7740871854226</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1823.9201391976985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11904,7 +11998,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12159,6 +12253,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12168,7 +12265,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12419,10 +12516,13 @@
                   <c:v>795.14290164194563</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>795.27079297834803</c:v>
+                  <c:v>795.27121636045104</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>798.87250875399127</c:v>
+                  <c:v>798.87380010213838</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>790.00707843758755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12444,11 +12544,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="509856768"/>
-        <c:axId val="510001920"/>
+        <c:axId val="476689152"/>
+        <c:axId val="476690688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="509856768"/>
+        <c:axId val="476689152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12491,14 +12591,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510001920"/>
+        <c:crossAx val="476690688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="510001920"/>
+        <c:axId val="476690688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12547,7 +12647,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509856768"/>
+        <c:crossAx val="476689152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12761,7 +12861,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13016,6 +13116,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13025,7 +13128,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13270,16 +13373,19 @@
                   <c:v>608.64667059516819</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>689.79149484071661</c:v>
+                  <c:v>694.06227506416656</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>690.27170866506935</c:v>
+                  <c:v>694.51847819730176</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>690.69486339987543</c:v>
+                  <c:v>694.94163293210784</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>690.69486339987543</c:v>
+                  <c:v>694.94163293210784</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>699.75230789703528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13322,7 +13428,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13577,6 +13683,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13586,7 +13695,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13840,6 +13949,9 @@
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>996.24639355269744</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>996.24639355269744</c:v>
                 </c:pt>
               </c:numCache>
@@ -13883,7 +13995,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14138,6 +14250,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14147,7 +14262,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14392,16 +14507,19 @@
                   <c:v>387.40389302563074</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>306.25906878008232</c:v>
+                  <c:v>301.98828855663237</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>305.77885495572957</c:v>
+                  <c:v>301.53208542349716</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>305.3557002209235</c:v>
+                  <c:v>301.10893068869109</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>305.55153015282201</c:v>
+                  <c:v>301.3047606205896</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>296.49408565566216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14423,11 +14541,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="510065280"/>
-        <c:axId val="510079360"/>
+        <c:axId val="477159808"/>
+        <c:axId val="477161344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="510065280"/>
+        <c:axId val="477159808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14470,14 +14588,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510079360"/>
+        <c:crossAx val="477161344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="510079360"/>
+        <c:axId val="477161344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14526,7 +14644,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510065280"/>
+        <c:crossAx val="477159808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14740,7 +14858,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14995,6 +15113,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15004,7 +15125,7 @@
               <c:f>'模型二 (2)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15259,6 +15380,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>346.43120812626563</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>347.15757819781584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15301,7 +15425,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15556,6 +15680,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15565,7 +15692,7 @@
               <c:f>'模型二 (2)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15820,6 +15947,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>549.25120419774407</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>547.94264608550873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15862,7 +15992,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16117,6 +16247,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16126,7 +16259,7 @@
               <c:f>'模型二 (2)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16381,6 +16514,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>202.81999607147844</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>200.78506788769289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16402,11 +16538,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511412480"/>
-        <c:axId val="511426560"/>
+        <c:axId val="486522880"/>
+        <c:axId val="486524416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511412480"/>
+        <c:axId val="486522880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16449,14 +16585,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511426560"/>
+        <c:crossAx val="486524416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511426560"/>
+        <c:axId val="486524416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16505,7 +16641,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511412480"/>
+        <c:crossAx val="486522880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17225,7 +17361,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF88"/>
+  <dimension ref="A1:AF89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17908,6 +18044,16 @@
         <f t="shared" ref="AC10:AC15" si="6">-AB10</f>
         <v>-61.537214285714597</v>
       </c>
+      <c r="AD10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>61.537214285714597</v>
+      </c>
+      <c r="AF10" s="1">
+        <f t="shared" ref="AF10:AF16" si="7">-AE10</f>
+        <v>-61.537214285714597</v>
+      </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -17944,6 +18090,30 @@
         <v>33.814368556700828</v>
       </c>
       <c r="L11" s="7"/>
+      <c r="O11" s="29">
+        <v>45289</v>
+      </c>
+      <c r="P11" s="10">
+        <v>74.875594199321768</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>3962.6804019674473</v>
+      </c>
+      <c r="R11" s="5">
+        <v>5973.2131654186333</v>
+      </c>
+      <c r="S11" s="5">
+        <v>2010.5327634511859</v>
+      </c>
+      <c r="T11" s="5">
+        <v>5897.0503205355863</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0.50736687279977677</v>
+      </c>
+      <c r="V11" s="9">
+        <v>8.7918444942110652E-2</v>
+      </c>
       <c r="X11" s="6">
         <v>43462</v>
       </c>
@@ -17966,6 +18136,16 @@
         <f t="shared" si="6"/>
         <v>-2266.0631463936584</v>
       </c>
+      <c r="AD11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>2266.0631463936584</v>
+      </c>
+      <c r="AF11" s="1">
+        <f t="shared" si="7"/>
+        <v>-2266.0631463936584</v>
+      </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -18024,6 +18204,16 @@
         <f t="shared" si="6"/>
         <v>-520.16324835056685</v>
       </c>
+      <c r="AD12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>520.16324835056685</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="7"/>
+        <v>-520.16324835056685</v>
+      </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -18082,6 +18272,16 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AD13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -18140,6 +18340,16 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AD14" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -18191,6 +18401,16 @@
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="6"/>
+        <v>-1040.0411987381858</v>
+      </c>
+      <c r="AD15" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>1040.0411987381858</v>
+      </c>
+      <c r="AF15" s="1">
+        <f t="shared" si="7"/>
         <v>-1040.0411987381858</v>
       </c>
     </row>
@@ -18239,8 +18459,18 @@
       <c r="AC16" s="1">
         <v>5612.8368947985145</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AD16" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>74.875594199321768</v>
+      </c>
+      <c r="AF16" s="1">
+        <f t="shared" si="7"/>
+        <v>-74.875594199321768</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43251</v>
       </c>
@@ -18279,8 +18509,14 @@
         <f>IRR(AC10:AC16)</f>
         <v>9.7545539735297782E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AD17" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>5973.2131654186333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43280</v>
       </c>
@@ -18315,8 +18551,12 @@
         <v>125.42807429540611</v>
       </c>
       <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AF18" s="2">
+        <f>IRR(AF10:AF17)</f>
+        <v>8.7918444942110652E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43312</v>
       </c>
@@ -18352,7 +18592,7 @@
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:29" ht="14.1" customHeight="1">
+    <row r="20" spans="1:32" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43343</v>
       </c>
@@ -18388,7 +18628,7 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:29" ht="14.1" customHeight="1">
+    <row r="21" spans="1:32" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43371</v>
       </c>
@@ -18424,7 +18664,7 @@
       </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="14.1" customHeight="1">
+    <row r="22" spans="1:32" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43404</v>
       </c>
@@ -18460,7 +18700,7 @@
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:29" ht="14.1" customHeight="1">
+    <row r="23" spans="1:32" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43434</v>
       </c>
@@ -18497,7 +18737,7 @@
       <c r="L23" s="7"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:29" ht="14.1" customHeight="1">
+    <row r="24" spans="1:32" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43462</v>
       </c>
@@ -18533,7 +18773,7 @@
       </c>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:29" ht="14.1" customHeight="1">
+    <row r="25" spans="1:32" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43496</v>
       </c>
@@ -18569,7 +18809,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:29" ht="14.1" customHeight="1">
+    <row r="26" spans="1:32" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43524</v>
       </c>
@@ -18605,7 +18845,7 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:29" ht="14.1" customHeight="1">
+    <row r="27" spans="1:32" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43553</v>
       </c>
@@ -18641,7 +18881,7 @@
       </c>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:29" ht="14.1" customHeight="1">
+    <row r="28" spans="1:32" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43585</v>
       </c>
@@ -18677,7 +18917,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:29" ht="14.1" customHeight="1">
+    <row r="29" spans="1:32" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43616</v>
       </c>
@@ -18713,7 +18953,7 @@
       </c>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:29" ht="14.1" customHeight="1">
+    <row r="30" spans="1:32" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43644</v>
       </c>
@@ -18749,7 +18989,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:29" ht="14.1" customHeight="1">
+    <row r="31" spans="1:32" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>43677</v>
       </c>
@@ -18785,7 +19025,7 @@
       </c>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:29" ht="14.1" customHeight="1">
+    <row r="32" spans="1:32" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>43707</v>
       </c>
@@ -20795,6 +21035,41 @@
         <v>2104.2579355536136</v>
       </c>
       <c r="K88" s="21">
+        <v>5914.9252189730641</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="12.75">
+      <c r="A89" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.2081578032923572</v>
+      </c>
+      <c r="D89" s="21">
+        <v>88.59455962646912</v>
+      </c>
+      <c r="E89" s="22">
+        <v>76.97181395718863</v>
+      </c>
+      <c r="F89" s="22">
+        <v>543.71880100472742</v>
+      </c>
+      <c r="G89" s="22">
+        <v>625.82035240117705</v>
+      </c>
+      <c r="H89" s="22">
+        <v>4468.6931805976556</v>
+      </c>
+      <c r="I89" s="22">
+        <v>6540.7455713742411</v>
+      </c>
+      <c r="J89" s="22">
+        <v>2072.0523907765855</v>
+      </c>
+      <c r="K89" s="21">
         <v>5914.9252189730641</v>
       </c>
     </row>
@@ -20814,7 +21089,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH88"/>
+  <dimension ref="A1:AH89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20856,7 +21131,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -20889,16 +21164,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -21590,6 +21865,16 @@
         <f t="shared" ref="AE10:AE15" si="4">-AD10</f>
         <v>-91.417228571428666</v>
       </c>
+      <c r="AF10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>91.417228571428666</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" ref="AH10:AH16" si="5">-AG10</f>
+        <v>-91.417228571428666</v>
+      </c>
     </row>
     <row r="11" spans="1:34" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -21638,6 +21923,30 @@
         <v>0.95</v>
       </c>
       <c r="P11" s="27"/>
+      <c r="Q11" s="29">
+        <v>45289</v>
+      </c>
+      <c r="R11" s="10">
+        <v>71.131814489355747</v>
+      </c>
+      <c r="S11" s="5">
+        <v>5205.8718695080779</v>
+      </c>
+      <c r="T11" s="5">
+        <v>8473.6203638122861</v>
+      </c>
+      <c r="U11" s="5">
+        <v>3267.7484943042082</v>
+      </c>
+      <c r="V11" s="5">
+        <v>6502.0788643439873</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0.6277043646510243</v>
+      </c>
+      <c r="X11" s="9">
+        <v>9.9866700458986157E-2</v>
+      </c>
       <c r="Z11" s="6">
         <v>43462</v>
       </c>
@@ -21660,6 +21969,16 @@
         <f t="shared" si="4"/>
         <v>-3224.1951268482335</v>
       </c>
+      <c r="AF11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>3224.1951268482335</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="5"/>
+        <v>-3224.1951268482335</v>
+      </c>
     </row>
     <row r="12" spans="1:34" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -21730,6 +22049,16 @@
         <f t="shared" si="4"/>
         <v>-773.01292064913287</v>
       </c>
+      <c r="AF12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>773.01292064913287</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="5"/>
+        <v>-773.01292064913287</v>
+      </c>
     </row>
     <row r="13" spans="1:34" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -21800,6 +22129,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:34" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -21870,6 +22209,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF14" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:34" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -21933,6 +22282,16 @@
       </c>
       <c r="AE15" s="1">
         <f t="shared" si="4"/>
+        <v>-1046.1147789499273</v>
+      </c>
+      <c r="AF15" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>1046.1147789499273</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="5"/>
         <v>-1046.1147789499273</v>
       </c>
     </row>
@@ -21993,8 +22352,18 @@
       <c r="AE16" s="1">
         <v>8129.1503976772765</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF16" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>71.131814489355747</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="5"/>
+        <v>-71.131814489355747</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43251</v>
       </c>
@@ -22045,8 +22414,14 @@
         <f>IRR(AE10:AE16)</f>
         <v>0.11614759940505137</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF17" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>8473.6203638122861</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43280</v>
       </c>
@@ -22093,8 +22468,12 @@
         <v>0.95</v>
       </c>
       <c r="P18" s="27"/>
-    </row>
-    <row r="19" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AH18" s="2">
+        <f>IRR(AH10:AH17)</f>
+        <v>9.9866700458986157E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43312</v>
       </c>
@@ -22142,7 +22521,7 @@
       </c>
       <c r="P19" s="27"/>
     </row>
-    <row r="20" spans="1:31" ht="14.1" customHeight="1">
+    <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43343</v>
       </c>
@@ -22190,7 +22569,7 @@
       </c>
       <c r="P20" s="27"/>
     </row>
-    <row r="21" spans="1:31" ht="14.1" customHeight="1">
+    <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43371</v>
       </c>
@@ -22238,7 +22617,7 @@
       </c>
       <c r="P21" s="27"/>
     </row>
-    <row r="22" spans="1:31" ht="14.1" customHeight="1">
+    <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43404</v>
       </c>
@@ -22286,7 +22665,7 @@
       </c>
       <c r="P22" s="27"/>
     </row>
-    <row r="23" spans="1:31" ht="14.1" customHeight="1">
+    <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43434</v>
       </c>
@@ -22334,7 +22713,7 @@
       </c>
       <c r="P23" s="27"/>
     </row>
-    <row r="24" spans="1:31" ht="14.1" customHeight="1">
+    <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43462</v>
       </c>
@@ -22383,7 +22762,7 @@
       <c r="P24" s="27"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:31" ht="14.1" customHeight="1">
+    <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43496</v>
       </c>
@@ -22431,7 +22810,7 @@
       </c>
       <c r="P25" s="27"/>
     </row>
-    <row r="26" spans="1:31" ht="14.1" customHeight="1">
+    <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43524</v>
       </c>
@@ -22479,7 +22858,7 @@
       </c>
       <c r="P26" s="27"/>
     </row>
-    <row r="27" spans="1:31" ht="14.1" customHeight="1">
+    <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43553</v>
       </c>
@@ -22527,7 +22906,7 @@
       </c>
       <c r="P27" s="27"/>
     </row>
-    <row r="28" spans="1:31" ht="14.1" customHeight="1">
+    <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43585</v>
       </c>
@@ -22575,7 +22954,7 @@
       </c>
       <c r="P28" s="27"/>
     </row>
-    <row r="29" spans="1:31" ht="14.1" customHeight="1">
+    <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43616</v>
       </c>
@@ -22623,7 +23002,7 @@
       </c>
       <c r="P29" s="27"/>
     </row>
-    <row r="30" spans="1:31" ht="14.1" customHeight="1">
+    <row r="30" spans="1:34" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43644</v>
       </c>
@@ -22671,7 +23050,7 @@
       </c>
       <c r="P30" s="27"/>
     </row>
-    <row r="31" spans="1:31" ht="14.1" customHeight="1">
+    <row r="31" spans="1:34" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>43677</v>
       </c>
@@ -22719,7 +23098,7 @@
       </c>
       <c r="P31" s="27"/>
     </row>
-    <row r="32" spans="1:31" ht="14.1" customHeight="1">
+    <row r="32" spans="1:34" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>43707</v>
       </c>
@@ -25215,13 +25594,13 @@
         <v>6502.0788643439873</v>
       </c>
       <c r="L84" s="26">
-        <v>2.2331962200588539E-2</v>
+        <v>1.8609968500490449E-2</v>
       </c>
       <c r="M84" s="27">
-        <v>5.8943959288749508E-2</v>
+        <v>4.9453295115756829E-2</v>
       </c>
       <c r="N84" s="27">
-        <v>37.886769857434714</v>
+        <v>37.631402431181847</v>
       </c>
       <c r="O84" s="27">
         <v>0.95</v>
@@ -25262,13 +25641,13 @@
         <v>6502.0788643439873</v>
       </c>
       <c r="L85" s="26">
-        <v>1.8609968500490449E-2</v>
+        <v>1.550830708374204E-2</v>
       </c>
       <c r="M85" s="27">
-        <v>4.9453295115756829E-2</v>
+        <v>7.9377741320371495E-2</v>
       </c>
       <c r="N85" s="27">
-        <v>37.631402431181847</v>
+        <v>19.537349924268998</v>
       </c>
       <c r="O85" s="27">
         <v>0.95</v>
@@ -25285,40 +25664,40 @@
         <v>1.2086015576979154</v>
       </c>
       <c r="D86" s="21">
-        <v>25.918316178747379</v>
+        <v>54.564876165783957</v>
       </c>
       <c r="E86" s="22">
-        <v>21.761810672381408</v>
+        <v>45.814338257645069</v>
       </c>
       <c r="F86" s="22">
-        <v>2013.7851202829108</v>
+        <v>2037.8376478681744</v>
       </c>
       <c r="G86" s="22">
-        <v>2398.4180475290245</v>
+        <v>2427.0646075160607</v>
       </c>
       <c r="H86" s="22">
-        <v>5577.4572996875213</v>
+        <v>5606.1038596745575</v>
       </c>
       <c r="I86" s="22">
-        <v>8900.4969118730114</v>
+        <v>8929.1434718600485</v>
       </c>
       <c r="J86" s="22">
-        <v>3323.0396121854901</v>
+        <v>3323.039612185491</v>
       </c>
       <c r="K86" s="21">
         <v>6502.0788643439873</v>
       </c>
       <c r="L86" s="26">
-        <v>1.550830708374204E-2</v>
+        <v>4.8923582719677207E-2</v>
       </c>
       <c r="M86" s="27">
-        <v>7.9377741320371495E-2</v>
+        <v>0.10214811125020175</v>
       </c>
       <c r="N86" s="27">
-        <v>19.537349924268998</v>
+        <v>47.894750202325042</v>
       </c>
       <c r="O86" s="27">
-        <v>0.95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="12.75">
@@ -25332,40 +25711,40 @@
         <v>1.2089520707745522</v>
       </c>
       <c r="D87" s="21">
-        <v>52.551321840229392</v>
+        <v>24.961877874108961</v>
       </c>
       <c r="E87" s="22">
-        <v>44.086678232186586</v>
+        <v>20.94117216028863</v>
       </c>
       <c r="F87" s="22">
-        <v>2057.8717985150975</v>
+        <v>2058.7788200284631</v>
       </c>
       <c r="G87" s="22">
-        <v>2452.9832485937991</v>
+        <v>2454.0644182662759</v>
       </c>
       <c r="H87" s="22">
-        <v>5630.0086215277506</v>
+        <v>5631.0657375486662</v>
       </c>
       <c r="I87" s="22">
-        <v>8955.0621129377869</v>
+        <v>8956.1432826102628</v>
       </c>
       <c r="J87" s="22">
-        <v>3325.0534914100363</v>
+        <v>3325.0775450615965</v>
       </c>
       <c r="K87" s="21">
         <v>6502.0788643439873</v>
       </c>
       <c r="L87" s="26">
-        <v>4.8923582719677207E-2</v>
+        <v>4.0936326721404591E-2</v>
       </c>
       <c r="M87" s="27">
-        <v>0.10214811125020175</v>
+        <v>8.5290100496841714E-2</v>
       </c>
       <c r="N87" s="27">
-        <v>47.894750202325042</v>
+        <v>47.99657461175164</v>
       </c>
       <c r="O87" s="27">
-        <v>2</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="12.75">
@@ -25385,34 +25764,81 @@
         <v>-13.918977965064531</v>
       </c>
       <c r="F88" s="22">
-        <v>2043.9528205500328</v>
+        <v>2044.8598420633984</v>
       </c>
       <c r="G88" s="22">
-        <v>2493.6224995489993</v>
+        <v>2494.7290658212555</v>
       </c>
       <c r="H88" s="22">
-        <v>5630.0086215277506</v>
+        <v>5631.0657375486662</v>
       </c>
       <c r="I88" s="22">
-        <v>9012.6825174085898</v>
+        <v>9013.7890836808474</v>
       </c>
       <c r="J88" s="22">
-        <v>3382.6738958808392</v>
+        <v>3382.7233461321812</v>
       </c>
       <c r="K88" s="21">
         <v>6519.0600178595914</v>
       </c>
       <c r="L88" s="26">
-        <v>4.0936326721404591E-2</v>
+        <v>3.8780271791E-2</v>
       </c>
       <c r="M88" s="27">
-        <v>8.5290100496841714E-2</v>
+        <v>7.5741749937197608E-2</v>
       </c>
       <c r="N88" s="27">
-        <v>47.99657461175164</v>
+        <v>51.200654623315721</v>
       </c>
       <c r="O88" s="27">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="12.75">
+      <c r="A89" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.2081578032923572</v>
+      </c>
+      <c r="D89" s="21">
+        <v>17.718911925293824</v>
+      </c>
+      <c r="E89" s="22">
+        <v>15.394362791437725</v>
+      </c>
+      <c r="F89" s="22">
+        <v>2060.2542048548362</v>
+      </c>
+      <c r="G89" s="22">
+        <v>2371.352636943393</v>
+      </c>
+      <c r="H89" s="22">
+        <v>5648.7846494739597</v>
+      </c>
+      <c r="I89" s="22">
+        <v>8890.4126548029853</v>
+      </c>
+      <c r="J89" s="22">
+        <v>3241.6280053290257</v>
+      </c>
+      <c r="K89" s="21">
+        <v>6519.0600178595914</v>
+      </c>
+      <c r="L89" s="26">
+        <v>3.2316893159166665E-2</v>
+      </c>
+      <c r="M89" s="27">
+        <v>7.4618125901338997E-2</v>
+      </c>
+      <c r="N89" s="27">
+        <v>43.309708959853076</v>
+      </c>
+      <c r="O89" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -25431,7 +25857,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH88"/>
+  <dimension ref="A1:AH89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25473,7 +25899,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -25506,19 +25932,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -25608,7 +26034,7 @@
         <v>0.95</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -26226,6 +26652,16 @@
         <f t="shared" ref="AE10:AE15" si="4">-AD10</f>
         <v>-58.460353571428868</v>
       </c>
+      <c r="AF10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>58.460353571428868</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" ref="AH10:AH16" si="5">-AG10</f>
+        <v>-58.460353571428868</v>
+      </c>
     </row>
     <row r="11" spans="1:34" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -26276,6 +26712,30 @@
       <c r="P11" s="27">
         <v>0.95</v>
       </c>
+      <c r="Q11" s="29">
+        <v>45289</v>
+      </c>
+      <c r="R11" s="10">
+        <v>71.131814489355747</v>
+      </c>
+      <c r="S11" s="5">
+        <v>3764.5463818690746</v>
+      </c>
+      <c r="T11" s="5">
+        <v>5761.3551965863662</v>
+      </c>
+      <c r="U11" s="5">
+        <v>1996.8088147172916</v>
+      </c>
+      <c r="V11" s="5">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0.53042481408500752</v>
+      </c>
+      <c r="X11" s="9">
+        <v>9.1228215833742521E-2</v>
+      </c>
       <c r="Z11" s="6">
         <v>43462</v>
       </c>
@@ -26298,6 +26758,16 @@
         <f t="shared" si="4"/>
         <v>-2152.7599890739757</v>
       </c>
+      <c r="AF11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>2152.7599890739757</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="5"/>
+        <v>-2152.7599890739757</v>
+      </c>
     </row>
     <row r="12" spans="1:34" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -26370,6 +26840,16 @@
         <f t="shared" si="4"/>
         <v>-494.15508593303866</v>
       </c>
+      <c r="AF12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>494.15508593303866</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="5"/>
+        <v>-494.15508593303866</v>
+      </c>
     </row>
     <row r="13" spans="1:34" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -26442,6 +26922,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:34" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -26514,6 +27004,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF14" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:34" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -26581,6 +27081,16 @@
         <f t="shared" si="4"/>
         <v>-988.03913880127584</v>
       </c>
+      <c r="AF15" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>988.03913880127584</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="5"/>
+        <v>-988.03913880127584</v>
+      </c>
     </row>
     <row r="16" spans="1:34" ht="14.1" customHeight="1">
       <c r="A16" s="15">
@@ -26641,8 +27151,18 @@
       <c r="AE16" s="1">
         <v>5418.9977394972548</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF16" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>71.131814489355747</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="5"/>
+        <v>-71.131814489355747</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43251</v>
       </c>
@@ -26695,8 +27215,14 @@
         <f>IRR(AE10:AE16)</f>
         <v>0.10190206880327168</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF17" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>5761.3551965863662</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43280</v>
       </c>
@@ -26745,8 +27271,12 @@
       <c r="P18" s="27">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AH18" s="2">
+        <f>IRR(AH10:AH17)</f>
+        <v>9.1228215833742521E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43312</v>
       </c>
@@ -26796,7 +27326,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="14.1" customHeight="1">
+    <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43343</v>
       </c>
@@ -26846,7 +27376,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="14.1" customHeight="1">
+    <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43371</v>
       </c>
@@ -26896,7 +27426,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="14.1" customHeight="1">
+    <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43404</v>
       </c>
@@ -26946,7 +27476,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="14.1" customHeight="1">
+    <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43434</v>
       </c>
@@ -26996,7 +27526,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="14.1" customHeight="1">
+    <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43462</v>
       </c>
@@ -27047,7 +27577,7 @@
       </c>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:31" ht="14.1" customHeight="1">
+    <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43496</v>
       </c>
@@ -27097,7 +27627,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="14.1" customHeight="1">
+    <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43524</v>
       </c>
@@ -27147,7 +27677,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="14.1" customHeight="1">
+    <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43553</v>
       </c>
@@ -27197,7 +27727,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="14.1" customHeight="1">
+    <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43585</v>
       </c>
@@ -27247,7 +27777,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="14.1" customHeight="1">
+    <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43616</v>
       </c>
@@ -27297,7 +27827,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="14.1" customHeight="1">
+    <row r="30" spans="1:34" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43644</v>
       </c>
@@ -27347,7 +27877,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="14.1" customHeight="1">
+    <row r="31" spans="1:34" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>43677</v>
       </c>
@@ -27397,7 +27927,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="14.1" customHeight="1">
+    <row r="32" spans="1:34" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>43707</v>
       </c>
@@ -30033,16 +30563,16 @@
         <v>5689.000493947472</v>
       </c>
       <c r="L84" s="26">
-        <v>15.447149282091519</v>
+        <v>15.040650454569146</v>
       </c>
       <c r="M84" s="27">
-        <v>29.052393907642706</v>
+        <v>24.381812756618189</v>
       </c>
       <c r="N84" s="27">
-        <v>43.442701755044162</v>
+        <v>37.089072088902171</v>
       </c>
       <c r="O84" s="27">
-        <v>0.27177821283979142</v>
+        <v>-1.0327059079497758</v>
       </c>
       <c r="P84" s="27">
         <v>0.95</v>
@@ -30059,43 +30589,43 @@
         <v>1.2097484883584595</v>
       </c>
       <c r="D85" s="21">
-        <v>345.66711400069585</v>
+        <v>363.86012000073248</v>
       </c>
       <c r="E85" s="22">
-        <v>354.53036466464948</v>
+        <v>373.18985754173633</v>
       </c>
       <c r="F85" s="22">
-        <v>414.62563282755622</v>
+        <v>433.28512570464306</v>
       </c>
       <c r="G85" s="22">
-        <v>404.26000189231274</v>
+        <v>422.45300789234938</v>
       </c>
       <c r="H85" s="22">
-        <v>4110.2134958697707</v>
+        <v>4128.4065018698075</v>
       </c>
       <c r="I85" s="22">
-        <v>6093.2604958397851</v>
+        <v>6111.453501839821</v>
       </c>
       <c r="J85" s="22">
-        <v>1983.0469999700144</v>
+        <v>1983.0469999700135</v>
       </c>
       <c r="K85" s="21">
         <v>5689.000493947472</v>
       </c>
       <c r="L85" s="26">
-        <v>15.040650454569146</v>
+        <v>0</v>
       </c>
       <c r="M85" s="27">
-        <v>24.381812756618189</v>
+        <v>16.25454183774546</v>
       </c>
       <c r="N85" s="27">
-        <v>37.089072088902171</v>
+        <v>30.144228671849934</v>
       </c>
       <c r="O85" s="27">
-        <v>-1.0327059079497758</v>
+        <v>-11.524831830463491</v>
       </c>
       <c r="P85" s="27">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="12.75">
@@ -30109,43 +30639,43 @@
         <v>1.2086015576979154</v>
       </c>
       <c r="D86" s="21">
-        <v>27.282438082891979</v>
+        <v>25.918316178747379</v>
       </c>
       <c r="E86" s="22">
-        <v>22.907169128822535</v>
+        <v>21.761810672381408</v>
       </c>
       <c r="F86" s="22">
-        <v>437.53280195637876</v>
+        <v>455.04693637702445</v>
       </c>
       <c r="G86" s="22">
-        <v>521.10156045382632</v>
+        <v>541.96089428157086</v>
       </c>
       <c r="H86" s="22">
-        <v>4137.4959339526622</v>
+        <v>4154.3248180485552</v>
       </c>
       <c r="I86" s="22">
-        <v>6210.1020544012981</v>
+        <v>6230.9613882290432</v>
       </c>
       <c r="J86" s="22">
-        <v>2072.6061204486359</v>
+        <v>2076.636570180488</v>
       </c>
       <c r="K86" s="21">
         <v>5689.000493947472</v>
       </c>
       <c r="L86" s="26">
-        <v>0</v>
+        <v>39.198850542858423</v>
       </c>
       <c r="M86" s="27">
-        <v>16.25454183774546</v>
+        <v>23.902644739449784</v>
       </c>
       <c r="N86" s="27">
-        <v>30.144228671849934</v>
+        <v>28.063700694383215</v>
       </c>
       <c r="O86" s="27">
-        <v>-11.524831830463491</v>
+        <v>15.580532829582921</v>
       </c>
       <c r="P86" s="27">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="12.75">
@@ -30165,34 +30695,34 @@
         <v>20.94117216028863</v>
       </c>
       <c r="F87" s="22">
-        <v>458.47397411666736</v>
+        <v>475.98810853731311</v>
       </c>
       <c r="G87" s="22">
-        <v>546.50099157581769</v>
+        <v>567.37784035641914</v>
       </c>
       <c r="H87" s="22">
-        <v>4162.4578118267709</v>
+        <v>4179.286695922664</v>
       </c>
       <c r="I87" s="22">
-        <v>6235.5014855232894</v>
+        <v>6256.3783343038913</v>
       </c>
       <c r="J87" s="22">
-        <v>2073.0436736965185</v>
+        <v>2077.0916383812273</v>
       </c>
       <c r="K87" s="21">
         <v>5689.000493947472</v>
       </c>
       <c r="L87" s="26">
-        <v>39.198850542858423</v>
+        <v>49.019609926414297</v>
       </c>
       <c r="M87" s="27">
-        <v>23.902644739449784</v>
+        <v>32.274966468437952</v>
       </c>
       <c r="N87" s="27">
-        <v>28.063700694383215</v>
+        <v>29.467455952401462</v>
       </c>
       <c r="O87" s="27">
-        <v>15.580532829582921</v>
+        <v>37.889987500510934</v>
       </c>
       <c r="P87" s="27">
         <v>0.95</v>
@@ -30215,36 +30745,86 @@
         <v>-13.918977965064531</v>
       </c>
       <c r="F88" s="22">
-        <v>444.55499615160284</v>
+        <v>462.06913057224858</v>
       </c>
       <c r="G88" s="22">
-        <v>542.35710802377594</v>
+        <v>563.72435251804711</v>
       </c>
       <c r="H88" s="22">
-        <v>4162.4578118267709</v>
+        <v>4179.286695922664</v>
       </c>
       <c r="I88" s="22">
-        <v>6248.3387554868523</v>
+        <v>6269.7059999811236</v>
       </c>
       <c r="J88" s="22">
-        <v>2085.8809436600814</v>
+        <v>2090.4193040584596</v>
       </c>
       <c r="K88" s="21">
         <v>5705.9816474630761</v>
       </c>
       <c r="L88" s="26">
-        <v>49.019609926414297</v>
+        <v>58.045981670772953</v>
       </c>
       <c r="M88" s="27">
-        <v>32.274966468437952</v>
+        <v>40.865304869216288</v>
       </c>
       <c r="N88" s="27">
-        <v>29.467455952401462</v>
+        <v>33.266738924673071</v>
       </c>
       <c r="O88" s="27">
-        <v>37.889987500510934</v>
+        <v>56.062436758302724</v>
       </c>
       <c r="P88" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="12.75">
+      <c r="A89" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.2081578032923572</v>
+      </c>
+      <c r="D89" s="21">
+        <v>84.164831645145654</v>
+      </c>
+      <c r="E89" s="22">
+        <v>73.123223259329194</v>
+      </c>
+      <c r="F89" s="22">
+        <v>535.19235383157775</v>
+      </c>
+      <c r="G89" s="22">
+        <v>616.00641150972683</v>
+      </c>
+      <c r="H89" s="22">
+        <v>4263.4515275678095</v>
+      </c>
+      <c r="I89" s="22">
+        <v>6321.9880589728027</v>
+      </c>
+      <c r="J89" s="22">
+        <v>2058.5365314049932</v>
+      </c>
+      <c r="K89" s="21">
+        <v>5705.9816474630761</v>
+      </c>
+      <c r="L89" s="26">
+        <v>60</v>
+      </c>
+      <c r="M89" s="27">
+        <v>47.243536579477528</v>
+      </c>
+      <c r="N89" s="27">
+        <v>37.925671476274552</v>
+      </c>
+      <c r="O89" s="27">
+        <v>65.879266785883473</v>
+      </c>
+      <c r="P89" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -30264,7 +30844,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH88"/>
+  <dimension ref="A1:AH89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30311,7 +30891,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -30320,10 +30900,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -31004,6 +31584,16 @@
         <f t="shared" ref="AE10:AE15" si="4">-AD10</f>
         <v>-29.534447075205776</v>
       </c>
+      <c r="AF10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>29.534447075205776</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" ref="AH10:AH16" si="5">-AG10</f>
+        <v>-29.534447075205776</v>
+      </c>
     </row>
     <row r="11" spans="1:34" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -31046,6 +31636,30 @@
         <v>2.3292503740678492</v>
       </c>
       <c r="N11" s="7"/>
+      <c r="Q11" s="29">
+        <v>45289</v>
+      </c>
+      <c r="R11" s="10">
+        <v>9.4674342899156727</v>
+      </c>
+      <c r="S11" s="5">
+        <v>1990.0742505012997</v>
+      </c>
+      <c r="T11" s="5">
+        <v>2809.0955624203825</v>
+      </c>
+      <c r="U11" s="5">
+        <v>819.02131191908279</v>
+      </c>
+      <c r="V11" s="5">
+        <v>2799.4811971394251</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0.41155314265926074</v>
+      </c>
+      <c r="X11" s="9">
+        <v>6.2722251735538137E-2</v>
+      </c>
       <c r="Z11" s="6">
         <v>43462</v>
       </c>
@@ -31068,6 +31682,16 @@
         <f t="shared" si="4"/>
         <v>-1528.0104860270981</v>
       </c>
+      <c r="AF11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>1528.0104860270981</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="5"/>
+        <v>-1528.0104860270981</v>
+      </c>
     </row>
     <row r="12" spans="1:34" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -31132,6 +31756,16 @@
         <f t="shared" si="4"/>
         <v>-331.22983442957388</v>
       </c>
+      <c r="AF12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>331.22983442957388</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="5"/>
+        <v>-331.22983442957388</v>
+      </c>
     </row>
     <row r="13" spans="1:34" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -31196,6 +31830,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:34" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -31260,6 +31904,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF14" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:34" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -31317,6 +31971,16 @@
       </c>
       <c r="AE15" s="1">
         <f t="shared" si="4"/>
+        <v>-91.832048679506215</v>
+      </c>
+      <c r="AF15" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>91.832048679506215</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="5"/>
         <v>-91.832048679506215</v>
       </c>
     </row>
@@ -31371,8 +32035,18 @@
       <c r="AE16" s="1">
         <v>2771.50085714235</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF16" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>9.4674342899156727</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="5"/>
+        <v>-9.4674342899156727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43251</v>
       </c>
@@ -31417,8 +32091,14 @@
         <f>IRR(AE10:AE16)</f>
         <v>7.4277221066691546E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF17" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>2809.0955624203825</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43280</v>
       </c>
@@ -31459,8 +32139,12 @@
         <v>193.28001945795327</v>
       </c>
       <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AH18" s="2">
+        <f>IRR(AH10:AH17)</f>
+        <v>6.2722251735538137E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43312</v>
       </c>
@@ -31502,7 +32186,7 @@
       </c>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:31" ht="14.1" customHeight="1">
+    <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43343</v>
       </c>
@@ -31544,7 +32228,7 @@
       </c>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" spans="1:31" ht="14.1" customHeight="1">
+    <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43371</v>
       </c>
@@ -31586,7 +32270,7 @@
       </c>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:31" ht="14.1" customHeight="1">
+    <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43404</v>
       </c>
@@ -31628,7 +32312,7 @@
       </c>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:31" ht="14.1" customHeight="1">
+    <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43434</v>
       </c>
@@ -31670,7 +32354,7 @@
       </c>
       <c r="N23" s="7"/>
     </row>
-    <row r="24" spans="1:31" ht="14.1" customHeight="1">
+    <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43462</v>
       </c>
@@ -31713,7 +32397,7 @@
       <c r="N24" s="7"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:31" ht="14.1" customHeight="1">
+    <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43496</v>
       </c>
@@ -31755,7 +32439,7 @@
       </c>
       <c r="N25" s="7"/>
     </row>
-    <row r="26" spans="1:31" ht="14.1" customHeight="1">
+    <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43524</v>
       </c>
@@ -31797,7 +32481,7 @@
       </c>
       <c r="N26" s="7"/>
     </row>
-    <row r="27" spans="1:31" ht="14.1" customHeight="1">
+    <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43553</v>
       </c>
@@ -31839,7 +32523,7 @@
       </c>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:31" ht="14.1" customHeight="1">
+    <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43585</v>
       </c>
@@ -31881,7 +32565,7 @@
       </c>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="1:31" ht="14.1" customHeight="1">
+    <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43616</v>
       </c>
@@ -31923,7 +32607,7 @@
       </c>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="1:31" ht="14.1" customHeight="1">
+    <row r="30" spans="1:34" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43644</v>
       </c>
@@ -31965,7 +32649,7 @@
       </c>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="1:31" ht="14.1" customHeight="1">
+    <row r="31" spans="1:34" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>43677</v>
       </c>
@@ -32007,7 +32691,7 @@
       </c>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="1:31" ht="14.1" customHeight="1">
+    <row r="32" spans="1:34" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>43707</v>
       </c>
@@ -34359,6 +35043,47 @@
         <v>849.93727434591119</v>
       </c>
       <c r="M88" s="21">
+        <v>2806.4628425899191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="12.75">
+      <c r="A89" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.2081578032923572</v>
+      </c>
+      <c r="D89" s="20">
+        <v>281400</v>
+      </c>
+      <c r="E89" s="20">
+        <v>1961772.1311867775</v>
+      </c>
+      <c r="F89" s="21">
+        <v>12.708157426931463</v>
+      </c>
+      <c r="G89" s="22">
+        <v>11.040970611836403</v>
+      </c>
+      <c r="H89" s="22">
+        <v>151.89105120307309</v>
+      </c>
+      <c r="I89" s="22">
+        <v>174.82660341124739</v>
+      </c>
+      <c r="J89" s="22">
+        <v>2141.070828022001</v>
+      </c>
+      <c r="K89" s="22">
+        <v>2981.2894460011667</v>
+      </c>
+      <c r="L89" s="22">
+        <v>840.21861797916563</v>
+      </c>
+      <c r="M89" s="21">
         <v>2806.4628425899191</v>
       </c>
     </row>
@@ -34378,7 +35103,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF88"/>
+  <dimension ref="A1:AF89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34420,10 +35145,10 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>2</v>
@@ -35061,6 +35786,16 @@
         <f t="shared" ref="AC10:AC15" si="4">-AB10</f>
         <v>-1.2220518888775631</v>
       </c>
+      <c r="AD10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>1.2220518888775631</v>
+      </c>
+      <c r="AF10" s="1">
+        <f t="shared" ref="AF10:AF16" si="5">-AE10</f>
+        <v>-1.2220518888775631</v>
+      </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -35097,6 +35832,30 @@
         <v>3.987403519999928</v>
       </c>
       <c r="L11" s="7"/>
+      <c r="O11" s="29">
+        <v>45289</v>
+      </c>
+      <c r="P11" s="10">
+        <v>2.0625282415013544</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>640.68070588965088</v>
+      </c>
+      <c r="R11" s="5">
+        <v>1041.2062722107735</v>
+      </c>
+      <c r="S11" s="5">
+        <v>400.5255663211226</v>
+      </c>
+      <c r="T11" s="5">
+        <v>1041.2062722107735</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0.62515627931225393</v>
+      </c>
+      <c r="V11" s="9">
+        <v>9.7594534949349665E-2</v>
+      </c>
       <c r="X11" s="6">
         <v>43462</v>
       </c>
@@ -35119,6 +35878,16 @@
         <f t="shared" si="4"/>
         <v>-433.73124322277113</v>
       </c>
+      <c r="AD11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>433.73124322277113</v>
+      </c>
+      <c r="AF11" s="1">
+        <f t="shared" si="5"/>
+        <v>-433.73124322277113</v>
+      </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -35177,6 +35946,16 @@
         <f t="shared" si="4"/>
         <v>-84.696913592045235</v>
       </c>
+      <c r="AD12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>84.696913592045235</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="5"/>
+        <v>-84.696913592045235</v>
+      </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -35235,6 +36014,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AD13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -35293,6 +36082,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AD14" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -35344,6 +36143,16 @@
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="4"/>
+        <v>-118.96796894445561</v>
+      </c>
+      <c r="AD15" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>118.96796894445561</v>
+      </c>
+      <c r="AF15" s="1">
+        <f t="shared" si="5"/>
         <v>-118.96796894445561</v>
       </c>
     </row>
@@ -35392,8 +36201,18 @@
       <c r="AC16" s="1">
         <v>1003.6023736622923</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AD16" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>2.0625282415013544</v>
+      </c>
+      <c r="AF16" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.0625282415013544</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43251</v>
       </c>
@@ -35432,8 +36251,14 @@
         <f>IRR(AC10:AC16)</f>
         <v>0.11251673597824041</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AD17" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>1041.2062722107735</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43280</v>
       </c>
@@ -35468,8 +36293,12 @@
         <v>7.2769907937643099</v>
       </c>
       <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AF18" s="2">
+        <f>IRR(AF10:AF17)</f>
+        <v>9.7594534949349665E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43312</v>
       </c>
@@ -35505,7 +36334,7 @@
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:29" ht="14.1" customHeight="1">
+    <row r="20" spans="1:32" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43343</v>
       </c>
@@ -35541,7 +36370,7 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:29" ht="14.1" customHeight="1">
+    <row r="21" spans="1:32" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43371</v>
       </c>
@@ -35577,7 +36406,7 @@
       </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="14.1" customHeight="1">
+    <row r="22" spans="1:32" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43404</v>
       </c>
@@ -35613,7 +36442,7 @@
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:29" ht="14.1" customHeight="1">
+    <row r="23" spans="1:32" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43434</v>
       </c>
@@ -35649,7 +36478,7 @@
       </c>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:29" ht="14.1" customHeight="1">
+    <row r="24" spans="1:32" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43462</v>
       </c>
@@ -35686,7 +36515,7 @@
       <c r="L24" s="7"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:29" ht="14.1" customHeight="1">
+    <row r="25" spans="1:32" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43496</v>
       </c>
@@ -35722,7 +36551,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:29" ht="14.1" customHeight="1">
+    <row r="26" spans="1:32" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43524</v>
       </c>
@@ -35758,7 +36587,7 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:29" ht="14.1" customHeight="1">
+    <row r="27" spans="1:32" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43553</v>
       </c>
@@ -35794,7 +36623,7 @@
       </c>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:29" ht="14.1" customHeight="1">
+    <row r="28" spans="1:32" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43585</v>
       </c>
@@ -35830,7 +36659,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:29" ht="14.1" customHeight="1">
+    <row r="29" spans="1:32" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43616</v>
       </c>
@@ -35866,7 +36695,7 @@
       </c>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:29" ht="14.1" customHeight="1">
+    <row r="30" spans="1:32" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43644</v>
       </c>
@@ -35902,7 +36731,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:29" ht="14.1" customHeight="1">
+    <row r="31" spans="1:32" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>43677</v>
       </c>
@@ -35938,7 +36767,7 @@
       </c>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:29" ht="14.1" customHeight="1">
+    <row r="32" spans="1:32" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>43707</v>
       </c>
@@ -37948,6 +38777,41 @@
         <v>314.39045876155308</v>
       </c>
       <c r="K88" s="21">
+        <v>1041.412408981193</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="12.75">
+      <c r="A89" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.2081578032923572</v>
+      </c>
+      <c r="D89" s="21">
+        <v>5.0638683841341896</v>
+      </c>
+      <c r="E89" s="22">
+        <v>0</v>
+      </c>
+      <c r="F89" s="22">
+        <v>0</v>
+      </c>
+      <c r="G89" s="22">
+        <v>0</v>
+      </c>
+      <c r="H89" s="22">
+        <v>732.0858186037741</v>
+      </c>
+      <c r="I89" s="22">
+        <v>1041.412408981193</v>
+      </c>
+      <c r="J89" s="22">
+        <v>309.32659037741894</v>
+      </c>
+      <c r="K89" s="21">
         <v>1041.412408981193</v>
       </c>
     </row>
@@ -37967,7 +38831,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH88"/>
+  <dimension ref="A1:AH89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -38009,7 +38873,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -38042,16 +38906,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -38743,6 +39607,16 @@
         <f t="shared" ref="AE10:AE15" si="4">-AD10</f>
         <v>-1.8283260131836769</v>
       </c>
+      <c r="AF10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>1.8283260131836769</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" ref="AH10:AH16" si="5">-AG10</f>
+        <v>-1.8283260131836769</v>
+      </c>
     </row>
     <row r="11" spans="1:34" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -38791,6 +39665,30 @@
         <v>0.95</v>
       </c>
       <c r="P11" s="27"/>
+      <c r="Q11" s="29">
+        <v>45289</v>
+      </c>
+      <c r="R11" s="10">
+        <v>1.9594018294262696</v>
+      </c>
+      <c r="S11" s="5">
+        <v>950.37188045422408</v>
+      </c>
+      <c r="T11" s="5">
+        <v>1728.1136859447943</v>
+      </c>
+      <c r="U11" s="5">
+        <v>777.74180549057019</v>
+      </c>
+      <c r="V11" s="5">
+        <v>1674.8043472917359</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0.81835523702453561</v>
+      </c>
+      <c r="X11" s="9">
+        <v>0.11654017696586116</v>
+      </c>
       <c r="Z11" s="6">
         <v>43462</v>
       </c>
@@ -38813,6 +39711,16 @@
         <f t="shared" si="4"/>
         <v>-672.01613508174762</v>
       </c>
+      <c r="AF11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>672.01613508174762</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="5"/>
+        <v>-672.01613508174762</v>
+      </c>
     </row>
     <row r="12" spans="1:34" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -38883,6 +39791,16 @@
         <f t="shared" si="4"/>
         <v>-158.87923971358168</v>
       </c>
+      <c r="AF12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>158.87923971358168</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="5"/>
+        <v>-158.87923971358168</v>
+      </c>
     </row>
     <row r="13" spans="1:34" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -38953,6 +39871,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:34" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -39023,6 +39951,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF14" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:34" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -39086,6 +40024,16 @@
       </c>
       <c r="AE15" s="1">
         <f t="shared" si="4"/>
+        <v>-115.68877781628487</v>
+      </c>
+      <c r="AF15" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>115.68877781628487</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="5"/>
         <v>-115.68877781628487</v>
       </c>
     </row>
@@ -39146,8 +40094,18 @@
       <c r="AE16" s="1">
         <v>1701.127830360952</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF16" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>1.9594018294262696</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.9594018294262696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43251</v>
       </c>
@@ -39198,8 +40156,14 @@
         <f>IRR(AE10:AE16)</f>
         <v>0.14044080627359001</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF17" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>1728.1136859447943</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43280</v>
       </c>
@@ -39246,8 +40210,12 @@
         <v>0.95</v>
       </c>
       <c r="P18" s="27"/>
-    </row>
-    <row r="19" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AH18" s="2">
+        <f>IRR(AH10:AH17)</f>
+        <v>0.11654017696586116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43312</v>
       </c>
@@ -39295,7 +40263,7 @@
       </c>
       <c r="P19" s="27"/>
     </row>
-    <row r="20" spans="1:31" ht="14.1" customHeight="1">
+    <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43343</v>
       </c>
@@ -39343,7 +40311,7 @@
       </c>
       <c r="P20" s="27"/>
     </row>
-    <row r="21" spans="1:31" ht="14.1" customHeight="1">
+    <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43371</v>
       </c>
@@ -39391,7 +40359,7 @@
       </c>
       <c r="P21" s="27"/>
     </row>
-    <row r="22" spans="1:31" ht="14.1" customHeight="1">
+    <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43404</v>
       </c>
@@ -39439,7 +40407,7 @@
       </c>
       <c r="P22" s="27"/>
     </row>
-    <row r="23" spans="1:31" ht="14.1" customHeight="1">
+    <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43434</v>
       </c>
@@ -39487,7 +40455,7 @@
       </c>
       <c r="P23" s="27"/>
     </row>
-    <row r="24" spans="1:31" ht="14.1" customHeight="1">
+    <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43462</v>
       </c>
@@ -39536,7 +40504,7 @@
       <c r="P24" s="27"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:31" ht="14.1" customHeight="1">
+    <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43496</v>
       </c>
@@ -39584,7 +40552,7 @@
       </c>
       <c r="P25" s="27"/>
     </row>
-    <row r="26" spans="1:31" ht="14.1" customHeight="1">
+    <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43524</v>
       </c>
@@ -39632,7 +40600,7 @@
       </c>
       <c r="P26" s="27"/>
     </row>
-    <row r="27" spans="1:31" ht="14.1" customHeight="1">
+    <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43553</v>
       </c>
@@ -39680,7 +40648,7 @@
       </c>
       <c r="P27" s="27"/>
     </row>
-    <row r="28" spans="1:31" ht="14.1" customHeight="1">
+    <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43585</v>
       </c>
@@ -39728,7 +40696,7 @@
       </c>
       <c r="P28" s="27"/>
     </row>
-    <row r="29" spans="1:31" ht="14.1" customHeight="1">
+    <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43616</v>
       </c>
@@ -39776,7 +40744,7 @@
       </c>
       <c r="P29" s="27"/>
     </row>
-    <row r="30" spans="1:31" ht="14.1" customHeight="1">
+    <row r="30" spans="1:34" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43644</v>
       </c>
@@ -39824,7 +40792,7 @@
       </c>
       <c r="P30" s="27"/>
     </row>
-    <row r="31" spans="1:31" ht="14.1" customHeight="1">
+    <row r="31" spans="1:34" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>43677</v>
       </c>
@@ -39872,7 +40840,7 @@
       </c>
       <c r="P31" s="27"/>
     </row>
-    <row r="32" spans="1:31" ht="14.1" customHeight="1">
+    <row r="32" spans="1:34" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>43707</v>
       </c>
@@ -42368,13 +43336,13 @@
         <v>1674.8043472917359</v>
       </c>
       <c r="L84" s="26">
-        <v>2.2331962200588539E-2</v>
+        <v>1.8609968500490449E-2</v>
       </c>
       <c r="M84" s="27">
-        <v>5.8943959288749508E-2</v>
+        <v>4.9453295115756829E-2</v>
       </c>
       <c r="N84" s="27">
-        <v>37.886769857434714</v>
+        <v>37.631402431181847</v>
       </c>
       <c r="O84" s="27">
         <v>0.95</v>
@@ -42415,13 +43383,13 @@
         <v>1674.8043472917359</v>
       </c>
       <c r="L85" s="26">
-        <v>1.8609968500490449E-2</v>
+        <v>1.550830708374204E-2</v>
       </c>
       <c r="M85" s="27">
-        <v>4.9453295115756829E-2</v>
+        <v>7.9377741320371495E-2</v>
       </c>
       <c r="N85" s="27">
-        <v>37.631402431181847</v>
+        <v>19.537349924268998</v>
       </c>
       <c r="O85" s="27">
         <v>0.95</v>
@@ -42438,22 +43406,22 @@
         <v>1.2086015576979154</v>
       </c>
       <c r="D86" s="21">
-        <v>0.4562031331351567</v>
+        <v>0.96042764870559305</v>
       </c>
       <c r="E86" s="22">
-        <v>0.38304209821991209</v>
+        <v>0.80640441730507806</v>
       </c>
       <c r="F86" s="22">
-        <v>127.88536031443593</v>
+        <v>128.30872263352109</v>
       </c>
       <c r="G86" s="22">
-        <v>152.31146218311744</v>
+        <v>152.81568669868787</v>
       </c>
       <c r="H86" s="22">
-        <v>1031.9729078329078</v>
+        <v>1032.4771323484781</v>
       </c>
       <c r="I86" s="22">
-        <v>1827.1158094748534</v>
+        <v>1827.6200339904237</v>
       </c>
       <c r="J86" s="22">
         <v>795.14290164194563</v>
@@ -42462,16 +43430,16 @@
         <v>1674.8043472917359</v>
       </c>
       <c r="L86" s="26">
-        <v>1.550830708374204E-2</v>
+        <v>4.8923582719677207E-2</v>
       </c>
       <c r="M86" s="27">
-        <v>7.9377741320371495E-2</v>
+        <v>0.10214811125020175</v>
       </c>
       <c r="N86" s="27">
-        <v>19.537349924268998</v>
+        <v>47.894750202325042</v>
       </c>
       <c r="O86" s="27">
-        <v>0.95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="12.75">
@@ -42485,40 +43453,40 @@
         <v>1.2089520707745522</v>
       </c>
       <c r="D87" s="21">
-        <v>0.89085207327592597</v>
+        <v>0.4231547348060648</v>
       </c>
       <c r="E87" s="22">
-        <v>0.74735910214395884</v>
+        <v>0.35499557351838046</v>
       </c>
       <c r="F87" s="22">
-        <v>128.63271941657987</v>
+        <v>128.66371820703947</v>
       </c>
       <c r="G87" s="22">
-        <v>153.33020559279601</v>
+        <v>153.36715615199941</v>
       </c>
       <c r="H87" s="22">
-        <v>1032.8637599061838</v>
+        <v>1032.9002870832842</v>
       </c>
       <c r="I87" s="22">
-        <v>1828.1345528845318</v>
+        <v>1828.1715034437352</v>
       </c>
       <c r="J87" s="22">
-        <v>795.27079297834803</v>
+        <v>795.27121636045104</v>
       </c>
       <c r="K87" s="21">
         <v>1674.8043472917359</v>
       </c>
       <c r="L87" s="26">
-        <v>4.8923582719677207E-2</v>
+        <v>4.0936326721404591E-2</v>
       </c>
       <c r="M87" s="27">
-        <v>0.10214811125020175</v>
+        <v>8.5290100496841714E-2</v>
       </c>
       <c r="N87" s="27">
-        <v>47.894750202325042</v>
+        <v>47.99657461175164</v>
       </c>
       <c r="O87" s="27">
-        <v>2</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="12.75">
@@ -42538,34 +43506,81 @@
         <v>-0.16051633385743194</v>
       </c>
       <c r="F88" s="22">
-        <v>128.47220308272244</v>
+        <v>128.50320187318204</v>
       </c>
       <c r="G88" s="22">
-        <v>156.73609143654059</v>
+        <v>156.77390996178818</v>
       </c>
       <c r="H88" s="22">
-        <v>1032.8637599061838</v>
+        <v>1032.9002870832842</v>
       </c>
       <c r="I88" s="22">
-        <v>1831.736268660175</v>
+        <v>1831.7740871854226</v>
       </c>
       <c r="J88" s="22">
-        <v>798.87250875399127</v>
+        <v>798.87380010213838</v>
       </c>
       <c r="K88" s="21">
         <v>1675.0001772236344</v>
       </c>
       <c r="L88" s="26">
-        <v>4.0936326721404591E-2</v>
+        <v>3.8780271791E-2</v>
       </c>
       <c r="M88" s="27">
-        <v>8.5290100496841714E-2</v>
+        <v>7.5741749937197608E-2</v>
       </c>
       <c r="N88" s="27">
-        <v>47.99657461175164</v>
+        <v>51.200654623315721</v>
       </c>
       <c r="O88" s="27">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="12.75">
+      <c r="A89" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C89" s="21">
+        <v>1.2081578032923572</v>
+      </c>
+      <c r="D89" s="21">
+        <v>1.0127736768268381</v>
+      </c>
+      <c r="E89" s="22">
+        <v>0.87990760789517908</v>
+      </c>
+      <c r="F89" s="22">
+        <v>129.38310948107721</v>
+      </c>
+      <c r="G89" s="22">
+        <v>148.91996197406422</v>
+      </c>
+      <c r="H89" s="22">
+        <v>1033.913060760111</v>
+      </c>
+      <c r="I89" s="22">
+        <v>1823.9201391976985</v>
+      </c>
+      <c r="J89" s="22">
+        <v>790.00707843758755</v>
+      </c>
+      <c r="K89" s="21">
+        <v>1675.0001772236344</v>
+      </c>
+      <c r="L89" s="26">
+        <v>3.2316893159166665E-2</v>
+      </c>
+      <c r="M89" s="27">
+        <v>7.4618125901338997E-2</v>
+      </c>
+      <c r="N89" s="27">
+        <v>43.309708959853076</v>
+      </c>
+      <c r="O89" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -42584,7 +43599,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH88"/>
+  <dimension ref="A1:AH89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -42626,7 +43641,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -42659,19 +43674,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -43379,6 +44394,16 @@
         <f t="shared" ref="AE10:AE15" si="4">-AD10</f>
         <v>-1.1609492944336848</v>
       </c>
+      <c r="AF10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>1.1609492944336848</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" ref="AH10:AH16" si="5">-AG10</f>
+        <v>-1.1609492944336848</v>
+      </c>
     </row>
     <row r="11" spans="1:34" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -43429,6 +44454,30 @@
       <c r="P11" s="27">
         <v>0.95</v>
       </c>
+      <c r="Q11" s="29">
+        <v>45289</v>
+      </c>
+      <c r="R11" s="10">
+        <v>1.9594018294262696</v>
+      </c>
+      <c r="S11" s="5">
+        <v>608.64667059516819</v>
+      </c>
+      <c r="T11" s="5">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="U11" s="5">
+        <v>387.40389302563074</v>
+      </c>
+      <c r="V11" s="5">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0.63650047185308001</v>
+      </c>
+      <c r="X11" s="9">
+        <v>9.9032665900877781E-2</v>
+      </c>
       <c r="Z11" s="6">
         <v>43462</v>
       </c>
@@ -43451,6 +44500,16 @@
         <f t="shared" si="4"/>
         <v>-412.0446810616325</v>
       </c>
+      <c r="AF11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>412.0446810616325</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="5"/>
+        <v>-412.0446810616325</v>
+      </c>
     </row>
     <row r="12" spans="1:34" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -43523,6 +44582,16 @@
         <f t="shared" si="4"/>
         <v>-80.462067912442933</v>
       </c>
+      <c r="AF12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>80.462067912442933</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="5"/>
+        <v>-80.462067912442933</v>
+      </c>
     </row>
     <row r="13" spans="1:34" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -43595,6 +44664,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:34" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -43667,6 +44746,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF14" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:34" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -43734,6 +44823,16 @@
         <f t="shared" si="4"/>
         <v>-113.01957049723279</v>
       </c>
+      <c r="AF15" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>113.01957049723279</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="5"/>
+        <v>-113.01957049723279</v>
+      </c>
     </row>
     <row r="16" spans="1:34" ht="14.1" customHeight="1">
       <c r="A16" s="15">
@@ -43794,8 +44893,18 @@
       <c r="AE16" s="1">
         <v>960.32685999974194</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF16" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>1.9594018294262696</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.9594018294262696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43251</v>
       </c>
@@ -43848,8 +44957,14 @@
         <f>IRR(AE10:AE16)</f>
         <v>0.11436498939085693</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF17" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>996.05056362079893</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43280</v>
       </c>
@@ -43898,8 +45013,12 @@
       <c r="P18" s="27">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AH18" s="2">
+        <f>IRR(AH10:AH17)</f>
+        <v>9.9032665900877781E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43312</v>
       </c>
@@ -43949,7 +45068,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="14.1" customHeight="1">
+    <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43343</v>
       </c>
@@ -43999,7 +45118,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="14.1" customHeight="1">
+    <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43371</v>
       </c>
@@ -44049,7 +45168,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="14.1" customHeight="1">
+    <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43404</v>
       </c>
@@ -44099,7 +45218,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="14.1" customHeight="1">
+    <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43434</v>
       </c>
@@ -44149,7 +45268,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="14.1" customHeight="1">
+    <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43462</v>
       </c>
@@ -44200,7 +45319,7 @@
       </c>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:31" ht="14.1" customHeight="1">
+    <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43496</v>
       </c>
@@ -44250,7 +45369,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="14.1" customHeight="1">
+    <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43524</v>
       </c>
@@ -44300,7 +45419,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="14.1" customHeight="1">
+    <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43553</v>
       </c>
@@ -44350,7 +45469,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="14.1" customHeight="1">
+    <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43585</v>
       </c>
@@ -44400,7 +45519,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="14.1" customHeight="1">
+    <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43616</v>
       </c>
@@ -44450,7 +45569,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="14.1" customHeight="1">
+    <row r="30" spans="1:34" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43644</v>
       </c>
@@ -44500,7 +45619,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="14.1" customHeight="1">
+    <row r="31" spans="1:34" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>43677</v>
       </c>
@@ -44550,7 +45669,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="14.1" customHeight="1">
+    <row r="32" spans="1:34" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>43707</v>
       </c>
@@ -47185,16 +48304,16 @@
         <v>996.05056362079893</v>
       </c>
       <c r="L84" s="26">
-        <v>15.447149282091519</v>
+        <v>15.040650454569146</v>
       </c>
       <c r="M84" s="27">
-        <v>29.052393907642706</v>
+        <v>24.381812756618189</v>
       </c>
       <c r="N84" s="27">
-        <v>43.442701755044162</v>
+        <v>37.089072088902171</v>
       </c>
       <c r="O84" s="27">
-        <v>0.27177821283979142</v>
+        <v>-1.0327059079497758</v>
       </c>
       <c r="P84" s="27">
         <v>0.95</v>
@@ -47211,7 +48330,7 @@
         <v>1.2097484883584595</v>
       </c>
       <c r="D85" s="21">
-        <v>81.144824245548421</v>
+        <v>85.415604468998339</v>
       </c>
       <c r="E85" s="22">
         <v>0</v>
@@ -47223,31 +48342,31 @@
         <v>0</v>
       </c>
       <c r="H85" s="22">
-        <v>689.79149484071661</v>
+        <v>694.06227506416656</v>
       </c>
       <c r="I85" s="22">
         <v>996.05056362079893</v>
       </c>
       <c r="J85" s="22">
-        <v>306.25906878008232</v>
+        <v>301.98828855663237</v>
       </c>
       <c r="K85" s="21">
         <v>996.05056362079893</v>
       </c>
       <c r="L85" s="26">
-        <v>15.040650454569146</v>
+        <v>0</v>
       </c>
       <c r="M85" s="27">
-        <v>24.381812756618189</v>
+        <v>16.25454183774546</v>
       </c>
       <c r="N85" s="27">
-        <v>37.089072088902171</v>
+        <v>30.144228671849934</v>
       </c>
       <c r="O85" s="27">
-        <v>-1.0327059079497758</v>
+        <v>-11.524831830463491</v>
       </c>
       <c r="P85" s="27">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="12.75">
@@ -47261,7 +48380,7 @@
         <v>1.2086015576979154</v>
       </c>
       <c r="D86" s="21">
-        <v>0.48021382435279653</v>
+        <v>0.4562031331351567</v>
       </c>
       <c r="E86" s="22">
         <v>0</v>
@@ -47273,31 +48392,31 @@
         <v>0</v>
       </c>
       <c r="H86" s="22">
-        <v>690.27170866506935</v>
+        <v>694.51847819730176</v>
       </c>
       <c r="I86" s="22">
         <v>996.05056362079893</v>
       </c>
       <c r="J86" s="22">
-        <v>305.77885495572957</v>
+        <v>301.53208542349716</v>
       </c>
       <c r="K86" s="21">
         <v>996.05056362079893</v>
       </c>
       <c r="L86" s="26">
-        <v>0</v>
+        <v>39.198850542858423</v>
       </c>
       <c r="M86" s="27">
-        <v>16.25454183774546</v>
+        <v>23.902644739449784</v>
       </c>
       <c r="N86" s="27">
-        <v>30.144228671849934</v>
+        <v>28.063700694383215</v>
       </c>
       <c r="O86" s="27">
-        <v>-11.524831830463491</v>
+        <v>15.580532829582921</v>
       </c>
       <c r="P86" s="27">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="12.75">
@@ -47323,28 +48442,28 @@
         <v>0</v>
       </c>
       <c r="H87" s="22">
-        <v>690.69486339987543</v>
+        <v>694.94163293210784</v>
       </c>
       <c r="I87" s="22">
         <v>996.05056362079893</v>
       </c>
       <c r="J87" s="22">
-        <v>305.3557002209235</v>
+        <v>301.10893068869109</v>
       </c>
       <c r="K87" s="21">
         <v>996.05056362079893</v>
       </c>
       <c r="L87" s="26">
-        <v>39.198850542858423</v>
+        <v>49.019609926414297</v>
       </c>
       <c r="M87" s="27">
-        <v>23.902644739449784</v>
+        <v>32.274966468437952</v>
       </c>
       <c r="N87" s="27">
-        <v>28.063700694383215</v>
+        <v>29.467455952401462</v>
       </c>
       <c r="O87" s="27">
-        <v>15.580532829582921</v>
+        <v>37.889987500510934</v>
       </c>
       <c r="P87" s="27">
         <v>0.95</v>
@@ -47373,30 +48492,80 @@
         <v>0</v>
       </c>
       <c r="H88" s="22">
-        <v>690.69486339987543</v>
+        <v>694.94163293210784</v>
       </c>
       <c r="I88" s="22">
         <v>996.24639355269744</v>
       </c>
       <c r="J88" s="22">
-        <v>305.55153015282201</v>
+        <v>301.3047606205896</v>
       </c>
       <c r="K88" s="21">
         <v>996.24639355269744</v>
       </c>
       <c r="L88" s="26">
-        <v>49.019609926414297</v>
+        <v>58.045981670772953</v>
       </c>
       <c r="M88" s="27">
-        <v>32.274966468437952</v>
+        <v>40.865304869216288</v>
       </c>
       <c r="N88" s="27">
-        <v>29.467455952401462</v>
+        <v>33.266738924673071</v>
       </c>
       <c r="O88" s="27">
-        <v>37.889987500510934</v>
+        <v>56.062436758302724</v>
       </c>
       <c r="P88" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="12.75">
+      <c r="A89" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.2081578032923572</v>
+      </c>
+      <c r="D89" s="21">
+        <v>4.8106749649274798</v>
+      </c>
+      <c r="E89" s="22">
+        <v>0</v>
+      </c>
+      <c r="F89" s="22">
+        <v>0</v>
+      </c>
+      <c r="G89" s="22">
+        <v>0</v>
+      </c>
+      <c r="H89" s="22">
+        <v>699.75230789703528</v>
+      </c>
+      <c r="I89" s="22">
+        <v>996.24639355269744</v>
+      </c>
+      <c r="J89" s="22">
+        <v>296.49408565566216</v>
+      </c>
+      <c r="K89" s="21">
+        <v>996.24639355269744</v>
+      </c>
+      <c r="L89" s="26">
+        <v>60</v>
+      </c>
+      <c r="M89" s="27">
+        <v>47.243536579477528</v>
+      </c>
+      <c r="N89" s="27">
+        <v>37.925671476274552</v>
+      </c>
+      <c r="O89" s="27">
+        <v>65.879266785883473</v>
+      </c>
+      <c r="P89" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -47416,7 +48585,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH88"/>
+  <dimension ref="A1:AH89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -47463,7 +48632,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -47472,10 +48641,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -48156,6 +49325,16 @@
         <f t="shared" ref="AE10:AE15" si="5">-AD10</f>
         <v>-0.57621376243097611</v>
       </c>
+      <c r="AF10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>0.57621376243097611</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" ref="AH10:AH16" si="6">-AG10</f>
+        <v>-0.57621376243097611</v>
+      </c>
     </row>
     <row r="11" spans="1:34" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -48198,6 +49377,30 @@
         <v>4.7167320074873662E-2</v>
       </c>
       <c r="N11" s="7"/>
+      <c r="Q11" s="29">
+        <v>45289</v>
+      </c>
+      <c r="R11" s="10">
+        <v>0.24237534426794127</v>
+      </c>
+      <c r="S11" s="5">
+        <v>317.75778856327963</v>
+      </c>
+      <c r="T11" s="5">
+        <v>513.43840767266863</v>
+      </c>
+      <c r="U11" s="5">
+        <v>195.680619109389</v>
+      </c>
+      <c r="V11" s="5">
+        <v>513.19080303179044</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0.61581690882903517</v>
+      </c>
+      <c r="X11" s="9">
+        <v>8.7073790790229921E-2</v>
+      </c>
       <c r="Z11" s="6">
         <v>43462</v>
       </c>
@@ -48220,6 +49423,16 @@
         <f t="shared" si="5"/>
         <v>-262.72397636432083</v>
       </c>
+      <c r="AF11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>262.72397636432083</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="6"/>
+        <v>-262.72397636432083</v>
+      </c>
     </row>
     <row r="12" spans="1:34" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -48284,6 +49497,16 @@
         <f t="shared" si="5"/>
         <v>-43.135897352006509</v>
       </c>
+      <c r="AF12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>43.135897352006509</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="6"/>
+        <v>-43.135897352006509</v>
+      </c>
     </row>
     <row r="13" spans="1:34" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -48348,6 +49571,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AF13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:34" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -48412,6 +49645,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AF14" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:34" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -48469,6 +49712,16 @@
       </c>
       <c r="AE15" s="1">
         <f t="shared" si="5"/>
+        <v>-11.079325740253353</v>
+      </c>
+      <c r="AF15" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>11.079325740253353</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="6"/>
         <v>-11.079325740253353</v>
       </c>
     </row>
@@ -48523,8 +49776,18 @@
       <c r="AE16" s="1">
         <v>509.51578528070536</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF16" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>0.24237534426794127</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.24237534426794127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43251</v>
       </c>
@@ -48569,8 +49832,14 @@
         <f>IRR(AE10:AE16)</f>
         <v>0.10458712586200214</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF17" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>513.43840767266863</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43280</v>
       </c>
@@ -48611,8 +49880,12 @@
         <v>7.3840350468164679</v>
       </c>
       <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AH18" s="2">
+        <f>IRR(AH10:AH17)</f>
+        <v>8.7073790790229921E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43312</v>
       </c>
@@ -48654,7 +49927,7 @@
       </c>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:31" ht="14.1" customHeight="1">
+    <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43343</v>
       </c>
@@ -48696,7 +49969,7 @@
       </c>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" spans="1:31" ht="14.1" customHeight="1">
+    <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43371</v>
       </c>
@@ -48738,7 +50011,7 @@
       </c>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:31" ht="14.1" customHeight="1">
+    <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43404</v>
       </c>
@@ -48780,7 +50053,7 @@
       </c>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:31" ht="14.1" customHeight="1">
+    <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43434</v>
       </c>
@@ -48822,7 +50095,7 @@
       </c>
       <c r="N23" s="7"/>
     </row>
-    <row r="24" spans="1:31" ht="14.1" customHeight="1">
+    <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43462</v>
       </c>
@@ -48865,7 +50138,7 @@
       <c r="N24" s="7"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:31" ht="14.1" customHeight="1">
+    <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43496</v>
       </c>
@@ -48907,7 +50180,7 @@
       </c>
       <c r="N25" s="7"/>
     </row>
-    <row r="26" spans="1:31" ht="14.1" customHeight="1">
+    <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43524</v>
       </c>
@@ -48949,7 +50222,7 @@
       </c>
       <c r="N26" s="7"/>
     </row>
-    <row r="27" spans="1:31" ht="14.1" customHeight="1">
+    <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43553</v>
       </c>
@@ -48991,7 +50264,7 @@
       </c>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:31" ht="14.1" customHeight="1">
+    <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43585</v>
       </c>
@@ -49033,7 +50306,7 @@
       </c>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="1:31" ht="14.1" customHeight="1">
+    <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43616</v>
       </c>
@@ -49075,7 +50348,7 @@
       </c>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="1:31" ht="14.1" customHeight="1">
+    <row r="30" spans="1:34" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43644</v>
       </c>
@@ -49117,7 +50390,7 @@
       </c>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="1:31" ht="14.1" customHeight="1">
+    <row r="31" spans="1:34" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>43677</v>
       </c>
@@ -49159,7 +50432,7 @@
       </c>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="1:31" ht="14.1" customHeight="1">
+    <row r="32" spans="1:34" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>43707</v>
       </c>
@@ -51511,6 +52784,47 @@
         <v>202.81999607147844</v>
       </c>
       <c r="M88" s="21">
+        <v>513.27131671137374</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="12.75">
+      <c r="A89" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.2081578032923572</v>
+      </c>
+      <c r="D89" s="20">
+        <v>281400</v>
+      </c>
+      <c r="E89" s="20">
+        <v>1961772.1311867775</v>
+      </c>
+      <c r="F89" s="21">
+        <v>0.72637007155021682</v>
+      </c>
+      <c r="G89" s="22">
+        <v>0.63107737368027983</v>
+      </c>
+      <c r="H89" s="22">
+        <v>30.122787736471881</v>
+      </c>
+      <c r="I89" s="22">
+        <v>34.671329374135034</v>
+      </c>
+      <c r="J89" s="22">
+        <v>347.15757819781584</v>
+      </c>
+      <c r="K89" s="22">
+        <v>547.94264608550873</v>
+      </c>
+      <c r="L89" s="22">
+        <v>200.78506788769289</v>
+      </c>
+      <c r="M89" s="21">
         <v>513.27131671137374</v>
       </c>
     </row>

--- a/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="30">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -174,14 +174,6 @@
   </si>
   <si>
     <t>J</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -879,7 +871,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1137,6 +1129,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1146,7 +1141,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1404,6 +1399,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>4468.6931805976556</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4549.0299447737698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1446,7 +1444,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1704,6 +1702,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1713,7 +1714,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1971,6 +1972,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>6540.7455713742411</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6623.8009269627255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2013,7 +2017,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2271,6 +2275,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2280,7 +2287,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2538,6 +2545,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>2072.0523907765855</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2074.7709821889557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2559,11 +2569,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="477860224"/>
-        <c:axId val="477862144"/>
+        <c:axId val="553683200"/>
+        <c:axId val="595394560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="477860224"/>
+        <c:axId val="553683200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2606,14 +2616,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477862144"/>
+        <c:crossAx val="595394560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="477862144"/>
+        <c:axId val="595394560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2662,7 +2672,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477860224"/>
+        <c:crossAx val="553683200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2876,7 +2886,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3134,6 +3144,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3143,7 +3156,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3401,6 +3414,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>5648.7846494739597</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5725.104575441268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3443,7 +3459,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3701,6 +3717,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3710,7 +3729,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3968,6 +3987,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>8890.4126548029853</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8977.0338419705095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4010,7 +4032,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4268,6 +4290,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4277,7 +4302,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4535,6 +4560,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>3241.6280053290257</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3251.9292665292414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4556,11 +4584,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="498977408"/>
-        <c:axId val="596133376"/>
+        <c:axId val="536917888"/>
+        <c:axId val="536919424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="498977408"/>
+        <c:axId val="536917888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4603,14 +4631,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596133376"/>
+        <c:crossAx val="536919424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="596133376"/>
+        <c:axId val="536919424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4659,7 +4687,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498977408"/>
+        <c:crossAx val="536917888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4873,7 +4901,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5131,6 +5159,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5140,7 +5171,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5398,6 +5429,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>4263.4515275678095</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4339.7714535351179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5440,7 +5474,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5698,6 +5732,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5707,7 +5744,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5965,6 +6002,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>6321.9880589728027</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6400.9839441572731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6007,7 +6047,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6265,6 +6305,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6274,7 +6317,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6532,6 +6575,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>2058.5365314049932</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2061.2124906221552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6553,11 +6599,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="787981824"/>
-        <c:axId val="797695360"/>
+        <c:axId val="538068480"/>
+        <c:axId val="538070016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="787981824"/>
+        <c:axId val="538068480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6600,14 +6646,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="797695360"/>
+        <c:crossAx val="538070016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="797695360"/>
+        <c:axId val="538070016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6656,7 +6702,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="787981824"/>
+        <c:crossAx val="538068480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6870,7 +6916,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7128,6 +7174,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7137,7 +7186,7 @@
               <c:f>'模型二 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7395,6 +7444,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>2141.070828022001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2154.2159799891756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7437,7 +7489,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7695,6 +7747,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7704,7 +7759,7 @@
               <c:f>'模型二 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7962,6 +8017,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>2981.2894460011667</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2995.1940525000837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8004,7 +8062,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8262,6 +8320,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8271,7 +8332,7 @@
               <c:f>'模型二 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8529,6 +8590,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>840.21861797916563</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>840.97807251090808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8550,11 +8614,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="475620864"/>
-        <c:axId val="475622400"/>
+        <c:axId val="538109056"/>
+        <c:axId val="538110592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="475620864"/>
+        <c:axId val="538109056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8597,14 +8661,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475622400"/>
+        <c:crossAx val="538110592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="475622400"/>
+        <c:axId val="538110592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8653,7 +8717,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475620864"/>
+        <c:crossAx val="538109056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8867,7 +8931,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9125,6 +9189,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9134,7 +9201,7 @@
               <c:f>'模型二 (2)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9392,6 +9459,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>732.0858186037741</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>736.24968678331516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9434,7 +9504,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9692,6 +9762,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9701,7 +9774,7 @@
               <c:f>'模型二 (2)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9937,28 +10010,31 @@
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1041.2062722107735</c:v>
+                  <c:v>1043.1336713582928</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1041.2062722107735</c:v>
+                  <c:v>1043.2296377366952</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1041.2062722107735</c:v>
+                  <c:v>1043.3146132957579</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1041.2062722107735</c:v>
+                  <c:v>1128.3292127384425</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1041.2062722107735</c:v>
+                  <c:v>1148.1105048061181</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1041.2062722107735</c:v>
+                  <c:v>1148.6456950993506</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1041.412408981193</c:v>
+                  <c:v>1151.1694396077971</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1041.412408981193</c:v>
+                  <c:v>1150.0257378577753</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1154.6614271630115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10001,7 +10077,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10259,6 +10335,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10268,7 +10347,7 @@
               <c:f>'模型二 (2)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10504,28 +10583,31 @@
                   <c:v>402.58809456262395</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>400.66069541510478</c:v>
+                  <c:v>402.58809456262406</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>400.61389733545161</c:v>
+                  <c:v>402.6372628613733</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>400.5255663211226</c:v>
+                  <c:v>402.63390740610703</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>315.10996185212423</c:v>
+                  <c:v>402.23290237979325</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>314.62974802777148</c:v>
+                  <c:v>421.53398062311612</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>314.18432199113352</c:v>
+                  <c:v>421.62374487971067</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>314.39045876155308</c:v>
+                  <c:v>424.14748938815717</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>309.32659037741894</c:v>
+                  <c:v>417.93991925400121</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>418.41174037969631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10547,11 +10629,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476198016"/>
-        <c:axId val="476199552"/>
+        <c:axId val="538219264"/>
+        <c:axId val="538220800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="476198016"/>
+        <c:axId val="538219264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10594,14 +10676,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476199552"/>
+        <c:crossAx val="538220800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="476199552"/>
+        <c:axId val="538220800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10650,7 +10732,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476198016"/>
+        <c:crossAx val="538219264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10864,7 +10946,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11122,6 +11204,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11131,7 +11216,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11389,6 +11474,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>1033.913060760111</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1037.8687355306749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11431,7 +11519,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11689,6 +11777,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11698,7 +11789,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11956,6 +12047,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>1823.9201391976985</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1828.5227288987212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11998,7 +12092,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12256,6 +12350,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12265,7 +12362,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12523,6 +12620,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>790.00707843758755</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>790.65399336804626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12544,11 +12644,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476689152"/>
-        <c:axId val="476690688"/>
+        <c:axId val="538337664"/>
+        <c:axId val="538339200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="476689152"/>
+        <c:axId val="538337664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12591,14 +12691,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476690688"/>
+        <c:crossAx val="538339200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="476690688"/>
+        <c:axId val="538339200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12647,7 +12747,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476689152"/>
+        <c:crossAx val="538337664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12861,7 +12961,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13119,6 +13219,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13128,7 +13231,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13386,6 +13489,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>699.75230789703528</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>703.70798266759925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13428,7 +13534,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13686,6 +13792,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13695,7 +13804,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13931,28 +14040,31 @@
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>996.05056362079893</c:v>
+                  <c:v>997.88159281094215</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>996.05056362079893</c:v>
+                  <c:v>997.97276087042451</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>996.05056362079893</c:v>
+                  <c:v>998.05348765153417</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>996.05056362079893</c:v>
+                  <c:v>1083.0881373455345</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>996.05056362079893</c:v>
+                  <c:v>1102.8265066956899</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>996.05056362079893</c:v>
+                  <c:v>1103.3393179662535</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>996.24639355269744</c:v>
+                  <c:v>1105.859523281189</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>996.24639355269744</c:v>
+                  <c:v>1104.4707667697967</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1108.8965730253919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13995,7 +14107,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14253,6 +14365,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14262,7 +14377,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14498,28 +14613,31 @@
                   <c:v>389.36329485505701</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>387.53226566491378</c:v>
+                  <c:v>389.36329485505701</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>387.48780748924321</c:v>
+                  <c:v>389.41000473886879</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>387.40389302563074</c:v>
+                  <c:v>389.40681705636598</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>301.98828855663237</c:v>
+                  <c:v>389.02586228136795</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>301.53208542349716</c:v>
+                  <c:v>408.30802849838813</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>301.10893068869109</c:v>
+                  <c:v>408.39768503414564</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>301.3047606205896</c:v>
+                  <c:v>410.91789034908118</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>296.49408565566216</c:v>
+                  <c:v>404.7184588727614</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>405.18859035779269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14541,11 +14659,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="477159808"/>
-        <c:axId val="477161344"/>
+        <c:axId val="538791936"/>
+        <c:axId val="538793472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="477159808"/>
+        <c:axId val="538791936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14588,14 +14706,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477161344"/>
+        <c:crossAx val="538793472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="477161344"/>
+        <c:axId val="538793472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14644,7 +14762,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477159808"/>
+        <c:crossAx val="538791936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14858,7 +14976,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15116,6 +15234,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15125,7 +15246,7 @@
               <c:f>'模型二 (2)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15383,6 +15504,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>347.15757819781584</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>347.83889366468429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15425,7 +15549,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15683,6 +15807,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15692,7 +15819,7 @@
               <c:f>'模型二 (2)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15950,6 +16077,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>547.94264608550873</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>548.77457534742291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15992,7 +16122,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16250,6 +16380,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16259,7 +16392,7 @@
               <c:f>'模型二 (2)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16517,6 +16650,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>200.78506788769289</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>200.93568168273862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16538,11 +16674,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="486522880"/>
-        <c:axId val="486524416"/>
+        <c:axId val="540573056"/>
+        <c:axId val="540583040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="486522880"/>
+        <c:axId val="540573056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16585,14 +16721,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486524416"/>
+        <c:crossAx val="540583040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="486524416"/>
+        <c:axId val="540583040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16641,7 +16777,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486522880"/>
+        <c:crossAx val="540573056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17361,7 +17497,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF89"/>
+  <dimension ref="A1:AF90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21073,6 +21209,41 @@
         <v>5914.9252189730641</v>
       </c>
     </row>
+    <row r="90" spans="1:11" ht="12.75">
+      <c r="A90" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.2078301885560148</v>
+      </c>
+      <c r="D90" s="21">
+        <v>80.336764176114258</v>
+      </c>
+      <c r="E90" s="22">
+        <v>69.495469651271122</v>
+      </c>
+      <c r="F90" s="22">
+        <v>613.21427065599858</v>
+      </c>
+      <c r="G90" s="22">
+        <v>708.87570798966169</v>
+      </c>
+      <c r="H90" s="22">
+        <v>4549.0299447737698</v>
+      </c>
+      <c r="I90" s="22">
+        <v>6623.8009269627255</v>
+      </c>
+      <c r="J90" s="22">
+        <v>2074.7709821889557</v>
+      </c>
+      <c r="K90" s="21">
+        <v>5914.9252189730641</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -21089,7 +21260,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH89"/>
+  <dimension ref="A1:AH90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25841,6 +26012,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="90" spans="1:15" ht="12.75">
+      <c r="A90" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.2078301885560148</v>
+      </c>
+      <c r="D90" s="21">
+        <v>76.319925967308535</v>
+      </c>
+      <c r="E90" s="22">
+        <v>66.020696168707559</v>
+      </c>
+      <c r="F90" s="22">
+        <v>2126.2749010235439</v>
+      </c>
+      <c r="G90" s="22">
+        <v>2457.973824110918</v>
+      </c>
+      <c r="H90" s="22">
+        <v>5725.104575441268</v>
+      </c>
+      <c r="I90" s="22">
+        <v>8977.0338419705095</v>
+      </c>
+      <c r="J90" s="22">
+        <v>3251.9292665292414</v>
+      </c>
+      <c r="K90" s="21">
+        <v>6519.0600178595914</v>
+      </c>
+      <c r="L90" s="26">
+        <v>2.7764076837910292E-2</v>
+      </c>
+      <c r="M90" s="27">
+        <v>6.3015104123053903E-2</v>
+      </c>
+      <c r="N90" s="27">
+        <v>44.05940008238894</v>
+      </c>
+      <c r="O90" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -25857,7 +26075,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH89"/>
+  <dimension ref="A1:AH90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26034,7 +26252,7 @@
         <v>0.95</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -30825,6 +31043,56 @@
         <v>65.879266785883473</v>
       </c>
       <c r="P89" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="12.75">
+      <c r="A90" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.2078301885560148</v>
+      </c>
+      <c r="D90" s="21">
+        <v>76.319925967308535</v>
+      </c>
+      <c r="E90" s="22">
+        <v>66.020696168707559</v>
+      </c>
+      <c r="F90" s="22">
+        <v>601.21305000028531</v>
+      </c>
+      <c r="G90" s="22">
+        <v>695.0022966941973</v>
+      </c>
+      <c r="H90" s="22">
+        <v>4339.7714535351179</v>
+      </c>
+      <c r="I90" s="22">
+        <v>6400.9839441572731</v>
+      </c>
+      <c r="J90" s="22">
+        <v>2061.2124906221552</v>
+      </c>
+      <c r="K90" s="21">
+        <v>5705.9816474630761</v>
+      </c>
+      <c r="L90" s="26">
+        <v>65.122614210687615</v>
+      </c>
+      <c r="M90" s="27">
+        <v>53.203229123214221</v>
+      </c>
+      <c r="N90" s="27">
+        <v>43.018190691921113</v>
+      </c>
+      <c r="O90" s="27">
+        <v>73.573305985800445</v>
+      </c>
+      <c r="P90" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -30844,7 +31112,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH89"/>
+  <dimension ref="A1:AH90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30900,10 +31168,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -35084,6 +35352,47 @@
         <v>840.21861797916563</v>
       </c>
       <c r="M89" s="21">
+        <v>2806.4628425899191</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="12.75">
+      <c r="A90" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.2078301885560148</v>
+      </c>
+      <c r="D90" s="20">
+        <v>318300</v>
+      </c>
+      <c r="E90" s="20">
+        <v>1945294.5162682247</v>
+      </c>
+      <c r="F90" s="21">
+        <v>13.145151967174575</v>
+      </c>
+      <c r="G90" s="22">
+        <v>11.371238547690199</v>
+      </c>
+      <c r="H90" s="22">
+        <v>163.2622897507633</v>
+      </c>
+      <c r="I90" s="22">
+        <v>188.73120991016438</v>
+      </c>
+      <c r="J90" s="22">
+        <v>2154.2159799891756</v>
+      </c>
+      <c r="K90" s="22">
+        <v>2995.1940525000837</v>
+      </c>
+      <c r="L90" s="22">
+        <v>840.97807251090808</v>
+      </c>
+      <c r="M90" s="21">
         <v>2806.4628425899191</v>
       </c>
     </row>
@@ -35103,7 +35412,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF89"/>
+  <dimension ref="A1:AF90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35842,16 +36151,16 @@
         <v>640.68070588965088</v>
       </c>
       <c r="R11" s="5">
-        <v>1041.2062722107735</v>
+        <v>1043.3146132957579</v>
       </c>
       <c r="S11" s="5">
-        <v>400.5255663211226</v>
+        <v>402.63390740610703</v>
       </c>
       <c r="T11" s="5">
         <v>1041.2062722107735</v>
       </c>
       <c r="U11" s="9">
-        <v>0.62515627931225393</v>
+        <v>0.62844706217117707</v>
       </c>
       <c r="V11" s="9">
         <v>9.7594534949349665E-2</v>
@@ -38549,22 +38858,22 @@
         <v>1.9273991475192054</v>
       </c>
       <c r="E82" s="22">
-        <v>0</v>
+        <v>1.638944854661756</v>
       </c>
       <c r="F82" s="22">
-        <v>0</v>
+        <v>1.638944854661756</v>
       </c>
       <c r="G82" s="22">
-        <v>0</v>
+        <v>1.9273991475192054</v>
       </c>
       <c r="H82" s="22">
         <v>640.54557679566869</v>
       </c>
       <c r="I82" s="22">
-        <v>1041.2062722107735</v>
+        <v>1043.1336713582928</v>
       </c>
       <c r="J82" s="22">
-        <v>400.66069541510478</v>
+        <v>402.58809456262406</v>
       </c>
       <c r="K82" s="21">
         <v>1041.2062722107735</v>
@@ -38584,22 +38893,22 @@
         <v>4.6798079653182528E-2</v>
       </c>
       <c r="E83" s="22">
-        <v>0</v>
+        <v>3.8804378773127236E-2</v>
       </c>
       <c r="F83" s="22">
-        <v>0</v>
+        <v>1.6777492334348831</v>
       </c>
       <c r="G83" s="22">
-        <v>0</v>
+        <v>2.0233655259216521</v>
       </c>
       <c r="H83" s="22">
         <v>640.59237487532187</v>
       </c>
       <c r="I83" s="22">
-        <v>1041.2062722107735</v>
+        <v>1043.2296377366952</v>
       </c>
       <c r="J83" s="22">
-        <v>400.61389733545161</v>
+        <v>402.6372628613733</v>
       </c>
       <c r="K83" s="21">
         <v>1041.2062722107735</v>
@@ -38619,22 +38928,22 @@
         <v>8.8331014328970323E-2</v>
       </c>
       <c r="E84" s="22">
-        <v>0</v>
+        <v>7.3364630073782536E-2</v>
       </c>
       <c r="F84" s="22">
-        <v>0</v>
+        <v>1.7511138635086656</v>
       </c>
       <c r="G84" s="22">
-        <v>0</v>
+        <v>2.1083410849844642</v>
       </c>
       <c r="H84" s="22">
         <v>640.68070588965088</v>
       </c>
       <c r="I84" s="22">
-        <v>1041.2062722107735</v>
+        <v>1043.3146132957579</v>
       </c>
       <c r="J84" s="22">
-        <v>400.5255663211226</v>
+        <v>402.63390740610703</v>
       </c>
       <c r="K84" s="21">
         <v>1041.2062722107735</v>
@@ -38654,22 +38963,22 @@
         <v>85.415604468998339</v>
       </c>
       <c r="E85" s="22">
-        <v>0</v>
+        <v>87.605746031091883</v>
       </c>
       <c r="F85" s="22">
-        <v>0</v>
+        <v>89.356859894600547</v>
       </c>
       <c r="G85" s="22">
-        <v>0</v>
+        <v>87.122940527669087</v>
       </c>
       <c r="H85" s="22">
         <v>726.09631035864925</v>
       </c>
       <c r="I85" s="22">
-        <v>1041.2062722107735</v>
+        <v>1128.3292127384425</v>
       </c>
       <c r="J85" s="22">
-        <v>315.10996185212423</v>
+        <v>402.23290237979325</v>
       </c>
       <c r="K85" s="21">
         <v>1041.2062722107735</v>
@@ -38689,22 +38998,22 @@
         <v>0.48021382435279653</v>
       </c>
       <c r="E86" s="22">
-        <v>0</v>
+        <v>0.40320220865253903</v>
       </c>
       <c r="F86" s="22">
-        <v>0</v>
+        <v>89.760062103253091</v>
       </c>
       <c r="G86" s="22">
-        <v>0</v>
+        <v>106.90423259534458</v>
       </c>
       <c r="H86" s="22">
         <v>726.57652418300199</v>
       </c>
       <c r="I86" s="22">
-        <v>1041.2062722107735</v>
+        <v>1148.1105048061181</v>
       </c>
       <c r="J86" s="22">
-        <v>314.62974802777148</v>
+        <v>421.53398062311612</v>
       </c>
       <c r="K86" s="21">
         <v>1041.2062722107735</v>
@@ -38724,22 +39033,22 @@
         <v>0.44542603663796299</v>
       </c>
       <c r="E87" s="22">
-        <v>0</v>
+        <v>0.37367955107197942</v>
       </c>
       <c r="F87" s="22">
-        <v>0</v>
+        <v>90.133741654325064</v>
       </c>
       <c r="G87" s="22">
-        <v>0</v>
+        <v>107.43942288857721</v>
       </c>
       <c r="H87" s="22">
         <v>727.02195021963996</v>
       </c>
       <c r="I87" s="22">
-        <v>1041.2062722107735</v>
+        <v>1148.6456950993506</v>
       </c>
       <c r="J87" s="22">
-        <v>314.18432199113352</v>
+        <v>421.62374487971067</v>
       </c>
       <c r="K87" s="21">
         <v>1041.2062722107735</v>
@@ -38759,22 +39068,22 @@
         <v>-0.20613677041944856</v>
       </c>
       <c r="E88" s="22">
-        <v>0</v>
+        <v>-0.16896456195519152</v>
       </c>
       <c r="F88" s="22">
-        <v>0</v>
+        <v>89.964777092369872</v>
       </c>
       <c r="G88" s="22">
-        <v>0</v>
+        <v>109.75703062660416</v>
       </c>
       <c r="H88" s="22">
         <v>727.02195021963996</v>
       </c>
       <c r="I88" s="22">
-        <v>1041.412408981193</v>
+        <v>1151.1694396077971</v>
       </c>
       <c r="J88" s="22">
-        <v>314.39045876155308</v>
+        <v>424.14748938815717</v>
       </c>
       <c r="K88" s="21">
         <v>1041.412408981193</v>
@@ -38794,24 +39103,59 @@
         <v>5.0638683841341896</v>
       </c>
       <c r="E89" s="22">
-        <v>0</v>
+        <v>4.3995380394758952</v>
       </c>
       <c r="F89" s="22">
-        <v>0</v>
+        <v>94.364315131845771</v>
       </c>
       <c r="G89" s="22">
-        <v>0</v>
+        <v>108.61332887658226</v>
       </c>
       <c r="H89" s="22">
         <v>732.0858186037741</v>
       </c>
       <c r="I89" s="22">
+        <v>1150.0257378577753</v>
+      </c>
+      <c r="J89" s="22">
+        <v>417.93991925400121</v>
+      </c>
+      <c r="K89" s="21">
         <v>1041.412408981193</v>
       </c>
-      <c r="J89" s="22">
-        <v>309.32659037741894</v>
-      </c>
-      <c r="K89" s="21">
+    </row>
+    <row r="90" spans="1:11" ht="12.75">
+      <c r="A90" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.2078301885560148</v>
+      </c>
+      <c r="D90" s="21">
+        <v>4.1638681795410299</v>
+      </c>
+      <c r="E90" s="22">
+        <v>3.6019620365693381</v>
+      </c>
+      <c r="F90" s="22">
+        <v>97.966277168415104</v>
+      </c>
+      <c r="G90" s="22">
+        <v>113.24901818181839</v>
+      </c>
+      <c r="H90" s="22">
+        <v>736.24968678331516</v>
+      </c>
+      <c r="I90" s="22">
+        <v>1154.6614271630115</v>
+      </c>
+      <c r="J90" s="22">
+        <v>418.41174037969631</v>
+      </c>
+      <c r="K90" s="21">
         <v>1041.412408981193</v>
       </c>
     </row>
@@ -38831,7 +39175,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH89"/>
+  <dimension ref="A1:AH90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -43583,6 +43927,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="90" spans="1:15" ht="12.75">
+      <c r="A90" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C90" s="21">
+        <v>1.2078301885560148</v>
+      </c>
+      <c r="D90" s="21">
+        <v>3.9556747705639781</v>
+      </c>
+      <c r="E90" s="22">
+        <v>3.421863934740871</v>
+      </c>
+      <c r="F90" s="22">
+        <v>132.8049734158181</v>
+      </c>
+      <c r="G90" s="22">
+        <v>153.52255167508687</v>
+      </c>
+      <c r="H90" s="22">
+        <v>1037.8687355306749</v>
+      </c>
+      <c r="I90" s="22">
+        <v>1828.5227288987212</v>
+      </c>
+      <c r="J90" s="22">
+        <v>790.65399336804626</v>
+      </c>
+      <c r="K90" s="21">
+        <v>1675.0001772236344</v>
+      </c>
+      <c r="L90" s="26">
+        <v>2.7764076837910292E-2</v>
+      </c>
+      <c r="M90" s="27">
+        <v>6.3015104123053903E-2</v>
+      </c>
+      <c r="N90" s="27">
+        <v>44.05940008238894</v>
+      </c>
+      <c r="O90" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -43599,7 +43990,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH89"/>
+  <dimension ref="A1:AH90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -43641,7 +44032,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -44464,16 +44855,16 @@
         <v>608.64667059516819</v>
       </c>
       <c r="T11" s="5">
-        <v>996.05056362079893</v>
+        <v>998.05348765153417</v>
       </c>
       <c r="U11" s="5">
-        <v>387.40389302563074</v>
+        <v>389.40681705636598</v>
       </c>
       <c r="V11" s="5">
         <v>996.05056362079893</v>
       </c>
       <c r="W11" s="9">
-        <v>0.63650047185308001</v>
+        <v>0.63979125471200327</v>
       </c>
       <c r="X11" s="9">
         <v>9.9032665900877781E-2</v>
@@ -48183,22 +48574,22 @@
         <v>1.8310291901432449</v>
       </c>
       <c r="E82" s="22">
-        <v>0</v>
+        <v>1.5569976119286679</v>
       </c>
       <c r="F82" s="22">
-        <v>0</v>
+        <v>1.5569976119286679</v>
       </c>
       <c r="G82" s="22">
-        <v>0</v>
+        <v>1.8310291901432449</v>
       </c>
       <c r="H82" s="22">
         <v>608.51829795588515</v>
       </c>
       <c r="I82" s="22">
-        <v>996.05056362079893</v>
+        <v>997.88159281094215</v>
       </c>
       <c r="J82" s="22">
-        <v>387.53226566491378</v>
+        <v>389.36329485505701</v>
       </c>
       <c r="K82" s="21">
         <v>996.05056362079893</v>
@@ -48233,22 +48624,22 @@
         <v>4.4458175670523403E-2</v>
       </c>
       <c r="E83" s="22">
-        <v>0</v>
+        <v>3.6864159834470875E-2</v>
       </c>
       <c r="F83" s="22">
-        <v>0</v>
+        <v>1.5938617717631387</v>
       </c>
       <c r="G83" s="22">
-        <v>0</v>
+        <v>1.9221972496255693</v>
       </c>
       <c r="H83" s="22">
         <v>608.56275613155572</v>
       </c>
       <c r="I83" s="22">
-        <v>996.05056362079893</v>
+        <v>997.97276087042451</v>
       </c>
       <c r="J83" s="22">
-        <v>387.48780748924321</v>
+        <v>389.41000473886879</v>
       </c>
       <c r="K83" s="21">
         <v>996.05056362079893</v>
@@ -48283,22 +48674,22 @@
         <v>8.3914463612521806E-2</v>
       </c>
       <c r="E84" s="22">
-        <v>0</v>
+        <v>6.969639857009341E-2</v>
       </c>
       <c r="F84" s="22">
-        <v>0</v>
+        <v>1.6635581703332321</v>
       </c>
       <c r="G84" s="22">
-        <v>0</v>
+        <v>2.0029240307352407</v>
       </c>
       <c r="H84" s="22">
         <v>608.64667059516819</v>
       </c>
       <c r="I84" s="22">
-        <v>996.05056362079893</v>
+        <v>998.05348765153417</v>
       </c>
       <c r="J84" s="22">
-        <v>387.40389302563074</v>
+        <v>389.40681705636598</v>
       </c>
       <c r="K84" s="21">
         <v>996.05056362079893</v>
@@ -48333,22 +48724,22 @@
         <v>85.415604468998339</v>
       </c>
       <c r="E85" s="22">
-        <v>0</v>
+        <v>87.605746031091883</v>
       </c>
       <c r="F85" s="22">
-        <v>0</v>
+        <v>89.269304201425115</v>
       </c>
       <c r="G85" s="22">
-        <v>0</v>
+        <v>87.037573724735552</v>
       </c>
       <c r="H85" s="22">
         <v>694.06227506416656</v>
       </c>
       <c r="I85" s="22">
-        <v>996.05056362079893</v>
+        <v>1083.0881373455345</v>
       </c>
       <c r="J85" s="22">
-        <v>301.98828855663237</v>
+        <v>389.02586228136795</v>
       </c>
       <c r="K85" s="21">
         <v>996.05056362079893</v>
@@ -48383,22 +48774,22 @@
         <v>0.4562031331351567</v>
       </c>
       <c r="E86" s="22">
-        <v>0</v>
+        <v>0.38304209821991209</v>
       </c>
       <c r="F86" s="22">
-        <v>0</v>
+        <v>89.652346299645032</v>
       </c>
       <c r="G86" s="22">
-        <v>0</v>
+        <v>106.77594307489099</v>
       </c>
       <c r="H86" s="22">
         <v>694.51847819730176</v>
       </c>
       <c r="I86" s="22">
-        <v>996.05056362079893</v>
+        <v>1102.8265066956899</v>
       </c>
       <c r="J86" s="22">
-        <v>301.53208542349716</v>
+        <v>408.30802849838813</v>
       </c>
       <c r="K86" s="21">
         <v>996.05056362079893</v>
@@ -48433,22 +48824,22 @@
         <v>0.4231547348060648</v>
       </c>
       <c r="E87" s="22">
-        <v>0</v>
+        <v>0.35499557351838046</v>
       </c>
       <c r="F87" s="22">
-        <v>0</v>
+        <v>90.007341873163412</v>
       </c>
       <c r="G87" s="22">
-        <v>0</v>
+        <v>107.28875434545456</v>
       </c>
       <c r="H87" s="22">
         <v>694.94163293210784</v>
       </c>
       <c r="I87" s="22">
-        <v>996.05056362079893</v>
+        <v>1103.3393179662535</v>
       </c>
       <c r="J87" s="22">
-        <v>301.10893068869109</v>
+        <v>408.39768503414564</v>
       </c>
       <c r="K87" s="21">
         <v>996.05056362079893</v>
@@ -48483,22 +48874,22 @@
         <v>-0.19582993189847611</v>
       </c>
       <c r="E88" s="22">
-        <v>0</v>
+        <v>-0.16051633385743194</v>
       </c>
       <c r="F88" s="22">
-        <v>0</v>
+        <v>89.846825539305982</v>
       </c>
       <c r="G88" s="22">
-        <v>0</v>
+        <v>109.6131297284916</v>
       </c>
       <c r="H88" s="22">
         <v>694.94163293210784</v>
       </c>
       <c r="I88" s="22">
-        <v>996.24639355269744</v>
+        <v>1105.859523281189</v>
       </c>
       <c r="J88" s="22">
-        <v>301.3047606205896</v>
+        <v>410.91789034908118</v>
       </c>
       <c r="K88" s="21">
         <v>996.24639355269744</v>
@@ -48533,22 +48924,22 @@
         <v>4.8106749649274798</v>
       </c>
       <c r="E89" s="22">
-        <v>0</v>
+        <v>4.1795611375021</v>
       </c>
       <c r="F89" s="22">
-        <v>0</v>
+        <v>94.026386676808087</v>
       </c>
       <c r="G89" s="22">
-        <v>0</v>
+        <v>108.22437321709931</v>
       </c>
       <c r="H89" s="22">
         <v>699.75230789703528</v>
       </c>
       <c r="I89" s="22">
-        <v>996.24639355269744</v>
+        <v>1104.4707667697967</v>
       </c>
       <c r="J89" s="22">
-        <v>296.49408565566216</v>
+        <v>404.7184588727614</v>
       </c>
       <c r="K89" s="21">
         <v>996.24639355269744</v>
@@ -48566,6 +48957,56 @@
         <v>65.879266785883473</v>
       </c>
       <c r="P89" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="12.75">
+      <c r="A90" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.2078301885560148</v>
+      </c>
+      <c r="D90" s="21">
+        <v>3.9556747705639781</v>
+      </c>
+      <c r="E90" s="22">
+        <v>3.421863934740871</v>
+      </c>
+      <c r="F90" s="22">
+        <v>97.448250611548957</v>
+      </c>
+      <c r="G90" s="22">
+        <v>112.65017947269457</v>
+      </c>
+      <c r="H90" s="22">
+        <v>703.70798266759925</v>
+      </c>
+      <c r="I90" s="22">
+        <v>1108.8965730253919</v>
+      </c>
+      <c r="J90" s="22">
+        <v>405.18859035779269</v>
+      </c>
+      <c r="K90" s="21">
+        <v>996.24639355269744</v>
+      </c>
+      <c r="L90" s="26">
+        <v>65.122614210687615</v>
+      </c>
+      <c r="M90" s="27">
+        <v>53.203229123214221</v>
+      </c>
+      <c r="N90" s="27">
+        <v>43.018190691921113</v>
+      </c>
+      <c r="O90" s="27">
+        <v>73.573305985800445</v>
+      </c>
+      <c r="P90" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -48585,7 +49026,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH89"/>
+  <dimension ref="A1:AH90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -48641,10 +49082,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -52828,6 +53269,47 @@
         <v>513.27131671137374</v>
       </c>
     </row>
+    <row r="90" spans="1:13" ht="12.75">
+      <c r="A90" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.2078301885560148</v>
+      </c>
+      <c r="D90" s="20">
+        <v>318300</v>
+      </c>
+      <c r="E90" s="20">
+        <v>1945294.5162682247</v>
+      </c>
+      <c r="F90" s="21">
+        <v>0.68131546686844424</v>
+      </c>
+      <c r="G90" s="22">
+        <v>0.5893732319975018</v>
+      </c>
+      <c r="H90" s="22">
+        <v>30.712160968469384</v>
+      </c>
+      <c r="I90" s="22">
+        <v>35.503258636049189</v>
+      </c>
+      <c r="J90" s="22">
+        <v>347.83889366468429</v>
+      </c>
+      <c r="K90" s="22">
+        <v>548.77457534742291</v>
+      </c>
+      <c r="L90" s="22">
+        <v>200.93568168273862</v>
+      </c>
+      <c r="M90" s="21">
+        <v>513.27131671137374</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="420" windowWidth="17280" windowHeight="8880" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="4335" yWindow="420" windowWidth="15600" windowHeight="8880" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="模型二 (1)平均线" sheetId="13" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="34">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,6 +145,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>人工智能产业LOF</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>均线</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -158,6 +166,10 @@
   </si>
   <si>
     <t>标志</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -175,6 +187,10 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -871,7 +887,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1132,6 +1148,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1141,7 +1160,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1402,6 +1421,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>4549.0299447737698</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4642.1857138246714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1444,7 +1466,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1705,6 +1727,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1714,7 +1739,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1975,6 +2000,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>6623.8009269627255</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6711.4377289804816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2017,7 +2045,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2278,6 +2306,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2287,7 +2318,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2548,6 +2579,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>2074.7709821889557</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2069.2520151558101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2569,11 +2603,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="553683200"/>
-        <c:axId val="595394560"/>
+        <c:axId val="533976192"/>
+        <c:axId val="533978112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="553683200"/>
+        <c:axId val="533976192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2616,14 +2650,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595394560"/>
+        <c:crossAx val="533978112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="595394560"/>
+        <c:axId val="533978112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2672,7 +2706,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553683200"/>
+        <c:crossAx val="533976192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2886,7 +2920,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3147,6 +3181,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3156,7 +3193,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3417,6 +3454,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>5725.104575441268</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5813.6025560396247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3459,7 +3499,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3720,6 +3760,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3729,7 +3772,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3990,6 +4033,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>8977.0338419705095</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9046.3952146265856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4032,7 +4078,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4293,6 +4339,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4302,7 +4351,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4563,6 +4612,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>3251.9292665292414</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3232.7926585869609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4584,11 +4636,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536917888"/>
-        <c:axId val="536919424"/>
+        <c:axId val="562590848"/>
+        <c:axId val="494248320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536917888"/>
+        <c:axId val="562590848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4631,14 +4683,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536919424"/>
+        <c:crossAx val="494248320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="536919424"/>
+        <c:axId val="494248320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4687,7 +4739,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536917888"/>
+        <c:crossAx val="562590848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4901,7 +4953,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5162,6 +5214,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5171,7 +5226,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5432,6 +5487,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>4339.7714535351179</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4428.2694341334745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5474,7 +5532,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5735,6 +5793,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5744,7 +5805,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6005,6 +6066,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>6400.9839441572731</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6484.0709694637717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6047,7 +6111,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6308,6 +6372,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6317,7 +6384,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6578,6 +6645,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>2061.2124906221552</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2055.8015353302972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6599,11 +6669,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="538068480"/>
-        <c:axId val="538070016"/>
+        <c:axId val="494380928"/>
+        <c:axId val="494382464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="538068480"/>
+        <c:axId val="494380928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6646,14 +6716,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538070016"/>
+        <c:crossAx val="494382464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="538070016"/>
+        <c:axId val="494382464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6702,7 +6772,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538068480"/>
+        <c:crossAx val="494380928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6916,7 +6986,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7177,6 +7247,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7186,7 +7259,7 @@
               <c:f>'模型二 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7447,6 +7520,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>2154.2159799891756</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2172.2104771276968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7489,7 +7565,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7750,6 +7826,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7759,7 +7838,7 @@
               <c:f>'模型二 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8020,6 +8099,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>2995.1940525000837</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3011.7191787547104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8062,7 +8144,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8323,6 +8405,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8332,7 +8417,7 @@
               <c:f>'模型二 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8593,6 +8678,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>840.97807251090808</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>839.50870162701358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8614,11 +8702,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="538109056"/>
-        <c:axId val="538110592"/>
+        <c:axId val="495085056"/>
+        <c:axId val="495086592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="538109056"/>
+        <c:axId val="495085056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8661,14 +8749,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538110592"/>
+        <c:crossAx val="495086592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="538110592"/>
+        <c:axId val="495086592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8717,7 +8805,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538109056"/>
+        <c:crossAx val="495085056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8931,7 +9019,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9192,6 +9280,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9201,7 +9292,7 @@
               <c:f>'模型二 (2)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9462,6 +9553,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>736.24968678331516</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>741.84839472361512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9504,7 +9598,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9765,6 +9859,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9774,7 +9871,7 @@
               <c:f>'模型二 (2)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10035,6 +10132,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>1154.6614271630115</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1159.3784324425528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10077,7 +10177,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10338,6 +10438,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10347,7 +10450,7 @@
               <c:f>'模型二 (2)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10608,6 +10711,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>418.41174037969631</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>417.53003771893771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10629,11 +10735,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="538219264"/>
-        <c:axId val="538220800"/>
+        <c:axId val="496215168"/>
+        <c:axId val="496216704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="538219264"/>
+        <c:axId val="496215168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10676,14 +10782,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538220800"/>
+        <c:crossAx val="496216704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="538220800"/>
+        <c:axId val="496216704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10732,7 +10838,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538219264"/>
+        <c:crossAx val="496215168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10946,7 +11052,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11207,6 +11313,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11216,7 +11325,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11477,6 +11586,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>1037.8687355306749</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1043.1875080739599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11519,7 +11631,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11780,6 +11892,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11789,7 +11904,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12050,6 +12165,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>1828.5227288987212</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1832.6462483221862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12092,7 +12210,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12353,6 +12471,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12362,7 +12483,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12623,6 +12744,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>790.65399336804626</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>789.45874024822638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12644,11 +12768,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="538337664"/>
-        <c:axId val="538339200"/>
+        <c:axId val="499557120"/>
+        <c:axId val="499558656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="538337664"/>
+        <c:axId val="499557120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12691,14 +12815,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538339200"/>
+        <c:crossAx val="499558656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="538339200"/>
+        <c:axId val="499558656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12747,7 +12871,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538337664"/>
+        <c:crossAx val="499557120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12961,7 +13085,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13222,6 +13346,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13231,7 +13358,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13492,6 +13619,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>703.70798266759925</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>709.02675521088418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13534,7 +13664,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13795,6 +13925,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13804,7 +13937,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14065,6 +14198,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>1108.8965730253919</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1113.3383051795361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14107,7 +14243,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14368,6 +14504,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14377,7 +14516,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14638,6 +14777,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>405.18859035779269</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>404.31154996865189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14659,11 +14801,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="538791936"/>
-        <c:axId val="538793472"/>
+        <c:axId val="500785536"/>
+        <c:axId val="500787072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="538791936"/>
+        <c:axId val="500785536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14706,14 +14848,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538793472"/>
+        <c:crossAx val="500787072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="538793472"/>
+        <c:axId val="500787072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14762,7 +14904,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538791936"/>
+        <c:crossAx val="500785536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14976,7 +15118,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15237,6 +15379,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15246,7 +15391,7 @@
               <c:f>'模型二 (2)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15507,6 +15652,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>347.83889366468429</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>348.92037187089284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15549,7 +15697,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15810,6 +15958,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15819,7 +15970,7 @@
               <c:f>'模型二 (2)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16080,6 +16231,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>548.77457534742291</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>549.57964217181484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16122,7 +16276,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16383,6 +16537,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16392,7 +16549,7 @@
               <c:f>'模型二 (2)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16653,6 +16810,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>200.93568168273862</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>200.659270300922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16674,11 +16834,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="540573056"/>
-        <c:axId val="540583040"/>
+        <c:axId val="501039104"/>
+        <c:axId val="501040640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="540573056"/>
+        <c:axId val="501039104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16721,14 +16881,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540583040"/>
+        <c:crossAx val="501040640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="540583040"/>
+        <c:axId val="501040640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16777,7 +16937,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540573056"/>
+        <c:crossAx val="501039104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16885,7 +17045,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16928,7 +17088,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16971,7 +17131,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17014,7 +17174,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17057,7 +17217,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17100,7 +17260,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17143,7 +17303,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17186,7 +17346,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17497,7 +17657,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF90"/>
+  <dimension ref="A1:AF91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21244,6 +21404,41 @@
         <v>5914.9252189730641</v>
       </c>
     </row>
+    <row r="91" spans="1:11" ht="12.75">
+      <c r="A91" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.2071004513391792</v>
+      </c>
+      <c r="D91" s="21">
+        <v>93.155769050901711</v>
+      </c>
+      <c r="E91" s="22">
+        <v>81.216889879042213</v>
+      </c>
+      <c r="F91" s="22">
+        <v>694.43116053504082</v>
+      </c>
+      <c r="G91" s="22">
+        <v>796.51251000741718</v>
+      </c>
+      <c r="H91" s="22">
+        <v>4642.1857138246714</v>
+      </c>
+      <c r="I91" s="22">
+        <v>6711.4377289804816</v>
+      </c>
+      <c r="J91" s="22">
+        <v>2069.2520151558101</v>
+      </c>
+      <c r="K91" s="21">
+        <v>5914.9252189730641</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -21260,7 +21455,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH90"/>
+  <dimension ref="A1:AH91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21305,10 +21500,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -21335,16 +21530,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -26056,6 +26251,53 @@
         <v>44.05940008238894</v>
       </c>
       <c r="O90" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="12.75">
+      <c r="A91" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.2071004513391792</v>
+      </c>
+      <c r="D91" s="21">
+        <v>88.497980598356619</v>
+      </c>
+      <c r="E91" s="22">
+        <v>77.156045385090096</v>
+      </c>
+      <c r="F91" s="22">
+        <v>2203.4309464086341</v>
+      </c>
+      <c r="G91" s="22">
+        <v>2527.3351967669946</v>
+      </c>
+      <c r="H91" s="22">
+        <v>5813.6025560396247</v>
+      </c>
+      <c r="I91" s="22">
+        <v>9046.3952146265856</v>
+      </c>
+      <c r="J91" s="22">
+        <v>3232.7926585869609</v>
+      </c>
+      <c r="K91" s="21">
+        <v>6519.0600178595914</v>
+      </c>
+      <c r="L91" s="26">
+        <v>2.7764076837910292E-2</v>
+      </c>
+      <c r="M91" s="27">
+        <v>6.3015104123053903E-2</v>
+      </c>
+      <c r="N91" s="27">
+        <v>44.05940008238894</v>
+      </c>
+      <c r="O91" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -26075,7 +26317,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH90"/>
+  <dimension ref="A1:AH91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26117,13 +26359,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -26150,19 +26392,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -31093,6 +31335,56 @@
         <v>73.573305985800445</v>
       </c>
       <c r="P90" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="12.75">
+      <c r="A91" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.2071004513391792</v>
+      </c>
+      <c r="D91" s="21">
+        <v>88.497980598356619</v>
+      </c>
+      <c r="E91" s="22">
+        <v>77.156045385090096</v>
+      </c>
+      <c r="F91" s="22">
+        <v>678.36909538537543</v>
+      </c>
+      <c r="G91" s="22">
+        <v>778.08932200069603</v>
+      </c>
+      <c r="H91" s="22">
+        <v>4428.2694341334745</v>
+      </c>
+      <c r="I91" s="22">
+        <v>6484.0709694637717</v>
+      </c>
+      <c r="J91" s="22">
+        <v>2055.8015353302972</v>
+      </c>
+      <c r="K91" s="21">
+        <v>5705.9816474630761</v>
+      </c>
+      <c r="L91" s="26">
+        <v>65.122614210687615</v>
+      </c>
+      <c r="M91" s="27">
+        <v>53.203229123214221</v>
+      </c>
+      <c r="N91" s="27">
+        <v>43.018190691921113</v>
+      </c>
+      <c r="O91" s="27">
+        <v>73.573305985800445</v>
+      </c>
+      <c r="P91" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -31112,7 +31404,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH90"/>
+  <dimension ref="A1:AH91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31159,19 +31451,19 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -31225,7 +31517,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -35393,6 +35685,47 @@
         <v>840.97807251090808</v>
       </c>
       <c r="M90" s="21">
+        <v>2806.4628425899191</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="12.75">
+      <c r="A91" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.2071004513391792</v>
+      </c>
+      <c r="D91" s="20">
+        <v>371833</v>
+      </c>
+      <c r="E91" s="20">
+        <v>1924943.4316979402</v>
+      </c>
+      <c r="F91" s="21">
+        <v>17.99449713852129</v>
+      </c>
+      <c r="G91" s="22">
+        <v>15.688315467928366</v>
+      </c>
+      <c r="H91" s="22">
+        <v>178.95060521869166</v>
+      </c>
+      <c r="I91" s="22">
+        <v>205.25633616479132</v>
+      </c>
+      <c r="J91" s="22">
+        <v>2172.2104771276968</v>
+      </c>
+      <c r="K91" s="22">
+        <v>3011.7191787547104</v>
+      </c>
+      <c r="L91" s="22">
+        <v>839.50870162701358</v>
+      </c>
+      <c r="M91" s="21">
         <v>2806.4628425899191</v>
       </c>
     </row>
@@ -35412,7 +35745,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF90"/>
+  <dimension ref="A1:AF91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39159,6 +39492,41 @@
         <v>1041.412408981193</v>
       </c>
     </row>
+    <row r="91" spans="1:11" ht="12.75">
+      <c r="A91" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.2071004513391792</v>
+      </c>
+      <c r="D91" s="21">
+        <v>5.5987079402999607</v>
+      </c>
+      <c r="E91" s="22">
+        <v>4.8811753784545644</v>
+      </c>
+      <c r="F91" s="22">
+        <v>102.84745254686968</v>
+      </c>
+      <c r="G91" s="22">
+        <v>117.96602346135974</v>
+      </c>
+      <c r="H91" s="22">
+        <v>741.84839472361512</v>
+      </c>
+      <c r="I91" s="22">
+        <v>1159.3784324425528</v>
+      </c>
+      <c r="J91" s="22">
+        <v>417.53003771893771</v>
+      </c>
+      <c r="K91" s="21">
+        <v>1041.412408981193</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -39175,7 +39543,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH90"/>
+  <dimension ref="A1:AH91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39250,16 +39618,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -43971,6 +44339,53 @@
         <v>44.05940008238894</v>
       </c>
       <c r="O90" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="12.75">
+      <c r="A91" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C91" s="21">
+        <v>1.2071004513391792</v>
+      </c>
+      <c r="D91" s="21">
+        <v>5.318772543284962</v>
+      </c>
+      <c r="E91" s="22">
+        <v>4.6371166095318355</v>
+      </c>
+      <c r="F91" s="22">
+        <v>137.44209002534993</v>
+      </c>
+      <c r="G91" s="22">
+        <v>157.64607109855177</v>
+      </c>
+      <c r="H91" s="22">
+        <v>1043.1875080739599</v>
+      </c>
+      <c r="I91" s="22">
+        <v>1832.6462483221862</v>
+      </c>
+      <c r="J91" s="22">
+        <v>789.45874024822638</v>
+      </c>
+      <c r="K91" s="21">
+        <v>1675.0001772236344</v>
+      </c>
+      <c r="L91" s="26">
+        <v>2.7764076837910292E-2</v>
+      </c>
+      <c r="M91" s="27">
+        <v>6.3015104123053903E-2</v>
+      </c>
+      <c r="N91" s="27">
+        <v>44.05940008238894</v>
+      </c>
+      <c r="O91" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -43990,7 +44405,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH90"/>
+  <dimension ref="A1:AH91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -44032,13 +44447,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -44065,19 +44480,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -44102,7 +44517,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -49007,6 +49422,56 @@
         <v>73.573305985800445</v>
       </c>
       <c r="P90" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="12.75">
+      <c r="A91" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.2071004513391792</v>
+      </c>
+      <c r="D91" s="21">
+        <v>5.318772543284962</v>
+      </c>
+      <c r="E91" s="22">
+        <v>4.6371166095318355</v>
+      </c>
+      <c r="F91" s="22">
+        <v>102.08536722108079</v>
+      </c>
+      <c r="G91" s="22">
+        <v>117.09191162683859</v>
+      </c>
+      <c r="H91" s="22">
+        <v>709.02675521088418</v>
+      </c>
+      <c r="I91" s="22">
+        <v>1113.3383051795361</v>
+      </c>
+      <c r="J91" s="22">
+        <v>404.31154996865189</v>
+      </c>
+      <c r="K91" s="21">
+        <v>996.24639355269744</v>
+      </c>
+      <c r="L91" s="26">
+        <v>65.122614210687615</v>
+      </c>
+      <c r="M91" s="27">
+        <v>53.203229123214221</v>
+      </c>
+      <c r="N91" s="27">
+        <v>43.018190691921113</v>
+      </c>
+      <c r="O91" s="27">
+        <v>73.573305985800445</v>
+      </c>
+      <c r="P91" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -49026,7 +49491,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH90"/>
+  <dimension ref="A1:AH91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -49073,19 +49538,19 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -53310,6 +53775,47 @@
         <v>513.27131671137374</v>
       </c>
     </row>
+    <row r="91" spans="1:13" ht="12.75">
+      <c r="A91" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.2071004513391792</v>
+      </c>
+      <c r="D91" s="20">
+        <v>371833</v>
+      </c>
+      <c r="E91" s="20">
+        <v>1924943.4316979402</v>
+      </c>
+      <c r="F91" s="21">
+        <v>1.0814782062085171</v>
+      </c>
+      <c r="G91" s="22">
+        <v>0.9428755435664673</v>
+      </c>
+      <c r="H91" s="22">
+        <v>31.655036512035849</v>
+      </c>
+      <c r="I91" s="22">
+        <v>36.308325460441139</v>
+      </c>
+      <c r="J91" s="22">
+        <v>348.92037187089284</v>
+      </c>
+      <c r="K91" s="22">
+        <v>549.57964217181484</v>
+      </c>
+      <c r="L91" s="22">
+        <v>200.659270300922</v>
+      </c>
+      <c r="M91" s="21">
+        <v>513.27131671137374</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="420" windowWidth="15600" windowHeight="8880" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="4335" yWindow="420" windowWidth="15600" windowHeight="8880" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="模型二 (1)平均线" sheetId="13" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="33">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,11 +145,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人工智能产业LOF</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>均线</t>
+    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -169,10 +165,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>RSV</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -189,7 +181,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>单位：元</t>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -199,6 +191,10 @@
   <si>
     <t>成交均量</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -887,7 +883,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1151,6 +1147,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1160,7 +1159,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1424,6 +1423,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>4642.1857138246714</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1466,7 +1468,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1730,6 +1732,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1739,7 +1744,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2003,6 +2008,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>6711.4377289804816</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6890.7852170020124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2045,7 +2053,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2309,6 +2317,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2318,7 +2329,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2582,6 +2593,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>2069.2520151558101</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1997.031193665739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2603,11 +2617,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="533976192"/>
-        <c:axId val="533978112"/>
+        <c:axId val="494045824"/>
+        <c:axId val="496530560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="533976192"/>
+        <c:axId val="494045824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2650,14 +2664,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533978112"/>
+        <c:crossAx val="496530560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="533978112"/>
+        <c:axId val="496530560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2706,7 +2720,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533976192"/>
+        <c:crossAx val="494045824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2920,7 +2934,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3184,6 +3198,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3193,7 +3210,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3457,6 +3474,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>5813.6025560396247</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3499,7 +3519,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3763,6 +3783,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3772,7 +3795,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4036,6 +4059,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>9046.3952146265856</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9056.2283511754194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4078,7 +4104,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4342,6 +4368,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4351,7 +4380,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4615,6 +4644,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>3232.7926585869609</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3003.635901099773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4636,11 +4668,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="562590848"/>
-        <c:axId val="494248320"/>
+        <c:axId val="696636544"/>
+        <c:axId val="488284544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="562590848"/>
+        <c:axId val="696636544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4683,14 +4715,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494248320"/>
+        <c:crossAx val="488284544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494248320"/>
+        <c:axId val="488284544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4739,7 +4771,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562590848"/>
+        <c:crossAx val="696636544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4953,7 +4985,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5217,6 +5249,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5226,7 +5261,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5490,6 +5525,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>4428.2694341334745</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5532,7 +5570,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5796,6 +5834,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5805,7 +5846,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6069,6 +6110,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>6484.0709694637717</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6463.8342642073658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6111,7 +6155,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6375,6 +6419,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6384,7 +6431,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6648,6 +6695,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>2055.8015353302972</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1985.2511681715705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6669,11 +6719,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494380928"/>
-        <c:axId val="494382464"/>
+        <c:axId val="488712448"/>
+        <c:axId val="488718336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494380928"/>
+        <c:axId val="488712448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6716,14 +6766,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494382464"/>
+        <c:crossAx val="488718336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494382464"/>
+        <c:axId val="488718336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6772,7 +6822,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494380928"/>
+        <c:crossAx val="488712448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6986,7 +7036,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7250,6 +7300,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7259,7 +7312,7 @@
               <c:f>'模型二 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7523,6 +7576,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>2172.2104771276968</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7565,7 +7621,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7829,6 +7885,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7838,7 +7897,7 @@
               <c:f>'模型二 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8102,6 +8161,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>3011.7191787547104</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3100.9726120303476</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8144,7 +8206,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8408,6 +8470,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8417,7 +8482,7 @@
               <c:f>'模型二 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8681,6 +8746,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>839.50870162701358</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>820.89784363342687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8702,11 +8770,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="495085056"/>
-        <c:axId val="495086592"/>
+        <c:axId val="488896384"/>
+        <c:axId val="488897920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="495085056"/>
+        <c:axId val="488896384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8749,14 +8817,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495086592"/>
+        <c:crossAx val="488897920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="495086592"/>
+        <c:axId val="488897920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8805,7 +8873,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495085056"/>
+        <c:crossAx val="488896384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9019,7 +9087,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9283,6 +9351,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9292,7 +9363,7 @@
               <c:f>'模型二 (2)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9556,6 +9627,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>741.84839472361512</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9598,7 +9672,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9862,6 +9936,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9871,7 +9948,7 @@
               <c:f>'模型二 (2)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10135,6 +10212,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1159.3784324425528</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1189.5123739966168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10177,7 +10257,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10441,6 +10521,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10450,7 +10533,7 @@
               <c:f>'模型二 (2)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10714,6 +10797,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>417.53003771893771</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>406.83390549846945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10735,11 +10821,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496215168"/>
-        <c:axId val="496216704"/>
+        <c:axId val="488969728"/>
+        <c:axId val="488971264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496215168"/>
+        <c:axId val="488969728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10782,14 +10868,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496216704"/>
+        <c:crossAx val="488971264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496216704"/>
+        <c:axId val="488971264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10838,7 +10924,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496215168"/>
+        <c:crossAx val="488969728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11052,7 +11138,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11316,6 +11402,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11325,7 +11414,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11589,6 +11678,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1043.1875080739599</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11631,7 +11723,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11895,6 +11987,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11904,7 +11999,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12168,6 +12263,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1832.6462483221862</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1857.1408448465302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12210,7 +12308,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12474,6 +12572,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12483,7 +12584,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12747,6 +12848,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>789.45874024822638</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>775.16476668676478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12768,11 +12872,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="499557120"/>
-        <c:axId val="499558656"/>
+        <c:axId val="489153664"/>
+        <c:axId val="489155200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="499557120"/>
+        <c:axId val="489153664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12815,14 +12919,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499558656"/>
+        <c:crossAx val="489155200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="499558656"/>
+        <c:axId val="489155200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12871,7 +12975,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499557120"/>
+        <c:crossAx val="489153664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13085,7 +13189,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13349,6 +13453,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13358,7 +13465,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13622,6 +13729,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>709.02675521088418</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13664,7 +13774,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13928,6 +14038,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13937,7 +14050,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14201,6 +14314,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1113.3383051795361</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1110.8874445667798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14243,7 +14359,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14507,6 +14623,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14516,7 +14635,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14780,6 +14899,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>404.31154996865189</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>393.69467460098917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14801,11 +14923,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="500785536"/>
-        <c:axId val="500787072"/>
+        <c:axId val="489247488"/>
+        <c:axId val="489249024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="500785536"/>
+        <c:axId val="489247488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14848,14 +14970,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500787072"/>
+        <c:crossAx val="489249024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500787072"/>
+        <c:axId val="489249024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14904,7 +15026,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500785536"/>
+        <c:crossAx val="489247488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15118,7 +15240,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15382,6 +15504,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15391,7 +15516,7 @@
               <c:f>'模型二 (2)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15655,6 +15780,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>348.92037187089284</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15697,7 +15825,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15961,6 +16089,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15970,7 +16101,7 @@
               <c:f>'模型二 (2)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16234,6 +16365,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>549.57964217181484</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>563.79412403149411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16276,7 +16410,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16540,6 +16674,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16549,7 +16686,7 @@
               <c:f>'模型二 (2)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16813,6 +16950,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>200.659270300922</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>197.36714737913957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16834,11 +16974,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="501039104"/>
-        <c:axId val="501040640"/>
+        <c:axId val="489415040"/>
+        <c:axId val="489416576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="501039104"/>
+        <c:axId val="489415040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16881,14 +17021,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501040640"/>
+        <c:crossAx val="489416576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="501040640"/>
+        <c:axId val="489416576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16937,7 +17077,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501039104"/>
+        <c:crossAx val="489415040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17657,7 +17797,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF91"/>
+  <dimension ref="A1:AF92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21439,6 +21579,41 @@
         <v>5914.9252189730641</v>
       </c>
     </row>
+    <row r="92" spans="1:11" ht="12.75">
+      <c r="A92" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.2053021180026375</v>
+      </c>
+      <c r="D92" s="21">
+        <v>251.5683095116016</v>
+      </c>
+      <c r="E92" s="22">
+        <v>241.19684913904115</v>
+      </c>
+      <c r="F92" s="22">
+        <v>935.62800967408202</v>
+      </c>
+      <c r="G92" s="22">
+        <v>975.85999802894833</v>
+      </c>
+      <c r="H92" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I92" s="22">
+        <v>6890.7852170020124</v>
+      </c>
+      <c r="J92" s="22">
+        <v>1997.031193665739</v>
+      </c>
+      <c r="K92" s="21">
+        <v>5914.9252189730641</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -21455,7 +21630,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH91"/>
+  <dimension ref="A1:AH92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21497,13 +21672,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -21530,16 +21705,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -26289,15 +26464,62 @@
         <v>6519.0600178595914</v>
       </c>
       <c r="L91" s="26">
-        <v>2.7764076837910292E-2</v>
+        <v>2.3136730698258574E-2</v>
       </c>
       <c r="M91" s="27">
-        <v>6.3015104123053903E-2</v>
+        <v>5.4012597259629064E-2</v>
       </c>
       <c r="N91" s="27">
-        <v>44.05940008238894</v>
+        <v>42.83580474207595</v>
       </c>
       <c r="O91" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="12.75">
+      <c r="A92" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.2053021180026375</v>
+      </c>
+      <c r="D92" s="21">
+        <v>238.9898940360215</v>
+      </c>
+      <c r="E92" s="22">
+        <v>229.13700668208907</v>
+      </c>
+      <c r="F92" s="22">
+        <v>2432.5679530907232</v>
+      </c>
+      <c r="G92" s="22">
+        <v>2537.168333315828</v>
+      </c>
+      <c r="H92" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I92" s="22">
+        <v>9056.2283511754194</v>
+      </c>
+      <c r="J92" s="22">
+        <v>3003.635901099773</v>
+      </c>
+      <c r="K92" s="21">
+        <v>6519.0600178595914</v>
+      </c>
+      <c r="L92" s="26">
+        <v>1.9280608915215477E-2</v>
+      </c>
+      <c r="M92" s="27">
+        <v>6.2343826440265017E-2</v>
+      </c>
+      <c r="N92" s="27">
+        <v>30.926252070346163</v>
+      </c>
+      <c r="O92" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -26317,7 +26539,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH91"/>
+  <dimension ref="A1:AH92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26359,13 +26581,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -26392,19 +26614,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -26494,7 +26716,7 @@
         <v>0.95</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -31373,19 +31595,69 @@
         <v>5705.9816474630761</v>
       </c>
       <c r="L91" s="26">
-        <v>65.122614210687615</v>
+        <v>62.67028127379821</v>
       </c>
       <c r="M91" s="27">
-        <v>53.203229123214221</v>
+        <v>56.358913173408887</v>
       </c>
       <c r="N91" s="27">
-        <v>43.018190691921113</v>
+        <v>47.465098185750371</v>
       </c>
       <c r="O91" s="27">
-        <v>73.573305985800445</v>
+        <v>74.146543148725911</v>
       </c>
       <c r="P91" s="27">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="12.75">
+      <c r="A92" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.2053021180026375</v>
+      </c>
+      <c r="D92" s="21">
+        <v>50.31366190232032</v>
+      </c>
+      <c r="E92" s="22">
+        <v>48.239369827808233</v>
+      </c>
+      <c r="F92" s="22">
+        <v>726.60846521318365</v>
+      </c>
+      <c r="G92" s="22">
+        <v>757.85261674428955</v>
+      </c>
+      <c r="H92" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I92" s="22">
+        <v>6463.8342642073658</v>
+      </c>
+      <c r="J92" s="22">
+        <v>1985.2511681715705</v>
+      </c>
+      <c r="K92" s="21">
+        <v>5705.9816474630761</v>
+      </c>
+      <c r="L92" s="26">
+        <v>34.332417500766169</v>
+      </c>
+      <c r="M92" s="27">
+        <v>49.016747949194645</v>
+      </c>
+      <c r="N92" s="27">
+        <v>47.982314773565129</v>
+      </c>
+      <c r="O92" s="27">
+        <v>51.085614300453685</v>
+      </c>
+      <c r="P92" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -31404,7 +31676,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH91"/>
+  <dimension ref="A1:AH92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31451,19 +31723,19 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -31517,7 +31789,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -35726,6 +35998,47 @@
         <v>839.50870162701358</v>
       </c>
       <c r="M91" s="21">
+        <v>2806.4628425899191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="12.75">
+      <c r="A92" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.2053021180026375</v>
+      </c>
+      <c r="D92" s="20">
+        <v>817453</v>
+      </c>
+      <c r="E92" s="20">
+        <v>1906518.5233721782</v>
+      </c>
+      <c r="F92" s="21">
+        <v>107.8642912692239</v>
+      </c>
+      <c r="G92" s="22">
+        <v>103.41734711840874</v>
+      </c>
+      <c r="H92" s="22">
+        <v>282.36795233710041</v>
+      </c>
+      <c r="I92" s="22">
+        <v>294.50976944042856</v>
+      </c>
+      <c r="J92" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K92" s="22">
+        <v>3100.9726120303476</v>
+      </c>
+      <c r="L92" s="22">
+        <v>820.89784363342687</v>
+      </c>
+      <c r="M92" s="21">
         <v>2806.4628425899191</v>
       </c>
     </row>
@@ -35745,7 +36058,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF91"/>
+  <dimension ref="A1:AF92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39527,6 +39840,41 @@
         <v>1041.412408981193</v>
       </c>
     </row>
+    <row r="92" spans="1:11" ht="12.75">
+      <c r="A92" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.2053021180026375</v>
+      </c>
+      <c r="D92" s="21">
+        <v>40.830073774532245</v>
+      </c>
+      <c r="E92" s="22">
+        <v>39.146763611247344</v>
+      </c>
+      <c r="F92" s="22">
+        <v>141.99421615811701</v>
+      </c>
+      <c r="G92" s="22">
+        <v>148.09996501542378</v>
+      </c>
+      <c r="H92" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I92" s="22">
+        <v>1189.5123739966168</v>
+      </c>
+      <c r="J92" s="22">
+        <v>406.83390549846945</v>
+      </c>
+      <c r="K92" s="21">
+        <v>1041.412408981193</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -39543,7 +39891,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH91"/>
+  <dimension ref="A1:AH92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39618,16 +39966,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -44377,15 +44725,62 @@
         <v>1675.0001772236344</v>
       </c>
       <c r="L91" s="26">
-        <v>2.7764076837910292E-2</v>
+        <v>2.3136730698258574E-2</v>
       </c>
       <c r="M91" s="27">
-        <v>6.3015104123053903E-2</v>
+        <v>5.4012597259629064E-2</v>
       </c>
       <c r="N91" s="27">
-        <v>44.05940008238894</v>
+        <v>42.83580474207595</v>
       </c>
       <c r="O91" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="12.75">
+      <c r="A92" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C92" s="21">
+        <v>1.2053021180026375</v>
+      </c>
+      <c r="D92" s="21">
+        <v>38.788570085805631</v>
+      </c>
+      <c r="E92" s="22">
+        <v>37.189425430684977</v>
+      </c>
+      <c r="F92" s="22">
+        <v>174.63151545603489</v>
+      </c>
+      <c r="G92" s="22">
+        <v>182.14066762289576</v>
+      </c>
+      <c r="H92" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I92" s="22">
+        <v>1857.1408448465302</v>
+      </c>
+      <c r="J92" s="22">
+        <v>775.16476668676478</v>
+      </c>
+      <c r="K92" s="21">
+        <v>1675.0001772236344</v>
+      </c>
+      <c r="L92" s="26">
+        <v>1.9280608915215477E-2</v>
+      </c>
+      <c r="M92" s="27">
+        <v>6.2343826440265017E-2</v>
+      </c>
+      <c r="N92" s="27">
+        <v>30.926252070346163</v>
+      </c>
+      <c r="O92" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -44405,7 +44800,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH91"/>
+  <dimension ref="A1:AH92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -44447,13 +44842,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -44480,19 +44875,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -44517,7 +44912,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -49460,19 +49855,69 @@
         <v>996.24639355269744</v>
       </c>
       <c r="L91" s="26">
-        <v>65.122614210687615</v>
+        <v>62.67028127379821</v>
       </c>
       <c r="M91" s="27">
-        <v>53.203229123214221</v>
+        <v>56.358913173408887</v>
       </c>
       <c r="N91" s="27">
-        <v>43.018190691921113</v>
+        <v>47.465098185750371</v>
       </c>
       <c r="O91" s="27">
-        <v>73.573305985800445</v>
+        <v>74.146543148725911</v>
       </c>
       <c r="P91" s="27">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="12.75">
+      <c r="A92" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.2053021180026375</v>
+      </c>
+      <c r="D92" s="21">
+        <v>8.166014754906449</v>
+      </c>
+      <c r="E92" s="22">
+        <v>7.8293527222494683</v>
+      </c>
+      <c r="F92" s="22">
+        <v>109.91471994333025</v>
+      </c>
+      <c r="G92" s="22">
+        <v>114.64105101408224</v>
+      </c>
+      <c r="H92" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I92" s="22">
+        <v>1110.8874445667798</v>
+      </c>
+      <c r="J92" s="22">
+        <v>393.69467460098917</v>
+      </c>
+      <c r="K92" s="21">
+        <v>996.24639355269744</v>
+      </c>
+      <c r="L92" s="26">
+        <v>34.332417500766169</v>
+      </c>
+      <c r="M92" s="27">
+        <v>49.016747949194645</v>
+      </c>
+      <c r="N92" s="27">
+        <v>47.982314773565129</v>
+      </c>
+      <c r="O92" s="27">
+        <v>51.085614300453685</v>
+      </c>
+      <c r="P92" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -49491,7 +49936,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH91"/>
+  <dimension ref="A1:AH92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -49538,19 +49983,19 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -53816,6 +54261,47 @@
         <v>513.27131671137374</v>
       </c>
     </row>
+    <row r="92" spans="1:13" ht="12.75">
+      <c r="A92" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.2053021180026375</v>
+      </c>
+      <c r="D92" s="20">
+        <v>817453</v>
+      </c>
+      <c r="E92" s="20">
+        <v>1906518.5233721782</v>
+      </c>
+      <c r="F92" s="21">
+        <v>17.506604781461718</v>
+      </c>
+      <c r="G92" s="22">
+        <v>16.784856250808122</v>
+      </c>
+      <c r="H92" s="22">
+        <v>48.439892762843968</v>
+      </c>
+      <c r="I92" s="22">
+        <v>50.522807320120393</v>
+      </c>
+      <c r="J92" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K92" s="22">
+        <v>563.79412403149411</v>
+      </c>
+      <c r="L92" s="22">
+        <v>197.36714737913957</v>
+      </c>
+      <c r="M92" s="21">
+        <v>513.27131671137374</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="30">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -181,20 +177,12 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成交量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成交均量</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -883,7 +871,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1150,6 +1138,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1159,7 +1150,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1425,6 +1416,9 @@
                   <c:v>4642.1857138246714</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>4893.7540233362733</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1468,7 +1462,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1735,6 +1729,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1744,7 +1741,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2011,6 +2008,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>6890.7852170020124</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7129.3703550074815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2053,7 +2053,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2320,6 +2320,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2329,7 +2332,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2596,6 +2599,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>1997.031193665739</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2235.6163316712082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2617,11 +2623,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494045824"/>
-        <c:axId val="496530560"/>
+        <c:axId val="558688512"/>
+        <c:axId val="559158016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494045824"/>
+        <c:axId val="558688512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2664,14 +2670,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496530560"/>
+        <c:crossAx val="559158016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496530560"/>
+        <c:axId val="559158016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2720,7 +2726,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494045824"/>
+        <c:crossAx val="558688512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2934,7 +2940,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3201,6 +3207,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3210,7 +3219,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3476,6 +3485,9 @@
                   <c:v>5813.6025560396247</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>6052.5924500756464</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
@@ -3519,7 +3531,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3786,6 +3798,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3795,7 +3810,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4062,6 +4077,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>9056.2283511754194</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9676.533167614165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4104,7 +4122,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4371,6 +4389,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4380,7 +4401,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4647,6 +4668,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>3003.635901099773</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3623.9407175385186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4668,11 +4692,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="696636544"/>
-        <c:axId val="488284544"/>
+        <c:axId val="451411328"/>
+        <c:axId val="468255872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="696636544"/>
+        <c:axId val="451411328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4715,14 +4739,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488284544"/>
+        <c:crossAx val="468255872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="488284544"/>
+        <c:axId val="468255872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4771,7 +4795,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="696636544"/>
+        <c:crossAx val="451411328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4985,7 +5009,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5252,6 +5276,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5261,7 +5288,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5527,6 +5554,9 @@
                   <c:v>4428.2694341334745</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>4478.5830960357953</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
@@ -5570,7 +5600,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5837,6 +5867,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5846,7 +5879,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6113,6 +6146,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>6463.8342642073658</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6649.1194193719884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6155,7 +6191,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6422,6 +6458,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6431,7 +6470,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6698,6 +6737,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>1985.2511681715705</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2170.5363233361932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6719,11 +6761,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="488712448"/>
-        <c:axId val="488718336"/>
+        <c:axId val="468306560"/>
+        <c:axId val="468312448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="488712448"/>
+        <c:axId val="468306560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6766,14 +6808,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488718336"/>
+        <c:crossAx val="468312448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="488718336"/>
+        <c:axId val="468312448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6822,7 +6864,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488712448"/>
+        <c:crossAx val="468306560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7036,7 +7078,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7303,6 +7345,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7312,7 +7357,7 @@
               <c:f>'模型二 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7578,6 +7623,9 @@
                   <c:v>2172.2104771276968</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>2280.0747683969207</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
@@ -7621,7 +7669,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7888,6 +7936,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7897,7 +7948,7 @@
               <c:f>'模型二 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8164,6 +8215,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>3100.9726120303476</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3172.9764385298727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8206,7 +8260,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8473,6 +8527,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8482,7 +8539,7 @@
               <c:f>'模型二 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8749,6 +8806,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>820.89784363342687</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>892.90167013295195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8770,11 +8830,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="488896384"/>
-        <c:axId val="488897920"/>
+        <c:axId val="471763200"/>
+        <c:axId val="471777280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="488896384"/>
+        <c:axId val="471763200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8817,14 +8877,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488897920"/>
+        <c:crossAx val="471777280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="488897920"/>
+        <c:axId val="471777280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8873,7 +8933,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488896384"/>
+        <c:crossAx val="471763200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9087,7 +9147,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9354,6 +9414,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9363,7 +9426,7 @@
               <c:f>'模型二 (2)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9629,6 +9692,9 @@
                   <c:v>741.84839472361512</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -9672,7 +9738,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9939,6 +10005,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9948,7 +10017,7 @@
               <c:f>'模型二 (2)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10215,6 +10284,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>1189.5123739966168</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1225.7208984398555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10257,7 +10329,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10524,6 +10596,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10533,7 +10608,7 @@
               <c:f>'模型二 (2)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10800,6 +10875,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>406.83390549846945</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>443.04242994170818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10821,11 +10899,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="488969728"/>
-        <c:axId val="488971264"/>
+        <c:axId val="471877504"/>
+        <c:axId val="471879040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="488969728"/>
+        <c:axId val="471877504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10868,14 +10946,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488971264"/>
+        <c:crossAx val="471879040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="488971264"/>
+        <c:axId val="471879040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10924,7 +11002,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488969728"/>
+        <c:crossAx val="471877504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11138,7 +11216,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11405,6 +11483,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11414,7 +11495,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11680,6 +11761,9 @@
                   <c:v>1043.1875080739599</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -11723,7 +11807,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11990,6 +12074,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11999,7 +12086,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12266,6 +12353,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>1857.1408448465302</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1901.671880455111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12308,7 +12398,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12575,6 +12665,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12584,7 +12677,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12851,6 +12944,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>775.16476668676478</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>819.69580229534563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12872,11 +12968,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489153664"/>
-        <c:axId val="489155200"/>
+        <c:axId val="472036864"/>
+        <c:axId val="472038400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489153664"/>
+        <c:axId val="472036864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12919,14 +13015,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489155200"/>
+        <c:crossAx val="472038400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489155200"/>
+        <c:axId val="472038400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12975,7 +13071,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489153664"/>
+        <c:crossAx val="472036864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13189,7 +13285,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13456,6 +13552,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13465,7 +13564,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13731,6 +13830,9 @@
                   <c:v>709.02675521088418</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -13774,7 +13876,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14041,6 +14143,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14050,7 +14155,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14317,6 +14422,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>1110.8874445667798</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1138.9156976282147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14359,7 +14467,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14626,6 +14734,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14635,7 +14746,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14902,6 +15013,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>393.69467460098917</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>421.72292766242413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14923,11 +15037,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489247488"/>
-        <c:axId val="489249024"/>
+        <c:axId val="472282240"/>
+        <c:axId val="472283776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489247488"/>
+        <c:axId val="472282240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14970,14 +15084,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489249024"/>
+        <c:crossAx val="472283776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489249024"/>
+        <c:axId val="472283776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15026,7 +15140,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489247488"/>
+        <c:crossAx val="472282240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15240,7 +15354,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15507,6 +15621,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15516,7 +15633,7 @@
               <c:f>'模型二 (2)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15782,6 +15899,9 @@
                   <c:v>348.92037187089284</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -15825,7 +15945,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16092,6 +16212,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16101,7 +16224,7 @@
               <c:f>'模型二 (2)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16368,6 +16491,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>563.79412403149411</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>576.14629645503999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16410,7 +16536,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16677,6 +16803,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16686,7 +16815,7 @@
               <c:f>'模型二 (2)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16953,6 +17082,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>197.36714737913957</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>209.71931980268545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16974,11 +17106,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489415040"/>
-        <c:axId val="489416576"/>
+        <c:axId val="472761088"/>
+        <c:axId val="472762624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489415040"/>
+        <c:axId val="472761088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17021,14 +17153,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489416576"/>
+        <c:crossAx val="472762624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489416576"/>
+        <c:axId val="472762624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17077,7 +17209,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489415040"/>
+        <c:crossAx val="472761088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17797,7 +17929,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF92"/>
+  <dimension ref="A1:AF93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21614,6 +21746,41 @@
         <v>5914.9252189730641</v>
       </c>
     </row>
+    <row r="93" spans="1:11" ht="12.75">
+      <c r="A93" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.2036712629028401</v>
+      </c>
+      <c r="D93" s="21">
+        <v>-146.20950850210846</v>
+      </c>
+      <c r="E93" s="22">
+        <v>-112.64215021021475</v>
+      </c>
+      <c r="F93" s="22">
+        <v>822.98585946386731</v>
+      </c>
+      <c r="G93" s="22">
+        <v>1068.2356275323089</v>
+      </c>
+      <c r="H93" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I93" s="22">
+        <v>7129.3703550074815</v>
+      </c>
+      <c r="J93" s="22">
+        <v>2235.6163316712082</v>
+      </c>
+      <c r="K93" s="21">
+        <v>6061.1347274751724</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -21630,7 +21797,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH92"/>
+  <dimension ref="A1:AH93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21672,7 +21839,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -21705,16 +21872,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -26520,6 +26687,53 @@
         <v>30.926252070346163</v>
       </c>
       <c r="O92" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="12.75">
+      <c r="A93" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.2036712629028401</v>
+      </c>
+      <c r="D93" s="21">
+        <v>-138.89903307700303</v>
+      </c>
+      <c r="E93" s="22">
+        <v>-107.010042699704</v>
+      </c>
+      <c r="F93" s="22">
+        <v>2325.557910391019</v>
+      </c>
+      <c r="G93" s="22">
+        <v>3018.5741166775711</v>
+      </c>
+      <c r="H93" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I93" s="22">
+        <v>9676.533167614165</v>
+      </c>
+      <c r="J93" s="22">
+        <v>3623.9407175385186</v>
+      </c>
+      <c r="K93" s="21">
+        <v>6657.9590509365944</v>
+      </c>
+      <c r="L93" s="26">
+        <v>5.8567173301284303E-2</v>
+      </c>
+      <c r="M93" s="27">
+        <v>9.4453187905492245E-2</v>
+      </c>
+      <c r="N93" s="27">
+        <v>62.006560710142793</v>
+      </c>
+      <c r="O93" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -26539,7 +26753,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH92"/>
+  <dimension ref="A1:AH93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26614,19 +26828,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -26716,7 +26930,7 @@
         <v>0.95</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -31658,6 +31872,56 @@
       </c>
       <c r="P92" s="27">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="12.75">
+      <c r="A93" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.2036712629028401</v>
+      </c>
+      <c r="D93" s="21">
+        <v>-138.89903307700303</v>
+      </c>
+      <c r="E93" s="22">
+        <v>-107.010042699704</v>
+      </c>
+      <c r="F93" s="22">
+        <v>619.59842251347959</v>
+      </c>
+      <c r="G93" s="22">
+        <v>804.23873883190913</v>
+      </c>
+      <c r="H93" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I93" s="22">
+        <v>6649.1194193719884</v>
+      </c>
+      <c r="J93" s="22">
+        <v>2170.5363233361932</v>
+      </c>
+      <c r="K93" s="21">
+        <v>5844.8806805400791</v>
+      </c>
+      <c r="L93" s="26">
+        <v>100</v>
+      </c>
+      <c r="M93" s="27">
+        <v>66.011165299463087</v>
+      </c>
+      <c r="N93" s="27">
+        <v>53.991931615531115</v>
+      </c>
+      <c r="O93" s="27">
+        <v>90.049632667327046</v>
+      </c>
+      <c r="P93" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -31676,7 +31940,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH92"/>
+  <dimension ref="A1:AH93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31732,10 +31996,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -36040,6 +36304,47 @@
       </c>
       <c r="M92" s="21">
         <v>2806.4628425899191</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="12.75">
+      <c r="A93" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.2036712629028401</v>
+      </c>
+      <c r="D93" s="20">
+        <v>3414655</v>
+      </c>
+      <c r="E93" s="20">
+        <v>1892002.6977170091</v>
+      </c>
+      <c r="F93" s="21">
+        <v>-263.87648910685738</v>
+      </c>
+      <c r="G93" s="22">
+        <v>-203.29467917259353</v>
+      </c>
+      <c r="H93" s="22">
+        <v>79.073273164506872</v>
+      </c>
+      <c r="I93" s="22">
+        <v>102.63710683309648</v>
+      </c>
+      <c r="J93" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K93" s="22">
+        <v>3172.9764385298727</v>
+      </c>
+      <c r="L93" s="22">
+        <v>892.90167013295195</v>
+      </c>
+      <c r="M93" s="21">
+        <v>3070.3393316967763</v>
       </c>
     </row>
   </sheetData>
@@ -36058,7 +36363,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF92"/>
+  <dimension ref="A1:AF93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39875,6 +40180,41 @@
         <v>1041.412408981193</v>
       </c>
     </row>
+    <row r="93" spans="1:11" ht="12.75">
+      <c r="A93" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.2036712629028401</v>
+      </c>
+      <c r="D93" s="21">
+        <v>-13.791755081566535</v>
+      </c>
+      <c r="E93" s="22">
+        <v>-10.625389302487855</v>
+      </c>
+      <c r="F93" s="22">
+        <v>131.36882685562915</v>
+      </c>
+      <c r="G93" s="22">
+        <v>170.5167343770959</v>
+      </c>
+      <c r="H93" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I93" s="22">
+        <v>1225.7208984398555</v>
+      </c>
+      <c r="J93" s="22">
+        <v>443.04242994170818</v>
+      </c>
+      <c r="K93" s="21">
+        <v>1055.2041640627597</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -39891,7 +40231,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH92"/>
+  <dimension ref="A1:AH93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39966,16 +40306,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -44781,6 +45121,53 @@
         <v>30.926252070346163</v>
       </c>
       <c r="O92" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="12.75">
+      <c r="A93" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C93" s="21">
+        <v>1.2036712629028401</v>
+      </c>
+      <c r="D93" s="21">
+        <v>-13.102167327488207</v>
+      </c>
+      <c r="E93" s="22">
+        <v>-10.094119837363461</v>
+      </c>
+      <c r="F93" s="22">
+        <v>164.53739561867144</v>
+      </c>
+      <c r="G93" s="22">
+        <v>213.56953590398851</v>
+      </c>
+      <c r="H93" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I93" s="22">
+        <v>1901.671880455111</v>
+      </c>
+      <c r="J93" s="22">
+        <v>819.69580229534563</v>
+      </c>
+      <c r="K93" s="21">
+        <v>1688.1023445511225</v>
+      </c>
+      <c r="L93" s="26">
+        <v>5.8567173301284303E-2</v>
+      </c>
+      <c r="M93" s="27">
+        <v>9.4453187905492245E-2</v>
+      </c>
+      <c r="N93" s="27">
+        <v>62.006560710142793</v>
+      </c>
+      <c r="O93" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -44800,7 +45187,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH92"/>
+  <dimension ref="A1:AH93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -44875,19 +45262,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -49918,6 +50305,56 @@
       </c>
       <c r="P92" s="27">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="12.75">
+      <c r="A93" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.2036712629028401</v>
+      </c>
+      <c r="D93" s="21">
+        <v>-13.102167327488207</v>
+      </c>
+      <c r="E93" s="22">
+        <v>-10.094119837363461</v>
+      </c>
+      <c r="F93" s="22">
+        <v>99.82060010596679</v>
+      </c>
+      <c r="G93" s="22">
+        <v>129.56713674802901</v>
+      </c>
+      <c r="H93" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I93" s="22">
+        <v>1138.9156976282147</v>
+      </c>
+      <c r="J93" s="22">
+        <v>421.72292766242413</v>
+      </c>
+      <c r="K93" s="21">
+        <v>1009.3485608801857</v>
+      </c>
+      <c r="L93" s="26">
+        <v>100</v>
+      </c>
+      <c r="M93" s="27">
+        <v>66.011165299463087</v>
+      </c>
+      <c r="N93" s="27">
+        <v>53.991931615531115</v>
+      </c>
+      <c r="O93" s="27">
+        <v>90.049632667327046</v>
+      </c>
+      <c r="P93" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -49936,7 +50373,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH92"/>
+  <dimension ref="A1:AH93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -49983,7 +50420,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -49992,10 +50429,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -54302,6 +54739,47 @@
         <v>513.27131671137374</v>
       </c>
     </row>
+    <row r="93" spans="1:13" ht="12.75">
+      <c r="A93" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.2036712629028401</v>
+      </c>
+      <c r="D93" s="20">
+        <v>3414655</v>
+      </c>
+      <c r="E93" s="20">
+        <v>1892002.6977170091</v>
+      </c>
+      <c r="F93" s="21">
+        <v>-24.891130179081035</v>
+      </c>
+      <c r="G93" s="22">
+        <v>-19.176525885754021</v>
+      </c>
+      <c r="H93" s="22">
+        <v>29.263366877089947</v>
+      </c>
+      <c r="I93" s="22">
+        <v>37.983849564585157</v>
+      </c>
+      <c r="J93" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K93" s="22">
+        <v>576.14629645503999</v>
+      </c>
+      <c r="L93" s="22">
+        <v>209.71931980268545</v>
+      </c>
+      <c r="M93" s="21">
+        <v>538.16244689045482</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="31">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -143,6 +143,10 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SMA之MAX</t>
@@ -871,7 +875,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1141,6 +1145,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1150,7 +1157,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1419,6 +1426,9 @@
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>4893.7540233362733</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1462,7 +1472,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1732,6 +1742,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1741,7 +1754,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2011,6 +2024,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>7129.3703550074815</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7221.5447618491089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2053,7 +2069,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2323,6 +2339,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2332,7 +2351,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2602,6 +2621,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>2235.6163316712082</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2327.7907385128356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2623,11 +2645,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="558688512"/>
-        <c:axId val="559158016"/>
+        <c:axId val="539826432"/>
+        <c:axId val="539829376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="558688512"/>
+        <c:axId val="539826432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2670,14 +2692,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559158016"/>
+        <c:crossAx val="539829376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="559158016"/>
+        <c:axId val="539829376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2726,7 +2748,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558688512"/>
+        <c:crossAx val="539826432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2940,7 +2962,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3210,6 +3232,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3219,7 +3244,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3488,6 +3513,9 @@
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>6052.5924500756464</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
@@ -3531,7 +3559,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3801,6 +3829,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3810,7 +3841,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4080,6 +4111,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>9676.533167614165</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9936.9956269640625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4122,7 +4156,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4392,6 +4426,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4401,7 +4438,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4671,6 +4708,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>3623.9407175385186</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3884.4031768884161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4692,11 +4732,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451411328"/>
-        <c:axId val="468255872"/>
+        <c:axId val="496160128"/>
+        <c:axId val="496190592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451411328"/>
+        <c:axId val="496160128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4739,14 +4779,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468255872"/>
+        <c:crossAx val="496190592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="468255872"/>
+        <c:axId val="496190592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4795,7 +4835,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451411328"/>
+        <c:crossAx val="496160128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5009,7 +5049,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5279,6 +5319,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5288,7 +5331,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5557,6 +5600,9 @@
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>4478.5830960357953</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
@@ -5600,7 +5646,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5870,6 +5916,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5879,7 +5928,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6149,6 +6198,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>6649.1194193719884</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6718.5144356027567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6191,7 +6243,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6461,6 +6513,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6470,7 +6525,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6740,6 +6795,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>2170.5363233361932</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2239.9313395669615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6761,11 +6819,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="468306560"/>
-        <c:axId val="468312448"/>
+        <c:axId val="496835584"/>
+        <c:axId val="496841472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="468306560"/>
+        <c:axId val="496835584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6808,14 +6866,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468312448"/>
+        <c:crossAx val="496841472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="468312448"/>
+        <c:axId val="496841472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6864,7 +6922,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468306560"/>
+        <c:crossAx val="496835584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7078,7 +7136,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7348,6 +7406,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7357,7 +7418,7 @@
               <c:f>'模型二 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7626,6 +7687,9 @@
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>2280.0747683969207</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
@@ -7669,7 +7733,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7939,6 +8003,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7948,7 +8015,7 @@
               <c:f>'模型二 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8218,6 +8285,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>3172.9764385298727</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3181.8326442193757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8260,7 +8330,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8530,6 +8600,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8539,7 +8612,7 @@
               <c:f>'模型二 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8809,6 +8882,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>892.90167013295195</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>901.75787582245493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8830,11 +8906,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471763200"/>
-        <c:axId val="471777280"/>
+        <c:axId val="507263616"/>
+        <c:axId val="507269504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471763200"/>
+        <c:axId val="507263616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8877,14 +8953,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471777280"/>
+        <c:crossAx val="507269504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471777280"/>
+        <c:axId val="507269504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8933,7 +9009,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471763200"/>
+        <c:crossAx val="507263616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9147,7 +9223,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9417,6 +9493,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9426,7 +9505,7 @@
               <c:f>'模型二 (2)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9695,6 +9774,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -9738,7 +9820,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10008,6 +10090,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10017,7 +10102,7 @@
               <c:f>'模型二 (2)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10287,6 +10372,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>1225.7208984398555</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1240.4342055442892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10329,7 +10417,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10599,6 +10687,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10608,7 +10699,7 @@
               <c:f>'模型二 (2)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10878,6 +10969,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>443.04242994170818</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>457.7557370461418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10899,11 +10993,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471877504"/>
-        <c:axId val="471879040"/>
+        <c:axId val="507291904"/>
+        <c:axId val="507301888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471877504"/>
+        <c:axId val="507291904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10946,14 +11040,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471879040"/>
+        <c:crossAx val="507301888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471879040"/>
+        <c:axId val="507301888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11002,7 +11096,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471877504"/>
+        <c:crossAx val="507291904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11216,7 +11310,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11486,6 +11580,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11495,7 +11592,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11764,6 +11861,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -11807,7 +11907,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12077,6 +12177,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12086,7 +12189,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12356,6 +12459,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>1901.671880455111</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1920.1000668814213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12398,7 +12504,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12668,6 +12774,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12677,7 +12786,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12947,6 +13056,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>819.69580229534563</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>838.12398872165591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12968,11 +13080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472036864"/>
-        <c:axId val="472038400"/>
+        <c:axId val="513009536"/>
+        <c:axId val="513011072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472036864"/>
+        <c:axId val="513009536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13015,14 +13127,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472038400"/>
+        <c:crossAx val="513011072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472038400"/>
+        <c:axId val="513011072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13071,7 +13183,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472036864"/>
+        <c:crossAx val="513009536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13285,7 +13397,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13555,6 +13667,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13564,7 +13679,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13833,6 +13948,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -13876,7 +13994,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14146,6 +14264,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14155,7 +14276,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14425,6 +14546,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>1138.9156976282147</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1150.0956036977268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14467,7 +14591,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14737,6 +14861,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14746,7 +14873,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15016,6 +15143,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>421.72292766242413</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>432.9028337319362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15037,11 +15167,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472282240"/>
-        <c:axId val="472283776"/>
+        <c:axId val="513488384"/>
+        <c:axId val="513489920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472282240"/>
+        <c:axId val="513488384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15084,14 +15214,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472283776"/>
+        <c:crossAx val="513489920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472283776"/>
+        <c:axId val="513489920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15140,7 +15270,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472282240"/>
+        <c:crossAx val="513488384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15354,7 +15484,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15624,6 +15754,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15633,7 +15766,7 @@
               <c:f>'模型二 (2)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15902,6 +16035,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -15945,7 +16081,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16215,6 +16351,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16224,7 +16363,7 @@
               <c:f>'模型二 (2)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16494,6 +16633,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>576.14629645503999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16536,7 +16678,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16806,6 +16948,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16815,7 +16960,7 @@
               <c:f>'模型二 (2)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17085,6 +17230,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>209.71931980268545</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17106,11 +17254,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472761088"/>
-        <c:axId val="472762624"/>
+        <c:axId val="513672320"/>
+        <c:axId val="513673856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472761088"/>
+        <c:axId val="513672320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17153,14 +17301,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472762624"/>
+        <c:crossAx val="513673856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472762624"/>
+        <c:axId val="513673856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17209,7 +17357,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472761088"/>
+        <c:crossAx val="513672320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17317,7 +17465,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17360,7 +17508,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17403,7 +17551,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17446,7 +17594,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17489,7 +17637,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17532,7 +17680,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17575,7 +17723,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17618,7 +17766,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17929,7 +18077,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF93"/>
+  <dimension ref="A1:AF94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21781,6 +21929,41 @@
         <v>6061.1347274751724</v>
       </c>
     </row>
+    <row r="94" spans="1:11" ht="12.75">
+      <c r="A94" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.2054314579260539</v>
+      </c>
+      <c r="D94" s="21">
+        <v>-317.08118847778479</v>
+      </c>
+      <c r="E94" s="22">
+        <v>-224.88028083969786</v>
+      </c>
+      <c r="F94" s="22">
+        <v>598.10557862416942</v>
+      </c>
+      <c r="G94" s="22">
+        <v>843.32884589615139</v>
+      </c>
+      <c r="H94" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I94" s="22">
+        <v>7221.5447618491089</v>
+      </c>
+      <c r="J94" s="22">
+        <v>2327.7907385128356</v>
+      </c>
+      <c r="K94" s="21">
+        <v>6378.2159159529574</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -21797,7 +21980,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH93"/>
+  <dimension ref="A1:AH94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21839,7 +22022,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -21872,16 +22055,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -26735,6 +26918,53 @@
       </c>
       <c r="O93" s="27">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="12.75">
+      <c r="A94" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.2054314579260539</v>
+      </c>
+      <c r="D94" s="21">
+        <v>-63.416237695556958</v>
+      </c>
+      <c r="E94" s="22">
+        <v>-44.976056167939568</v>
+      </c>
+      <c r="F94" s="22">
+        <v>2280.5818542230795</v>
+      </c>
+      <c r="G94" s="22">
+        <v>3215.6203383319103</v>
+      </c>
+      <c r="H94" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I94" s="22">
+        <v>9936.9956269640625</v>
+      </c>
+      <c r="J94" s="22">
+        <v>3884.4031768884161</v>
+      </c>
+      <c r="K94" s="21">
+        <v>6721.3752886321518</v>
+      </c>
+      <c r="L94" s="26">
+        <v>5.8567173301284303E-2</v>
+      </c>
+      <c r="M94" s="27">
+        <v>9.4453187905492245E-2</v>
+      </c>
+      <c r="N94" s="27">
+        <v>62.006560710142793</v>
+      </c>
+      <c r="O94" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -26753,7 +26983,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH93"/>
+  <dimension ref="A1:AH94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26828,19 +27058,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -31921,6 +32151,56 @@
         <v>90.049632667327046</v>
       </c>
       <c r="P93" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="12.75">
+      <c r="A94" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.2054314579260539</v>
+      </c>
+      <c r="D94" s="21">
+        <v>-301.22712905389557</v>
+      </c>
+      <c r="E94" s="22">
+        <v>-213.63626679771298</v>
+      </c>
+      <c r="F94" s="22">
+        <v>405.96215571576658</v>
+      </c>
+      <c r="G94" s="22">
+        <v>572.40662600878204</v>
+      </c>
+      <c r="H94" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I94" s="22">
+        <v>6718.5144356027567</v>
+      </c>
+      <c r="J94" s="22">
+        <v>2239.9313395669615</v>
+      </c>
+      <c r="K94" s="21">
+        <v>6146.1078095939747</v>
+      </c>
+      <c r="L94" s="26">
+        <v>100</v>
+      </c>
+      <c r="M94" s="27">
+        <v>66.011165299463087</v>
+      </c>
+      <c r="N94" s="27">
+        <v>53.991931615531115</v>
+      </c>
+      <c r="O94" s="27">
+        <v>90.049632667327046</v>
+      </c>
+      <c r="P94" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -31939,8 +32219,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH93"/>
+  <sheetPr codeName="Sheet4">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AH94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31996,10 +32278,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -32058,7 +32340,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5">
         <f>MIN(H:H)</f>
-        <v>0</v>
+        <v>-104.04434806394403</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
@@ -36345,6 +36627,47 @@
       </c>
       <c r="M93" s="21">
         <v>3070.3393316967763</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="12.75">
+      <c r="A94" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.2054314579260539</v>
+      </c>
+      <c r="D94" s="20">
+        <v>1541107</v>
+      </c>
+      <c r="E94" s="20">
+        <v>1892579.0573243788</v>
+      </c>
+      <c r="F94" s="21">
+        <v>-258.19583981990576</v>
+      </c>
+      <c r="G94" s="22">
+        <v>-183.1176212284509</v>
+      </c>
+      <c r="H94" s="22">
+        <v>-104.04434806394403</v>
+      </c>
+      <c r="I94" s="22">
+        <v>-146.70252729730629</v>
+      </c>
+      <c r="J94" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K94" s="22">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="L94" s="22">
+        <v>901.75787582245493</v>
+      </c>
+      <c r="M94" s="21">
+        <v>3328.5351715166821</v>
       </c>
     </row>
   </sheetData>
@@ -36363,7 +36686,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF93"/>
+  <dimension ref="A1:AF94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -40215,6 +40538,41 @@
         <v>1055.2041640627597</v>
       </c>
     </row>
+    <row r="94" spans="1:11" ht="12.75">
+      <c r="A94" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.2054314579260539</v>
+      </c>
+      <c r="D94" s="21">
+        <v>-64.864825862248068</v>
+      </c>
+      <c r="E94" s="22">
+        <v>-46.00342368636737</v>
+      </c>
+      <c r="F94" s="22">
+        <v>85.365403169261782</v>
+      </c>
+      <c r="G94" s="22">
+        <v>120.36521561928137</v>
+      </c>
+      <c r="H94" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I94" s="22">
+        <v>1240.4342055442892</v>
+      </c>
+      <c r="J94" s="22">
+        <v>457.7557370461418</v>
+      </c>
+      <c r="K94" s="21">
+        <v>1120.0689899250078</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -40231,7 +40589,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH93"/>
+  <dimension ref="A1:AH94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -40306,16 +40664,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -45169,6 +45527,53 @@
       </c>
       <c r="O93" s="27">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="12.75">
+      <c r="A94" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C94" s="21">
+        <v>1.2054314579260539</v>
+      </c>
+      <c r="D94" s="21">
+        <v>-12.972965172449614</v>
+      </c>
+      <c r="E94" s="22">
+        <v>-9.200684737273475</v>
+      </c>
+      <c r="F94" s="22">
+        <v>155.33671088139798</v>
+      </c>
+      <c r="G94" s="22">
+        <v>219.02475715784905</v>
+      </c>
+      <c r="H94" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I94" s="22">
+        <v>1920.1000668814213</v>
+      </c>
+      <c r="J94" s="22">
+        <v>838.12398872165591</v>
+      </c>
+      <c r="K94" s="21">
+        <v>1701.0753097235722</v>
+      </c>
+      <c r="L94" s="26">
+        <v>5.8567173301284303E-2</v>
+      </c>
+      <c r="M94" s="27">
+        <v>9.4453187905492245E-2</v>
+      </c>
+      <c r="N94" s="27">
+        <v>62.006560710142793</v>
+      </c>
+      <c r="O94" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -45187,7 +45592,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH93"/>
+  <dimension ref="A1:AH94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -45229,7 +45634,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -45262,19 +45667,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -50354,6 +50759,56 @@
         <v>90.049632667327046</v>
       </c>
       <c r="P93" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="12.75">
+      <c r="A94" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.2054314579260539</v>
+      </c>
+      <c r="D94" s="21">
+        <v>-61.621584569135663</v>
+      </c>
+      <c r="E94" s="22">
+        <v>-43.703252502049004</v>
+      </c>
+      <c r="F94" s="22">
+        <v>56.117347603917786</v>
+      </c>
+      <c r="G94" s="22">
+        <v>79.125458248405522</v>
+      </c>
+      <c r="H94" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I94" s="22">
+        <v>1150.0956036977268</v>
+      </c>
+      <c r="J94" s="22">
+        <v>432.9028337319362</v>
+      </c>
+      <c r="K94" s="21">
+        <v>1070.9701454493213</v>
+      </c>
+      <c r="L94" s="26">
+        <v>100</v>
+      </c>
+      <c r="M94" s="27">
+        <v>66.011165299463087</v>
+      </c>
+      <c r="N94" s="27">
+        <v>53.991931615531115</v>
+      </c>
+      <c r="O94" s="27">
+        <v>90.049632667327046</v>
+      </c>
+      <c r="P94" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -50372,8 +50827,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH93"/>
+  <sheetPr codeName="Sheet8">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AH94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -50429,10 +50886,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -50491,7 +50948,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5">
         <f>MIN(H:H)</f>
-        <v>0</v>
+        <v>-8.1967318134533151</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
@@ -54778,6 +55235,47 @@
       </c>
       <c r="M93" s="21">
         <v>538.16244689045482</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="12.75">
+      <c r="A94" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.2054314579260539</v>
+      </c>
+      <c r="D94" s="20">
+        <v>1541107</v>
+      </c>
+      <c r="E94" s="20">
+        <v>1892579.0573243788</v>
+      </c>
+      <c r="F94" s="21">
+        <v>-52.81873790330031</v>
+      </c>
+      <c r="G94" s="22">
+        <v>-37.460098690543262</v>
+      </c>
+      <c r="H94" s="22">
+        <v>-8.1967318134533151</v>
+      </c>
+      <c r="I94" s="22">
+        <v>-11.557391583373732</v>
+      </c>
+      <c r="J94" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K94" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L94" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M94" s="21">
+        <v>590.98118479375512</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="33">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -179,6 +179,14 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -875,7 +883,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1148,6 +1156,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1157,7 +1168,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1429,6 +1440,9 @@
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>4893.7540233362733</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1472,7 +1486,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1745,6 +1759,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1754,7 +1771,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2027,6 +2044,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>7221.5447618491089</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7244.8708999497767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2069,7 +2089,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2342,6 +2362,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2351,7 +2374,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2624,6 +2647,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2327.7907385128356</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2351.1168766135033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2645,11 +2671,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="539826432"/>
-        <c:axId val="539829376"/>
+        <c:axId val="557975424"/>
+        <c:axId val="557976960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="539826432"/>
+        <c:axId val="557975424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2692,14 +2718,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539829376"/>
+        <c:crossAx val="557976960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="539829376"/>
+        <c:axId val="557976960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2748,7 +2774,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539826432"/>
+        <c:crossAx val="557975424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2962,7 +2988,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3235,6 +3261,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3244,7 +3273,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3516,6 +3545,9 @@
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>6052.5924500756464</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
@@ -3559,7 +3591,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3832,6 +3864,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3841,7 +3876,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4114,6 +4149,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>9936.9956269640625</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>10025.938397576327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4156,7 +4194,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4429,6 +4467,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4438,7 +4479,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4711,6 +4752,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>3884.4031768884161</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3973.3459475006803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4732,11 +4776,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496160128"/>
-        <c:axId val="496190592"/>
+        <c:axId val="538069632"/>
+        <c:axId val="538083712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496160128"/>
+        <c:axId val="538069632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4779,14 +4823,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496190592"/>
+        <c:crossAx val="538083712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496190592"/>
+        <c:axId val="538083712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4835,7 +4879,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496160128"/>
+        <c:crossAx val="538069632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5049,7 +5093,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5322,6 +5366,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5331,7 +5378,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5603,6 +5650,9 @@
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>4478.5830960357953</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
@@ -5646,7 +5696,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5919,6 +5969,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5928,7 +5981,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6201,6 +6254,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>6718.5144356027567</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6734.3469736132765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6243,7 +6299,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6516,6 +6572,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6525,7 +6584,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6798,6 +6857,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2239.9313395669615</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2255.7638775774813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6819,11 +6881,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496835584"/>
-        <c:axId val="496841472"/>
+        <c:axId val="538199936"/>
+        <c:axId val="538201472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496835584"/>
+        <c:axId val="538199936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6866,14 +6928,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496841472"/>
+        <c:crossAx val="538201472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496841472"/>
+        <c:axId val="538201472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6922,7 +6984,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496835584"/>
+        <c:crossAx val="538199936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7136,7 +7198,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7409,6 +7471,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7418,7 +7483,7 @@
               <c:f>'模型二 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7690,6 +7755,9 @@
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>2280.0747683969207</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
@@ -7733,7 +7801,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8006,6 +8074,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8015,7 +8086,7 @@
               <c:f>'模型二 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8287,6 +8358,9 @@
                   <c:v>3172.9764385298727</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>3181.8326442193757</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
               </c:numCache>
@@ -8330,7 +8404,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8603,6 +8677,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8612,7 +8689,7 @@
               <c:f>'模型二 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8884,6 +8961,9 @@
                   <c:v>892.90167013295195</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>901.75787582245493</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
               </c:numCache>
@@ -8906,11 +8986,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507263616"/>
-        <c:axId val="507269504"/>
+        <c:axId val="540968448"/>
+        <c:axId val="540969984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507263616"/>
+        <c:axId val="540968448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8953,14 +9033,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507269504"/>
+        <c:crossAx val="540969984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507269504"/>
+        <c:axId val="540969984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9009,7 +9089,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507263616"/>
+        <c:crossAx val="540968448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9223,7 +9303,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9496,6 +9576,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9505,7 +9588,7 @@
               <c:f>'模型二 (2)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9777,6 +9860,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -9820,7 +9906,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10093,6 +10179,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10102,7 +10191,7 @@
               <c:f>'模型二 (2)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10375,6 +10464,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>1240.4342055442892</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1243.7634591986789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10417,7 +10509,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10690,6 +10782,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10699,7 +10794,7 @@
               <c:f>'模型二 (2)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10972,6 +11067,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>457.7557370461418</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>461.08499070053153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10993,11 +11091,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507291904"/>
-        <c:axId val="507301888"/>
+        <c:axId val="541009024"/>
+        <c:axId val="541010560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507291904"/>
+        <c:axId val="541009024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11040,14 +11138,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507301888"/>
+        <c:crossAx val="541010560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507301888"/>
+        <c:axId val="541010560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11096,7 +11194,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507291904"/>
+        <c:crossAx val="541009024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11310,7 +11408,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11583,6 +11681,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11592,7 +11693,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11864,6 +11965,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -11907,7 +12011,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12180,6 +12284,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12189,7 +12296,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12462,6 +12569,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>1920.1000668814213</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1926.1582039388586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12504,7 +12614,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12777,6 +12887,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12786,7 +12899,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13059,6 +13172,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>838.12398872165591</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>844.18212577909321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13080,11 +13196,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="513009536"/>
-        <c:axId val="513011072"/>
+        <c:axId val="541217536"/>
+        <c:axId val="541219072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="513009536"/>
+        <c:axId val="541217536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13127,14 +13243,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513011072"/>
+        <c:crossAx val="541219072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="513011072"/>
+        <c:axId val="541219072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13183,7 +13299,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513009536"/>
+        <c:crossAx val="541217536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13397,7 +13513,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13670,6 +13786,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13679,7 +13798,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13951,6 +14070,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -13994,7 +14116,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14267,6 +14389,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14276,7 +14401,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14549,6 +14674,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>1150.0956036977268</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14591,7 +14719,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14864,6 +14992,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14873,7 +15004,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15146,6 +15277,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>432.9028337319362</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15167,11 +15301,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="513488384"/>
-        <c:axId val="513489920"/>
+        <c:axId val="541356416"/>
+        <c:axId val="541357952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="513488384"/>
+        <c:axId val="541356416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15214,14 +15348,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513489920"/>
+        <c:crossAx val="541357952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="513489920"/>
+        <c:axId val="541357952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15270,7 +15404,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513488384"/>
+        <c:crossAx val="541356416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15484,7 +15618,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15757,6 +15891,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15766,7 +15903,7 @@
               <c:f>'模型二 (2)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16038,6 +16175,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -16081,7 +16221,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16354,6 +16494,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16363,7 +16506,7 @@
               <c:f>'模型二 (2)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16635,6 +16778,9 @@
                   <c:v>576.14629645503999</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -16678,7 +16824,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16951,6 +17097,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16960,7 +17109,7 @@
               <c:f>'模型二 (2)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17232,6 +17381,9 @@
                   <c:v>209.71931980268545</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -17254,11 +17406,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="513672320"/>
-        <c:axId val="513673856"/>
+        <c:axId val="544727040"/>
+        <c:axId val="544728576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="513672320"/>
+        <c:axId val="544727040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17301,14 +17453,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513673856"/>
+        <c:crossAx val="544728576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="513673856"/>
+        <c:axId val="544728576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17357,7 +17509,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513672320"/>
+        <c:crossAx val="544727040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18077,7 +18229,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF94"/>
+  <dimension ref="A1:AF95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21964,6 +22116,41 @@
         <v>6378.2159159529574</v>
       </c>
     </row>
+    <row r="95" spans="1:11" ht="12.75">
+      <c r="A95" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.2082143624614177</v>
+      </c>
+      <c r="D95" s="21">
+        <v>-373.21773966299781</v>
+      </c>
+      <c r="E95" s="22">
+        <v>-257.56917834186385</v>
+      </c>
+      <c r="F95" s="22">
+        <v>340.53640028230558</v>
+      </c>
+      <c r="G95" s="22">
+        <v>493.43724433382158</v>
+      </c>
+      <c r="H95" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I95" s="22">
+        <v>7244.8708999497767</v>
+      </c>
+      <c r="J95" s="22">
+        <v>2351.1168766135033</v>
+      </c>
+      <c r="K95" s="21">
+        <v>6751.4336556159551</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -21980,7 +22167,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH94"/>
+  <dimension ref="A1:AH95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26955,15 +27142,62 @@
         <v>6721.3752886321518</v>
       </c>
       <c r="L94" s="26">
-        <v>5.8567173301284303E-2</v>
+        <v>6.7472642510388287E-2</v>
       </c>
       <c r="M94" s="27">
-        <v>9.4453187905492245E-2</v>
+        <v>9.7377654680561573E-2</v>
       </c>
       <c r="N94" s="27">
-        <v>62.006560710142793</v>
+        <v>69.289656576476474</v>
       </c>
       <c r="O94" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="12.75">
+      <c r="A95" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.2082143624614177</v>
+      </c>
+      <c r="D95" s="21">
+        <v>-74.64354793259956</v>
+      </c>
+      <c r="E95" s="22">
+        <v>-51.513835668372764</v>
+      </c>
+      <c r="F95" s="22">
+        <v>2229.0680185547067</v>
+      </c>
+      <c r="G95" s="22">
+        <v>3229.9195610115748</v>
+      </c>
+      <c r="H95" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I95" s="22">
+        <v>10025.938397576327</v>
+      </c>
+      <c r="J95" s="22">
+        <v>3973.3459475006803</v>
+      </c>
+      <c r="K95" s="21">
+        <v>6796.0188365647509</v>
+      </c>
+      <c r="L95" s="26">
+        <v>6.2727207814036137E-2</v>
+      </c>
+      <c r="M95" s="27">
+        <v>8.7648051289180559E-2</v>
+      </c>
+      <c r="N95" s="27">
+        <v>71.567144838255288</v>
+      </c>
+      <c r="O95" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -26983,7 +27217,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH94"/>
+  <dimension ref="A1:AH95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -32189,18 +32423,68 @@
         <v>6146.1078095939747</v>
       </c>
       <c r="L94" s="26">
-        <v>100</v>
+        <v>79.644581076132468</v>
       </c>
       <c r="M94" s="27">
-        <v>66.011165299463087</v>
+        <v>70.555637225019552</v>
       </c>
       <c r="N94" s="27">
-        <v>53.991931615531115</v>
+        <v>59.513166818693925</v>
       </c>
       <c r="O94" s="27">
-        <v>90.049632667327046</v>
+        <v>92.640578037670807</v>
       </c>
       <c r="P94" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="12.75">
+      <c r="A95" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.2082143624614177</v>
+      </c>
+      <c r="D95" s="21">
+        <v>-354.55685267984791</v>
+      </c>
+      <c r="E95" s="22">
+        <v>-244.69071942477063</v>
+      </c>
+      <c r="F95" s="22">
+        <v>161.27143629099595</v>
+      </c>
+      <c r="G95" s="22">
+        <v>233.68231133945355</v>
+      </c>
+      <c r="H95" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I95" s="22">
+        <v>6734.3469736132765</v>
+      </c>
+      <c r="J95" s="22">
+        <v>2255.7638775774813</v>
+      </c>
+      <c r="K95" s="21">
+        <v>6500.6646622738226</v>
+      </c>
+      <c r="L95" s="26">
+        <v>79.964533123378445</v>
+      </c>
+      <c r="M95" s="27">
+        <v>73.691935857805845</v>
+      </c>
+      <c r="N95" s="27">
+        <v>64.239423165064565</v>
+      </c>
+      <c r="O95" s="27">
+        <v>92.596961243288405</v>
+      </c>
+      <c r="P95" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -32222,7 +32506,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH94"/>
+  <dimension ref="A1:AH95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -32269,7 +32553,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -32278,10 +32562,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -32340,7 +32624,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5">
         <f>MIN(H:H)</f>
-        <v>-104.04434806394403</v>
+        <v>0</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
@@ -36646,16 +36930,16 @@
         <v>1892579.0573243788</v>
       </c>
       <c r="F94" s="21">
-        <v>-258.19583981990576</v>
+        <v>-111.49331252259945</v>
       </c>
       <c r="G94" s="22">
-        <v>-183.1176212284509</v>
+        <v>-79.073273164506872</v>
       </c>
       <c r="H94" s="22">
-        <v>-104.04434806394403</v>
+        <v>0</v>
       </c>
       <c r="I94" s="22">
-        <v>-146.70252729730629</v>
+        <v>0</v>
       </c>
       <c r="J94" s="22">
         <v>2280.0747683969207</v>
@@ -36667,7 +36951,48 @@
         <v>901.75787582245493</v>
       </c>
       <c r="M94" s="21">
-        <v>3328.5351715166821</v>
+        <v>3181.8326442193757</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="12.75">
+      <c r="A95" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.2082143624614177</v>
+      </c>
+      <c r="D95" s="20">
+        <v>675343</v>
+      </c>
+      <c r="E95" s="20">
+        <v>1886019.7527461865</v>
+      </c>
+      <c r="F95" s="21">
+        <v>0</v>
+      </c>
+      <c r="G95" s="22">
+        <v>0</v>
+      </c>
+      <c r="H95" s="22">
+        <v>0</v>
+      </c>
+      <c r="I95" s="22">
+        <v>0</v>
+      </c>
+      <c r="J95" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K95" s="22">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="L95" s="22">
+        <v>901.75787582245493</v>
+      </c>
+      <c r="M95" s="21">
+        <v>3181.8326442193757</v>
       </c>
     </row>
   </sheetData>
@@ -36686,7 +37011,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF94"/>
+  <dimension ref="A1:AF95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -40573,6 +40898,41 @@
         <v>1120.0689899250078</v>
       </c>
     </row>
+    <row r="95" spans="1:11" ht="12.75">
+      <c r="A95" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.2082143624614177</v>
+      </c>
+      <c r="D95" s="21">
+        <v>-89.865471741391744</v>
+      </c>
+      <c r="E95" s="22">
+        <v>-62.018959062971604</v>
+      </c>
+      <c r="F95" s="22">
+        <v>23.346444106290178</v>
+      </c>
+      <c r="G95" s="22">
+        <v>33.828997532279374</v>
+      </c>
+      <c r="H95" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I95" s="22">
+        <v>1243.7634591986789</v>
+      </c>
+      <c r="J95" s="22">
+        <v>461.08499070053153</v>
+      </c>
+      <c r="K95" s="21">
+        <v>1209.9344616663996</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -40589,7 +40949,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH94"/>
+  <dimension ref="A1:AH95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -45564,15 +45924,62 @@
         <v>1701.0753097235722</v>
       </c>
       <c r="L94" s="26">
-        <v>5.8567173301284303E-2</v>
+        <v>6.7472642510388287E-2</v>
       </c>
       <c r="M94" s="27">
-        <v>9.4453187905492245E-2</v>
+        <v>9.7377654680561573E-2</v>
       </c>
       <c r="N94" s="27">
-        <v>62.006560710142793</v>
+        <v>69.289656576476474</v>
       </c>
       <c r="O94" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="12.75">
+      <c r="A95" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C95" s="21">
+        <v>1.2082143624614177</v>
+      </c>
+      <c r="D95" s="21">
+        <v>-17.973094348278348</v>
+      </c>
+      <c r="E95" s="22">
+        <v>-12.403791812594321</v>
+      </c>
+      <c r="F95" s="22">
+        <v>142.93291906880364</v>
+      </c>
+      <c r="G95" s="22">
+        <v>207.10979986700792</v>
+      </c>
+      <c r="H95" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I95" s="22">
+        <v>1926.1582039388586</v>
+      </c>
+      <c r="J95" s="22">
+        <v>844.18212577909321</v>
+      </c>
+      <c r="K95" s="21">
+        <v>1719.0484040718507</v>
+      </c>
+      <c r="L95" s="26">
+        <v>6.2727207814036137E-2</v>
+      </c>
+      <c r="M95" s="27">
+        <v>8.7648051289180559E-2</v>
+      </c>
+      <c r="N95" s="27">
+        <v>71.567144838255288</v>
+      </c>
+      <c r="O95" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -45591,8 +45998,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH94"/>
+  <sheetPr codeName="Sheet7">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AH95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -45634,7 +46043,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -45709,7 +46118,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-2.8006635059052343</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -45769,7 +46178,7 @@
         <v>0.95</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -50797,18 +51206,68 @@
         <v>1070.9701454493213</v>
       </c>
       <c r="L94" s="26">
-        <v>100</v>
+        <v>79.644581076132468</v>
       </c>
       <c r="M94" s="27">
-        <v>66.011165299463087</v>
+        <v>70.555637225019552</v>
       </c>
       <c r="N94" s="27">
-        <v>53.991931615531115</v>
+        <v>59.513166818693925</v>
       </c>
       <c r="O94" s="27">
-        <v>90.049632667327046</v>
+        <v>92.640578037670807</v>
       </c>
       <c r="P94" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="12.75">
+      <c r="A95" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.2082143624614177</v>
+      </c>
+      <c r="D95" s="21">
+        <v>-85.372198154322149</v>
+      </c>
+      <c r="E95" s="22">
+        <v>-58.91801110982302</v>
+      </c>
+      <c r="F95" s="22">
+        <v>-2.8006635059052343</v>
+      </c>
+      <c r="G95" s="22">
+        <v>-4.058161422727605</v>
+      </c>
+      <c r="H95" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I95" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J95" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K95" s="21">
+        <v>1156.3423436036435</v>
+      </c>
+      <c r="L95" s="26">
+        <v>79.964533123378445</v>
+      </c>
+      <c r="M95" s="27">
+        <v>73.691935857805845</v>
+      </c>
+      <c r="N95" s="27">
+        <v>64.239423165064565</v>
+      </c>
+      <c r="O95" s="27">
+        <v>92.596961243288405</v>
+      </c>
+      <c r="P95" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -50830,7 +51289,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH94"/>
+  <dimension ref="A1:AH95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -50886,10 +51345,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -50948,7 +51407,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5">
         <f>MIN(H:H)</f>
-        <v>-8.1967318134533151</v>
+        <v>0</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
@@ -55254,16 +55713,16 @@
         <v>1892579.0573243788</v>
       </c>
       <c r="F94" s="21">
-        <v>-52.81873790330031</v>
+        <v>-41.261346319926574</v>
       </c>
       <c r="G94" s="22">
-        <v>-37.460098690543262</v>
+        <v>-29.263366877089947</v>
       </c>
       <c r="H94" s="22">
-        <v>-8.1967318134533151</v>
+        <v>0</v>
       </c>
       <c r="I94" s="22">
-        <v>-11.557391583373732</v>
+        <v>0</v>
       </c>
       <c r="J94" s="22">
         <v>366.42697665235454</v>
@@ -55275,7 +55734,48 @@
         <v>212.99681655802686</v>
       </c>
       <c r="M94" s="21">
-        <v>590.98118479375512</v>
+        <v>579.4237932103814</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="12.75">
+      <c r="A95" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.2082143624614177</v>
+      </c>
+      <c r="D95" s="20">
+        <v>675343</v>
+      </c>
+      <c r="E95" s="20">
+        <v>1886019.7527461865</v>
+      </c>
+      <c r="F95" s="21">
+        <v>0</v>
+      </c>
+      <c r="G95" s="22">
+        <v>0</v>
+      </c>
+      <c r="H95" s="22">
+        <v>0</v>
+      </c>
+      <c r="I95" s="22">
+        <v>0</v>
+      </c>
+      <c r="J95" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K95" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L95" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M95" s="21">
+        <v>579.4237932103814</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="31">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -183,10 +179,6 @@
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -883,7 +875,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1159,6 +1151,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1168,7 +1163,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1443,6 +1438,9 @@
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>4893.7540233362733</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1486,7 +1484,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1762,6 +1760,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1771,7 +1772,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2047,6 +2048,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>7244.8708999497767</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7246.9141326409463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2089,7 +2093,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2365,6 +2369,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2374,7 +2381,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2650,6 +2657,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>2351.1168766135033</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2353.1601093046729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2671,11 +2681,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="557975424"/>
-        <c:axId val="557976960"/>
+        <c:axId val="462731520"/>
+        <c:axId val="463814656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="557975424"/>
+        <c:axId val="462731520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2718,14 +2728,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557976960"/>
+        <c:crossAx val="463814656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="557976960"/>
+        <c:axId val="463814656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2774,7 +2784,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557975424"/>
+        <c:crossAx val="462731520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2988,7 +2998,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3264,6 +3274,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3273,7 +3286,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3548,6 +3561,9 @@
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>6052.5924500756464</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
@@ -3591,7 +3607,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3867,6 +3883,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3876,7 +3895,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4152,6 +4171,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>10025.938397576327</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>10039.31289922307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4194,7 +4216,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4470,6 +4492,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4479,7 +4504,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4755,6 +4780,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>3973.3459475006803</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3986.720449147424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4776,11 +4804,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="538069632"/>
-        <c:axId val="538083712"/>
+        <c:axId val="523784960"/>
+        <c:axId val="523799936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="538069632"/>
+        <c:axId val="523784960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4823,14 +4851,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538083712"/>
+        <c:crossAx val="523799936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="538083712"/>
+        <c:axId val="523799936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4879,7 +4907,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538069632"/>
+        <c:crossAx val="523784960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5093,7 +5121,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5369,6 +5397,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5378,7 +5409,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5653,6 +5684,9 @@
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>4478.5830960357953</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
@@ -5696,7 +5730,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5972,6 +6006,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5981,7 +6018,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6257,6 +6294,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>6734.3469736132765</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6735.3146089982411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6299,7 +6339,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6575,6 +6615,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6584,7 +6627,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6860,6 +6903,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>2255.7638775774813</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2256.7315129624458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6881,11 +6927,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="538199936"/>
-        <c:axId val="538201472"/>
+        <c:axId val="460948992"/>
+        <c:axId val="460950528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="538199936"/>
+        <c:axId val="460948992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6928,14 +6974,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538201472"/>
+        <c:crossAx val="460950528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="538201472"/>
+        <c:axId val="460950528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6984,7 +7030,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538199936"/>
+        <c:crossAx val="460948992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7198,7 +7244,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7474,6 +7520,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7483,7 +7532,7 @@
               <c:f>'模型二 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7758,6 +7807,9 @@
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>2280.0747683969207</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
@@ -7801,7 +7853,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8077,6 +8129,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8086,7 +8141,7 @@
               <c:f>'模型二 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8361,6 +8416,9 @@
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>3181.8326442193757</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
               </c:numCache>
@@ -8404,7 +8462,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8680,6 +8738,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8689,7 +8750,7 @@
               <c:f>'模型二 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8964,6 +9025,9 @@
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>901.75787582245493</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
               </c:numCache>
@@ -8986,11 +9050,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="540968448"/>
-        <c:axId val="540969984"/>
+        <c:axId val="461329536"/>
+        <c:axId val="461331072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="540968448"/>
+        <c:axId val="461329536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9033,14 +9097,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540969984"/>
+        <c:crossAx val="461331072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="540969984"/>
+        <c:axId val="461331072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9089,7 +9153,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540968448"/>
+        <c:crossAx val="461329536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9303,7 +9367,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9579,6 +9643,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9588,7 +9655,7 @@
               <c:f>'模型二 (2)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9863,6 +9930,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -9906,7 +9976,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10182,6 +10252,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10191,7 +10264,7 @@
               <c:f>'模型二 (2)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10467,6 +10540,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>1243.7634591986789</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1243.9035388429725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10509,7 +10585,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10785,6 +10861,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10794,7 +10873,7 @@
               <c:f>'模型二 (2)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11070,6 +11149,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>461.08499070053153</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>461.2250703448251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11091,11 +11173,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="541009024"/>
-        <c:axId val="541010560"/>
+        <c:axId val="461456128"/>
+        <c:axId val="461457664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="541009024"/>
+        <c:axId val="461456128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11138,14 +11220,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541010560"/>
+        <c:crossAx val="461457664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="541010560"/>
+        <c:axId val="461457664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11194,7 +11276,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541009024"/>
+        <c:crossAx val="461456128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11408,7 +11490,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11684,6 +11766,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11693,7 +11778,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11968,6 +12053,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -12011,7 +12099,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12287,6 +12375,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12296,7 +12387,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12572,6 +12663,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>1926.1582039388586</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1927.0158074509754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12614,7 +12708,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12890,6 +12984,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12899,7 +12996,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13175,6 +13272,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>844.18212577909321</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>845.03972929121005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13196,11 +13296,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="541217536"/>
-        <c:axId val="541219072"/>
+        <c:axId val="461619584"/>
+        <c:axId val="461621120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="541217536"/>
+        <c:axId val="461619584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13243,14 +13343,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541219072"/>
+        <c:crossAx val="461621120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="541219072"/>
+        <c:axId val="461621120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13299,7 +13399,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541217536"/>
+        <c:crossAx val="461619584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13513,7 +13613,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13789,6 +13889,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13798,7 +13901,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14073,6 +14176,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -14116,7 +14222,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14392,6 +14498,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14401,7 +14510,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14676,6 +14785,9 @@
                   <c:v>1150.0956036977268</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -14719,7 +14831,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14995,6 +15107,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15004,7 +15119,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15279,6 +15394,9 @@
                   <c:v>432.9028337319362</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -15301,11 +15419,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="541356416"/>
-        <c:axId val="541357952"/>
+        <c:axId val="462696448"/>
+        <c:axId val="462697984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="541356416"/>
+        <c:axId val="462696448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15348,14 +15466,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541357952"/>
+        <c:crossAx val="462697984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="541357952"/>
+        <c:axId val="462697984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15404,7 +15522,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541356416"/>
+        <c:crossAx val="462696448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15618,7 +15736,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15894,6 +16012,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15903,7 +16024,7 @@
               <c:f>'模型二 (2)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16178,6 +16299,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -16221,7 +16345,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16497,6 +16621,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16506,7 +16633,7 @@
               <c:f>'模型二 (2)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16781,6 +16908,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -16824,7 +16954,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17100,6 +17230,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17109,7 +17242,7 @@
               <c:f>'模型二 (2)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17384,6 +17517,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -17406,11 +17542,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="544727040"/>
-        <c:axId val="544728576"/>
+        <c:axId val="463043968"/>
+        <c:axId val="463058048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="544727040"/>
+        <c:axId val="463043968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17453,14 +17589,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544728576"/>
+        <c:crossAx val="463058048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="544728576"/>
+        <c:axId val="463058048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17509,7 +17645,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544727040"/>
+        <c:crossAx val="463043968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17617,7 +17753,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17660,7 +17796,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17703,7 +17839,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17746,7 +17882,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17789,7 +17925,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17832,7 +17968,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17875,7 +18011,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17918,7 +18054,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18229,7 +18365,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF95"/>
+  <dimension ref="A1:AF96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19050,6 +19186,30 @@
         <v>33.814368556700828</v>
       </c>
       <c r="L12" s="7"/>
+      <c r="O12" s="29">
+        <v>45657</v>
+      </c>
+      <c r="P12" s="10">
+        <v>931.07362136882602</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="R12" s="5">
+        <v>7246.9141326409463</v>
+      </c>
+      <c r="S12" s="5">
+        <v>2353.1601093046729</v>
+      </c>
+      <c r="T12" s="5">
+        <v>7129.0390324428317</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0.48084969086787627</v>
+      </c>
+      <c r="V12" s="9">
+        <v>8.0590612386088223E-2</v>
+      </c>
       <c r="X12" s="6">
         <v>43830</v>
       </c>
@@ -19459,6 +19619,16 @@
         <v>125.42807429540611</v>
       </c>
       <c r="L19" s="7"/>
+      <c r="X19" s="6">
+        <v>43098</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>61.537214285714597</v>
+      </c>
+      <c r="Z19" s="1">
+        <f t="shared" ref="Z19:Z26" si="8">-Y19</f>
+        <v>-61.537214285714597</v>
+      </c>
     </row>
     <row r="20" spans="1:32" ht="14.1" customHeight="1">
       <c r="A20" s="15">
@@ -19495,6 +19665,16 @@
         <v>125.42807429540611</v>
       </c>
       <c r="L20" s="7"/>
+      <c r="X20" s="6">
+        <v>43462</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>2266.0631463936584</v>
+      </c>
+      <c r="Z20" s="1">
+        <f t="shared" si="8"/>
+        <v>-2266.0631463936584</v>
+      </c>
     </row>
     <row r="21" spans="1:32" ht="14.1" customHeight="1">
       <c r="A21" s="15">
@@ -19531,6 +19711,16 @@
         <v>125.42807429540611</v>
       </c>
       <c r="L21" s="8"/>
+      <c r="X21" s="6">
+        <v>43830</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>520.16324835056685</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="8"/>
+        <v>-520.16324835056685</v>
+      </c>
     </row>
     <row r="22" spans="1:32" ht="14.1" customHeight="1">
       <c r="A22" s="15">
@@ -19567,6 +19757,16 @@
         <v>125.42807429540611</v>
       </c>
       <c r="L22" s="7"/>
+      <c r="X22" s="6">
+        <v>44196</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:32" ht="14.1" customHeight="1">
       <c r="A23" s="15">
@@ -19604,6 +19804,16 @@
       </c>
       <c r="L23" s="7"/>
       <c r="O23" s="3"/>
+      <c r="X23" s="29">
+        <v>44561</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:32" ht="14.1" customHeight="1">
       <c r="A24" s="15">
@@ -19640,6 +19850,16 @@
         <v>125.42807429540611</v>
       </c>
       <c r="L24" s="7"/>
+      <c r="X24" s="29">
+        <v>44925</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>1040.0411987381858</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" si="8"/>
+        <v>-1040.0411987381858</v>
+      </c>
     </row>
     <row r="25" spans="1:32" ht="14.1" customHeight="1">
       <c r="A25" s="15">
@@ -19676,6 +19896,16 @@
         <v>125.42807429540611</v>
       </c>
       <c r="L25" s="7"/>
+      <c r="X25" s="29">
+        <v>45289</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>74.875594199321768</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" si="8"/>
+        <v>-74.875594199321768</v>
+      </c>
     </row>
     <row r="26" spans="1:32" ht="14.1" customHeight="1">
       <c r="A26" s="15">
@@ -19712,6 +19942,16 @@
         <v>125.42807429540611</v>
       </c>
       <c r="L26" s="7"/>
+      <c r="X26" s="29">
+        <v>45657</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>931.07362136882602</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" si="8"/>
+        <v>-931.07362136882602</v>
+      </c>
     </row>
     <row r="27" spans="1:32" ht="14.1" customHeight="1">
       <c r="A27" s="15">
@@ -19748,6 +19988,12 @@
         <v>219.05654068196128</v>
       </c>
       <c r="L27" s="7"/>
+      <c r="X27" s="29">
+        <v>45657</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>7246.9141326409463</v>
+      </c>
     </row>
     <row r="28" spans="1:32" ht="14.1" customHeight="1">
       <c r="A28" s="15">
@@ -19784,6 +20030,10 @@
         <v>239.95815033990942</v>
       </c>
       <c r="L28" s="7"/>
+      <c r="Z28" s="2">
+        <f>IRR(Z19:Z27)</f>
+        <v>8.0590612386088223E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:32" ht="14.1" customHeight="1">
       <c r="A29" s="15">
@@ -22149,6 +22399,41 @@
       </c>
       <c r="K95" s="21">
         <v>6751.4336556159551</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="12.75">
+      <c r="A96" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.211383670768972</v>
+      </c>
+      <c r="D96" s="21">
+        <v>-377.60537682687692</v>
+      </c>
+      <c r="E96" s="22">
+        <v>-259.52258810266375</v>
+      </c>
+      <c r="F96" s="22">
+        <v>81.013812179641832</v>
+      </c>
+      <c r="G96" s="22">
+        <v>117.87510019811451</v>
+      </c>
+      <c r="H96" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I96" s="22">
+        <v>7246.9141326409463</v>
+      </c>
+      <c r="J96" s="22">
+        <v>2353.1601093046729</v>
+      </c>
+      <c r="K96" s="21">
+        <v>7129.0390324428317</v>
       </c>
     </row>
   </sheetData>
@@ -22167,7 +22452,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH95"/>
+  <dimension ref="A1:AH96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22209,7 +22494,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -22242,16 +22527,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -23105,6 +23390,30 @@
         <v>0.95</v>
       </c>
       <c r="P12" s="27"/>
+      <c r="Q12" s="29">
+        <v>45657</v>
+      </c>
+      <c r="R12" s="10">
+        <v>846.7205805675685</v>
+      </c>
+      <c r="S12" s="5">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="T12" s="5">
+        <v>10039.31289922307</v>
+      </c>
+      <c r="U12" s="5">
+        <v>3986.720449147424</v>
+      </c>
+      <c r="V12" s="5">
+        <v>6871.5399119301264</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0.65867981068138781</v>
+      </c>
+      <c r="X12" s="9">
+        <v>9.5878483331409026E-2</v>
+      </c>
       <c r="Z12" s="6">
         <v>43830</v>
       </c>
@@ -23598,6 +23907,16 @@
         <v>0.95</v>
       </c>
       <c r="P19" s="27"/>
+      <c r="Z19" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>91.417228571428666</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" ref="AB19:AB26" si="6">-AA19</f>
+        <v>-91.417228571428666</v>
+      </c>
     </row>
     <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
@@ -23646,6 +23965,16 @@
         <v>0.95</v>
       </c>
       <c r="P20" s="27"/>
+      <c r="Z20" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>3224.1951268482335</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="6"/>
+        <v>-3224.1951268482335</v>
+      </c>
     </row>
     <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
@@ -23694,6 +24023,16 @@
         <v>2</v>
       </c>
       <c r="P21" s="27"/>
+      <c r="Z21" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>773.01292064913287</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="6"/>
+        <v>-773.01292064913287</v>
+      </c>
     </row>
     <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
@@ -23742,6 +24081,16 @@
         <v>2</v>
       </c>
       <c r="P22" s="27"/>
+      <c r="Z22" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
@@ -23790,6 +24139,16 @@
         <v>2</v>
       </c>
       <c r="P23" s="27"/>
+      <c r="Z23" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
@@ -23839,6 +24198,16 @@
       </c>
       <c r="P24" s="27"/>
       <c r="Q24" s="3"/>
+      <c r="Z24" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>1046.1147789499273</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="6"/>
+        <v>-1046.1147789499273</v>
+      </c>
     </row>
     <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
@@ -23887,6 +24256,16 @@
         <v>2</v>
       </c>
       <c r="P25" s="27"/>
+      <c r="Z25" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>71.131814489355747</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="6"/>
+        <v>-71.131814489355747</v>
+      </c>
     </row>
     <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
@@ -23935,6 +24314,16 @@
         <v>1</v>
       </c>
       <c r="P26" s="27"/>
+      <c r="Z26" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>846.7205805675685</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" si="6"/>
+        <v>-846.7205805675685</v>
+      </c>
     </row>
     <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
@@ -23983,6 +24372,12 @@
         <v>0.2</v>
       </c>
       <c r="P27" s="27"/>
+      <c r="Z27" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>10039.31289922307</v>
+      </c>
     </row>
     <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
@@ -24031,6 +24426,10 @@
         <v>0.2</v>
       </c>
       <c r="P28" s="27"/>
+      <c r="AB28" s="2">
+        <f>IRR(AB19:AB27)</f>
+        <v>9.5878483331409026E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
@@ -27198,6 +27597,53 @@
         <v>71.567144838255288</v>
       </c>
       <c r="O95" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="12.75">
+      <c r="A96" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.211383670768972</v>
+      </c>
+      <c r="D96" s="21">
+        <v>-75.521075365375381</v>
+      </c>
+      <c r="E96" s="22">
+        <v>-51.904517620532744</v>
+      </c>
+      <c r="F96" s="22">
+        <v>2177.163500934174</v>
+      </c>
+      <c r="G96" s="22">
+        <v>3167.772987292944</v>
+      </c>
+      <c r="H96" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I96" s="22">
+        <v>10039.31289922307</v>
+      </c>
+      <c r="J96" s="22">
+        <v>3986.720449147424</v>
+      </c>
+      <c r="K96" s="21">
+        <v>6871.5399119301264</v>
+      </c>
+      <c r="L96" s="26">
+        <v>5.3272680171975097E-2</v>
+      </c>
+      <c r="M96" s="27">
+        <v>7.4040049734595451E-2</v>
+      </c>
+      <c r="N96" s="27">
+        <v>71.951167459958171</v>
+      </c>
+      <c r="O96" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -27216,8 +27662,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH95"/>
+  <sheetPr codeName="Sheet3">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AH96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27292,19 +27740,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -27334,7 +27782,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-85.275022406534561</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -28178,6 +28626,30 @@
       <c r="P12" s="27">
         <v>0.95</v>
       </c>
+      <c r="Q12" s="29">
+        <v>45657</v>
+      </c>
+      <c r="R12" s="10">
+        <v>714.03671416672069</v>
+      </c>
+      <c r="S12" s="5">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="T12" s="5">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="U12" s="5">
+        <v>2256.7315129624458</v>
+      </c>
+      <c r="V12" s="5">
+        <v>6859.3897702593558</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0.50389408091143495</v>
+      </c>
+      <c r="X12" s="9">
+        <v>8.1631978236141212E-2</v>
+      </c>
       <c r="Z12" s="6">
         <v>43830</v>
       </c>
@@ -28685,6 +29157,16 @@
       <c r="P19" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z19" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>58.460353571428868</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" ref="AB19:AB26" si="6">-AA19</f>
+        <v>-58.460353571428868</v>
+      </c>
     </row>
     <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
@@ -28735,6 +29217,16 @@
       <c r="P20" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z20" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>2152.7599890739757</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="6"/>
+        <v>-2152.7599890739757</v>
+      </c>
     </row>
     <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
@@ -28785,6 +29277,16 @@
       <c r="P21" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z21" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>494.15508593303866</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="6"/>
+        <v>-494.15508593303866</v>
+      </c>
     </row>
     <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
@@ -28835,6 +29337,16 @@
       <c r="P22" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z22" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
@@ -28885,6 +29397,16 @@
       <c r="P23" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z23" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
@@ -28936,6 +29458,16 @@
         <v>0.95</v>
       </c>
       <c r="Q24" s="3"/>
+      <c r="Z24" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>988.03913880127584</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="6"/>
+        <v>-988.03913880127584</v>
+      </c>
     </row>
     <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
@@ -28986,6 +29518,16 @@
       <c r="P25" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z25" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>71.131814489355747</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="6"/>
+        <v>-71.131814489355747</v>
+      </c>
     </row>
     <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
@@ -29036,6 +29578,16 @@
       <c r="P26" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z26" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>714.03671416672069</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" si="6"/>
+        <v>-714.03671416672069</v>
+      </c>
     </row>
     <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
@@ -29086,6 +29638,12 @@
       <c r="P27" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z27" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>6735.3146089982411</v>
+      </c>
     </row>
     <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
@@ -29136,6 +29694,10 @@
       <c r="P28" s="27">
         <v>0.95</v>
       </c>
+      <c r="AB28" s="2">
+        <f>IRR(AB19:AB27)</f>
+        <v>8.1631978236141212E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
@@ -32485,6 +33047,56 @@
         <v>92.596961243288405</v>
       </c>
       <c r="P95" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="12.75">
+      <c r="A96" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.211383670768972</v>
+      </c>
+      <c r="D96" s="21">
+        <v>-358.72510798553304</v>
+      </c>
+      <c r="E96" s="22">
+        <v>-246.54645869753051</v>
+      </c>
+      <c r="F96" s="22">
+        <v>-85.275022406534561</v>
+      </c>
+      <c r="G96" s="22">
+        <v>-124.07516126111473</v>
+      </c>
+      <c r="H96" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I96" s="22">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="J96" s="22">
+        <v>2256.7315129624458</v>
+      </c>
+      <c r="K96" s="21">
+        <v>6859.3897702593558</v>
+      </c>
+      <c r="L96" s="26">
+        <v>81.028370330837475</v>
+      </c>
+      <c r="M96" s="27">
+        <v>76.13741401548306</v>
+      </c>
+      <c r="N96" s="27">
+        <v>68.205420115204063</v>
+      </c>
+      <c r="O96" s="27">
+        <v>92.001401816041067</v>
+      </c>
+      <c r="P96" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -32506,7 +33118,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH95"/>
+  <dimension ref="A1:AH96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -32553,7 +33165,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -32562,10 +33174,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -33396,6 +34008,30 @@
         <v>2.3292503740678492</v>
       </c>
       <c r="N12" s="7"/>
+      <c r="Q12" s="29">
+        <v>45657</v>
+      </c>
+      <c r="R12" s="10">
+        <v>290.00051789562099</v>
+      </c>
+      <c r="S12" s="5">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="T12" s="5">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="U12" s="5">
+        <v>901.75787582245493</v>
+      </c>
+      <c r="V12" s="5">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0.39549487074779771</v>
+      </c>
+      <c r="X12" s="9">
+        <v>5.6778087802117572E-2</v>
+      </c>
       <c r="Z12" s="6">
         <v>43830</v>
       </c>
@@ -33847,6 +34483,16 @@
         <v>193.28001945795327</v>
       </c>
       <c r="N19" s="7"/>
+      <c r="Z19" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>29.534447075205776</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" ref="AB19:AB26" si="6">-AA19</f>
+        <v>-29.534447075205776</v>
+      </c>
     </row>
     <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
@@ -33889,6 +34535,16 @@
         <v>193.28001945795327</v>
       </c>
       <c r="N20" s="7"/>
+      <c r="Z20" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>1528.0104860270981</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="6"/>
+        <v>-1528.0104860270981</v>
+      </c>
     </row>
     <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
@@ -33931,6 +34587,16 @@
         <v>193.28001945795327</v>
       </c>
       <c r="N21" s="8"/>
+      <c r="Z21" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>331.22983442957388</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="6"/>
+        <v>-331.22983442957388</v>
+      </c>
     </row>
     <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
@@ -33973,6 +34639,16 @@
         <v>193.28001945795327</v>
       </c>
       <c r="N22" s="7"/>
+      <c r="Z22" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
@@ -34015,6 +34691,16 @@
         <v>193.28001945795327</v>
       </c>
       <c r="N23" s="7"/>
+      <c r="Z23" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
@@ -34058,6 +34744,16 @@
       </c>
       <c r="N24" s="7"/>
       <c r="Q24" s="3"/>
+      <c r="Z24" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>91.832048679506215</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="6"/>
+        <v>-91.832048679506215</v>
+      </c>
     </row>
     <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
@@ -34100,6 +34796,16 @@
         <v>193.28001945795327</v>
       </c>
       <c r="N25" s="7"/>
+      <c r="Z25" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>9.4674342899156727</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="6"/>
+        <v>-9.4674342899156727</v>
+      </c>
     </row>
     <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
@@ -34142,6 +34848,16 @@
         <v>193.28001945795327</v>
       </c>
       <c r="N26" s="7"/>
+      <c r="Z26" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>290.00051789562099</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" si="6"/>
+        <v>-290.00051789562099</v>
+      </c>
     </row>
     <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
@@ -34184,6 +34900,12 @@
         <v>658.6906975570239</v>
       </c>
       <c r="N27" s="7"/>
+      <c r="Z27" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>3181.8326442193757</v>
+      </c>
     </row>
     <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
@@ -34226,6 +34948,10 @@
         <v>680.54982309941465</v>
       </c>
       <c r="N28" s="7"/>
+      <c r="AB28" s="2">
+        <f>IRR(AB19:AB27)</f>
+        <v>5.6778087802117572E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
@@ -36992,6 +37718,47 @@
         <v>901.75787582245493</v>
       </c>
       <c r="M95" s="21">
+        <v>3181.8326442193757</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="12.75">
+      <c r="A96" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.211383670768972</v>
+      </c>
+      <c r="D96" s="20">
+        <v>1227300</v>
+      </c>
+      <c r="E96" s="20">
+        <v>1875140.6638665621</v>
+      </c>
+      <c r="F96" s="21">
+        <v>0</v>
+      </c>
+      <c r="G96" s="22">
+        <v>0</v>
+      </c>
+      <c r="H96" s="22">
+        <v>0</v>
+      </c>
+      <c r="I96" s="22">
+        <v>0</v>
+      </c>
+      <c r="J96" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K96" s="22">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="L96" s="22">
+        <v>901.75787582245493</v>
+      </c>
+      <c r="M96" s="21">
         <v>3181.8326442193757</v>
       </c>
     </row>
@@ -37010,8 +37777,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF95"/>
+  <sheetPr codeName="Sheet5">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AF96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -37114,7 +37883,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-39.877507297318026</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -37762,7 +38531,7 @@
         <v>0.62844706217117707</v>
       </c>
       <c r="V11" s="9">
-        <v>9.7594534949349665E-2</v>
+        <v>9.8012622279313177E-2</v>
       </c>
       <c r="X11" s="6">
         <v>43462</v>
@@ -37832,6 +38601,30 @@
         <v>3.987403519999928</v>
       </c>
       <c r="L12" s="7"/>
+      <c r="O12" s="29">
+        <v>45657</v>
+      </c>
+      <c r="P12" s="10">
+        <v>141.99776260849649</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="R12" s="5">
+        <v>1243.9035388429725</v>
+      </c>
+      <c r="S12" s="5">
+        <v>461.2250703448251</v>
+      </c>
+      <c r="T12" s="5">
+        <v>1301.9253136719271</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0.58929060771258057</v>
+      </c>
+      <c r="V12" s="9">
+        <v>8.9263687221011079E-2</v>
+      </c>
       <c r="X12" s="6">
         <v>43830</v>
       </c>
@@ -38163,7 +38956,7 @@
         <v>45289</v>
       </c>
       <c r="AF17" s="1">
-        <v>1041.2062722107735</v>
+        <v>1043.3146132957579</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="14.1" customHeight="1">
@@ -38203,7 +38996,7 @@
       <c r="L18" s="7"/>
       <c r="AF18" s="2">
         <f>IRR(AF10:AF17)</f>
-        <v>9.7594534949349665E-2</v>
+        <v>9.8012622279313177E-2</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="14.1" customHeight="1">
@@ -38241,6 +39034,16 @@
         <v>7.2769907937643099</v>
       </c>
       <c r="L19" s="7"/>
+      <c r="X19" s="6">
+        <v>43098</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>1.2220518888775631</v>
+      </c>
+      <c r="Z19" s="1">
+        <f t="shared" ref="Z19:Z26" si="6">-Y19</f>
+        <v>-1.2220518888775631</v>
+      </c>
     </row>
     <row r="20" spans="1:32" ht="14.1" customHeight="1">
       <c r="A20" s="15">
@@ -38277,6 +39080,16 @@
         <v>7.2769907937643099</v>
       </c>
       <c r="L20" s="7"/>
+      <c r="X20" s="6">
+        <v>43462</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>433.73124322277113</v>
+      </c>
+      <c r="Z20" s="1">
+        <f t="shared" si="6"/>
+        <v>-433.73124322277113</v>
+      </c>
     </row>
     <row r="21" spans="1:32" ht="14.1" customHeight="1">
       <c r="A21" s="15">
@@ -38313,6 +39126,16 @@
         <v>7.2769907937643099</v>
       </c>
       <c r="L21" s="8"/>
+      <c r="X21" s="6">
+        <v>43830</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>84.696913592045235</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="6"/>
+        <v>-84.696913592045235</v>
+      </c>
     </row>
     <row r="22" spans="1:32" ht="14.1" customHeight="1">
       <c r="A22" s="15">
@@ -38349,6 +39172,16 @@
         <v>7.2769907937643099</v>
       </c>
       <c r="L22" s="7"/>
+      <c r="X22" s="6">
+        <v>44196</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:32" ht="14.1" customHeight="1">
       <c r="A23" s="15">
@@ -38385,6 +39218,16 @@
         <v>7.2769907937643099</v>
       </c>
       <c r="L23" s="7"/>
+      <c r="X23" s="29">
+        <v>44561</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:32" ht="14.1" customHeight="1">
       <c r="A24" s="15">
@@ -38422,6 +39265,16 @@
       </c>
       <c r="L24" s="7"/>
       <c r="O24" s="3"/>
+      <c r="X24" s="29">
+        <v>44925</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>118.96796894445561</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" si="6"/>
+        <v>-118.96796894445561</v>
+      </c>
     </row>
     <row r="25" spans="1:32" ht="14.1" customHeight="1">
       <c r="A25" s="15">
@@ -38458,6 +39311,16 @@
         <v>7.2769907937643099</v>
       </c>
       <c r="L25" s="7"/>
+      <c r="X25" s="29">
+        <v>45289</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>2.0625282415013544</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" si="6"/>
+        <v>-2.0625282415013544</v>
+      </c>
     </row>
     <row r="26" spans="1:32" ht="14.1" customHeight="1">
       <c r="A26" s="15">
@@ -38494,6 +39357,16 @@
         <v>7.2769907937643099</v>
       </c>
       <c r="L26" s="7"/>
+      <c r="X26" s="29">
+        <v>45657</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>141.99776260849649</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" si="6"/>
+        <v>-141.99776260849649</v>
+      </c>
     </row>
     <row r="27" spans="1:32" ht="14.1" customHeight="1">
       <c r="A27" s="15">
@@ -38530,6 +39403,12 @@
         <v>12.932661579505144</v>
       </c>
       <c r="L27" s="7"/>
+      <c r="X27" s="29">
+        <v>45657</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>1243.9035388429725</v>
+      </c>
     </row>
     <row r="28" spans="1:32" ht="14.1" customHeight="1">
       <c r="A28" s="15">
@@ -38566,6 +39445,10 @@
         <v>13.214517893242713</v>
       </c>
       <c r="L28" s="7"/>
+      <c r="Z28" s="2">
+        <f>IRR(Z19:Z27)</f>
+        <v>8.9263687221011079E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:32" ht="14.1" customHeight="1">
       <c r="A29" s="15">
@@ -40931,6 +41814,41 @@
       </c>
       <c r="K95" s="21">
         <v>1209.9344616663996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="12.75">
+      <c r="A96" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.211383670768972</v>
+      </c>
+      <c r="D96" s="21">
+        <v>-91.990852005527572</v>
+      </c>
+      <c r="E96" s="22">
+        <v>-63.223951403608204</v>
+      </c>
+      <c r="F96" s="22">
+        <v>-39.877507297318026</v>
+      </c>
+      <c r="G96" s="22">
+        <v>-58.021774828954683</v>
+      </c>
+      <c r="H96" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I96" s="22">
+        <v>1243.9035388429725</v>
+      </c>
+      <c r="J96" s="22">
+        <v>461.2250703448251</v>
+      </c>
+      <c r="K96" s="21">
+        <v>1301.9253136719271</v>
       </c>
     </row>
   </sheetData>
@@ -40949,7 +41867,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH95"/>
+  <dimension ref="A1:AH96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -41024,16 +41942,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -41887,6 +42805,30 @@
         <v>0.95</v>
       </c>
       <c r="P12" s="27"/>
+      <c r="Q12" s="29">
+        <v>45657</v>
+      </c>
+      <c r="R12" s="10">
+        <v>131.60419770554131</v>
+      </c>
+      <c r="S12" s="5">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="T12" s="5">
+        <v>1927.0158074509754</v>
+      </c>
+      <c r="U12" s="5">
+        <v>845.03972929121005</v>
+      </c>
+      <c r="V12" s="5">
+        <v>1737.4465744729562</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0.78101516877199462</v>
+      </c>
+      <c r="X12" s="9">
+        <v>0.10293825750561858</v>
+      </c>
       <c r="Z12" s="6">
         <v>43830</v>
       </c>
@@ -42380,6 +43322,16 @@
         <v>0.95</v>
       </c>
       <c r="P19" s="27"/>
+      <c r="Z19" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>1.8283260131836769</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" ref="AB19:AB26" si="6">-AA19</f>
+        <v>-1.8283260131836769</v>
+      </c>
     </row>
     <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
@@ -42428,6 +43380,16 @@
         <v>0.95</v>
       </c>
       <c r="P20" s="27"/>
+      <c r="Z20" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>672.01613508174762</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="6"/>
+        <v>-672.01613508174762</v>
+      </c>
     </row>
     <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
@@ -42476,6 +43438,16 @@
         <v>2</v>
       </c>
       <c r="P21" s="27"/>
+      <c r="Z21" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>158.87923971358168</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="6"/>
+        <v>-158.87923971358168</v>
+      </c>
     </row>
     <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
@@ -42524,6 +43496,16 @@
         <v>2</v>
       </c>
       <c r="P22" s="27"/>
+      <c r="Z22" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
@@ -42572,6 +43554,16 @@
         <v>2</v>
       </c>
       <c r="P23" s="27"/>
+      <c r="Z23" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
@@ -42621,6 +43613,16 @@
       </c>
       <c r="P24" s="27"/>
       <c r="Q24" s="3"/>
+      <c r="Z24" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>115.68877781628487</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="6"/>
+        <v>-115.68877781628487</v>
+      </c>
     </row>
     <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
@@ -42669,6 +43671,16 @@
         <v>2</v>
       </c>
       <c r="P25" s="27"/>
+      <c r="Z25" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>1.9594018294262696</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.9594018294262696</v>
+      </c>
     </row>
     <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
@@ -42717,6 +43729,16 @@
         <v>1</v>
       </c>
       <c r="P26" s="27"/>
+      <c r="Z26" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>131.60419770554131</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" si="6"/>
+        <v>-131.60419770554131</v>
+      </c>
     </row>
     <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
@@ -42765,6 +43787,12 @@
         <v>0.2</v>
       </c>
       <c r="P27" s="27"/>
+      <c r="Z27" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>1927.0158074509754</v>
+      </c>
     </row>
     <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
@@ -42813,6 +43841,10 @@
         <v>0.2</v>
       </c>
       <c r="P28" s="27"/>
+      <c r="AB28" s="2">
+        <f>IRR(AB19:AB27)</f>
+        <v>0.10293825750561858</v>
+      </c>
     </row>
     <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
@@ -45980,6 +47012,53 @@
         <v>71.567144838255288</v>
       </c>
       <c r="O95" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="12.75">
+      <c r="A96" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C96" s="21">
+        <v>1.211383670768972</v>
+      </c>
+      <c r="D96" s="21">
+        <v>-18.398170401105514</v>
+      </c>
+      <c r="E96" s="22">
+        <v>-12.64479028072164</v>
+      </c>
+      <c r="F96" s="22">
+        <v>130.28812878808199</v>
+      </c>
+      <c r="G96" s="22">
+        <v>189.56923297801919</v>
+      </c>
+      <c r="H96" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I96" s="22">
+        <v>1927.0158074509754</v>
+      </c>
+      <c r="J96" s="22">
+        <v>845.03972929121005</v>
+      </c>
+      <c r="K96" s="21">
+        <v>1737.4465744729562</v>
+      </c>
+      <c r="L96" s="26">
+        <v>5.3272680171975097E-2</v>
+      </c>
+      <c r="M96" s="27">
+        <v>7.4040049734595451E-2</v>
+      </c>
+      <c r="N96" s="27">
+        <v>71.951167459958171</v>
+      </c>
+      <c r="O96" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -46001,7 +47080,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH95"/>
+  <dimension ref="A1:AH96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -46043,7 +47122,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -46076,19 +47155,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -46118,7 +47197,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-2.8006635059052343</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -46178,7 +47257,7 @@
         <v>0.95</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -46878,7 +47957,7 @@
         <v>0.63979125471200327</v>
       </c>
       <c r="X11" s="9">
-        <v>9.9032665900877781E-2</v>
+        <v>9.9448205942007872E-2</v>
       </c>
       <c r="Z11" s="6">
         <v>43462</v>
@@ -46962,6 +48041,30 @@
       <c r="P12" s="27">
         <v>0.95</v>
       </c>
+      <c r="Q12" s="29">
+        <v>45657</v>
+      </c>
+      <c r="R12" s="10">
+        <v>108.54609937062241</v>
+      </c>
+      <c r="S12" s="5">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="T12" s="5">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="U12" s="5">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="V12" s="5">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0.60665894921929941</v>
+      </c>
+      <c r="X12" s="9">
+        <v>8.9145401197216145E-2</v>
+      </c>
       <c r="Z12" s="6">
         <v>43830</v>
       </c>
@@ -47363,7 +48466,7 @@
         <v>45289</v>
       </c>
       <c r="AH17" s="1">
-        <v>996.05056362079893</v>
+        <v>998.05348765153417</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="14.1" customHeight="1">
@@ -47417,7 +48520,7 @@
       </c>
       <c r="AH18" s="2">
         <f>IRR(AH10:AH17)</f>
-        <v>9.9032665900877781E-2</v>
+        <v>9.9448205942007872E-2</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="14.1" customHeight="1">
@@ -47469,6 +48572,16 @@
       <c r="P19" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z19" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>1.1609492944336848</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" ref="AB19:AB26" si="6">-AA19</f>
+        <v>-1.1609492944336848</v>
+      </c>
     </row>
     <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
@@ -47519,6 +48632,16 @@
       <c r="P20" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z20" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>412.0446810616325</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="6"/>
+        <v>-412.0446810616325</v>
+      </c>
     </row>
     <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
@@ -47569,6 +48692,16 @@
       <c r="P21" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z21" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>80.462067912442933</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="6"/>
+        <v>-80.462067912442933</v>
+      </c>
     </row>
     <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
@@ -47619,6 +48752,16 @@
       <c r="P22" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z22" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
@@ -47669,6 +48812,16 @@
       <c r="P23" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z23" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
@@ -47720,6 +48873,16 @@
         <v>0.95</v>
       </c>
       <c r="Q24" s="3"/>
+      <c r="Z24" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>113.01957049723279</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="6"/>
+        <v>-113.01957049723279</v>
+      </c>
     </row>
     <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
@@ -47770,6 +48933,16 @@
       <c r="P25" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z25" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>1.9594018294262696</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.9594018294262696</v>
+      </c>
     </row>
     <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
@@ -47820,6 +48993,16 @@
       <c r="P26" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z26" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>108.54609937062241</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" si="6"/>
+        <v>-108.54609937062241</v>
+      </c>
     </row>
     <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
@@ -47870,6 +49053,12 @@
       <c r="P27" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z27" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>1152.2841821809159</v>
+      </c>
     </row>
     <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
@@ -47920,6 +49109,10 @@
       <c r="P28" s="27">
         <v>0.95</v>
       </c>
+      <c r="AB28" s="2">
+        <f>IRR(AB19:AB27)</f>
+        <v>8.9145401197216145E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
@@ -51232,16 +52425,16 @@
         <v>1.2082143624614177</v>
       </c>
       <c r="D95" s="21">
-        <v>-85.372198154322149</v>
+        <v>-81.314036731594541</v>
       </c>
       <c r="E95" s="22">
-        <v>-58.91801110982302</v>
+        <v>-56.117347603917786</v>
       </c>
       <c r="F95" s="22">
-        <v>-2.8006635059052343</v>
+        <v>0</v>
       </c>
       <c r="G95" s="22">
-        <v>-4.058161422727605</v>
+        <v>0</v>
       </c>
       <c r="H95" s="22">
         <v>717.1927699657906</v>
@@ -51253,7 +52446,7 @@
         <v>435.09141221512527</v>
       </c>
       <c r="K95" s="21">
-        <v>1156.3423436036435</v>
+        <v>1152.2841821809159</v>
       </c>
       <c r="L95" s="26">
         <v>79.964533123378445</v>
@@ -51268,6 +52461,56 @@
         <v>92.596961243288405</v>
       </c>
       <c r="P95" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="12.75">
+      <c r="A96" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.211383670768972</v>
+      </c>
+      <c r="D96" s="21">
+        <v>0</v>
+      </c>
+      <c r="E96" s="22">
+        <v>0</v>
+      </c>
+      <c r="F96" s="22">
+        <v>0</v>
+      </c>
+      <c r="G96" s="22">
+        <v>0</v>
+      </c>
+      <c r="H96" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I96" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J96" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K96" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L96" s="26">
+        <v>81.028370330837475</v>
+      </c>
+      <c r="M96" s="27">
+        <v>76.13741401548306</v>
+      </c>
+      <c r="N96" s="27">
+        <v>68.205420115204063</v>
+      </c>
+      <c r="O96" s="27">
+        <v>92.001401816041067</v>
+      </c>
+      <c r="P96" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -51289,7 +52532,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH95"/>
+  <dimension ref="A1:AH96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -51345,10 +52588,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -52179,6 +53422,30 @@
         <v>4.7167320074873662E-2</v>
       </c>
       <c r="N12" s="7"/>
+      <c r="Q12" s="29">
+        <v>45657</v>
+      </c>
+      <c r="R12" s="10">
+        <v>48.669188089074908</v>
+      </c>
+      <c r="S12" s="5">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="T12" s="5">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="U12" s="5">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="V12" s="5">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0.58128039180943369</v>
+      </c>
+      <c r="X12" s="9">
+        <v>7.7879086338844994E-2</v>
+      </c>
       <c r="Z12" s="6">
         <v>43830</v>
       </c>
@@ -52630,6 +53897,16 @@
         <v>7.3840350468164679</v>
       </c>
       <c r="N19" s="7"/>
+      <c r="Z19" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0.57621376243097611</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" ref="AB19:AB26" si="7">-AA19</f>
+        <v>-0.57621376243097611</v>
+      </c>
     </row>
     <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
@@ -52672,6 +53949,16 @@
         <v>7.3840350468164679</v>
       </c>
       <c r="N20" s="7"/>
+      <c r="Z20" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>262.72397636432083</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="7"/>
+        <v>-262.72397636432083</v>
+      </c>
     </row>
     <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
@@ -52714,6 +54001,16 @@
         <v>7.3840350468164679</v>
       </c>
       <c r="N21" s="8"/>
+      <c r="Z21" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>43.135897352006509</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="7"/>
+        <v>-43.135897352006509</v>
+      </c>
     </row>
     <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
@@ -52756,6 +54053,16 @@
         <v>7.3840350468164679</v>
       </c>
       <c r="N22" s="7"/>
+      <c r="Z22" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
@@ -52798,6 +54105,16 @@
         <v>7.3840350468164679</v>
       </c>
       <c r="N23" s="7"/>
+      <c r="Z23" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
@@ -52841,6 +54158,16 @@
       </c>
       <c r="N24" s="7"/>
       <c r="Q24" s="3"/>
+      <c r="Z24" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>11.079325740253353</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="7"/>
+        <v>-11.079325740253353</v>
+      </c>
     </row>
     <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
@@ -52883,6 +54210,16 @@
         <v>7.3840350468164679</v>
       </c>
       <c r="N25" s="7"/>
+      <c r="Z25" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0.24237534426794127</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.24237534426794127</v>
+      </c>
     </row>
     <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
@@ -52925,6 +54262,16 @@
         <v>7.3840350468164679</v>
       </c>
       <c r="N26" s="7"/>
+      <c r="Z26" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>48.669188089074908</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" si="7"/>
+        <v>-48.669188089074908</v>
+      </c>
     </row>
     <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
@@ -52967,6 +54314,12 @@
         <v>35.497382163166584</v>
       </c>
       <c r="N27" s="7"/>
+      <c r="Z27" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>579.4237932103814</v>
+      </c>
     </row>
     <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
@@ -53009,6 +54362,10 @@
         <v>35.792150491909254</v>
       </c>
       <c r="N28" s="7"/>
+      <c r="AB28" s="2">
+        <f>IRR(AB19:AB27)</f>
+        <v>7.7879086338844994E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
@@ -55775,6 +57132,47 @@
         <v>212.99681655802686</v>
       </c>
       <c r="M95" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="12.75">
+      <c r="A96" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.211383670768972</v>
+      </c>
+      <c r="D96" s="20">
+        <v>1227300</v>
+      </c>
+      <c r="E96" s="20">
+        <v>1875140.6638665621</v>
+      </c>
+      <c r="F96" s="21">
+        <v>0</v>
+      </c>
+      <c r="G96" s="22">
+        <v>0</v>
+      </c>
+      <c r="H96" s="22">
+        <v>0</v>
+      </c>
+      <c r="I96" s="22">
+        <v>0</v>
+      </c>
+      <c r="J96" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K96" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L96" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M96" s="21">
         <v>579.4237932103814</v>
       </c>
     </row>

--- a/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
@@ -177,16 +177,16 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>成交量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成交均量</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2681,11 +2681,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="462731520"/>
-        <c:axId val="463814656"/>
+        <c:axId val="479253632"/>
+        <c:axId val="479255936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="462731520"/>
+        <c:axId val="479253632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2728,14 +2728,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463814656"/>
+        <c:crossAx val="479255936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="463814656"/>
+        <c:axId val="479255936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2784,7 +2784,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462731520"/>
+        <c:crossAx val="479253632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4804,11 +4804,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="523784960"/>
-        <c:axId val="523799936"/>
+        <c:axId val="479976064"/>
+        <c:axId val="483669504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="523784960"/>
+        <c:axId val="479976064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4851,14 +4851,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523799936"/>
+        <c:crossAx val="483669504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="523799936"/>
+        <c:axId val="483669504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4907,7 +4907,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523784960"/>
+        <c:crossAx val="479976064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6927,11 +6927,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="460948992"/>
-        <c:axId val="460950528"/>
+        <c:axId val="476231552"/>
+        <c:axId val="476233088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="460948992"/>
+        <c:axId val="476231552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6974,14 +6974,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460950528"/>
+        <c:crossAx val="476233088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="460950528"/>
+        <c:axId val="476233088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7030,7 +7030,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460948992"/>
+        <c:crossAx val="476231552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9050,11 +9050,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461329536"/>
-        <c:axId val="461331072"/>
+        <c:axId val="478103040"/>
+        <c:axId val="478104576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461329536"/>
+        <c:axId val="478103040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9097,14 +9097,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461331072"/>
+        <c:crossAx val="478104576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461331072"/>
+        <c:axId val="478104576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9153,7 +9153,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461329536"/>
+        <c:crossAx val="478103040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11173,11 +11173,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461456128"/>
-        <c:axId val="461457664"/>
+        <c:axId val="478385280"/>
+        <c:axId val="478386816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461456128"/>
+        <c:axId val="478385280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11220,14 +11220,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461457664"/>
+        <c:crossAx val="478386816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461457664"/>
+        <c:axId val="478386816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11276,7 +11276,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461456128"/>
+        <c:crossAx val="478385280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13296,11 +13296,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461619584"/>
-        <c:axId val="461621120"/>
+        <c:axId val="478630656"/>
+        <c:axId val="478632192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461619584"/>
+        <c:axId val="478630656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13343,14 +13343,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461621120"/>
+        <c:crossAx val="478632192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461621120"/>
+        <c:axId val="478632192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13399,7 +13399,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461619584"/>
+        <c:crossAx val="478630656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15419,11 +15419,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="462696448"/>
-        <c:axId val="462697984"/>
+        <c:axId val="479469952"/>
+        <c:axId val="479471488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="462696448"/>
+        <c:axId val="479469952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15466,14 +15466,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462697984"/>
+        <c:crossAx val="479471488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="462697984"/>
+        <c:axId val="479471488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15522,7 +15522,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462696448"/>
+        <c:crossAx val="479469952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17542,11 +17542,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="463043968"/>
-        <c:axId val="463058048"/>
+        <c:axId val="479956992"/>
+        <c:axId val="479958528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="463043968"/>
+        <c:axId val="479956992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17589,14 +17589,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463058048"/>
+        <c:crossAx val="479958528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="463058048"/>
+        <c:axId val="479958528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17645,7 +17645,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463043968"/>
+        <c:crossAx val="479956992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -33165,7 +33165,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -33174,10 +33174,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>30</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -52579,7 +52579,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -52588,10 +52588,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>30</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>

--- a/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,6 +145,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -183,10 +191,6 @@
   <si>
     <t>成交均量</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -875,7 +879,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1154,6 +1158,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1163,7 +1170,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1441,6 +1448,9 @@
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>4893.7540233362733</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1484,7 +1494,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1763,6 +1773,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1772,7 +1785,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2051,6 +2064,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>7246.9141326409463</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7246.1850032321172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2093,7 +2109,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2372,6 +2388,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2381,7 +2400,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2660,6 +2679,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>2353.1601093046729</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2352.4309798958438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2681,11 +2703,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="479253632"/>
-        <c:axId val="479255936"/>
+        <c:axId val="550788096"/>
+        <c:axId val="550840960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="479253632"/>
+        <c:axId val="550788096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2728,14 +2750,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479255936"/>
+        <c:crossAx val="550840960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="479255936"/>
+        <c:axId val="550840960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2784,7 +2806,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479253632"/>
+        <c:crossAx val="550788096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2998,7 +3020,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3277,6 +3299,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3286,7 +3311,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3564,6 +3589,9 @@
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>6052.5924500756464</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
@@ -3607,7 +3635,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3886,6 +3914,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3895,7 +3926,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4174,6 +4205,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>10039.31289922307</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>10019.718290678538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4216,7 +4250,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4495,6 +4529,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4504,7 +4541,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4783,6 +4820,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>3986.720449147424</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3967.1258406028919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4804,11 +4844,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="479976064"/>
-        <c:axId val="483669504"/>
+        <c:axId val="551108608"/>
+        <c:axId val="551198080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="479976064"/>
+        <c:axId val="551108608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4851,14 +4891,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483669504"/>
+        <c:crossAx val="551198080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="483669504"/>
+        <c:axId val="551198080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4907,7 +4947,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479976064"/>
+        <c:crossAx val="551108608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5121,7 +5161,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5400,6 +5440,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5409,7 +5452,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5687,6 +5730,9 @@
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>4478.5830960357953</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
@@ -5730,7 +5776,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6009,6 +6055,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6018,7 +6067,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6296,6 +6345,9 @@
                   <c:v>6734.3469736132765</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>6735.3146089982411</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
               </c:numCache>
@@ -6339,7 +6391,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6618,6 +6670,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6627,7 +6682,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6905,6 +6960,9 @@
                   <c:v>2255.7638775774813</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>2256.7315129624458</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
               </c:numCache>
@@ -6927,11 +6985,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476231552"/>
-        <c:axId val="476233088"/>
+        <c:axId val="547892224"/>
+        <c:axId val="547906304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="476231552"/>
+        <c:axId val="547892224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6974,14 +7032,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476233088"/>
+        <c:crossAx val="547906304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="476233088"/>
+        <c:axId val="547906304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7030,7 +7088,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476231552"/>
+        <c:crossAx val="547892224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7244,7 +7302,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7523,6 +7581,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7532,7 +7593,7 @@
               <c:f>'模型二 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7810,6 +7871,9 @@
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>2280.0747683969207</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
@@ -7853,7 +7917,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8132,6 +8196,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8141,7 +8208,7 @@
               <c:f>'模型二 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8419,6 +8486,9 @@
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>3181.8326442193757</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
               </c:numCache>
@@ -8462,7 +8532,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8741,6 +8811,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8750,7 +8823,7 @@
               <c:f>'模型二 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9028,6 +9101,9 @@
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>901.75787582245493</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
               </c:numCache>
@@ -9050,11 +9126,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="478103040"/>
-        <c:axId val="478104576"/>
+        <c:axId val="548026624"/>
+        <c:axId val="548044800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="478103040"/>
+        <c:axId val="548026624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9097,14 +9173,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478104576"/>
+        <c:crossAx val="548044800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="478104576"/>
+        <c:axId val="548044800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9153,7 +9229,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478103040"/>
+        <c:crossAx val="548026624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9367,7 +9443,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9646,6 +9722,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9655,7 +9734,7 @@
               <c:f>'模型二 (2)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9933,6 +10012,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -9976,7 +10058,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10255,6 +10337,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10264,7 +10349,7 @@
               <c:f>'模型二 (2)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10542,6 +10627,9 @@
                   <c:v>1243.7634591986789</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>1243.9035388429725</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
               </c:numCache>
@@ -10585,7 +10673,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10864,6 +10952,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10873,7 +10964,7 @@
               <c:f>'模型二 (2)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11151,6 +11242,9 @@
                   <c:v>461.08499070053153</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>461.2250703448251</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
               </c:numCache>
@@ -11173,11 +11267,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="478385280"/>
-        <c:axId val="478386816"/>
+        <c:axId val="549914496"/>
+        <c:axId val="549916032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="478385280"/>
+        <c:axId val="549914496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11220,14 +11314,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478386816"/>
+        <c:crossAx val="549916032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="478386816"/>
+        <c:axId val="549916032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11276,7 +11370,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478385280"/>
+        <c:crossAx val="549914496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11490,7 +11584,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11769,6 +11863,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11778,7 +11875,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12056,6 +12153,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -12099,7 +12199,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12378,6 +12478,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12387,7 +12490,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12666,6 +12769,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>1927.0158074509754</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1925.8432060912214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12708,7 +12814,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12987,6 +13093,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12996,7 +13105,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13275,6 +13384,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>845.03972929121005</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>843.86712793145603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13296,11 +13408,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="478630656"/>
-        <c:axId val="478632192"/>
+        <c:axId val="550032896"/>
+        <c:axId val="550034432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="478630656"/>
+        <c:axId val="550032896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13343,14 +13455,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478632192"/>
+        <c:crossAx val="550034432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="478632192"/>
+        <c:axId val="550034432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13399,7 +13511,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478630656"/>
+        <c:crossAx val="550032896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13613,7 +13725,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13892,6 +14004,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13901,7 +14016,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14179,6 +14294,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -14222,7 +14340,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14501,6 +14619,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14510,7 +14631,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14788,6 +14909,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -14831,7 +14955,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15110,6 +15234,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15119,7 +15246,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15397,6 +15524,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -15419,11 +15549,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="479469952"/>
-        <c:axId val="479471488"/>
+        <c:axId val="550278272"/>
+        <c:axId val="550279808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="479469952"/>
+        <c:axId val="550278272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15466,14 +15596,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479471488"/>
+        <c:crossAx val="550279808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="479471488"/>
+        <c:axId val="550279808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15522,7 +15652,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479469952"/>
+        <c:crossAx val="550278272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15736,7 +15866,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16015,6 +16145,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16024,7 +16157,7 @@
               <c:f>'模型二 (2)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16302,6 +16435,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -16345,7 +16481,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16624,6 +16760,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16633,7 +16772,7 @@
               <c:f>'模型二 (2)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16911,6 +17050,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -16954,7 +17096,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17233,6 +17375,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17242,7 +17387,7 @@
               <c:f>'模型二 (2)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17520,6 +17665,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -17542,11 +17690,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="479956992"/>
-        <c:axId val="479958528"/>
+        <c:axId val="550490880"/>
+        <c:axId val="550492416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="479956992"/>
+        <c:axId val="550490880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17589,14 +17737,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479958528"/>
+        <c:crossAx val="550492416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="479958528"/>
+        <c:axId val="550492416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17645,7 +17793,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479956992"/>
+        <c:crossAx val="550490880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17753,7 +17901,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17796,7 +17944,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17839,7 +17987,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17882,7 +18030,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17925,7 +18073,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17968,7 +18116,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18011,7 +18159,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18054,7 +18202,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18364,8 +18512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF96"/>
+  <sheetPr codeName="Sheet1">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AF97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18468,7 +18618,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-168.41438821437734</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -22434,6 +22584,41 @@
       </c>
       <c r="K96" s="21">
         <v>7129.0390324428317</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="12.75">
+      <c r="A97" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C97" s="20">
+        <v>1.2133076104409599</v>
+      </c>
+      <c r="D97" s="21">
+        <v>-360.6731727744131</v>
+      </c>
+      <c r="E97" s="22">
+        <v>-249.42820039401917</v>
+      </c>
+      <c r="F97" s="22">
+        <v>-168.41438821437734</v>
+      </c>
+      <c r="G97" s="22">
+        <v>-243.52720198512762</v>
+      </c>
+      <c r="H97" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I97" s="22">
+        <v>7246.1850032321172</v>
+      </c>
+      <c r="J97" s="22">
+        <v>2352.4309798958438</v>
+      </c>
+      <c r="K97" s="21">
+        <v>7489.7122052172444</v>
       </c>
     </row>
   </sheetData>
@@ -22452,7 +22637,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH96"/>
+  <dimension ref="A1:AH97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22494,7 +22679,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -22527,16 +22712,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -27644,6 +27829,53 @@
         <v>71.951167459958171</v>
       </c>
       <c r="O96" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="12.75">
+      <c r="A97" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C97" s="20">
+        <v>1.2133076104409599</v>
+      </c>
+      <c r="D97" s="21">
+        <v>-72.134634554882624</v>
+      </c>
+      <c r="E97" s="22">
+        <v>-49.885640078803839</v>
+      </c>
+      <c r="F97" s="22">
+        <v>2127.2778608553699</v>
+      </c>
+      <c r="G97" s="22">
+        <v>3076.0437441935296</v>
+      </c>
+      <c r="H97" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I97" s="22">
+        <v>10019.718290678538</v>
+      </c>
+      <c r="J97" s="22">
+        <v>3967.1258406028919</v>
+      </c>
+      <c r="K97" s="21">
+        <v>6943.6745464850092</v>
+      </c>
+      <c r="L97" s="26">
+        <v>4.4393900143312577E-2</v>
+      </c>
+      <c r="M97" s="27">
+        <v>6.3200051935913687E-2</v>
+      </c>
+      <c r="N97" s="27">
+        <v>70.243455160968878</v>
+      </c>
+      <c r="O97" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -27665,7 +27897,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH96"/>
+  <dimension ref="A1:AH97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27707,7 +27939,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -27740,19 +27972,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -27782,7 +28014,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-85.275022406534561</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -28642,7 +28874,7 @@
         <v>2256.7315129624458</v>
       </c>
       <c r="V12" s="5">
-        <v>6859.3897702593558</v>
+        <v>6735.3146089982411</v>
       </c>
       <c r="W12" s="9">
         <v>0.50389408091143495</v>
@@ -33061,16 +33293,16 @@
         <v>1.211383670768972</v>
       </c>
       <c r="D96" s="21">
-        <v>-358.72510798553304</v>
+        <v>-234.6499467244183</v>
       </c>
       <c r="E96" s="22">
-        <v>-246.54645869753051</v>
+        <v>-161.27143629099595</v>
       </c>
       <c r="F96" s="22">
-        <v>-85.275022406534561</v>
+        <v>0</v>
       </c>
       <c r="G96" s="22">
-        <v>-124.07516126111473</v>
+        <v>0</v>
       </c>
       <c r="H96" s="22">
         <v>4478.5830960357953</v>
@@ -33082,7 +33314,7 @@
         <v>2256.7315129624458</v>
       </c>
       <c r="K96" s="21">
-        <v>6859.3897702593558</v>
+        <v>6735.3146089982411</v>
       </c>
       <c r="L96" s="26">
         <v>81.028370330837475</v>
@@ -33097,6 +33329,56 @@
         <v>92.001401816041067</v>
       </c>
       <c r="P96" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="12.75">
+      <c r="A97" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C97" s="20">
+        <v>1.2133076104409599</v>
+      </c>
+      <c r="D97" s="21">
+        <v>0</v>
+      </c>
+      <c r="E97" s="22">
+        <v>0</v>
+      </c>
+      <c r="F97" s="22">
+        <v>0</v>
+      </c>
+      <c r="G97" s="22">
+        <v>0</v>
+      </c>
+      <c r="H97" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I97" s="22">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="J97" s="22">
+        <v>2256.7315129624458</v>
+      </c>
+      <c r="K97" s="21">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="L97" s="26">
+        <v>79.432614519648922</v>
+      </c>
+      <c r="M97" s="27">
+        <v>77.235814183538352</v>
+      </c>
+      <c r="N97" s="27">
+        <v>71.215551471315493</v>
+      </c>
+      <c r="O97" s="27">
+        <v>89.276339607984056</v>
+      </c>
+      <c r="P97" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -33118,7 +33400,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH96"/>
+  <dimension ref="A1:AH97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33165,7 +33447,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -33174,10 +33456,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -37759,6 +38041,47 @@
         <v>901.75787582245493</v>
       </c>
       <c r="M96" s="21">
+        <v>3181.8326442193757</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="12.75">
+      <c r="A97" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C97" s="20">
+        <v>1.2133076104409599</v>
+      </c>
+      <c r="D97" s="20">
+        <v>1310843</v>
+      </c>
+      <c r="E97" s="20">
+        <v>1865309.5692843222</v>
+      </c>
+      <c r="F97" s="21">
+        <v>0</v>
+      </c>
+      <c r="G97" s="22">
+        <v>0</v>
+      </c>
+      <c r="H97" s="22">
+        <v>0</v>
+      </c>
+      <c r="I97" s="22">
+        <v>0</v>
+      </c>
+      <c r="J97" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K97" s="22">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="L97" s="22">
+        <v>901.75787582245493</v>
+      </c>
+      <c r="M97" s="21">
         <v>3181.8326442193757</v>
       </c>
     </row>
@@ -37780,7 +38103,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF96"/>
+  <dimension ref="A1:AF97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -37822,7 +38145,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -37883,7 +38206,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-39.877507297318026</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -38617,7 +38940,7 @@
         <v>461.2250703448251</v>
       </c>
       <c r="T12" s="5">
-        <v>1301.9253136719271</v>
+        <v>1243.9035388429725</v>
       </c>
       <c r="U12" s="9">
         <v>0.58929060771258057</v>
@@ -41827,16 +42150,16 @@
         <v>1.211383670768972</v>
       </c>
       <c r="D96" s="21">
-        <v>-91.990852005527572</v>
+        <v>-33.969077176572895</v>
       </c>
       <c r="E96" s="22">
-        <v>-63.223951403608204</v>
+        <v>-23.346444106290178</v>
       </c>
       <c r="F96" s="22">
-        <v>-39.877507297318026</v>
+        <v>0</v>
       </c>
       <c r="G96" s="22">
-        <v>-58.021774828954683</v>
+        <v>0</v>
       </c>
       <c r="H96" s="22">
         <v>782.67846849814737</v>
@@ -41848,7 +42171,42 @@
         <v>461.2250703448251</v>
       </c>
       <c r="K96" s="21">
-        <v>1301.9253136719271</v>
+        <v>1243.9035388429725</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="12.75">
+      <c r="A97" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C97" s="20">
+        <v>1.2133076104409599</v>
+      </c>
+      <c r="D97" s="21">
+        <v>0</v>
+      </c>
+      <c r="E97" s="22">
+        <v>0</v>
+      </c>
+      <c r="F97" s="22">
+        <v>0</v>
+      </c>
+      <c r="G97" s="22">
+        <v>0</v>
+      </c>
+      <c r="H97" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I97" s="22">
+        <v>1243.9035388429725</v>
+      </c>
+      <c r="J97" s="22">
+        <v>461.2250703448251</v>
+      </c>
+      <c r="K97" s="21">
+        <v>1243.9035388429725</v>
       </c>
     </row>
   </sheetData>
@@ -41867,7 +42225,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH96"/>
+  <dimension ref="A1:AH97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -41909,7 +42267,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -41942,16 +42300,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -47059,6 +47417,53 @@
         <v>71.951167459958171</v>
       </c>
       <c r="O96" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="12.75">
+      <c r="A97" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C97" s="21">
+        <v>1.2133076104409599</v>
+      </c>
+      <c r="D97" s="21">
+        <v>-16.785179039891826</v>
+      </c>
+      <c r="E97" s="22">
+        <v>-11.608007795551357</v>
+      </c>
+      <c r="F97" s="22">
+        <v>118.68012099253063</v>
+      </c>
+      <c r="G97" s="22">
+        <v>171.61145257837345</v>
+      </c>
+      <c r="H97" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I97" s="22">
+        <v>1925.8432060912214</v>
+      </c>
+      <c r="J97" s="22">
+        <v>843.86712793145603</v>
+      </c>
+      <c r="K97" s="21">
+        <v>1754.2317535128479</v>
+      </c>
+      <c r="L97" s="26">
+        <v>4.4393900143312577E-2</v>
+      </c>
+      <c r="M97" s="27">
+        <v>6.3200051935913687E-2</v>
+      </c>
+      <c r="N97" s="27">
+        <v>70.243455160968878</v>
+      </c>
+      <c r="O97" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -47080,7 +47485,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH96"/>
+  <dimension ref="A1:AH97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -47122,7 +47527,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -47155,19 +47560,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -52511,6 +52916,56 @@
         <v>92.001401816041067</v>
       </c>
       <c r="P96" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="12.75">
+      <c r="A97" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C97" s="20">
+        <v>1.2133076104409599</v>
+      </c>
+      <c r="D97" s="21">
+        <v>0</v>
+      </c>
+      <c r="E97" s="22">
+        <v>0</v>
+      </c>
+      <c r="F97" s="22">
+        <v>0</v>
+      </c>
+      <c r="G97" s="22">
+        <v>0</v>
+      </c>
+      <c r="H97" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I97" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J97" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K97" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L97" s="26">
+        <v>79.432614519648922</v>
+      </c>
+      <c r="M97" s="27">
+        <v>77.235814183538352</v>
+      </c>
+      <c r="N97" s="27">
+        <v>71.215551471315493</v>
+      </c>
+      <c r="O97" s="27">
+        <v>89.276339607984056</v>
+      </c>
+      <c r="P97" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -52532,7 +52987,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH96"/>
+  <dimension ref="A1:AH97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -52579,7 +53034,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -52588,10 +53043,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -57176,6 +57631,47 @@
         <v>579.4237932103814</v>
       </c>
     </row>
+    <row r="97" spans="1:13" ht="12.75">
+      <c r="A97" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C97" s="20">
+        <v>1.2133076104409599</v>
+      </c>
+      <c r="D97" s="20">
+        <v>1310843</v>
+      </c>
+      <c r="E97" s="20">
+        <v>1865309.5692843222</v>
+      </c>
+      <c r="F97" s="21">
+        <v>0</v>
+      </c>
+      <c r="G97" s="22">
+        <v>0</v>
+      </c>
+      <c r="H97" s="22">
+        <v>0</v>
+      </c>
+      <c r="I97" s="22">
+        <v>0</v>
+      </c>
+      <c r="J97" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K97" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L97" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M97" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="31">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -165,10 +161,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>RSV</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -182,6 +174,10 @@
   </si>
   <si>
     <t>J</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -879,7 +875,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1164,6 +1160,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1173,7 +1172,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1457,6 +1456,9 @@
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>4893.7540233362733</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1500,7 +1502,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1785,6 +1787,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1794,7 +1799,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2078,6 +2083,9 @@
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>7246.1850032321172</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
               </c:numCache>
@@ -2121,7 +2129,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2406,6 +2414,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2415,7 +2426,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2699,6 +2710,9 @@
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>2352.4309798958438</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
               </c:numCache>
@@ -2721,11 +2735,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="499748864"/>
-        <c:axId val="499750400"/>
+        <c:axId val="510243200"/>
+        <c:axId val="510245120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="499748864"/>
+        <c:axId val="510243200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2768,14 +2782,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499750400"/>
+        <c:crossAx val="510245120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="499750400"/>
+        <c:axId val="510245120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2824,7 +2838,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499748864"/>
+        <c:crossAx val="510243200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3038,7 +3052,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3323,6 +3337,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3332,7 +3349,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3616,6 +3633,9 @@
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>6052.5924500756464</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
@@ -3659,7 +3679,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3944,6 +3964,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3953,7 +3976,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4238,6 +4261,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>10391.992068482998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>10195.186004335064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4280,7 +4306,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4565,6 +4591,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4574,7 +4603,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4859,6 +4888,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>4339.3996184073512</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4142.5935542594179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4880,11 +4912,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="500037120"/>
-        <c:axId val="500039040"/>
+        <c:axId val="632301824"/>
+        <c:axId val="635351424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="500037120"/>
+        <c:axId val="632301824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4927,14 +4959,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500039040"/>
+        <c:crossAx val="635351424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500039040"/>
+        <c:axId val="635351424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4983,7 +5015,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500037120"/>
+        <c:crossAx val="632301824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5197,7 +5229,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5482,6 +5514,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5491,7 +5526,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5775,6 +5810,9 @@
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>4478.5830960357953</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
@@ -5818,7 +5856,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6103,6 +6141,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6112,7 +6153,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6396,6 +6437,9 @@
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>6735.3146089982411</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
               </c:numCache>
@@ -6439,7 +6483,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6724,6 +6768,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6733,7 +6780,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7017,6 +7064,9 @@
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>2256.7315129624458</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
               </c:numCache>
@@ -7039,11 +7089,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="514669184"/>
-        <c:axId val="514676608"/>
+        <c:axId val="474897024"/>
+        <c:axId val="474911104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="514669184"/>
+        <c:axId val="474897024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7086,14 +7136,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514676608"/>
+        <c:crossAx val="474911104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="514676608"/>
+        <c:axId val="474911104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7142,7 +7192,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514669184"/>
+        <c:crossAx val="474897024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7356,7 +7406,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7641,6 +7691,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7650,7 +7703,7 @@
               <c:f>'模型二 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7934,6 +7987,9 @@
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>2280.0747683969207</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
@@ -7977,7 +8033,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8262,6 +8318,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8271,7 +8330,7 @@
               <c:f>'模型二 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8555,6 +8614,9 @@
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>3181.8326442193757</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
               </c:numCache>
@@ -8598,7 +8660,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8883,6 +8945,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8892,7 +8957,7 @@
               <c:f>'模型二 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9176,6 +9241,9 @@
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>901.75787582245493</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
               </c:numCache>
@@ -9198,11 +9266,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="458489216"/>
-        <c:axId val="460469376"/>
+        <c:axId val="507013376"/>
+        <c:axId val="507015168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="458489216"/>
+        <c:axId val="507013376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9245,14 +9313,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460469376"/>
+        <c:crossAx val="507015168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="460469376"/>
+        <c:axId val="507015168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9301,7 +9369,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458489216"/>
+        <c:crossAx val="507013376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9515,7 +9583,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9800,6 +9868,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9809,7 +9880,7 @@
               <c:f>'模型二 (2)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10093,6 +10164,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -10136,7 +10210,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10421,6 +10495,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10430,7 +10507,7 @@
               <c:f>'模型二 (2)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10714,6 +10791,9 @@
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>1243.9035388429725</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
               </c:numCache>
@@ -10757,7 +10837,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11042,6 +11122,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11051,7 +11134,7 @@
               <c:f>'模型二 (2)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11335,6 +11418,9 @@
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>461.2250703448251</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
               </c:numCache>
@@ -11357,11 +11443,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="460577792"/>
-        <c:axId val="460579584"/>
+        <c:axId val="508258176"/>
+        <c:axId val="508259712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="460577792"/>
+        <c:axId val="508258176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11404,14 +11490,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460579584"/>
+        <c:crossAx val="508259712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="460579584"/>
+        <c:axId val="508259712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11460,7 +11546,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460577792"/>
+        <c:crossAx val="508258176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11674,7 +11760,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11959,6 +12045,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11968,7 +12057,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12252,6 +12341,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -12295,7 +12387,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12580,6 +12672,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12589,7 +12684,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12874,6 +12969,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>1946.612235753578</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1938.211964032281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12916,7 +13014,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13201,6 +13299,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13210,7 +13311,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13495,6 +13596,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>864.63615759381264</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>856.23588587251561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13516,11 +13620,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="460839552"/>
-        <c:axId val="460865920"/>
+        <c:axId val="508425728"/>
+        <c:axId val="508427264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="460839552"/>
+        <c:axId val="508425728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13563,14 +13667,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460865920"/>
+        <c:crossAx val="508427264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="460865920"/>
+        <c:axId val="508427264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13619,7 +13723,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460839552"/>
+        <c:crossAx val="508425728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13833,7 +13937,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14118,6 +14222,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14127,7 +14234,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14411,6 +14518,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -14454,7 +14564,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14739,6 +14849,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14748,7 +14861,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15032,6 +15145,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -15075,7 +15191,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15360,6 +15476,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15369,7 +15488,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15653,6 +15772,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -15675,11 +15797,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="462555392"/>
-        <c:axId val="462581760"/>
+        <c:axId val="508646528"/>
+        <c:axId val="508648064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="462555392"/>
+        <c:axId val="508646528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15722,14 +15844,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462581760"/>
+        <c:crossAx val="508648064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="462581760"/>
+        <c:axId val="508648064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15778,7 +15900,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462555392"/>
+        <c:crossAx val="508646528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15992,7 +16114,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16277,6 +16399,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16286,7 +16411,7 @@
               <c:f>'模型二 (2)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16570,6 +16695,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -16613,7 +16741,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16898,6 +17026,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16907,7 +17038,7 @@
               <c:f>'模型二 (2)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17191,6 +17322,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -17234,7 +17368,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17519,6 +17653,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17528,7 +17665,7 @@
               <c:f>'模型二 (2)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17812,6 +17949,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -17834,11 +17974,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="462931840"/>
-        <c:axId val="462933376"/>
+        <c:axId val="508797696"/>
+        <c:axId val="508799232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="462931840"/>
+        <c:axId val="508797696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17881,14 +18021,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462933376"/>
+        <c:crossAx val="508799232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="462933376"/>
+        <c:axId val="508799232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17937,7 +18077,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462931840"/>
+        <c:crossAx val="508797696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18045,7 +18185,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18088,7 +18228,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18131,7 +18271,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18174,7 +18314,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18217,7 +18357,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18260,7 +18400,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18303,7 +18443,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18346,7 +18486,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18659,7 +18799,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF98"/>
+  <dimension ref="A1:AF99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22800,6 +22940,41 @@
         <v>7246.1850032321172</v>
       </c>
     </row>
+    <row r="99" spans="1:11" ht="12.75">
+      <c r="A99" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B99" s="25">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1.2215649915353923</v>
+      </c>
+      <c r="D99" s="21">
+        <v>0</v>
+      </c>
+      <c r="E99" s="22">
+        <v>0</v>
+      </c>
+      <c r="F99" s="22">
+        <v>0</v>
+      </c>
+      <c r="G99" s="22">
+        <v>0</v>
+      </c>
+      <c r="H99" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I99" s="22">
+        <v>7246.1850032321172</v>
+      </c>
+      <c r="J99" s="22">
+        <v>2352.4309798958438</v>
+      </c>
+      <c r="K99" s="21">
+        <v>7246.1850032321172</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -22816,7 +22991,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH98"/>
+  <dimension ref="A1:AH99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22858,7 +23033,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -22891,16 +23066,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -28103,6 +28278,53 @@
       </c>
       <c r="O98" s="27">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="12.75">
+      <c r="A99" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B99" s="25">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1.2215649915353923</v>
+      </c>
+      <c r="D99" s="21">
+        <v>-470.32422616526213</v>
+      </c>
+      <c r="E99" s="22">
+        <v>-308.40933345463191</v>
+      </c>
+      <c r="F99" s="22">
+        <v>1741.6522258759969</v>
+      </c>
+      <c r="G99" s="22">
+        <v>2656.0196029366703</v>
+      </c>
+      <c r="H99" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I99" s="22">
+        <v>10195.186004335064</v>
+      </c>
+      <c r="J99" s="22">
+        <v>4142.5935542594179</v>
+      </c>
+      <c r="K99" s="21">
+        <v>7539.1664013983936</v>
+      </c>
+      <c r="L99" s="26">
+        <v>5.5134662811407859E-2</v>
+      </c>
+      <c r="M99" s="27">
+        <v>8.419450300187048E-2</v>
+      </c>
+      <c r="N99" s="27">
+        <v>65.484872343961669</v>
+      </c>
+      <c r="O99" s="27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -28123,7 +28345,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH98"/>
+  <dimension ref="A1:AH99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28165,7 +28387,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -28198,19 +28420,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -33655,6 +33877,56 @@
         <v>89.200517357554929</v>
       </c>
       <c r="P98" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="12.75">
+      <c r="A99" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B99" s="25">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1.2215649915353923</v>
+      </c>
+      <c r="D99" s="21">
+        <v>0</v>
+      </c>
+      <c r="E99" s="22">
+        <v>0</v>
+      </c>
+      <c r="F99" s="22">
+        <v>0</v>
+      </c>
+      <c r="G99" s="22">
+        <v>0</v>
+      </c>
+      <c r="H99" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I99" s="22">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="J99" s="22">
+        <v>2256.7315129624458</v>
+      </c>
+      <c r="K99" s="21">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="L99" s="26">
+        <v>69.616905106252176</v>
+      </c>
+      <c r="M99" s="27">
+        <v>75.82123103141042</v>
+      </c>
+      <c r="N99" s="27">
+        <v>74.463631885274708</v>
+      </c>
+      <c r="O99" s="27">
+        <v>78.53642932368183</v>
+      </c>
+      <c r="P99" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -33676,7 +33948,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH98"/>
+  <dimension ref="A1:AH99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33723,7 +33995,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -33732,10 +34004,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -38399,6 +38671,47 @@
         <v>901.75787582245493</v>
       </c>
       <c r="M98" s="21">
+        <v>3181.8326442193757</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="12.75">
+      <c r="A99" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B99" s="25">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1.2215649915353923</v>
+      </c>
+      <c r="D99" s="20">
+        <v>1048890</v>
+      </c>
+      <c r="E99" s="20">
+        <v>1854302.9814498641</v>
+      </c>
+      <c r="F99" s="21">
+        <v>0</v>
+      </c>
+      <c r="G99" s="22">
+        <v>0</v>
+      </c>
+      <c r="H99" s="22">
+        <v>0</v>
+      </c>
+      <c r="I99" s="22">
+        <v>0</v>
+      </c>
+      <c r="J99" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K99" s="22">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="L99" s="22">
+        <v>901.75787582245493</v>
+      </c>
+      <c r="M99" s="21">
         <v>3181.8326442193757</v>
       </c>
     </row>
@@ -38420,7 +38733,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF98"/>
+  <dimension ref="A1:AF99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -42561,6 +42874,41 @@
         <v>1243.9035388429725</v>
       </c>
     </row>
+    <row r="99" spans="1:11" ht="12.75">
+      <c r="A99" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B99" s="25">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1.2215649915353923</v>
+      </c>
+      <c r="D99" s="21">
+        <v>0</v>
+      </c>
+      <c r="E99" s="22">
+        <v>0</v>
+      </c>
+      <c r="F99" s="22">
+        <v>0</v>
+      </c>
+      <c r="G99" s="22">
+        <v>0</v>
+      </c>
+      <c r="H99" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I99" s="22">
+        <v>1243.9035388429725</v>
+      </c>
+      <c r="J99" s="22">
+        <v>461.2250703448251</v>
+      </c>
+      <c r="K99" s="21">
+        <v>1243.9035388429725</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -42576,8 +42924,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH98"/>
+  <sheetPr codeName="Sheet6">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AH99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -42652,16 +43002,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -42691,7 +43041,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-6.0794195958263657</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -47864,6 +48214,53 @@
       </c>
       <c r="O98" s="27">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="12.75">
+      <c r="A99" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B99" s="25">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C99" s="21">
+        <v>1.2215649915353923</v>
+      </c>
+      <c r="D99" s="21">
+        <v>-142.71282433416297</v>
+      </c>
+      <c r="E99" s="22">
+        <v>-93.58218135431872</v>
+      </c>
+      <c r="F99" s="22">
+        <v>-6.0794195958263657</v>
+      </c>
+      <c r="G99" s="22">
+        <v>-9.2711147386905495</v>
+      </c>
+      <c r="H99" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I99" s="22">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="J99" s="22">
+        <v>856.23588587251561</v>
+      </c>
+      <c r="K99" s="21">
+        <v>1947.4830787709716</v>
+      </c>
+      <c r="L99" s="26">
+        <v>5.5134662811407859E-2</v>
+      </c>
+      <c r="M99" s="27">
+        <v>8.419450300187048E-2</v>
+      </c>
+      <c r="N99" s="27">
+        <v>65.484872343961669</v>
+      </c>
+      <c r="O99" s="27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -47884,7 +48281,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH98"/>
+  <dimension ref="A1:AH99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -47959,19 +48356,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -53415,6 +53812,56 @@
         <v>89.200517357554929</v>
       </c>
       <c r="P98" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="12.75">
+      <c r="A99" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B99" s="25">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1.2215649915353923</v>
+      </c>
+      <c r="D99" s="21">
+        <v>0</v>
+      </c>
+      <c r="E99" s="22">
+        <v>0</v>
+      </c>
+      <c r="F99" s="22">
+        <v>0</v>
+      </c>
+      <c r="G99" s="22">
+        <v>0</v>
+      </c>
+      <c r="H99" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I99" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J99" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K99" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L99" s="26">
+        <v>69.616905106252176</v>
+      </c>
+      <c r="M99" s="27">
+        <v>75.82123103141042</v>
+      </c>
+      <c r="N99" s="27">
+        <v>74.463631885274708</v>
+      </c>
+      <c r="O99" s="27">
+        <v>78.53642932368183</v>
+      </c>
+      <c r="P99" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -53436,7 +53883,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH98"/>
+  <dimension ref="A1:AH99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -53492,10 +53939,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -58162,6 +58609,47 @@
         <v>579.4237932103814</v>
       </c>
     </row>
+    <row r="99" spans="1:13" ht="12.75">
+      <c r="A99" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B99" s="25">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1.2215649915353923</v>
+      </c>
+      <c r="D99" s="20">
+        <v>1048890</v>
+      </c>
+      <c r="E99" s="20">
+        <v>1854302.9814498641</v>
+      </c>
+      <c r="F99" s="21">
+        <v>0</v>
+      </c>
+      <c r="G99" s="22">
+        <v>0</v>
+      </c>
+      <c r="H99" s="22">
+        <v>0</v>
+      </c>
+      <c r="I99" s="22">
+        <v>0</v>
+      </c>
+      <c r="J99" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K99" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L99" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M99" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="33">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,6 +145,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -186,6 +190,10 @@
   </si>
   <si>
     <t>成交均量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -875,7 +883,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1163,6 +1171,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1172,7 +1183,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1459,6 +1470,9 @@
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>4893.7540233362733</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1502,7 +1516,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1790,6 +1804,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1799,7 +1816,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2086,6 +2103,9 @@
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>7246.1850032321172</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
               </c:numCache>
@@ -2129,7 +2149,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2417,6 +2437,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2426,7 +2449,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2713,6 +2736,9 @@
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>2352.4309798958438</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
               </c:numCache>
@@ -2735,11 +2761,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="510243200"/>
-        <c:axId val="510245120"/>
+        <c:axId val="473009536"/>
+        <c:axId val="473220224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="510243200"/>
+        <c:axId val="473009536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2782,14 +2808,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510245120"/>
+        <c:crossAx val="473220224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="510245120"/>
+        <c:axId val="473220224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2838,7 +2864,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510243200"/>
+        <c:crossAx val="473009536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3052,7 +3078,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3340,6 +3366,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3349,7 +3378,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3636,6 +3665,9 @@
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>6052.5924500756464</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
@@ -3679,7 +3711,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3967,6 +3999,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3976,7 +4011,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4264,6 +4299,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>10195.186004335064</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>10085.461977221697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4306,7 +4344,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4594,6 +4632,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4603,7 +4644,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4891,6 +4932,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>4142.5935542594179</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4032.869527146051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4912,11 +4956,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="632301824"/>
-        <c:axId val="635351424"/>
+        <c:axId val="488105472"/>
+        <c:axId val="488107392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="632301824"/>
+        <c:axId val="488105472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4959,14 +5003,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635351424"/>
+        <c:crossAx val="488107392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="635351424"/>
+        <c:axId val="488107392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5015,7 +5059,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632301824"/>
+        <c:crossAx val="488105472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5229,7 +5273,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5517,6 +5561,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5526,7 +5573,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5813,6 +5860,9 @@
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>4478.5830960357953</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
@@ -5856,7 +5906,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6144,6 +6194,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6153,7 +6206,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6440,6 +6493,9 @@
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>6735.3146089982411</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
               </c:numCache>
@@ -6483,7 +6539,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6771,6 +6827,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6780,7 +6839,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7067,6 +7126,9 @@
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>2256.7315129624458</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
               </c:numCache>
@@ -7089,11 +7151,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474897024"/>
-        <c:axId val="474911104"/>
+        <c:axId val="470916480"/>
+        <c:axId val="470922368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474897024"/>
+        <c:axId val="470916480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7136,14 +7198,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474911104"/>
+        <c:crossAx val="470922368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474911104"/>
+        <c:axId val="470922368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7192,7 +7254,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474897024"/>
+        <c:crossAx val="470916480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7406,7 +7468,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7694,6 +7756,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7703,7 +7768,7 @@
               <c:f>'模型二 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7990,6 +8055,9 @@
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>2280.0747683969207</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
@@ -8033,7 +8101,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8321,6 +8389,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8330,7 +8401,7 @@
               <c:f>'模型二 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8617,6 +8688,9 @@
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>3181.8326442193757</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
               </c:numCache>
@@ -8660,7 +8734,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8948,6 +9022,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8957,7 +9034,7 @@
               <c:f>'模型二 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9244,6 +9321,9 @@
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>901.75787582245493</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
               </c:numCache>
@@ -9266,11 +9346,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507013376"/>
-        <c:axId val="507015168"/>
+        <c:axId val="471077632"/>
+        <c:axId val="471079168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507013376"/>
+        <c:axId val="471077632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9313,14 +9393,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507015168"/>
+        <c:crossAx val="471079168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507015168"/>
+        <c:axId val="471079168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9369,7 +9449,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507013376"/>
+        <c:crossAx val="471077632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9583,7 +9663,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9871,6 +9951,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9880,7 +9963,7 @@
               <c:f>'模型二 (2)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10167,6 +10250,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -10210,7 +10296,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10498,6 +10584,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10507,7 +10596,7 @@
               <c:f>'模型二 (2)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10794,6 +10883,9 @@
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>1243.9035388429725</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
               </c:numCache>
@@ -10837,7 +10929,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11125,6 +11217,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11134,7 +11229,7 @@
               <c:f>'模型二 (2)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11421,6 +11516,9 @@
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>461.2250703448251</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
               </c:numCache>
@@ -11443,11 +11541,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="508258176"/>
-        <c:axId val="508259712"/>
+        <c:axId val="471623552"/>
+        <c:axId val="471625088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="508258176"/>
+        <c:axId val="471623552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11490,14 +11588,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508259712"/>
+        <c:crossAx val="471625088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="508259712"/>
+        <c:axId val="471625088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11546,7 +11644,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508258176"/>
+        <c:crossAx val="471623552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11760,7 +11858,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12048,6 +12146,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12057,7 +12158,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12344,6 +12445,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -12387,7 +12491,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12675,6 +12779,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12684,7 +12791,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12971,6 +13078,9 @@
                   <c:v>1946.612235753578</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>1938.211964032281</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
               </c:numCache>
@@ -13014,7 +13124,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13302,6 +13412,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13311,7 +13424,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13598,6 +13711,9 @@
                   <c:v>864.63615759381264</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>856.23588587251561</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
               </c:numCache>
@@ -13620,11 +13736,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="508425728"/>
-        <c:axId val="508427264"/>
+        <c:axId val="471669760"/>
+        <c:axId val="471675648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="508425728"/>
+        <c:axId val="471669760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13667,14 +13783,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508427264"/>
+        <c:crossAx val="471675648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="508427264"/>
+        <c:axId val="471675648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13723,7 +13839,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508425728"/>
+        <c:crossAx val="471669760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13937,7 +14053,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14225,6 +14341,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14234,7 +14353,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14521,6 +14640,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -14564,7 +14686,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14852,6 +14974,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14861,7 +14986,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15148,6 +15273,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -15191,7 +15319,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15479,6 +15607,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15488,7 +15619,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15775,6 +15906,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -15797,11 +15931,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="508646528"/>
-        <c:axId val="508648064"/>
+        <c:axId val="471945600"/>
+        <c:axId val="471947136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="508646528"/>
+        <c:axId val="471945600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15844,14 +15978,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508648064"/>
+        <c:crossAx val="471947136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="508648064"/>
+        <c:axId val="471947136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15900,7 +16034,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508646528"/>
+        <c:crossAx val="471945600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16114,7 +16248,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16402,6 +16536,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16411,7 +16548,7 @@
               <c:f>'模型二 (2)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16698,6 +16835,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -16741,7 +16881,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17029,6 +17169,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17038,7 +17181,7 @@
               <c:f>'模型二 (2)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17325,6 +17468,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -17368,7 +17514,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17656,6 +17802,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17665,7 +17814,7 @@
               <c:f>'模型二 (2)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17952,6 +18101,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -17974,11 +18126,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="508797696"/>
-        <c:axId val="508799232"/>
+        <c:axId val="472176128"/>
+        <c:axId val="472177664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="508797696"/>
+        <c:axId val="472176128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18021,14 +18173,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508799232"/>
+        <c:crossAx val="472177664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="508799232"/>
+        <c:axId val="472177664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18077,7 +18229,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508797696"/>
+        <c:crossAx val="472176128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18799,7 +18951,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF99"/>
+  <dimension ref="A1:AF100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22975,6 +23127,41 @@
         <v>7246.1850032321172</v>
       </c>
     </row>
+    <row r="100" spans="1:11" ht="12.75">
+      <c r="A100" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B100" s="25">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1.2237863723037186</v>
+      </c>
+      <c r="D100" s="21">
+        <v>0</v>
+      </c>
+      <c r="E100" s="22">
+        <v>0</v>
+      </c>
+      <c r="F100" s="22">
+        <v>0</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I100" s="22">
+        <v>7246.1850032321172</v>
+      </c>
+      <c r="J100" s="22">
+        <v>2352.4309798958438</v>
+      </c>
+      <c r="K100" s="21">
+        <v>7246.1850032321172</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -22991,7 +23178,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH99"/>
+  <dimension ref="A1:AH100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23033,7 +23220,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -23066,16 +23253,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -28325,6 +28512,53 @@
       </c>
       <c r="O99" s="27">
         <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="12.75">
+      <c r="A100" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B100" s="25">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1.2237863723037186</v>
+      </c>
+      <c r="D100" s="21">
+        <v>-73.846228429154749</v>
+      </c>
+      <c r="E100" s="22">
+        <v>-50.510415733884017</v>
+      </c>
+      <c r="F100" s="22">
+        <v>1691.1418101421129</v>
+      </c>
+      <c r="G100" s="22">
+        <v>2472.4493473941498</v>
+      </c>
+      <c r="H100" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I100" s="22">
+        <v>10085.461977221697</v>
+      </c>
+      <c r="J100" s="22">
+        <v>4032.869527146051</v>
+      </c>
+      <c r="K100" s="21">
+        <v>7613.0126298275482</v>
+      </c>
+      <c r="L100" s="26">
+        <v>4.5945552342839889E-2</v>
+      </c>
+      <c r="M100" s="27">
+        <v>8.0662079794954725E-2</v>
+      </c>
+      <c r="N100" s="27">
+        <v>56.960535185349521</v>
+      </c>
+      <c r="O100" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -28345,7 +28579,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH99"/>
+  <dimension ref="A1:AH100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28420,19 +28654,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -33927,6 +34161,56 @@
         <v>78.53642932368183</v>
       </c>
       <c r="P99" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="12.75">
+      <c r="A100" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B100" s="25">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1.2237863723037186</v>
+      </c>
+      <c r="D100" s="21">
+        <v>0</v>
+      </c>
+      <c r="E100" s="22">
+        <v>0</v>
+      </c>
+      <c r="F100" s="22">
+        <v>0</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I100" s="22">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="J100" s="22">
+        <v>2256.7315129624458</v>
+      </c>
+      <c r="K100" s="21">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="L100" s="26">
+        <v>61.294584591041257</v>
+      </c>
+      <c r="M100" s="27">
+        <v>70.979015551287361</v>
+      </c>
+      <c r="N100" s="27">
+        <v>73.302093107278935</v>
+      </c>
+      <c r="O100" s="27">
+        <v>66.332860439304199</v>
+      </c>
+      <c r="P100" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -33948,7 +34232,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH99"/>
+  <dimension ref="A1:AH100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33995,7 +34279,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -34004,10 +34288,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -34118,7 +34402,7 @@
       </c>
       <c r="N4" s="7"/>
       <c r="Q4" s="31" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -38712,6 +38996,47 @@
         <v>901.75787582245493</v>
       </c>
       <c r="M99" s="21">
+        <v>3181.8326442193757</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="12.75">
+      <c r="A100" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B100" s="25">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1.2237863723037186</v>
+      </c>
+      <c r="D100" s="20">
+        <v>739608</v>
+      </c>
+      <c r="E100" s="20">
+        <v>1841298.9452924884</v>
+      </c>
+      <c r="F100" s="21">
+        <v>0</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22">
+        <v>0</v>
+      </c>
+      <c r="I100" s="22">
+        <v>0</v>
+      </c>
+      <c r="J100" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K100" s="22">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="L100" s="22">
+        <v>901.75787582245493</v>
+      </c>
+      <c r="M100" s="21">
         <v>3181.8326442193757</v>
       </c>
     </row>
@@ -38733,7 +39058,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF99"/>
+  <dimension ref="A1:AF100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -42909,6 +43234,41 @@
         <v>1243.9035388429725</v>
       </c>
     </row>
+    <row r="100" spans="1:11" ht="12.75">
+      <c r="A100" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B100" s="25">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1.2237863723037186</v>
+      </c>
+      <c r="D100" s="21">
+        <v>0</v>
+      </c>
+      <c r="E100" s="22">
+        <v>0</v>
+      </c>
+      <c r="F100" s="22">
+        <v>0</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I100" s="22">
+        <v>1243.9035388429725</v>
+      </c>
+      <c r="J100" s="22">
+        <v>461.2250703448251</v>
+      </c>
+      <c r="K100" s="21">
+        <v>1243.9035388429725</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -42927,7 +43287,7 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH99"/>
+  <dimension ref="A1:AH100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -42969,7 +43329,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -43002,16 +43362,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -43041,7 +43401,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-6.0794195958263657</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -48227,16 +48587,16 @@
         <v>1.2215649915353923</v>
       </c>
       <c r="D99" s="21">
-        <v>-142.71282433416297</v>
+        <v>-133.44170959547242</v>
       </c>
       <c r="E99" s="22">
-        <v>-93.58218135431872</v>
+        <v>-87.502761758492355</v>
       </c>
       <c r="F99" s="22">
-        <v>-6.0794195958263657</v>
+        <v>0</v>
       </c>
       <c r="G99" s="22">
-        <v>-9.2711147386905495</v>
+        <v>0</v>
       </c>
       <c r="H99" s="22">
         <v>1081.9760781597654</v>
@@ -48248,7 +48608,7 @@
         <v>856.23588587251561</v>
       </c>
       <c r="K99" s="21">
-        <v>1947.4830787709716</v>
+        <v>1938.211964032281</v>
       </c>
       <c r="L99" s="26">
         <v>5.5134662811407859E-2</v>
@@ -48261,6 +48621,53 @@
       </c>
       <c r="O99" s="27">
         <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="12.75">
+      <c r="A100" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B100" s="25">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C100" s="21">
+        <v>1.2237863723037186</v>
+      </c>
+      <c r="D100" s="21">
+        <v>0</v>
+      </c>
+      <c r="E100" s="22">
+        <v>0</v>
+      </c>
+      <c r="F100" s="22">
+        <v>0</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I100" s="22">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="J100" s="22">
+        <v>856.23588587251561</v>
+      </c>
+      <c r="K100" s="21">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="L100" s="26">
+        <v>4.5945552342839889E-2</v>
+      </c>
+      <c r="M100" s="27">
+        <v>8.0662079794954725E-2</v>
+      </c>
+      <c r="N100" s="27">
+        <v>56.960535185349521</v>
+      </c>
+      <c r="O100" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -48281,7 +48688,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH99"/>
+  <dimension ref="A1:AH100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -48356,19 +48763,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -53862,6 +54269,56 @@
         <v>78.53642932368183</v>
       </c>
       <c r="P99" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="12.75">
+      <c r="A100" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B100" s="25">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1.2237863723037186</v>
+      </c>
+      <c r="D100" s="21">
+        <v>0</v>
+      </c>
+      <c r="E100" s="22">
+        <v>0</v>
+      </c>
+      <c r="F100" s="22">
+        <v>0</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I100" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J100" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K100" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L100" s="26">
+        <v>61.294584591041257</v>
+      </c>
+      <c r="M100" s="27">
+        <v>70.979015551287361</v>
+      </c>
+      <c r="N100" s="27">
+        <v>73.302093107278935</v>
+      </c>
+      <c r="O100" s="27">
+        <v>66.332860439304199</v>
+      </c>
+      <c r="P100" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -53883,7 +54340,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH99"/>
+  <dimension ref="A1:AH100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -53939,10 +54396,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -58650,6 +59107,47 @@
         <v>579.4237932103814</v>
       </c>
     </row>
+    <row r="100" spans="1:13" ht="12.75">
+      <c r="A100" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B100" s="25">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1.2237863723037186</v>
+      </c>
+      <c r="D100" s="20">
+        <v>739608</v>
+      </c>
+      <c r="E100" s="20">
+        <v>1841298.9452924884</v>
+      </c>
+      <c r="F100" s="21">
+        <v>0</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22">
+        <v>0</v>
+      </c>
+      <c r="I100" s="22">
+        <v>0</v>
+      </c>
+      <c r="J100" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K100" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L100" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M100" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="30">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -181,19 +177,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>成交量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成交均量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,7 +871,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1174,6 +1162,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1183,7 +1174,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1473,6 +1464,9 @@
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>4893.7540233362733</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1516,7 +1510,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1807,6 +1801,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1816,7 +1813,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2106,6 +2103,9 @@
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>7246.1850032321172</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
               </c:numCache>
@@ -2149,7 +2149,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2440,6 +2440,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2449,7 +2452,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2739,6 +2742,9 @@
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>2352.4309798958438</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
               </c:numCache>
@@ -2761,11 +2767,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="473009536"/>
-        <c:axId val="473220224"/>
+        <c:axId val="658342272"/>
+        <c:axId val="658343808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="473009536"/>
+        <c:axId val="658342272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2808,14 +2814,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473220224"/>
+        <c:crossAx val="658343808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="473220224"/>
+        <c:axId val="658343808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2864,7 +2870,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473009536"/>
+        <c:crossAx val="658342272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3078,7 +3084,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3369,6 +3375,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3378,7 +3387,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3668,6 +3677,9 @@
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>6052.5924500756464</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
@@ -3711,7 +3723,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4002,6 +4014,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4011,7 +4026,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4302,6 +4317,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>10085.461977221697</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>10041.49225145084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4344,7 +4362,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4635,6 +4653,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4644,7 +4665,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4935,6 +4956,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>4032.869527146051</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3988.8998013751934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4956,11 +4980,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="488105472"/>
-        <c:axId val="488107392"/>
+        <c:axId val="601970944"/>
+        <c:axId val="601972736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="488105472"/>
+        <c:axId val="601970944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5003,14 +5027,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488107392"/>
+        <c:crossAx val="601972736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="488107392"/>
+        <c:axId val="601972736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5059,7 +5083,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488105472"/>
+        <c:crossAx val="601970944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5273,7 +5297,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5564,6 +5588,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5573,7 +5600,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5863,6 +5890,9 @@
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>4478.5830960357953</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
@@ -5906,7 +5936,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6197,6 +6227,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6206,7 +6239,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6496,6 +6529,9 @@
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>6735.3146089982411</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
               </c:numCache>
@@ -6539,7 +6575,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6830,6 +6866,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6839,7 +6878,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7129,6 +7168,9 @@
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>2256.7315129624458</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
               </c:numCache>
@@ -7151,11 +7193,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="470916480"/>
-        <c:axId val="470922368"/>
+        <c:axId val="602123648"/>
+        <c:axId val="602125440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="470916480"/>
+        <c:axId val="602123648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7198,14 +7240,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470922368"/>
+        <c:crossAx val="602125440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="470922368"/>
+        <c:axId val="602125440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7254,7 +7296,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470916480"/>
+        <c:crossAx val="602123648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7468,7 +7510,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7759,6 +7801,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7768,7 +7813,7 @@
               <c:f>'模型二 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8058,6 +8103,9 @@
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>2280.0747683969207</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
@@ -8101,7 +8149,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8392,6 +8440,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8401,7 +8452,7 @@
               <c:f>'模型二 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8691,6 +8742,9 @@
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>3181.8326442193757</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
               </c:numCache>
@@ -8734,7 +8788,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9025,6 +9079,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9034,7 +9091,7 @@
               <c:f>'模型二 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9324,6 +9381,9 @@
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>901.75787582245493</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
               </c:numCache>
@@ -9346,11 +9406,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471077632"/>
-        <c:axId val="471079168"/>
+        <c:axId val="602166016"/>
+        <c:axId val="602167552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471077632"/>
+        <c:axId val="602166016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9393,14 +9453,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471079168"/>
+        <c:crossAx val="602167552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471079168"/>
+        <c:axId val="602167552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9449,7 +9509,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471077632"/>
+        <c:crossAx val="602166016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9663,7 +9723,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9954,6 +10014,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9963,7 +10026,7 @@
               <c:f>'模型二 (2)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10253,6 +10316,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -10296,7 +10362,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10587,6 +10653,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10596,7 +10665,7 @@
               <c:f>'模型二 (2)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10886,6 +10955,9 @@
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>1243.9035388429725</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
               </c:numCache>
@@ -10929,7 +11001,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11220,6 +11292,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11229,7 +11304,7 @@
               <c:f>'模型二 (2)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11519,6 +11594,9 @@
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>461.2250703448251</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
               </c:numCache>
@@ -11541,11 +11619,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471623552"/>
-        <c:axId val="471625088"/>
+        <c:axId val="602425216"/>
+        <c:axId val="602426752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471623552"/>
+        <c:axId val="602425216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11588,14 +11666,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471625088"/>
+        <c:crossAx val="602426752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471625088"/>
+        <c:axId val="602426752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11644,7 +11722,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471623552"/>
+        <c:crossAx val="602425216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11858,7 +11936,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12149,6 +12227,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12158,7 +12239,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12448,6 +12529,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -12491,7 +12575,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12782,6 +12866,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12791,7 +12878,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13081,6 +13168,9 @@
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>1938.211964032281</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
               </c:numCache>
@@ -13124,7 +13214,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13415,6 +13505,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13424,7 +13517,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13714,6 +13807,9 @@
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>856.23588587251561</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
               </c:numCache>
@@ -13736,11 +13832,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471669760"/>
-        <c:axId val="471675648"/>
+        <c:axId val="602500096"/>
+        <c:axId val="602514176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471669760"/>
+        <c:axId val="602500096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13783,14 +13879,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471675648"/>
+        <c:crossAx val="602514176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471675648"/>
+        <c:axId val="602514176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13839,7 +13935,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471669760"/>
+        <c:crossAx val="602500096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14053,7 +14149,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14344,6 +14440,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14353,7 +14452,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14643,6 +14742,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -14686,7 +14788,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14977,6 +15079,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14986,7 +15091,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15276,6 +15381,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -15319,7 +15427,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15610,6 +15718,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15619,7 +15730,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15909,6 +16020,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -15931,11 +16045,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471945600"/>
-        <c:axId val="471947136"/>
+        <c:axId val="603496832"/>
+        <c:axId val="603498368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471945600"/>
+        <c:axId val="603496832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15978,14 +16092,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471947136"/>
+        <c:crossAx val="603498368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471947136"/>
+        <c:axId val="603498368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16034,7 +16148,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471945600"/>
+        <c:crossAx val="603496832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16248,7 +16362,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16539,6 +16653,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16548,7 +16665,7 @@
               <c:f>'模型二 (2)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16838,6 +16955,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -16881,7 +17001,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17172,6 +17292,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17181,7 +17304,7 @@
               <c:f>'模型二 (2)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17471,6 +17594,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -17514,7 +17640,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17805,6 +17931,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17814,7 +17943,7 @@
               <c:f>'模型二 (2)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -18104,6 +18233,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -18126,11 +18258,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472176128"/>
-        <c:axId val="472177664"/>
+        <c:axId val="603690496"/>
+        <c:axId val="603692032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472176128"/>
+        <c:axId val="603690496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18173,14 +18305,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472177664"/>
+        <c:crossAx val="603692032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472177664"/>
+        <c:axId val="603692032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18229,7 +18361,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472176128"/>
+        <c:crossAx val="603690496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18951,7 +19083,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF100"/>
+  <dimension ref="A1:AF101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23162,6 +23294,41 @@
         <v>7246.1850032321172</v>
       </c>
     </row>
+    <row r="101" spans="1:11" ht="12.75">
+      <c r="A101" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C101" s="20">
+        <v>1.2261902580553963</v>
+      </c>
+      <c r="D101" s="21">
+        <v>0</v>
+      </c>
+      <c r="E101" s="22">
+        <v>0</v>
+      </c>
+      <c r="F101" s="22">
+        <v>0</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I101" s="22">
+        <v>7246.1850032321172</v>
+      </c>
+      <c r="J101" s="22">
+        <v>2352.4309798958438</v>
+      </c>
+      <c r="K101" s="21">
+        <v>7246.1850032321172</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -23178,7 +23345,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23220,7 +23387,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -23253,16 +23420,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -28558,6 +28725,53 @@
         <v>56.960535185349521</v>
       </c>
       <c r="O100" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="12.75">
+      <c r="A101" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C101" s="20">
+        <v>1.2261902580553963</v>
+      </c>
+      <c r="D101" s="21">
+        <v>-65.041016750797738</v>
+      </c>
+      <c r="E101" s="22">
+        <v>-45.293187483246648</v>
+      </c>
+      <c r="F101" s="22">
+        <v>1645.8486226588664</v>
+      </c>
+      <c r="G101" s="22">
+        <v>2363.4386048724928</v>
+      </c>
+      <c r="H101" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I101" s="22">
+        <v>10041.49225145084</v>
+      </c>
+      <c r="J101" s="22">
+        <v>3988.8998013751934</v>
+      </c>
+      <c r="K101" s="21">
+        <v>7678.0536465783462</v>
+      </c>
+      <c r="L101" s="26">
+        <v>3.8287960285699911E-2</v>
+      </c>
+      <c r="M101" s="27">
+        <v>7.1551736977159539E-2</v>
+      </c>
+      <c r="N101" s="27">
+        <v>53.51087465273141</v>
+      </c>
+      <c r="O101" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -28579,7 +28793,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28654,19 +28868,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -34211,6 +34425,56 @@
         <v>66.332860439304199</v>
       </c>
       <c r="P100" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" ht="12.75">
+      <c r="A101" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C101" s="20">
+        <v>1.2261902580553963</v>
+      </c>
+      <c r="D101" s="21">
+        <v>0</v>
+      </c>
+      <c r="E101" s="22">
+        <v>0</v>
+      </c>
+      <c r="F101" s="22">
+        <v>0</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I101" s="22">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="J101" s="22">
+        <v>2256.7315129624458</v>
+      </c>
+      <c r="K101" s="21">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="L101" s="26">
+        <v>57.859971125209761</v>
+      </c>
+      <c r="M101" s="27">
+        <v>66.60600074259483</v>
+      </c>
+      <c r="N101" s="27">
+        <v>71.070062319050905</v>
+      </c>
+      <c r="O101" s="27">
+        <v>57.67787758968268</v>
+      </c>
+      <c r="P101" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -34232,7 +34496,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34279,7 +34543,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -34288,10 +34552,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -34402,7 +34666,7 @@
       </c>
       <c r="N4" s="7"/>
       <c r="Q4" s="31" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -39037,6 +39301,47 @@
         <v>901.75787582245493</v>
       </c>
       <c r="M100" s="21">
+        <v>3181.8326442193757</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="12.75">
+      <c r="A101" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C101" s="20">
+        <v>1.2261902580553963</v>
+      </c>
+      <c r="D101" s="20">
+        <v>179000</v>
+      </c>
+      <c r="E101" s="20">
+        <v>1827974.5769715563</v>
+      </c>
+      <c r="F101" s="21">
+        <v>0</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22">
+        <v>0</v>
+      </c>
+      <c r="I101" s="22">
+        <v>0</v>
+      </c>
+      <c r="J101" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K101" s="22">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="L101" s="22">
+        <v>901.75787582245493</v>
+      </c>
+      <c r="M101" s="21">
         <v>3181.8326442193757</v>
       </c>
     </row>
@@ -39058,7 +39363,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF100"/>
+  <dimension ref="A1:AF101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -43269,6 +43574,41 @@
         <v>1243.9035388429725</v>
       </c>
     </row>
+    <row r="101" spans="1:11" ht="12.75">
+      <c r="A101" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C101" s="20">
+        <v>1.2261902580553963</v>
+      </c>
+      <c r="D101" s="21">
+        <v>0</v>
+      </c>
+      <c r="E101" s="22">
+        <v>0</v>
+      </c>
+      <c r="F101" s="22">
+        <v>0</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I101" s="22">
+        <v>1243.9035388429725</v>
+      </c>
+      <c r="J101" s="22">
+        <v>461.2250703448251</v>
+      </c>
+      <c r="K101" s="21">
+        <v>1243.9035388429725</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -43287,7 +43627,7 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -43329,7 +43669,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -43362,16 +43702,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -48667,6 +49007,53 @@
         <v>56.960535185349521</v>
       </c>
       <c r="O100" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="12.75">
+      <c r="A101" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C101" s="21">
+        <v>1.2261902580553963</v>
+      </c>
+      <c r="D101" s="21">
+        <v>0</v>
+      </c>
+      <c r="E101" s="22">
+        <v>0</v>
+      </c>
+      <c r="F101" s="22">
+        <v>0</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I101" s="22">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="J101" s="22">
+        <v>856.23588587251561</v>
+      </c>
+      <c r="K101" s="21">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="L101" s="26">
+        <v>3.8287960285699911E-2</v>
+      </c>
+      <c r="M101" s="27">
+        <v>7.1551736977159539E-2</v>
+      </c>
+      <c r="N101" s="27">
+        <v>53.51087465273141</v>
+      </c>
+      <c r="O101" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -48688,7 +49075,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -48763,19 +49150,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -54319,6 +54706,56 @@
         <v>66.332860439304199</v>
       </c>
       <c r="P100" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" ht="12.75">
+      <c r="A101" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C101" s="20">
+        <v>1.2261902580553963</v>
+      </c>
+      <c r="D101" s="21">
+        <v>0</v>
+      </c>
+      <c r="E101" s="22">
+        <v>0</v>
+      </c>
+      <c r="F101" s="22">
+        <v>0</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I101" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J101" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K101" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L101" s="26">
+        <v>57.859971125209761</v>
+      </c>
+      <c r="M101" s="27">
+        <v>66.60600074259483</v>
+      </c>
+      <c r="N101" s="27">
+        <v>71.070062319050905</v>
+      </c>
+      <c r="O101" s="27">
+        <v>57.67787758968268</v>
+      </c>
+      <c r="P101" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -54340,7 +54777,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -54396,10 +54833,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -59148,6 +59585,47 @@
         <v>579.4237932103814</v>
       </c>
     </row>
+    <row r="101" spans="1:13" ht="12.75">
+      <c r="A101" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C101" s="20">
+        <v>1.2261902580553963</v>
+      </c>
+      <c r="D101" s="20">
+        <v>179000</v>
+      </c>
+      <c r="E101" s="20">
+        <v>1827974.5769715563</v>
+      </c>
+      <c r="F101" s="21">
+        <v>0</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22">
+        <v>0</v>
+      </c>
+      <c r="I101" s="22">
+        <v>0</v>
+      </c>
+      <c r="J101" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K101" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L101" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M101" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="420" windowWidth="15600" windowHeight="8880" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="4335" yWindow="420" windowWidth="15600" windowHeight="8880" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="模型二 (1)平均线" sheetId="13" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="35">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,6 +145,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能产业LOF</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -158,6 +166,14 @@
   </si>
   <si>
     <t>标志</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能产业LOF</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>均线</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -182,6 +198,10 @@
   </si>
   <si>
     <t>成交均量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -871,7 +891,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1165,6 +1185,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1174,7 +1197,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1467,6 +1490,9 @@
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>4893.7540233362733</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1510,7 +1536,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1804,6 +1830,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1813,7 +1842,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2106,6 +2135,9 @@
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>7246.1850032321172</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
               </c:numCache>
@@ -2149,7 +2181,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2443,6 +2475,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2452,7 +2487,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2745,6 +2780,9 @@
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>2352.4309798958438</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
               </c:numCache>
@@ -2767,11 +2805,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="658342272"/>
-        <c:axId val="658343808"/>
+        <c:axId val="511940480"/>
+        <c:axId val="511959040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="658342272"/>
+        <c:axId val="511940480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2814,14 +2852,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658343808"/>
+        <c:crossAx val="511959040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="658343808"/>
+        <c:axId val="511959040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2870,7 +2908,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658342272"/>
+        <c:crossAx val="511940480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3084,7 +3122,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3378,6 +3416,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3387,7 +3428,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3680,6 +3721,9 @@
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>6052.5924500756464</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
@@ -3723,7 +3767,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4017,6 +4061,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4026,7 +4073,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4320,6 +4367,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>10041.49225145084</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10224.181549020601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4362,7 +4412,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4656,6 +4706,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4665,7 +4718,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4959,6 +5012,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>3988.8998013751934</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4171.5890989449545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4980,11 +5036,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="601970944"/>
-        <c:axId val="601972736"/>
+        <c:axId val="565600640"/>
+        <c:axId val="565602176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="601970944"/>
+        <c:axId val="565600640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5027,14 +5083,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601972736"/>
+        <c:crossAx val="565602176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="601972736"/>
+        <c:axId val="565602176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5083,7 +5139,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601970944"/>
+        <c:crossAx val="565600640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5297,7 +5353,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5591,6 +5647,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5600,7 +5659,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5893,6 +5952,9 @@
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>4478.5830960357953</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
@@ -5936,7 +5998,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6230,6 +6292,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6239,7 +6304,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6532,6 +6597,9 @@
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>6735.3146089982411</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
               </c:numCache>
@@ -6575,7 +6643,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6869,6 +6937,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6878,7 +6949,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7171,6 +7242,9 @@
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>2256.7315129624458</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
               </c:numCache>
@@ -7193,11 +7267,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="602123648"/>
-        <c:axId val="602125440"/>
+        <c:axId val="493553152"/>
+        <c:axId val="493554688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="602123648"/>
+        <c:axId val="493553152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7240,14 +7314,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602125440"/>
+        <c:crossAx val="493554688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="602125440"/>
+        <c:axId val="493554688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7296,7 +7370,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602123648"/>
+        <c:crossAx val="493553152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7510,7 +7584,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7804,6 +7878,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7813,7 +7890,7 @@
               <c:f>'模型二 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8106,6 +8183,9 @@
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>2280.0747683969207</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
@@ -8149,7 +8229,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8443,6 +8523,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8452,7 +8535,7 @@
               <c:f>'模型二 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8745,6 +8828,9 @@
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>3181.8326442193757</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
               </c:numCache>
@@ -8788,7 +8874,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9082,6 +9168,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9091,7 +9180,7 @@
               <c:f>'模型二 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9384,6 +9473,9 @@
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>901.75787582245493</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
               </c:numCache>
@@ -9406,11 +9498,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="602166016"/>
-        <c:axId val="602167552"/>
+        <c:axId val="493574784"/>
+        <c:axId val="493576576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="602166016"/>
+        <c:axId val="493574784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9453,14 +9545,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602167552"/>
+        <c:crossAx val="493576576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="602167552"/>
+        <c:axId val="493576576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9509,7 +9601,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602166016"/>
+        <c:crossAx val="493574784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9723,7 +9815,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10017,6 +10109,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10026,7 +10121,7 @@
               <c:f>'模型二 (2)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10319,6 +10414,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -10362,7 +10460,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10656,6 +10754,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10665,7 +10766,7 @@
               <c:f>'模型二 (2)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10958,6 +11059,9 @@
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>1243.9035388429725</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
               </c:numCache>
@@ -11001,7 +11105,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11295,6 +11399,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11304,7 +11411,7 @@
               <c:f>'模型二 (2)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11597,6 +11704,9 @@
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>461.2250703448251</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
               </c:numCache>
@@ -11619,11 +11729,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="602425216"/>
-        <c:axId val="602426752"/>
+        <c:axId val="510795776"/>
+        <c:axId val="510797312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="602425216"/>
+        <c:axId val="510795776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11666,14 +11776,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602426752"/>
+        <c:crossAx val="510797312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="602426752"/>
+        <c:axId val="510797312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11722,7 +11832,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602425216"/>
+        <c:crossAx val="510795776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11936,7 +12046,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12230,6 +12340,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12239,7 +12352,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12532,6 +12645,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -12575,7 +12691,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12869,6 +12985,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12878,7 +12997,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13171,6 +13290,9 @@
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>1938.211964032281</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
               </c:numCache>
@@ -13214,7 +13336,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13508,6 +13630,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13517,7 +13642,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13810,6 +13935,9 @@
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>856.23588587251561</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
               </c:numCache>
@@ -13832,11 +13960,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="602500096"/>
-        <c:axId val="602514176"/>
+        <c:axId val="510833792"/>
+        <c:axId val="510835328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="602500096"/>
+        <c:axId val="510833792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13879,14 +14007,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602514176"/>
+        <c:crossAx val="510835328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="602514176"/>
+        <c:axId val="510835328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13935,7 +14063,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602500096"/>
+        <c:crossAx val="510833792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14149,7 +14277,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14443,6 +14571,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14452,7 +14583,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14745,6 +14876,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -14788,7 +14922,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15082,6 +15216,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15091,7 +15228,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15384,6 +15521,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -15427,7 +15567,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15721,6 +15861,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15730,7 +15873,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16023,6 +16166,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -16045,11 +16191,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="603496832"/>
-        <c:axId val="603498368"/>
+        <c:axId val="511686912"/>
+        <c:axId val="511860736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="603496832"/>
+        <c:axId val="511686912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16092,14 +16238,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603498368"/>
+        <c:crossAx val="511860736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="603498368"/>
+        <c:axId val="511860736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16148,7 +16294,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603496832"/>
+        <c:crossAx val="511686912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16362,7 +16508,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16656,6 +16802,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16665,7 +16814,7 @@
               <c:f>'模型二 (2)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16958,6 +17107,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -17001,7 +17153,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17295,6 +17447,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17304,7 +17459,7 @@
               <c:f>'模型二 (2)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17597,6 +17752,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -17640,7 +17798,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17934,6 +18092,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17943,7 +18104,7 @@
               <c:f>'模型二 (2)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -18236,6 +18397,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -18258,11 +18422,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="603690496"/>
-        <c:axId val="603692032"/>
+        <c:axId val="512040320"/>
+        <c:axId val="512042112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="603690496"/>
+        <c:axId val="512040320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18305,14 +18469,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603692032"/>
+        <c:crossAx val="512042112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="603692032"/>
+        <c:axId val="512042112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18361,7 +18525,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603690496"/>
+        <c:crossAx val="512040320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19083,7 +19247,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF101"/>
+  <dimension ref="A1:AF102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23329,6 +23493,41 @@
         <v>7246.1850032321172</v>
       </c>
     </row>
+    <row r="102" spans="1:11" ht="12.75">
+      <c r="A102" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B102" s="25">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C102" s="20">
+        <v>1.2287860364336756</v>
+      </c>
+      <c r="D102" s="21">
+        <v>0</v>
+      </c>
+      <c r="E102" s="22">
+        <v>0</v>
+      </c>
+      <c r="F102" s="22">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I102" s="22">
+        <v>7246.1850032321172</v>
+      </c>
+      <c r="J102" s="22">
+        <v>2352.4309798958438</v>
+      </c>
+      <c r="K102" s="21">
+        <v>7246.1850032321172</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -23345,7 +23544,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23387,10 +23586,10 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>2</v>
@@ -23420,16 +23619,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -28772,6 +28971,53 @@
         <v>53.51087465273141</v>
       </c>
       <c r="O101" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="12.75">
+      <c r="A102" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B102" s="25">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C102" s="20">
+        <v>1.2287860364336756</v>
+      </c>
+      <c r="D102" s="21">
+        <v>-98.646344374429589</v>
+      </c>
+      <c r="E102" s="22">
+        <v>-63.766219231663023</v>
+      </c>
+      <c r="F102" s="22">
+        <v>1582.0824034272034</v>
+      </c>
+      <c r="G102" s="22">
+        <v>2447.4815580678255</v>
+      </c>
+      <c r="H102" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I102" s="22">
+        <v>10224.181549020601</v>
+      </c>
+      <c r="J102" s="22">
+        <v>4171.5890989449545</v>
+      </c>
+      <c r="K102" s="21">
+        <v>7776.6999909527758</v>
+      </c>
+      <c r="L102" s="26">
+        <v>5.0406643743942638E-2</v>
+      </c>
+      <c r="M102" s="27">
+        <v>7.8126457653492326E-2</v>
+      </c>
+      <c r="N102" s="27">
+        <v>64.519300193420989</v>
+      </c>
+      <c r="O102" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -28793,7 +29039,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28868,19 +29114,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -34476,6 +34722,56 @@
       </c>
       <c r="P101" s="27">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="12.75">
+      <c r="A102" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B102" s="25">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C102" s="20">
+        <v>1.2287860364336756</v>
+      </c>
+      <c r="D102" s="21">
+        <v>0</v>
+      </c>
+      <c r="E102" s="22">
+        <v>0</v>
+      </c>
+      <c r="F102" s="22">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I102" s="22">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="J102" s="22">
+        <v>2256.7315129624458</v>
+      </c>
+      <c r="K102" s="21">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="L102" s="26">
+        <v>57.024801937692942</v>
+      </c>
+      <c r="M102" s="27">
+        <v>63.412267807627529</v>
+      </c>
+      <c r="N102" s="27">
+        <v>68.517464148576451</v>
+      </c>
+      <c r="O102" s="27">
+        <v>53.201875125729686</v>
+      </c>
+      <c r="P102" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -34496,7 +34792,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34543,19 +34839,19 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -34609,7 +34905,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -39342,6 +39638,47 @@
         <v>901.75787582245493</v>
       </c>
       <c r="M101" s="21">
+        <v>3181.8326442193757</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="12.75">
+      <c r="A102" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B102" s="25">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C102" s="20">
+        <v>1.2287860364336756</v>
+      </c>
+      <c r="D102" s="20">
+        <v>745111</v>
+      </c>
+      <c r="E102" s="20">
+        <v>1814779.0382777185</v>
+      </c>
+      <c r="F102" s="21">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22">
+        <v>0</v>
+      </c>
+      <c r="I102" s="22">
+        <v>0</v>
+      </c>
+      <c r="J102" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K102" s="22">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="L102" s="22">
+        <v>901.75787582245493</v>
+      </c>
+      <c r="M102" s="21">
         <v>3181.8326442193757</v>
       </c>
     </row>
@@ -39363,7 +39700,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF101"/>
+  <dimension ref="A1:AF102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39405,10 +39742,10 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>2</v>
@@ -43606,6 +43943,41 @@
         <v>461.2250703448251</v>
       </c>
       <c r="K101" s="21">
+        <v>1243.9035388429725</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="12.75">
+      <c r="A102" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B102" s="25">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C102" s="20">
+        <v>1.2287860364336756</v>
+      </c>
+      <c r="D102" s="21">
+        <v>0</v>
+      </c>
+      <c r="E102" s="22">
+        <v>0</v>
+      </c>
+      <c r="F102" s="22">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I102" s="22">
+        <v>1243.9035388429725</v>
+      </c>
+      <c r="J102" s="22">
+        <v>461.2250703448251</v>
+      </c>
+      <c r="K102" s="21">
         <v>1243.9035388429725</v>
       </c>
     </row>
@@ -43627,7 +43999,7 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -43669,13 +44041,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -43702,16 +44074,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -49054,6 +49426,53 @@
         <v>53.51087465273141</v>
       </c>
       <c r="O101" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="12.75">
+      <c r="A102" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B102" s="25">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C102" s="21">
+        <v>1.2287860364336756</v>
+      </c>
+      <c r="D102" s="21">
+        <v>0</v>
+      </c>
+      <c r="E102" s="22">
+        <v>0</v>
+      </c>
+      <c r="F102" s="22">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I102" s="22">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="J102" s="22">
+        <v>856.23588587251561</v>
+      </c>
+      <c r="K102" s="21">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="L102" s="26">
+        <v>5.0406643743942638E-2</v>
+      </c>
+      <c r="M102" s="27">
+        <v>7.8126457653492326E-2</v>
+      </c>
+      <c r="N102" s="27">
+        <v>64.519300193420989</v>
+      </c>
+      <c r="O102" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -49075,7 +49494,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -49150,19 +49569,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -54757,6 +55176,56 @@
       </c>
       <c r="P101" s="27">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="12.75">
+      <c r="A102" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B102" s="25">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C102" s="20">
+        <v>1.2287860364336756</v>
+      </c>
+      <c r="D102" s="21">
+        <v>0</v>
+      </c>
+      <c r="E102" s="22">
+        <v>0</v>
+      </c>
+      <c r="F102" s="22">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I102" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J102" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K102" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L102" s="26">
+        <v>57.024801937692942</v>
+      </c>
+      <c r="M102" s="27">
+        <v>63.412267807627529</v>
+      </c>
+      <c r="N102" s="27">
+        <v>68.517464148576451</v>
+      </c>
+      <c r="O102" s="27">
+        <v>53.201875125729686</v>
+      </c>
+      <c r="P102" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -54777,7 +55246,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AH102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -54833,10 +55302,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -59626,6 +60095,47 @@
         <v>579.4237932103814</v>
       </c>
     </row>
+    <row r="102" spans="1:13" ht="12.75">
+      <c r="A102" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B102" s="25">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C102" s="20">
+        <v>1.2287860364336756</v>
+      </c>
+      <c r="D102" s="20">
+        <v>745111</v>
+      </c>
+      <c r="E102" s="20">
+        <v>1814779.0382777185</v>
+      </c>
+      <c r="F102" s="21">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22">
+        <v>0</v>
+      </c>
+      <c r="I102" s="22">
+        <v>0</v>
+      </c>
+      <c r="J102" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K102" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L102" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M102" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="37">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -153,6 +153,14 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>均线</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -166,14 +174,6 @@
   </si>
   <si>
     <t>标志</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工智能产业LOF</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>均线</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -193,15 +193,23 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能产业LOF</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>均线</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>成交量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成交均量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -891,7 +899,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1188,6 +1196,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1197,7 +1208,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1493,6 +1504,9 @@
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>4893.7540233362733</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1536,7 +1550,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1833,6 +1847,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1842,7 +1859,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2138,6 +2155,9 @@
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>7246.1850032321172</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
               </c:numCache>
@@ -2181,7 +2201,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2478,6 +2498,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2487,7 +2510,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2783,6 +2806,9 @@
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>2352.4309798958438</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
               </c:numCache>
@@ -2805,11 +2831,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511940480"/>
-        <c:axId val="511959040"/>
+        <c:axId val="532261504"/>
+        <c:axId val="508752256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511940480"/>
+        <c:axId val="532261504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2852,14 +2878,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511959040"/>
+        <c:crossAx val="508752256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511959040"/>
+        <c:axId val="508752256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2908,7 +2934,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511940480"/>
+        <c:crossAx val="532261504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3122,7 +3148,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3419,6 +3445,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3428,7 +3457,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3724,6 +3753,9 @@
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>6052.5924500756464</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
@@ -3767,7 +3799,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4064,6 +4096,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4073,7 +4108,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4370,6 +4405,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>10224.181549020601</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10459.911715480695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4412,7 +4450,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4709,6 +4747,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4718,7 +4759,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5015,6 +5056,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>4171.5890989449545</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4407.319265405049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5036,11 +5080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="565600640"/>
-        <c:axId val="565602176"/>
+        <c:axId val="508813312"/>
+        <c:axId val="508814848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="565600640"/>
+        <c:axId val="508813312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5083,14 +5127,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565602176"/>
+        <c:crossAx val="508814848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="565602176"/>
+        <c:axId val="508814848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5139,7 +5183,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565600640"/>
+        <c:crossAx val="508813312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5353,7 +5397,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5650,6 +5694,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5659,7 +5706,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5955,6 +6002,9 @@
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>4478.5830960357953</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
@@ -5998,7 +6048,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6295,6 +6345,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6304,7 +6357,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6600,6 +6653,9 @@
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>6735.3146089982411</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
               </c:numCache>
@@ -6643,7 +6699,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6940,6 +6996,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6949,7 +7008,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7245,6 +7304,9 @@
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>2256.7315129624458</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
               </c:numCache>
@@ -7267,11 +7329,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493553152"/>
-        <c:axId val="493554688"/>
+        <c:axId val="508949632"/>
+        <c:axId val="508951168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493553152"/>
+        <c:axId val="508949632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7314,14 +7376,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493554688"/>
+        <c:crossAx val="508951168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493554688"/>
+        <c:axId val="508951168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7370,7 +7432,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493553152"/>
+        <c:crossAx val="508949632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7584,7 +7646,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7881,6 +7943,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7890,7 +7955,7 @@
               <c:f>'模型二 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8186,6 +8251,9 @@
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>2280.0747683969207</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
@@ -8229,7 +8297,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8526,6 +8594,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8535,7 +8606,7 @@
               <c:f>'模型二 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8831,6 +8902,9 @@
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>3181.8326442193757</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
               </c:numCache>
@@ -8874,7 +8948,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9171,6 +9245,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9180,7 +9257,7 @@
               <c:f>'模型二 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9476,6 +9553,9 @@
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>901.75787582245493</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
               </c:numCache>
@@ -9498,11 +9578,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493574784"/>
-        <c:axId val="493576576"/>
+        <c:axId val="509561088"/>
+        <c:axId val="509583360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493574784"/>
+        <c:axId val="509561088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9545,14 +9625,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493576576"/>
+        <c:crossAx val="509583360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493576576"/>
+        <c:axId val="509583360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9601,7 +9681,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493574784"/>
+        <c:crossAx val="509561088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9815,7 +9895,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10112,6 +10192,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10121,7 +10204,7 @@
               <c:f>'模型二 (2)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10417,6 +10500,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -10460,7 +10546,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10757,6 +10843,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10766,7 +10855,7 @@
               <c:f>'模型二 (2)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11062,6 +11151,9 @@
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>1243.9035388429725</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
               </c:numCache>
@@ -11105,7 +11197,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11402,6 +11494,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11411,7 +11506,7 @@
               <c:f>'模型二 (2)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11707,6 +11802,9 @@
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>461.2250703448251</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
               </c:numCache>
@@ -11729,11 +11827,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="510795776"/>
-        <c:axId val="510797312"/>
+        <c:axId val="509947264"/>
+        <c:axId val="509965440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="510795776"/>
+        <c:axId val="509947264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11776,14 +11874,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510797312"/>
+        <c:crossAx val="509965440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="510797312"/>
+        <c:axId val="509965440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11832,7 +11930,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510795776"/>
+        <c:crossAx val="509947264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12046,7 +12144,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12343,6 +12441,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12352,7 +12453,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12648,6 +12749,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -12691,7 +12795,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12988,6 +13092,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12997,7 +13104,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13293,6 +13400,9 @@
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>1938.211964032281</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
               </c:numCache>
@@ -13336,7 +13446,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13633,6 +13743,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13642,7 +13755,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13938,6 +14051,9 @@
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>856.23588587251561</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
               </c:numCache>
@@ -13960,11 +14076,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="510833792"/>
-        <c:axId val="510835328"/>
+        <c:axId val="510141184"/>
+        <c:axId val="510142720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="510833792"/>
+        <c:axId val="510141184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14007,14 +14123,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510835328"/>
+        <c:crossAx val="510142720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="510835328"/>
+        <c:axId val="510142720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14063,7 +14179,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510833792"/>
+        <c:crossAx val="510141184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14277,7 +14393,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14574,6 +14690,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14583,7 +14702,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14879,6 +14998,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -14922,7 +15044,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15219,6 +15341,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15228,7 +15353,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15524,6 +15649,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -15567,7 +15695,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15864,6 +15992,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15873,7 +16004,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16169,6 +16300,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -16191,11 +16325,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511686912"/>
-        <c:axId val="511860736"/>
+        <c:axId val="510564224"/>
+        <c:axId val="510565760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511686912"/>
+        <c:axId val="510564224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16238,14 +16372,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511860736"/>
+        <c:crossAx val="510565760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511860736"/>
+        <c:axId val="510565760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16294,7 +16428,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511686912"/>
+        <c:crossAx val="510564224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16508,7 +16642,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16805,6 +16939,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16814,7 +16951,7 @@
               <c:f>'模型二 (2)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17110,6 +17247,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -17153,7 +17293,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17450,6 +17590,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17459,7 +17602,7 @@
               <c:f>'模型二 (2)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17755,6 +17898,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -17798,7 +17944,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -18095,6 +18241,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18104,7 +18253,7 @@
               <c:f>'模型二 (2)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -18400,6 +18549,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -18422,11 +18574,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="512040320"/>
-        <c:axId val="512042112"/>
+        <c:axId val="511552512"/>
+        <c:axId val="513737472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="512040320"/>
+        <c:axId val="511552512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18469,14 +18621,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512042112"/>
+        <c:crossAx val="513737472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="512042112"/>
+        <c:axId val="513737472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18525,7 +18677,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512040320"/>
+        <c:crossAx val="511552512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18633,7 +18785,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18676,7 +18828,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18719,7 +18871,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18762,7 +18914,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18805,7 +18957,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18848,7 +19000,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18891,7 +19043,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18934,7 +19086,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19247,7 +19399,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF102"/>
+  <dimension ref="A1:AF103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23528,6 +23680,41 @@
         <v>7246.1850032321172</v>
       </c>
     </row>
+    <row r="103" spans="1:11" ht="12.75">
+      <c r="A103" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B103" s="25">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C103" s="20">
+        <v>1.2329284996624146</v>
+      </c>
+      <c r="D103" s="21">
+        <v>0</v>
+      </c>
+      <c r="E103" s="22">
+        <v>0</v>
+      </c>
+      <c r="F103" s="22">
+        <v>0</v>
+      </c>
+      <c r="G103" s="22">
+        <v>0</v>
+      </c>
+      <c r="H103" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I103" s="22">
+        <v>7246.1850032321172</v>
+      </c>
+      <c r="J103" s="22">
+        <v>2352.4309798958438</v>
+      </c>
+      <c r="K103" s="21">
+        <v>7246.1850032321172</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -23544,7 +23731,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH102"/>
+  <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23589,7 +23776,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>2</v>
@@ -23619,16 +23806,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -29018,6 +29205,53 @@
         <v>64.519300193420989</v>
       </c>
       <c r="O102" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="12.75">
+      <c r="A103" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B103" s="25">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C103" s="20">
+        <v>1.2329284996624146</v>
+      </c>
+      <c r="D103" s="21">
+        <v>-143.5521588962317</v>
+      </c>
+      <c r="E103" s="22">
+        <v>-84.641604122265747</v>
+      </c>
+      <c r="F103" s="22">
+        <v>1497.4407993049376</v>
+      </c>
+      <c r="G103" s="22">
+        <v>2539.6595656316867</v>
+      </c>
+      <c r="H103" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I103" s="22">
+        <v>10459.911715480695</v>
+      </c>
+      <c r="J103" s="22">
+        <v>4407.319265405049</v>
+      </c>
+      <c r="K103" s="21">
+        <v>7920.2521498490078</v>
+      </c>
+      <c r="L103" s="26">
+        <v>6.6838858024635628E-2</v>
+      </c>
+      <c r="M103" s="27">
+        <v>8.9938702949260374E-2</v>
+      </c>
+      <c r="N103" s="27">
+        <v>74.316012831920972</v>
+      </c>
+      <c r="O103" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -29039,7 +29273,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH102"/>
+  <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29081,7 +29315,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -29126,7 +29360,7 @@
         <v>31</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -29151,7 +29385,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -34772,6 +35006,56 @@
       </c>
       <c r="P102" s="27">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="12.75">
+      <c r="A103" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B103" s="25">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C103" s="20">
+        <v>1.2329284996624146</v>
+      </c>
+      <c r="D103" s="21">
+        <v>0</v>
+      </c>
+      <c r="E103" s="22">
+        <v>0</v>
+      </c>
+      <c r="F103" s="22">
+        <v>0</v>
+      </c>
+      <c r="G103" s="22">
+        <v>0</v>
+      </c>
+      <c r="H103" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I103" s="22">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="J103" s="22">
+        <v>2256.7315129624458</v>
+      </c>
+      <c r="K103" s="21">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="L103" s="26">
+        <v>87.032964902430479</v>
+      </c>
+      <c r="M103" s="27">
+        <v>71.285833505895184</v>
+      </c>
+      <c r="N103" s="27">
+        <v>69.440253934349357</v>
+      </c>
+      <c r="O103" s="27">
+        <v>74.976992648986823</v>
+      </c>
+      <c r="P103" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -34792,7 +35076,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH102"/>
+  <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34839,19 +35123,19 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -34905,7 +35189,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -39679,6 +39963,47 @@
         <v>901.75787582245493</v>
       </c>
       <c r="M102" s="21">
+        <v>3181.8326442193757</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="12.75">
+      <c r="A103" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B103" s="25">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C103" s="20">
+        <v>1.2329284996624146</v>
+      </c>
+      <c r="D103" s="20">
+        <v>1031255</v>
+      </c>
+      <c r="E103" s="20">
+        <v>1805667.904803097</v>
+      </c>
+      <c r="F103" s="21">
+        <v>0</v>
+      </c>
+      <c r="G103" s="22">
+        <v>0</v>
+      </c>
+      <c r="H103" s="22">
+        <v>0</v>
+      </c>
+      <c r="I103" s="22">
+        <v>0</v>
+      </c>
+      <c r="J103" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K103" s="22">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="L103" s="22">
+        <v>901.75787582245493</v>
+      </c>
+      <c r="M103" s="21">
         <v>3181.8326442193757</v>
       </c>
     </row>
@@ -39700,7 +40025,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF102"/>
+  <dimension ref="A1:AF103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39748,7 +40073,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -39798,7 +40123,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -43978,6 +44303,41 @@
         <v>461.2250703448251</v>
       </c>
       <c r="K102" s="21">
+        <v>1243.9035388429725</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="12.75">
+      <c r="A103" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B103" s="25">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C103" s="20">
+        <v>1.2329284996624146</v>
+      </c>
+      <c r="D103" s="21">
+        <v>0</v>
+      </c>
+      <c r="E103" s="22">
+        <v>0</v>
+      </c>
+      <c r="F103" s="22">
+        <v>0</v>
+      </c>
+      <c r="G103" s="22">
+        <v>0</v>
+      </c>
+      <c r="H103" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I103" s="22">
+        <v>1243.9035388429725</v>
+      </c>
+      <c r="J103" s="22">
+        <v>461.2250703448251</v>
+      </c>
+      <c r="K103" s="21">
         <v>1243.9035388429725</v>
       </c>
     </row>
@@ -43999,7 +44359,7 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH102"/>
+  <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -44044,10 +44404,10 @@
         <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -44074,16 +44434,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -44108,7 +44468,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -49473,6 +49833,53 @@
         <v>64.519300193420989</v>
       </c>
       <c r="O102" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="12.75">
+      <c r="A103" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B103" s="25">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C103" s="21">
+        <v>1.2329284996624146</v>
+      </c>
+      <c r="D103" s="21">
+        <v>0</v>
+      </c>
+      <c r="E103" s="22">
+        <v>0</v>
+      </c>
+      <c r="F103" s="22">
+        <v>0</v>
+      </c>
+      <c r="G103" s="22">
+        <v>0</v>
+      </c>
+      <c r="H103" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I103" s="22">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="J103" s="22">
+        <v>856.23588587251561</v>
+      </c>
+      <c r="K103" s="21">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="L103" s="26">
+        <v>6.6838858024635628E-2</v>
+      </c>
+      <c r="M103" s="27">
+        <v>8.9938702949260374E-2</v>
+      </c>
+      <c r="N103" s="27">
+        <v>74.316012831920972</v>
+      </c>
+      <c r="O103" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -49494,7 +49901,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH102"/>
+  <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -49581,7 +49988,7 @@
         <v>31</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -49606,7 +50013,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -55226,6 +55633,56 @@
       </c>
       <c r="P102" s="27">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="12.75">
+      <c r="A103" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B103" s="25">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C103" s="20">
+        <v>1.2329284996624146</v>
+      </c>
+      <c r="D103" s="21">
+        <v>0</v>
+      </c>
+      <c r="E103" s="22">
+        <v>0</v>
+      </c>
+      <c r="F103" s="22">
+        <v>0</v>
+      </c>
+      <c r="G103" s="22">
+        <v>0</v>
+      </c>
+      <c r="H103" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I103" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J103" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K103" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L103" s="26">
+        <v>87.032964902430479</v>
+      </c>
+      <c r="M103" s="27">
+        <v>71.285833505895184</v>
+      </c>
+      <c r="N103" s="27">
+        <v>69.440253934349357</v>
+      </c>
+      <c r="O103" s="27">
+        <v>74.976992648986823</v>
+      </c>
+      <c r="P103" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -55246,7 +55703,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH102"/>
+  <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -55293,7 +55750,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -55302,10 +55759,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -60136,6 +60593,47 @@
         <v>579.4237932103814</v>
       </c>
     </row>
+    <row r="103" spans="1:13" ht="12.75">
+      <c r="A103" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B103" s="25">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C103" s="20">
+        <v>1.2329284996624146</v>
+      </c>
+      <c r="D103" s="20">
+        <v>1031255</v>
+      </c>
+      <c r="E103" s="20">
+        <v>1805667.904803097</v>
+      </c>
+      <c r="F103" s="21">
+        <v>0</v>
+      </c>
+      <c r="G103" s="22">
+        <v>0</v>
+      </c>
+      <c r="H103" s="22">
+        <v>0</v>
+      </c>
+      <c r="I103" s="22">
+        <v>0</v>
+      </c>
+      <c r="J103" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K103" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L103" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M103" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="34">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -153,14 +153,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>均线</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -177,6 +169,14 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>均线</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>RSV</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -190,18 +190,6 @@
   </si>
   <si>
     <t>J</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工智能产业LOF</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>均线</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -899,7 +887,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1199,6 +1187,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1208,7 +1199,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1507,6 +1498,9 @@
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>4893.7540233362733</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1550,7 +1544,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1850,6 +1844,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1859,7 +1856,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2158,6 +2155,9 @@
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>7246.1850032321172</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
               </c:numCache>
@@ -2201,7 +2201,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2501,6 +2501,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2510,7 +2513,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2809,6 +2812,9 @@
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>2352.4309798958438</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
               </c:numCache>
@@ -2831,11 +2837,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532261504"/>
-        <c:axId val="508752256"/>
+        <c:axId val="472654976"/>
+        <c:axId val="472801280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="532261504"/>
+        <c:axId val="472654976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2878,14 +2884,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508752256"/>
+        <c:crossAx val="472801280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="508752256"/>
+        <c:axId val="472801280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2934,7 +2940,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532261504"/>
+        <c:crossAx val="472654976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3148,7 +3154,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3448,6 +3454,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3457,7 +3466,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3756,6 +3765,9 @@
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>6052.5924500756464</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
@@ -3799,7 +3811,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4099,6 +4111,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4108,7 +4123,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4408,6 +4423,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>10459.911715480695</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>12107.096630417898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4450,7 +4468,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4750,6 +4768,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4759,7 +4780,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5059,6 +5080,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>4407.319265405049</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6054.5041803422519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5080,11 +5104,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="508813312"/>
-        <c:axId val="508814848"/>
+        <c:axId val="526372224"/>
+        <c:axId val="461934976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="508813312"/>
+        <c:axId val="526372224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5127,14 +5151,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508814848"/>
+        <c:crossAx val="461934976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="508814848"/>
+        <c:axId val="461934976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5183,7 +5207,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508813312"/>
+        <c:crossAx val="526372224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5397,7 +5421,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5697,6 +5721,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5706,7 +5733,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6005,6 +6032,9 @@
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>4478.5830960357953</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
@@ -6048,7 +6078,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6348,6 +6378,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6357,7 +6390,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6656,6 +6689,9 @@
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>6735.3146089982411</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
               </c:numCache>
@@ -6699,7 +6735,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6999,6 +7035,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7008,7 +7047,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7307,6 +7346,9 @@
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>2256.7315129624458</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
               </c:numCache>
@@ -7329,11 +7371,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="508949632"/>
-        <c:axId val="508951168"/>
+        <c:axId val="470454272"/>
+        <c:axId val="470455808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="508949632"/>
+        <c:axId val="470454272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7376,14 +7418,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508951168"/>
+        <c:crossAx val="470455808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="508951168"/>
+        <c:axId val="470455808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7432,7 +7474,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508949632"/>
+        <c:crossAx val="470454272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7646,7 +7688,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7946,6 +7988,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7955,7 +8000,7 @@
               <c:f>'模型二 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8254,6 +8299,9 @@
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>2280.0747683969207</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
@@ -8297,7 +8345,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8597,6 +8645,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8606,7 +8657,7 @@
               <c:f>'模型二 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8905,6 +8956,9 @@
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>3181.8326442193757</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
               </c:numCache>
@@ -8948,7 +9002,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9248,6 +9302,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9257,7 +9314,7 @@
               <c:f>'模型二 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9556,6 +9613,9 @@
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>901.75787582245493</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
               </c:numCache>
@@ -9578,11 +9638,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="509561088"/>
-        <c:axId val="509583360"/>
+        <c:axId val="470496384"/>
+        <c:axId val="470497920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="509561088"/>
+        <c:axId val="470496384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9625,14 +9685,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509583360"/>
+        <c:crossAx val="470497920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="509583360"/>
+        <c:axId val="470497920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9681,7 +9741,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509561088"/>
+        <c:crossAx val="470496384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9895,7 +9955,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10195,6 +10255,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10204,7 +10267,7 @@
               <c:f>'模型二 (2)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10503,6 +10566,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -10546,7 +10612,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10846,6 +10912,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10855,7 +10924,7 @@
               <c:f>'模型二 (2)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11154,6 +11223,9 @@
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>1243.9035388429725</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
               </c:numCache>
@@ -11197,7 +11269,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11497,6 +11569,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11506,7 +11581,7 @@
               <c:f>'模型二 (2)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11805,6 +11880,9 @@
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>461.2250703448251</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
               </c:numCache>
@@ -11827,11 +11905,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="509947264"/>
-        <c:axId val="509965440"/>
+        <c:axId val="472586496"/>
+        <c:axId val="472645632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="509947264"/>
+        <c:axId val="472586496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11874,14 +11952,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509965440"/>
+        <c:crossAx val="472645632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="509965440"/>
+        <c:axId val="472645632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11930,7 +12008,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509947264"/>
+        <c:crossAx val="472586496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12144,7 +12222,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12444,6 +12522,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12453,7 +12534,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12752,6 +12833,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -12795,7 +12879,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13095,6 +13179,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13104,7 +13191,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13403,6 +13490,9 @@
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>1938.211964032281</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
               </c:numCache>
@@ -13446,7 +13536,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13746,6 +13836,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13755,7 +13848,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14054,6 +14147,9 @@
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>856.23588587251561</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
               </c:numCache>
@@ -14076,11 +14172,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="510141184"/>
-        <c:axId val="510142720"/>
+        <c:axId val="472829312"/>
+        <c:axId val="472835200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="510141184"/>
+        <c:axId val="472829312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14123,14 +14219,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510142720"/>
+        <c:crossAx val="472835200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="510142720"/>
+        <c:axId val="472835200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14179,7 +14275,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510141184"/>
+        <c:crossAx val="472829312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14393,7 +14489,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14693,6 +14789,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14702,7 +14801,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15001,6 +15100,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -15044,7 +15146,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15344,6 +15446,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15353,7 +15458,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15652,6 +15757,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -15695,7 +15803,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15995,6 +16103,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16004,7 +16115,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16303,6 +16414,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -16325,11 +16439,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="510564224"/>
-        <c:axId val="510565760"/>
+        <c:axId val="473264896"/>
+        <c:axId val="473266432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="510564224"/>
+        <c:axId val="473264896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16372,14 +16486,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510565760"/>
+        <c:crossAx val="473266432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="510565760"/>
+        <c:axId val="473266432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16428,7 +16542,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510564224"/>
+        <c:crossAx val="473264896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16642,7 +16756,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16942,6 +17056,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16951,7 +17068,7 @@
               <c:f>'模型二 (2)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17250,6 +17367,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -17293,7 +17413,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17593,6 +17713,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17602,7 +17725,7 @@
               <c:f>'模型二 (2)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17901,6 +18024,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -17944,7 +18070,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -18244,6 +18370,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18253,7 +18382,7 @@
               <c:f>'模型二 (2)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -18552,6 +18681,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -18574,11 +18706,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511552512"/>
-        <c:axId val="513737472"/>
+        <c:axId val="476055424"/>
+        <c:axId val="476056960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511552512"/>
+        <c:axId val="476055424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18621,14 +18753,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513737472"/>
+        <c:crossAx val="476056960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="513737472"/>
+        <c:axId val="476056960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18677,7 +18809,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511552512"/>
+        <c:crossAx val="476055424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19399,7 +19531,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF103"/>
+  <dimension ref="A1:AF104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23715,6 +23847,41 @@
         <v>7246.1850032321172</v>
       </c>
     </row>
+    <row r="104" spans="1:11" ht="12.75">
+      <c r="A104" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B104" s="25">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C104" s="20">
+        <v>1.2402678123945101</v>
+      </c>
+      <c r="D104" s="21">
+        <v>0</v>
+      </c>
+      <c r="E104" s="22">
+        <v>0</v>
+      </c>
+      <c r="F104" s="22">
+        <v>0</v>
+      </c>
+      <c r="G104" s="22">
+        <v>0</v>
+      </c>
+      <c r="H104" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I104" s="22">
+        <v>7246.1850032321172</v>
+      </c>
+      <c r="J104" s="22">
+        <v>2352.4309798958438</v>
+      </c>
+      <c r="K104" s="21">
+        <v>7246.1850032321172</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -23731,7 +23898,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH103"/>
+  <dimension ref="A1:AH104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23776,7 +23943,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>2</v>
@@ -23806,16 +23973,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -29252,6 +29419,53 @@
         <v>74.316012831920972</v>
       </c>
       <c r="O103" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="12.75">
+      <c r="A104" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B104" s="25">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C104" s="20">
+        <v>1.2402678123945101</v>
+      </c>
+      <c r="D104" s="21">
+        <v>-482.27697934025804</v>
+      </c>
+      <c r="E104" s="22">
+        <v>-172.48818980052496</v>
+      </c>
+      <c r="F104" s="22">
+        <v>1324.9526095044127</v>
+      </c>
+      <c r="G104" s="22">
+        <v>3704.567501228631</v>
+      </c>
+      <c r="H104" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I104" s="22">
+        <v>12107.096630417898</v>
+      </c>
+      <c r="J104" s="22">
+        <v>6054.5041803422519</v>
+      </c>
+      <c r="K104" s="21">
+        <v>8402.5291291892663</v>
+      </c>
+      <c r="L104" s="26">
+        <v>0.23903238566083931</v>
+      </c>
+      <c r="M104" s="27">
+        <v>0.25828225643135999</v>
+      </c>
+      <c r="N104" s="27">
+        <v>92.546963528779443</v>
+      </c>
+      <c r="O104" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -29273,7 +29487,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH103"/>
+  <dimension ref="A1:AH104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29318,7 +29532,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>2</v>
@@ -29360,7 +29574,7 @@
         <v>31</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -29385,7 +29599,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -35055,6 +35269,56 @@
         <v>74.976992648986823</v>
       </c>
       <c r="P103" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="12.75">
+      <c r="A104" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B104" s="25">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C104" s="20">
+        <v>1.2402678123945101</v>
+      </c>
+      <c r="D104" s="21">
+        <v>0</v>
+      </c>
+      <c r="E104" s="22">
+        <v>0</v>
+      </c>
+      <c r="F104" s="22">
+        <v>0</v>
+      </c>
+      <c r="G104" s="22">
+        <v>0</v>
+      </c>
+      <c r="H104" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I104" s="22">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="J104" s="22">
+        <v>2256.7315129624458</v>
+      </c>
+      <c r="K104" s="21">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="L104" s="26">
+        <v>97.841727179608085</v>
+      </c>
+      <c r="M104" s="27">
+        <v>80.13779806379948</v>
+      </c>
+      <c r="N104" s="27">
+        <v>73.006101977499398</v>
+      </c>
+      <c r="O104" s="27">
+        <v>94.401190236399628</v>
+      </c>
+      <c r="P104" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -35076,7 +35340,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH103"/>
+  <dimension ref="A1:AH104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35123,19 +35387,19 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="E1" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -35189,7 +35453,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -40004,6 +40268,47 @@
         <v>901.75787582245493</v>
       </c>
       <c r="M103" s="21">
+        <v>3181.8326442193757</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="12.75">
+      <c r="A104" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B104" s="25">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C104" s="20">
+        <v>1.2402678123945101</v>
+      </c>
+      <c r="D104" s="20">
+        <v>10846671</v>
+      </c>
+      <c r="E104" s="20">
+        <v>1808751.2091945638</v>
+      </c>
+      <c r="F104" s="21">
+        <v>0</v>
+      </c>
+      <c r="G104" s="22">
+        <v>0</v>
+      </c>
+      <c r="H104" s="22">
+        <v>0</v>
+      </c>
+      <c r="I104" s="22">
+        <v>0</v>
+      </c>
+      <c r="J104" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K104" s="22">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="L104" s="22">
+        <v>901.75787582245493</v>
+      </c>
+      <c r="M104" s="21">
         <v>3181.8326442193757</v>
       </c>
     </row>
@@ -40025,7 +40330,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF103"/>
+  <dimension ref="A1:AF104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -40067,13 +40372,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -40123,7 +40428,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -44338,6 +44643,41 @@
         <v>461.2250703448251</v>
       </c>
       <c r="K103" s="21">
+        <v>1243.9035388429725</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="12.75">
+      <c r="A104" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B104" s="25">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C104" s="20">
+        <v>1.2402678123945101</v>
+      </c>
+      <c r="D104" s="21">
+        <v>0</v>
+      </c>
+      <c r="E104" s="22">
+        <v>0</v>
+      </c>
+      <c r="F104" s="22">
+        <v>0</v>
+      </c>
+      <c r="G104" s="22">
+        <v>0</v>
+      </c>
+      <c r="H104" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I104" s="22">
+        <v>1243.9035388429725</v>
+      </c>
+      <c r="J104" s="22">
+        <v>461.2250703448251</v>
+      </c>
+      <c r="K104" s="21">
         <v>1243.9035388429725</v>
       </c>
     </row>
@@ -44359,7 +44699,7 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH103"/>
+  <dimension ref="A1:AH104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -44404,10 +44744,10 @@
         <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -44434,16 +44774,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -44468,7 +44808,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -49880,6 +50220,53 @@
         <v>74.316012831920972</v>
       </c>
       <c r="O103" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="12.75">
+      <c r="A104" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B104" s="25">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C104" s="21">
+        <v>1.2402678123945101</v>
+      </c>
+      <c r="D104" s="21">
+        <v>0</v>
+      </c>
+      <c r="E104" s="22">
+        <v>0</v>
+      </c>
+      <c r="F104" s="22">
+        <v>0</v>
+      </c>
+      <c r="G104" s="22">
+        <v>0</v>
+      </c>
+      <c r="H104" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I104" s="22">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="J104" s="22">
+        <v>856.23588587251561</v>
+      </c>
+      <c r="K104" s="21">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="L104" s="26">
+        <v>0.23903238566083931</v>
+      </c>
+      <c r="M104" s="27">
+        <v>0.25828225643135999</v>
+      </c>
+      <c r="N104" s="27">
+        <v>92.546963528779443</v>
+      </c>
+      <c r="O104" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -49901,7 +50288,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH103"/>
+  <dimension ref="A1:AH104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -49943,13 +50330,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -49988,7 +50375,7 @@
         <v>31</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -50013,7 +50400,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -55682,6 +56069,56 @@
         <v>74.976992648986823</v>
       </c>
       <c r="P103" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="12.75">
+      <c r="A104" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B104" s="25">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C104" s="20">
+        <v>1.2402678123945101</v>
+      </c>
+      <c r="D104" s="21">
+        <v>0</v>
+      </c>
+      <c r="E104" s="22">
+        <v>0</v>
+      </c>
+      <c r="F104" s="22">
+        <v>0</v>
+      </c>
+      <c r="G104" s="22">
+        <v>0</v>
+      </c>
+      <c r="H104" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I104" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J104" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K104" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L104" s="26">
+        <v>97.841727179608085</v>
+      </c>
+      <c r="M104" s="27">
+        <v>80.13779806379948</v>
+      </c>
+      <c r="N104" s="27">
+        <v>73.006101977499398</v>
+      </c>
+      <c r="O104" s="27">
+        <v>94.401190236399628</v>
+      </c>
+      <c r="P104" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -55703,7 +56140,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH103"/>
+  <dimension ref="A1:AH104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -55750,7 +56187,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -55759,10 +56196,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -55816,7 +56253,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -60631,6 +61068,47 @@
         <v>212.99681655802686</v>
       </c>
       <c r="M103" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="12.75">
+      <c r="A104" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B104" s="25">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C104" s="20">
+        <v>1.2402678123945101</v>
+      </c>
+      <c r="D104" s="20">
+        <v>10846671</v>
+      </c>
+      <c r="E104" s="20">
+        <v>1808751.2091945638</v>
+      </c>
+      <c r="F104" s="21">
+        <v>0</v>
+      </c>
+      <c r="G104" s="22">
+        <v>0</v>
+      </c>
+      <c r="H104" s="22">
+        <v>0</v>
+      </c>
+      <c r="I104" s="22">
+        <v>0</v>
+      </c>
+      <c r="J104" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K104" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L104" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M104" s="21">
         <v>579.4237932103814</v>
       </c>
     </row>

--- a/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="41">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,8 +145,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
+    <t>均线</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人工智能产业LOF</t>
@@ -169,12 +173,16 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>均线</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>年化收益率</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>RSV</t>
@@ -193,12 +201,32 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能产业LOF</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>均线</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能产业LOF</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>成交量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成交均量</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收资金</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -887,7 +915,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1190,6 +1218,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1199,7 +1230,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1501,6 +1532,9 @@
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>4893.7540233362733</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1544,7 +1578,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1847,6 +1881,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1856,7 +1893,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2158,6 +2195,9 @@
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>7246.1850032321172</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
               </c:numCache>
@@ -2201,7 +2241,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2504,6 +2544,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2513,7 +2556,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2815,6 +2858,9 @@
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>2352.4309798958438</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
               </c:numCache>
@@ -2837,11 +2883,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472654976"/>
-        <c:axId val="472801280"/>
+        <c:axId val="653924608"/>
+        <c:axId val="653942784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472654976"/>
+        <c:axId val="653924608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2884,14 +2930,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472801280"/>
+        <c:crossAx val="653942784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472801280"/>
+        <c:axId val="653942784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2940,7 +2986,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472654976"/>
+        <c:crossAx val="653924608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3154,7 +3200,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3457,6 +3503,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3466,7 +3515,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3768,6 +3817,9 @@
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>6052.5924500756464</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
@@ -3811,7 +3863,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4114,6 +4166,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4123,7 +4178,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4426,6 +4481,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>12107.096630417898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>11582.415518357186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4468,7 +4526,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4771,6 +4829,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4780,7 +4841,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5083,6 +5144,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>6054.5041803422519</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5529.8230682815392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5104,11 +5168,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="526372224"/>
-        <c:axId val="461934976"/>
+        <c:axId val="539447680"/>
+        <c:axId val="539449216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="526372224"/>
+        <c:axId val="539447680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5151,14 +5215,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461934976"/>
+        <c:crossAx val="539449216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461934976"/>
+        <c:axId val="539449216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5207,7 +5271,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526372224"/>
+        <c:crossAx val="539447680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5421,7 +5485,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5724,6 +5788,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5733,7 +5800,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6035,6 +6102,9 @@
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>4478.5830960357953</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
@@ -6078,7 +6148,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6381,6 +6451,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6390,7 +6463,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6692,6 +6765,9 @@
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>6735.3146089982411</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
               </c:numCache>
@@ -6735,7 +6811,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7038,6 +7114,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7047,7 +7126,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7349,6 +7428,9 @@
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>2256.7315129624458</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
               </c:numCache>
@@ -7371,11 +7453,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="470454272"/>
-        <c:axId val="470455808"/>
+        <c:axId val="539469312"/>
+        <c:axId val="539470848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="470454272"/>
+        <c:axId val="539469312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7418,14 +7500,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470455808"/>
+        <c:crossAx val="539470848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="470455808"/>
+        <c:axId val="539470848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7474,7 +7556,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470454272"/>
+        <c:crossAx val="539469312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7688,7 +7770,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7991,6 +8073,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8000,7 +8085,7 @@
               <c:f>'模型二 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8302,6 +8387,9 @@
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>2280.0747683969207</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
@@ -8345,7 +8433,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8648,6 +8736,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8657,7 +8748,7 @@
               <c:f>'模型二 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8959,6 +9050,9 @@
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>3181.8326442193757</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
               </c:numCache>
@@ -9002,7 +9096,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9305,6 +9399,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9314,7 +9411,7 @@
               <c:f>'模型二 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9616,6 +9713,9 @@
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>901.75787582245493</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
               </c:numCache>
@@ -9638,11 +9738,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="470496384"/>
-        <c:axId val="470497920"/>
+        <c:axId val="541338240"/>
+        <c:axId val="541344128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="470496384"/>
+        <c:axId val="541338240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9685,14 +9785,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470497920"/>
+        <c:crossAx val="541344128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="470497920"/>
+        <c:axId val="541344128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9741,7 +9841,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470496384"/>
+        <c:crossAx val="541338240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9955,7 +10055,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10258,6 +10358,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10267,7 +10370,7 @@
               <c:f>'模型二 (2)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10569,6 +10672,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -10612,7 +10718,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10915,6 +11021,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10924,7 +11033,7 @@
               <c:f>'模型二 (2)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11226,6 +11335,9 @@
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>1243.9035388429725</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
               </c:numCache>
@@ -11269,7 +11381,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11572,6 +11684,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11581,7 +11696,7 @@
               <c:f>'模型二 (2)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11883,6 +11998,9 @@
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>461.2250703448251</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
               </c:numCache>
@@ -11905,11 +12023,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472586496"/>
-        <c:axId val="472645632"/>
+        <c:axId val="541368320"/>
+        <c:axId val="541369856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472586496"/>
+        <c:axId val="541368320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11952,14 +12070,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472645632"/>
+        <c:crossAx val="541369856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472645632"/>
+        <c:axId val="541369856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12008,7 +12126,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472586496"/>
+        <c:crossAx val="541368320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12222,7 +12340,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12525,6 +12643,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12534,7 +12655,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12836,6 +12957,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -12879,7 +13003,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13182,6 +13306,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13191,7 +13318,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13493,6 +13620,9 @@
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>1938.211964032281</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
               </c:numCache>
@@ -13536,7 +13666,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13839,6 +13969,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13848,7 +13981,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14150,6 +14283,9 @@
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>856.23588587251561</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
               </c:numCache>
@@ -14172,11 +14308,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472829312"/>
-        <c:axId val="472835200"/>
+        <c:axId val="545703040"/>
+        <c:axId val="545704576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472829312"/>
+        <c:axId val="545703040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14219,14 +14355,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472835200"/>
+        <c:crossAx val="545704576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472835200"/>
+        <c:axId val="545704576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14275,7 +14411,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472829312"/>
+        <c:crossAx val="545703040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14489,7 +14625,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14792,6 +14928,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14801,7 +14940,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15103,6 +15242,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -15146,7 +15288,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15449,6 +15591,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15458,7 +15603,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15760,6 +15905,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -15803,7 +15951,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16106,6 +16254,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16115,7 +16266,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16417,6 +16568,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -16439,11 +16593,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="473264896"/>
-        <c:axId val="473266432"/>
+        <c:axId val="561600768"/>
+        <c:axId val="561913856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="473264896"/>
+        <c:axId val="561600768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16486,14 +16640,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473266432"/>
+        <c:crossAx val="561913856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="473266432"/>
+        <c:axId val="561913856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16542,7 +16696,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473264896"/>
+        <c:crossAx val="561600768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16756,7 +16910,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17059,6 +17213,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17068,7 +17225,7 @@
               <c:f>'模型二 (2)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17370,6 +17527,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -17413,7 +17573,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17716,6 +17876,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17725,7 +17888,7 @@
               <c:f>'模型二 (2)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -18027,6 +18190,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -18070,7 +18236,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -18373,6 +18539,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18382,7 +18551,7 @@
               <c:f>'模型二 (2)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -18684,6 +18853,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -18706,11 +18878,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476055424"/>
-        <c:axId val="476056960"/>
+        <c:axId val="562032000"/>
+        <c:axId val="562500736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="476055424"/>
+        <c:axId val="562032000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18753,14 +18925,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476056960"/>
+        <c:crossAx val="562500736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="476056960"/>
+        <c:axId val="562500736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18809,7 +18981,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476055424"/>
+        <c:crossAx val="562032000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19531,7 +19703,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF104"/>
+  <dimension ref="A1:AF105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23882,6 +24054,41 @@
         <v>7246.1850032321172</v>
       </c>
     </row>
+    <row r="105" spans="1:11" ht="12.75">
+      <c r="A105" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B105" s="25">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C105" s="20">
+        <v>1.2514924637746279</v>
+      </c>
+      <c r="D105" s="21">
+        <v>0</v>
+      </c>
+      <c r="E105" s="22">
+        <v>0</v>
+      </c>
+      <c r="F105" s="22">
+        <v>0</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I105" s="22">
+        <v>7246.1850032321172</v>
+      </c>
+      <c r="J105" s="22">
+        <v>2352.4309798958438</v>
+      </c>
+      <c r="K105" s="21">
+        <v>7246.1850032321172</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -23898,7 +24105,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH104"/>
+  <dimension ref="A1:AH105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23940,10 +24147,10 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>2</v>
@@ -23973,16 +24180,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -24007,7 +24214,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -24089,7 +24296,7 @@
         <v>17</v>
       </c>
       <c r="X4" s="32" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="Z4" s="6">
         <v>43098</v>
@@ -29467,6 +29674,53 @@
       </c>
       <c r="O104" s="27">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="12.75">
+      <c r="A105" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B105" s="25">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C105" s="20">
+        <v>1.2514924637746279</v>
+      </c>
+      <c r="D105" s="21">
+        <v>-1780.1868289688459</v>
+      </c>
+      <c r="E105" s="22">
+        <v>-741.74448259607482</v>
+      </c>
+      <c r="F105" s="22">
+        <v>583.20812690833793</v>
+      </c>
+      <c r="G105" s="22">
+        <v>1399.6995601990723</v>
+      </c>
+      <c r="H105" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I105" s="22">
+        <v>11582.415518357186</v>
+      </c>
+      <c r="J105" s="22">
+        <v>5529.8230682815392</v>
+      </c>
+      <c r="K105" s="21">
+        <v>10182.715958158113</v>
+      </c>
+      <c r="L105" s="26">
+        <v>0.19919365471736608</v>
+      </c>
+      <c r="M105" s="27">
+        <v>0.28123519843401096</v>
+      </c>
+      <c r="N105" s="27">
+        <v>70.828138094565318</v>
+      </c>
+      <c r="O105" s="27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -29487,7 +29741,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH104"/>
+  <dimension ref="A1:AH105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29529,13 +29783,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -29562,19 +29816,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -29599,7 +29853,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -35319,6 +35573,56 @@
         <v>94.401190236399628</v>
       </c>
       <c r="P104" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="12.75">
+      <c r="A105" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B105" s="25">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C105" s="20">
+        <v>1.2514924637746279</v>
+      </c>
+      <c r="D105" s="21">
+        <v>0</v>
+      </c>
+      <c r="E105" s="22">
+        <v>0</v>
+      </c>
+      <c r="F105" s="22">
+        <v>0</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I105" s="22">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="J105" s="22">
+        <v>2256.7315129624458</v>
+      </c>
+      <c r="K105" s="21">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="L105" s="26">
+        <v>71.942453334905125</v>
+      </c>
+      <c r="M105" s="27">
+        <v>77.406016487501361</v>
+      </c>
+      <c r="N105" s="27">
+        <v>74.472740147500062</v>
+      </c>
+      <c r="O105" s="27">
+        <v>83.272569167503974</v>
+      </c>
+      <c r="P105" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -35340,7 +35644,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH104"/>
+  <dimension ref="A1:AH105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35387,19 +35691,19 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -35423,7 +35727,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="O1" s="12"/>
     </row>
@@ -35453,7 +35757,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -40309,6 +40613,47 @@
         <v>901.75787582245493</v>
       </c>
       <c r="M104" s="21">
+        <v>3181.8326442193757</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="12.75">
+      <c r="A105" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B105" s="25">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C105" s="20">
+        <v>1.2514924637746279</v>
+      </c>
+      <c r="D105" s="20">
+        <v>3159410</v>
+      </c>
+      <c r="E105" s="20">
+        <v>1875856.8129367707</v>
+      </c>
+      <c r="F105" s="21">
+        <v>0</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22">
+        <v>0</v>
+      </c>
+      <c r="I105" s="22">
+        <v>0</v>
+      </c>
+      <c r="J105" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K105" s="22">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="L105" s="22">
+        <v>901.75787582245493</v>
+      </c>
+      <c r="M105" s="21">
         <v>3181.8326442193757</v>
       </c>
     </row>
@@ -40330,7 +40675,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF104"/>
+  <dimension ref="A1:AF105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -40378,7 +40723,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -40428,7 +40773,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -44678,6 +45023,41 @@
         <v>461.2250703448251</v>
       </c>
       <c r="K104" s="21">
+        <v>1243.9035388429725</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="12.75">
+      <c r="A105" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B105" s="25">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C105" s="20">
+        <v>1.2514924637746279</v>
+      </c>
+      <c r="D105" s="21">
+        <v>0</v>
+      </c>
+      <c r="E105" s="22">
+        <v>0</v>
+      </c>
+      <c r="F105" s="22">
+        <v>0</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I105" s="22">
+        <v>1243.9035388429725</v>
+      </c>
+      <c r="J105" s="22">
+        <v>461.2250703448251</v>
+      </c>
+      <c r="K105" s="21">
         <v>1243.9035388429725</v>
       </c>
     </row>
@@ -44699,7 +45079,7 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH104"/>
+  <dimension ref="A1:AH105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -44741,13 +45121,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -44774,16 +45154,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -44808,7 +45188,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -44890,7 +45270,7 @@
         <v>17</v>
       </c>
       <c r="X4" s="32" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="Z4" s="6">
         <v>43098</v>
@@ -50268,6 +50648,53 @@
       </c>
       <c r="O104" s="27">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="12.75">
+      <c r="A105" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B105" s="25">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C105" s="21">
+        <v>1.2514924637746279</v>
+      </c>
+      <c r="D105" s="21">
+        <v>0</v>
+      </c>
+      <c r="E105" s="22">
+        <v>0</v>
+      </c>
+      <c r="F105" s="22">
+        <v>0</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I105" s="22">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="J105" s="22">
+        <v>856.23588587251561</v>
+      </c>
+      <c r="K105" s="21">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="L105" s="26">
+        <v>0.19919365471736608</v>
+      </c>
+      <c r="M105" s="27">
+        <v>0.28123519843401096</v>
+      </c>
+      <c r="N105" s="27">
+        <v>70.828138094565318</v>
+      </c>
+      <c r="O105" s="27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -50288,7 +50715,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH104"/>
+  <dimension ref="A1:AH105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -50330,13 +50757,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -50363,19 +50790,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -50400,7 +50827,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -56119,6 +56546,56 @@
         <v>94.401190236399628</v>
       </c>
       <c r="P104" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="12.75">
+      <c r="A105" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B105" s="25">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C105" s="20">
+        <v>1.2514924637746279</v>
+      </c>
+      <c r="D105" s="21">
+        <v>0</v>
+      </c>
+      <c r="E105" s="22">
+        <v>0</v>
+      </c>
+      <c r="F105" s="22">
+        <v>0</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I105" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J105" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K105" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L105" s="26">
+        <v>71.942453334905125</v>
+      </c>
+      <c r="M105" s="27">
+        <v>77.406016487501361</v>
+      </c>
+      <c r="N105" s="27">
+        <v>74.472740147500062</v>
+      </c>
+      <c r="O105" s="27">
+        <v>83.272569167503974</v>
+      </c>
+      <c r="P105" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -56140,7 +56617,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH104"/>
+  <dimension ref="A1:AH105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -56193,13 +56670,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -56253,7 +56730,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -61109,6 +61586,47 @@
         <v>212.99681655802686</v>
       </c>
       <c r="M104" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="12.75">
+      <c r="A105" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B105" s="25">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C105" s="20">
+        <v>1.2514924637746279</v>
+      </c>
+      <c r="D105" s="20">
+        <v>3159410</v>
+      </c>
+      <c r="E105" s="20">
+        <v>1875856.8129367707</v>
+      </c>
+      <c r="F105" s="21">
+        <v>0</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22">
+        <v>0</v>
+      </c>
+      <c r="I105" s="22">
+        <v>0</v>
+      </c>
+      <c r="J105" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K105" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L105" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M105" s="21">
         <v>579.4237932103814</v>
       </c>
     </row>

--- a/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="35">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,15 +145,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>均线</t>
+    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>人工智能产业LOF</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>人工智能产业LOF</t>
+    <t>均线</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -173,16 +173,8 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>年化收益率</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>单位：元</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>RSV</t>
@@ -201,19 +193,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工智能产业LOF</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>均线</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工智能产业LOF</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -223,10 +203,6 @@
   <si>
     <t>成交均量</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收资金</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -915,7 +891,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1221,6 +1197,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1230,7 +1209,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1535,6 +1514,9 @@
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>4893.7540233362733</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1578,7 +1560,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1884,6 +1866,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1893,7 +1878,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2198,6 +2183,9 @@
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>7246.1850032321172</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
               </c:numCache>
@@ -2241,7 +2229,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2547,6 +2535,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2556,7 +2547,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2861,6 +2852,9 @@
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>2352.4309798958438</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
               </c:numCache>
@@ -2883,11 +2877,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="653924608"/>
-        <c:axId val="653942784"/>
+        <c:axId val="485732736"/>
+        <c:axId val="485735424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="653924608"/>
+        <c:axId val="485732736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2930,14 +2924,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="653942784"/>
+        <c:crossAx val="485735424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="653942784"/>
+        <c:axId val="485735424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2986,7 +2980,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="653924608"/>
+        <c:crossAx val="485732736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3200,7 +3194,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3506,6 +3500,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3515,7 +3512,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3820,6 +3817,9 @@
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>6052.5924500756464</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
@@ -3863,7 +3863,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4169,6 +4169,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4178,7 +4181,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4484,6 +4487,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>11582.415518357186</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>11543.923790880284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4526,7 +4532,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4832,6 +4838,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4841,7 +4850,7 @@
               <c:f>'模型二 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5147,6 +5156,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>5529.8230682815392</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5491.3313408046379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5168,11 +5180,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="539447680"/>
-        <c:axId val="539449216"/>
+        <c:axId val="543638656"/>
+        <c:axId val="543714304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="539447680"/>
+        <c:axId val="543638656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5215,14 +5227,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539449216"/>
+        <c:crossAx val="543714304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="539449216"/>
+        <c:axId val="543714304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5271,7 +5283,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539447680"/>
+        <c:crossAx val="543638656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5485,7 +5497,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5791,6 +5803,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5800,7 +5815,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6105,6 +6120,9 @@
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>4478.5830960357953</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
@@ -6148,7 +6166,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6454,6 +6472,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6463,7 +6484,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6768,6 +6789,9 @@
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>6735.3146089982411</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
               </c:numCache>
@@ -6811,7 +6835,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7117,6 +7141,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7126,7 +7153,7 @@
               <c:f>'模型二 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7431,6 +7458,9 @@
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>2256.7315129624458</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
               </c:numCache>
@@ -7453,11 +7483,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="539469312"/>
-        <c:axId val="539470848"/>
+        <c:axId val="482658560"/>
+        <c:axId val="484679680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="539469312"/>
+        <c:axId val="482658560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7500,14 +7530,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539470848"/>
+        <c:crossAx val="484679680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="539470848"/>
+        <c:axId val="484679680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7556,7 +7586,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539469312"/>
+        <c:crossAx val="482658560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7770,7 +7800,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8076,6 +8106,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8085,7 +8118,7 @@
               <c:f>'模型二 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8390,6 +8423,9 @@
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>2280.0747683969207</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
@@ -8433,7 +8469,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8739,6 +8775,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8748,7 +8787,7 @@
               <c:f>'模型二 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9053,6 +9092,9 @@
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>3181.8326442193757</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
               </c:numCache>
@@ -9096,7 +9138,7 @@
               <c:f>'模型二 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9402,6 +9444,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9411,7 +9456,7 @@
               <c:f>'模型二 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9716,6 +9761,9 @@
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>901.75787582245493</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
               </c:numCache>
@@ -9738,11 +9786,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="541338240"/>
-        <c:axId val="541344128"/>
+        <c:axId val="484703616"/>
+        <c:axId val="484709504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="541338240"/>
+        <c:axId val="484703616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9785,14 +9833,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541344128"/>
+        <c:crossAx val="484709504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="541344128"/>
+        <c:axId val="484709504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9841,7 +9889,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541338240"/>
+        <c:crossAx val="484703616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10055,7 +10103,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10361,6 +10409,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10370,7 +10421,7 @@
               <c:f>'模型二 (2)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10675,6 +10726,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -10718,7 +10772,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11024,6 +11078,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11033,7 +11090,7 @@
               <c:f>'模型二 (2)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11338,6 +11395,9 @@
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>1243.9035388429725</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
               </c:numCache>
@@ -11381,7 +11441,7 @@
               <c:f>'模型二 (2)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11687,6 +11747,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11696,7 +11759,7 @@
               <c:f>'模型二 (2)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12001,6 +12064,9 @@
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>461.2250703448251</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
               </c:numCache>
@@ -12023,11 +12089,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="541368320"/>
-        <c:axId val="541369856"/>
+        <c:axId val="485004032"/>
+        <c:axId val="485005568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="541368320"/>
+        <c:axId val="485004032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12070,14 +12136,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541369856"/>
+        <c:crossAx val="485005568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="541369856"/>
+        <c:axId val="485005568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12126,7 +12192,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541368320"/>
+        <c:crossAx val="485004032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12340,7 +12406,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12646,6 +12712,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12655,7 +12724,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12960,6 +13029,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -13003,7 +13075,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13309,6 +13381,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13318,7 +13393,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13623,6 +13698,9 @@
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>1938.211964032281</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
               </c:numCache>
@@ -13666,7 +13744,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13972,6 +14050,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13981,7 +14062,7 @@
               <c:f>'模型二 (2)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14286,6 +14367,9 @@
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>856.23588587251561</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
               </c:numCache>
@@ -14308,11 +14392,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="545703040"/>
-        <c:axId val="545704576"/>
+        <c:axId val="485697408"/>
+        <c:axId val="485698944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="545703040"/>
+        <c:axId val="485697408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14355,14 +14439,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545704576"/>
+        <c:crossAx val="485698944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="545704576"/>
+        <c:axId val="485698944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14411,7 +14495,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545703040"/>
+        <c:crossAx val="485697408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14625,7 +14709,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14931,6 +15015,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14940,7 +15027,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15245,6 +15332,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -15288,7 +15378,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15594,6 +15684,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15603,7 +15696,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15908,6 +16001,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -15951,7 +16047,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16257,6 +16353,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16266,7 +16365,7 @@
               <c:f>'模型二 (2)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16571,6 +16670,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -16593,11 +16695,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="561600768"/>
-        <c:axId val="561913856"/>
+        <c:axId val="486308864"/>
+        <c:axId val="486314752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="561600768"/>
+        <c:axId val="486308864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16640,14 +16742,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561913856"/>
+        <c:crossAx val="486314752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="561913856"/>
+        <c:axId val="486314752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16696,7 +16798,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561600768"/>
+        <c:crossAx val="486308864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16910,7 +17012,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17216,6 +17318,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17225,7 +17330,7 @@
               <c:f>'模型二 (2)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17530,6 +17635,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -17573,7 +17681,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17879,6 +17987,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17888,7 +17999,7 @@
               <c:f>'模型二 (2)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -18193,6 +18304,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -18236,7 +18350,7 @@
               <c:f>'模型二 (2)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -18542,6 +18656,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18551,7 +18668,7 @@
               <c:f>'模型二 (2)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -18856,6 +18973,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -18878,11 +18998,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="562032000"/>
-        <c:axId val="562500736"/>
+        <c:axId val="491659648"/>
+        <c:axId val="491661184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="562032000"/>
+        <c:axId val="491659648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18925,14 +19045,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562500736"/>
+        <c:crossAx val="491661184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="562500736"/>
+        <c:axId val="491661184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18981,7 +19101,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562032000"/>
+        <c:crossAx val="491659648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19703,7 +19823,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF105"/>
+  <dimension ref="A1:AF106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24089,6 +24209,41 @@
         <v>7246.1850032321172</v>
       </c>
     </row>
+    <row r="106" spans="1:11" ht="12.75">
+      <c r="A106" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B106" s="25">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C106" s="20">
+        <v>1.2602598832481278</v>
+      </c>
+      <c r="D106" s="21">
+        <v>0</v>
+      </c>
+      <c r="E106" s="22">
+        <v>0</v>
+      </c>
+      <c r="F106" s="22">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I106" s="22">
+        <v>7246.1850032321172</v>
+      </c>
+      <c r="J106" s="22">
+        <v>2352.4309798958438</v>
+      </c>
+      <c r="K106" s="21">
+        <v>7246.1850032321172</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -24105,7 +24260,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH105"/>
+  <dimension ref="A1:AH106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24147,13 +24302,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -24214,7 +24369,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -24296,7 +24451,7 @@
         <v>17</v>
       </c>
       <c r="X4" s="32" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="Z4" s="6">
         <v>43098</v>
@@ -29721,6 +29876,53 @@
       </c>
       <c r="O105" s="27">
         <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="12.75">
+      <c r="A106" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B106" s="25">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C106" s="20">
+        <v>1.2602598832481278</v>
+      </c>
+      <c r="D106" s="21">
+        <v>-332.85947048720885</v>
+      </c>
+      <c r="E106" s="22">
+        <v>-142.61330536008478</v>
+      </c>
+      <c r="F106" s="22">
+        <v>440.59482154825315</v>
+      </c>
+      <c r="G106" s="22">
+        <v>1028.3483622349629</v>
+      </c>
+      <c r="H106" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I106" s="22">
+        <v>11543.923790880284</v>
+      </c>
+      <c r="J106" s="22">
+        <v>5491.3313408046379</v>
+      </c>
+      <c r="K106" s="21">
+        <v>10515.575428645321</v>
+      </c>
+      <c r="L106" s="26">
+        <v>0.16599471226447174</v>
+      </c>
+      <c r="M106" s="27">
+        <v>0.24536266281854427</v>
+      </c>
+      <c r="N106" s="27">
+        <v>67.652800290658575</v>
+      </c>
+      <c r="O106" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -29741,7 +29943,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH105"/>
+  <dimension ref="A1:AH106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29783,13 +29985,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -29816,16 +30018,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="P1" s="14" t="s">
         <v>26</v>
@@ -29853,7 +30055,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -35623,6 +35825,56 @@
         <v>83.272569167503974</v>
       </c>
       <c r="P105" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="12.75">
+      <c r="A106" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B106" s="25">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C106" s="20">
+        <v>1.2602598832481278</v>
+      </c>
+      <c r="D106" s="21">
+        <v>0</v>
+      </c>
+      <c r="E106" s="22">
+        <v>0</v>
+      </c>
+      <c r="F106" s="22">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I106" s="22">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="J106" s="22">
+        <v>2256.7315129624458</v>
+      </c>
+      <c r="K106" s="21">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="L106" s="26">
+        <v>67.625907694121295</v>
+      </c>
+      <c r="M106" s="27">
+        <v>74.145980223041349</v>
+      </c>
+      <c r="N106" s="27">
+        <v>74.363820172680491</v>
+      </c>
+      <c r="O106" s="27">
+        <v>73.71030032376305</v>
+      </c>
+      <c r="P106" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -35644,7 +35896,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH105"/>
+  <dimension ref="A1:AH106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35691,19 +35943,19 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -35727,7 +35979,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="O1" s="12"/>
     </row>
@@ -35757,7 +36009,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -40654,6 +40906,47 @@
         <v>901.75787582245493</v>
       </c>
       <c r="M105" s="21">
+        <v>3181.8326442193757</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="12.75">
+      <c r="A106" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B106" s="25">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C106" s="20">
+        <v>1.2602598832481278</v>
+      </c>
+      <c r="D106" s="20">
+        <v>3566154</v>
+      </c>
+      <c r="E106" s="20">
+        <v>1890263.9004151097</v>
+      </c>
+      <c r="F106" s="21">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22">
+        <v>0</v>
+      </c>
+      <c r="I106" s="22">
+        <v>0</v>
+      </c>
+      <c r="J106" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K106" s="22">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="L106" s="22">
+        <v>901.75787582245493</v>
+      </c>
+      <c r="M106" s="21">
         <v>3181.8326442193757</v>
       </c>
     </row>
@@ -40675,7 +40968,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF105"/>
+  <dimension ref="A1:AF106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -40717,13 +41010,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -40773,7 +41066,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -45058,6 +45351,41 @@
         <v>461.2250703448251</v>
       </c>
       <c r="K105" s="21">
+        <v>1243.9035388429725</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="12.75">
+      <c r="A106" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B106" s="25">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C106" s="20">
+        <v>1.2602598832481278</v>
+      </c>
+      <c r="D106" s="21">
+        <v>0</v>
+      </c>
+      <c r="E106" s="22">
+        <v>0</v>
+      </c>
+      <c r="F106" s="22">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I106" s="22">
+        <v>1243.9035388429725</v>
+      </c>
+      <c r="J106" s="22">
+        <v>461.2250703448251</v>
+      </c>
+      <c r="K106" s="21">
         <v>1243.9035388429725</v>
       </c>
     </row>
@@ -45079,7 +45407,7 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH105"/>
+  <dimension ref="A1:AH106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -45121,10 +45449,10 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>2</v>
@@ -45188,7 +45516,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -45270,7 +45598,7 @@
         <v>17</v>
       </c>
       <c r="X4" s="32" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="Z4" s="6">
         <v>43098</v>
@@ -50695,6 +51023,53 @@
       </c>
       <c r="O105" s="27">
         <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="12.75">
+      <c r="A106" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B106" s="25">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C106" s="21">
+        <v>1.2602598832481278</v>
+      </c>
+      <c r="D106" s="21">
+        <v>0</v>
+      </c>
+      <c r="E106" s="22">
+        <v>0</v>
+      </c>
+      <c r="F106" s="22">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I106" s="22">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="J106" s="22">
+        <v>856.23588587251561</v>
+      </c>
+      <c r="K106" s="21">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="L106" s="26">
+        <v>0.16599471226447174</v>
+      </c>
+      <c r="M106" s="27">
+        <v>0.24536266281854427</v>
+      </c>
+      <c r="N106" s="27">
+        <v>67.652800290658575</v>
+      </c>
+      <c r="O106" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -50715,7 +51090,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH105"/>
+  <dimension ref="A1:AH106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -50757,13 +51132,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -50790,16 +51165,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="P1" s="14" t="s">
         <v>26</v>
@@ -50827,7 +51202,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -56596,6 +56971,56 @@
         <v>83.272569167503974</v>
       </c>
       <c r="P105" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="12.75">
+      <c r="A106" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B106" s="25">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C106" s="20">
+        <v>1.2602598832481278</v>
+      </c>
+      <c r="D106" s="21">
+        <v>0</v>
+      </c>
+      <c r="E106" s="22">
+        <v>0</v>
+      </c>
+      <c r="F106" s="22">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I106" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J106" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K106" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L106" s="26">
+        <v>67.625907694121295</v>
+      </c>
+      <c r="M106" s="27">
+        <v>74.145980223041349</v>
+      </c>
+      <c r="N106" s="27">
+        <v>74.363820172680491</v>
+      </c>
+      <c r="O106" s="27">
+        <v>73.71030032376305</v>
+      </c>
+      <c r="P106" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -56617,7 +57042,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH105"/>
+  <dimension ref="A1:AH106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -56670,13 +57095,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -56730,7 +57155,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -61627,6 +62052,47 @@
         <v>212.99681655802686</v>
       </c>
       <c r="M105" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="12.75">
+      <c r="A106" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B106" s="25">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C106" s="20">
+        <v>1.2602598832481278</v>
+      </c>
+      <c r="D106" s="20">
+        <v>3566154</v>
+      </c>
+      <c r="E106" s="20">
+        <v>1890263.9004151097</v>
+      </c>
+      <c r="F106" s="21">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22">
+        <v>0</v>
+      </c>
+      <c r="I106" s="22">
+        <v>0</v>
+      </c>
+      <c r="J106" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K106" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L106" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M106" s="21">
         <v>579.4237932103814</v>
       </c>
     </row>
